--- a/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
+++ b/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CD538E-03BF-498C-9245-463D291DF73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B752C4B-123F-4FED-9865-C4993A536BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="4890" windowWidth="24225" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="2595" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="W19_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
+    <sheet name="TH59_西赤山駅_UIList" sheetId="1" r:id="rId1"/>
     <sheet name="入力規則" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -117,7 +117,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>操作可能判定に用いる鍵名称</t>
         </r>
       </text>
     </comment>
@@ -130,11 +130,24 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -391,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Type</t>
   </si>
@@ -428,6 +441,9 @@
   </si>
   <si>
     <t>PointValue</t>
+  </si>
+  <si>
+    <t>KeyName</t>
   </si>
   <si>
     <t>X</t>
@@ -562,14 +578,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Yu Gothic&quot;"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Yu Gothic&quot;"/>
     </font>
     <font>
       <sz val="10"/>
@@ -632,18 +647,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -655,22 +683,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -688,7 +704,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -909,7 +925,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE200"/>
+  <dimension ref="A1:AF200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -922,14 +938,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="37.5703125" customWidth="1"/>
-    <col min="22" max="22" width="100.140625" customWidth="1"/>
-    <col min="23" max="23" width="62.5703125" customWidth="1"/>
-    <col min="24" max="31" width="14.7109375" customWidth="1"/>
+    <col min="3" max="21" width="15.140625" customWidth="1"/>
+    <col min="22" max="22" width="37.5703125" customWidth="1"/>
+    <col min="23" max="23" width="100.140625" customWidth="1"/>
+    <col min="24" max="24" width="62.5703125" customWidth="1"/>
+    <col min="25" max="32" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,13 +1009,15 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -1007,25 +1025,26 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" s="3"/>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1038,172 +1057,176 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="5" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6">
         <v>1035</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="6">
         <v>78</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="6">
         <v>79</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="6">
         <v>110</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+    </row>
+    <row r="4" spans="1:32" ht="25.5">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-    </row>
-    <row r="4" spans="1:31" ht="25.5">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="6">
         <v>37</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="6">
         <v>63</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="6">
         <v>63</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
       <c r="V4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="W4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5">
-        <f>G3+11</f>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6">
+        <f>H3+11</f>
         <v>1046</v>
       </c>
-      <c r="H5" s="5">
-        <f>H3-68</f>
+      <c r="I5" s="6">
+        <f>I3-68</f>
         <v>10</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="7" t="s">
-        <v>34</v>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8" t="s">
+        <v>35</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1212,31 +1235,32 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="8"/>
+      <c r="R6" s="4"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="W6" s="12"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1245,31 +1269,32 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="8"/>
+      <c r="R7" s="4"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="11"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="W7" s="12"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1278,31 +1303,32 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="8"/>
+      <c r="R8" s="4"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="W8" s="12"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1311,31 +1337,32 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="8"/>
+      <c r="R9" s="4"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="11"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="W9" s="12"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1344,31 +1371,32 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="8"/>
+      <c r="R10" s="4"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
+      <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="W10" s="12"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1377,31 +1405,32 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="8"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="W11" s="12"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1410,31 +1439,32 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="8"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="W12" s="12"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1443,31 +1473,32 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="8"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="11"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="W13" s="12"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1476,31 +1507,32 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="W14" s="12"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="4"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1509,31 +1541,32 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="W15" s="12"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1542,31 +1575,32 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="8"/>
+      <c r="R16" s="4"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="W16" s="12"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1575,31 +1609,32 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="8"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
+      <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="W17" s="12"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1608,31 +1643,32 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="8"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
+      <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="W18" s="12"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1641,31 +1677,32 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="8"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="W19" s="12"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="4"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1674,31 +1711,32 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="8"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="W20" s="12"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1707,31 +1745,32 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="8"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
+      <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="W21" s="12"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1740,31 +1779,32 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="8"/>
+      <c r="R22" s="4"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
+      <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="W22" s="12"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="4"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1773,31 +1813,32 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="W23" s="12"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="4"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1806,31 +1847,32 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="W24" s="12"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="4"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1839,31 +1881,32 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="4"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="W25" s="12"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="4"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -1872,31 +1915,32 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="8"/>
+      <c r="R26" s="4"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+      <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="W26" s="12"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="4"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1906,30 +1950,31 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="W27" s="12"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="4"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -1939,30 +1984,31 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="W28" s="12"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="4"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -1971,31 +2017,32 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="8"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="W29" s="12"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="4"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2005,30 +2052,31 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="W30" s="12"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="4"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2038,30 +2086,31 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="W31" s="12"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="4"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2070,31 +2119,32 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="8"/>
+      <c r="R32" s="4"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
+      <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="W32" s="12"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="4"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -2104,30 +2154,31 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="11"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="W33" s="12"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="4"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -2137,30 +2188,31 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="11"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="W34" s="12"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="4"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2169,31 +2221,32 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="8"/>
+      <c r="R35" s="4"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
+      <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="11"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="W35" s="12"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="4"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2203,30 +2256,31 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="11"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="W36" s="12"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="4"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -2236,30 +2290,31 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="11"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="W37" s="12"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" s="4"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2268,31 +2323,32 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="8"/>
+      <c r="R38" s="4"/>
       <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
+      <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="11"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="W38" s="12"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" s="4"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -2302,30 +2358,31 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="11"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="W39" s="12"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" s="4"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -2335,30 +2392,31 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="11"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="W40" s="12"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" s="4"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2367,31 +2425,32 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="8"/>
+      <c r="R41" s="4"/>
       <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
+      <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="11"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="W41" s="12"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="4"/>
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -2401,30 +2460,31 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="11"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="W42" s="12"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" s="4"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2434,30 +2494,31 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="W43" s="12"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" s="4"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2466,31 +2527,32 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="8"/>
+      <c r="R44" s="4"/>
       <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
+      <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="11"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="W44" s="12"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" s="4"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -2500,30 +2562,31 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="W45" s="12"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" s="4"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2532,31 +2595,32 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="8"/>
+      <c r="R46" s="4"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
+      <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="W46" s="12"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" s="4"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -2566,30 +2630,31 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="11"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="W47" s="12"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" s="4"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2599,30 +2664,31 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="11"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="W48" s="12"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="4"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2632,30 +2698,31 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="W49" s="12"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="4"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2665,30 +2732,31 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="11"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="W50" s="12"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" s="4"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2698,30 +2766,31 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="11"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="W51" s="12"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" s="4"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2731,30 +2800,31 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="W52" s="12"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" s="4"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2764,30 +2834,31 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="11"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="W53" s="12"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" s="4"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -2797,30 +2868,31 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="11"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="W54" s="12"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" s="4"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -2830,30 +2902,31 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="W55" s="12"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" s="4"/>
-      <c r="B56" s="12"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2863,30 +2936,31 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="W56" s="12"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" s="4"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -2896,30 +2970,31 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="11"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="W57" s="12"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="4"/>
-      <c r="B58" s="12"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -2929,30 +3004,31 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="W58" s="12"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="4"/>
-      <c r="B59" s="8"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -2962,30 +3038,31 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="11"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="W59" s="12"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="4"/>
-      <c r="B60" s="8"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -2995,30 +3072,31 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="11"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="W60" s="12"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="4"/>
-      <c r="B61" s="8"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -3028,30 +3106,31 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="11"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="W61" s="12"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="4"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -3061,30 +3140,31 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="10"/>
       <c r="U62" s="10"/>
       <c r="V62" s="11"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="W62" s="12"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="4"/>
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -3094,30 +3174,31 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="10"/>
       <c r="U63" s="10"/>
       <c r="V63" s="11"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="W63" s="12"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="4"/>
-      <c r="B64" s="8"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -3127,30 +3208,31 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="10"/>
       <c r="U64" s="10"/>
       <c r="V64" s="11"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="W64" s="12"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" s="4"/>
-      <c r="B65" s="8"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -3160,30 +3242,31 @@
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="10"/>
       <c r="U65" s="10"/>
       <c r="V65" s="11"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="W65" s="12"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" s="4"/>
-      <c r="B66" s="8"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -3193,30 +3276,31 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="10"/>
       <c r="U66" s="10"/>
       <c r="V66" s="11"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="W66" s="12"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" s="4"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -3226,30 +3310,31 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="10"/>
       <c r="U67" s="10"/>
       <c r="V67" s="11"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="W67" s="12"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" s="4"/>
-      <c r="B68" s="8"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -3259,30 +3344,31 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="10"/>
       <c r="U68" s="10"/>
       <c r="V68" s="11"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="W68" s="12"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" s="4"/>
-      <c r="B69" s="8"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -3292,30 +3378,31 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="10"/>
       <c r="U69" s="10"/>
       <c r="V69" s="11"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="W69" s="12"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" s="4"/>
-      <c r="B70" s="8"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -3325,30 +3412,31 @@
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="10"/>
       <c r="U70" s="10"/>
       <c r="V70" s="11"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="W70" s="12"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" s="4"/>
-      <c r="B71" s="8"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -3358,30 +3446,31 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="10"/>
       <c r="U71" s="10"/>
       <c r="V71" s="11"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="W71" s="12"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" s="4"/>
-      <c r="B72" s="8"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -3391,30 +3480,31 @@
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="10"/>
       <c r="U72" s="10"/>
       <c r="V72" s="11"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="W72" s="12"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" s="4"/>
-      <c r="B73" s="8"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -3424,30 +3514,31 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="10"/>
       <c r="U73" s="10"/>
       <c r="V73" s="11"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="W73" s="12"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" s="4"/>
-      <c r="B74" s="8"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -3457,30 +3548,31 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="10"/>
       <c r="U74" s="10"/>
       <c r="V74" s="11"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="W74" s="12"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" s="4"/>
-      <c r="B75" s="8"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -3490,30 +3582,31 @@
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="10"/>
       <c r="U75" s="10"/>
       <c r="V75" s="11"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="W75" s="12"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" s="4"/>
-      <c r="B76" s="8"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -3523,30 +3616,31 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="10"/>
       <c r="U76" s="10"/>
       <c r="V76" s="11"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="W76" s="12"/>
+      <c r="X76" s="14"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" s="4"/>
-      <c r="B77" s="8"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -3556,30 +3650,31 @@
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="10"/>
       <c r="U77" s="10"/>
       <c r="V77" s="11"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="W77" s="12"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" s="4"/>
-      <c r="B78" s="8"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -3589,30 +3684,31 @@
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="10"/>
       <c r="U78" s="10"/>
       <c r="V78" s="11"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="W78" s="12"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" s="4"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -3622,30 +3718,31 @@
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="10"/>
       <c r="U79" s="10"/>
       <c r="V79" s="11"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="W79" s="12"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" s="4"/>
-      <c r="B80" s="8"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -3655,30 +3752,31 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="10"/>
       <c r="U80" s="10"/>
       <c r="V80" s="11"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="W80" s="12"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" s="4"/>
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -3688,30 +3786,31 @@
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="10"/>
       <c r="U81" s="10"/>
       <c r="V81" s="11"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-      <c r="AE81" s="3"/>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="W81" s="12"/>
+      <c r="X81" s="14"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" s="4"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -3721,30 +3820,31 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="10"/>
       <c r="U82" s="10"/>
       <c r="V82" s="11"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="W82" s="12"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" s="4"/>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -3754,30 +3854,31 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="10"/>
       <c r="U83" s="10"/>
       <c r="V83" s="11"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="W83" s="12"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" s="4"/>
-      <c r="B84" s="8"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -3787,30 +3888,31 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="10"/>
       <c r="U84" s="10"/>
       <c r="V84" s="11"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
-      <c r="AA84" s="3"/>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="3"/>
-      <c r="AD84" s="3"/>
-      <c r="AE84" s="3"/>
-    </row>
-    <row r="85" spans="1:31">
+      <c r="W84" s="12"/>
+      <c r="X84" s="14"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5"/>
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" s="4"/>
-      <c r="B85" s="8"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -3820,30 +3922,31 @@
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="10"/>
       <c r="U85" s="10"/>
       <c r="V85" s="11"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
-      <c r="AA85" s="3"/>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="3"/>
-      <c r="AD85" s="3"/>
-      <c r="AE85" s="3"/>
-    </row>
-    <row r="86" spans="1:31">
+      <c r="W85" s="12"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5"/>
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" s="4"/>
-      <c r="B86" s="8"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -3853,30 +3956,31 @@
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="10"/>
       <c r="U86" s="10"/>
       <c r="V86" s="11"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3"/>
-      <c r="AD86" s="3"/>
-      <c r="AE86" s="3"/>
-    </row>
-    <row r="87" spans="1:31">
+      <c r="W86" s="12"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5"/>
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" s="4"/>
-      <c r="B87" s="8"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -3886,30 +3990,31 @@
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="10"/>
       <c r="U87" s="10"/>
       <c r="V87" s="11"/>
-      <c r="W87" s="13"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
-    </row>
-    <row r="88" spans="1:31">
+      <c r="W87" s="12"/>
+      <c r="X87" s="14"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" s="4"/>
-      <c r="B88" s="8"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -3919,30 +4024,31 @@
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
-      <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="10"/>
       <c r="U88" s="10"/>
       <c r="V88" s="11"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-    </row>
-    <row r="89" spans="1:31">
+      <c r="W88" s="12"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" s="4"/>
-      <c r="B89" s="8"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
@@ -3952,30 +4058,31 @@
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="10"/>
       <c r="U89" s="10"/>
       <c r="V89" s="11"/>
-      <c r="W89" s="13"/>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
-      <c r="AA89" s="3"/>
-      <c r="AB89" s="3"/>
-      <c r="AC89" s="3"/>
-      <c r="AD89" s="3"/>
-      <c r="AE89" s="3"/>
-    </row>
-    <row r="90" spans="1:31">
+      <c r="W89" s="12"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5"/>
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" s="4"/>
-      <c r="B90" s="8"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -3985,30 +4092,31 @@
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="10"/>
       <c r="U90" s="10"/>
       <c r="V90" s="11"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-      <c r="AA90" s="3"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="3"/>
-      <c r="AD90" s="3"/>
-      <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="1:31">
+      <c r="W90" s="12"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" s="4"/>
-      <c r="B91" s="8"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -4018,30 +4126,31 @@
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="10"/>
       <c r="U91" s="10"/>
       <c r="V91" s="11"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-      <c r="AA91" s="3"/>
-      <c r="AB91" s="3"/>
-      <c r="AC91" s="3"/>
-      <c r="AD91" s="3"/>
-      <c r="AE91" s="3"/>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="W91" s="12"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" s="4"/>
-      <c r="B92" s="8"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -4051,30 +4160,31 @@
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="10"/>
       <c r="U92" s="10"/>
       <c r="V92" s="11"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
-      <c r="AA92" s="3"/>
-      <c r="AB92" s="3"/>
-      <c r="AC92" s="3"/>
-      <c r="AD92" s="3"/>
-      <c r="AE92" s="3"/>
-    </row>
-    <row r="93" spans="1:31">
+      <c r="W92" s="12"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5"/>
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" s="4"/>
-      <c r="B93" s="8"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -4084,30 +4194,31 @@
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="10"/>
       <c r="U93" s="10"/>
       <c r="V93" s="11"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-      <c r="AA93" s="3"/>
-      <c r="AB93" s="3"/>
-      <c r="AC93" s="3"/>
-      <c r="AD93" s="3"/>
-      <c r="AE93" s="3"/>
-    </row>
-    <row r="94" spans="1:31">
+      <c r="W93" s="12"/>
+      <c r="X93" s="14"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" s="4"/>
-      <c r="B94" s="8"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -4117,30 +4228,31 @@
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="10"/>
       <c r="U94" s="10"/>
       <c r="V94" s="11"/>
-      <c r="W94" s="13"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-      <c r="AA94" s="3"/>
-      <c r="AB94" s="3"/>
-      <c r="AC94" s="3"/>
-      <c r="AD94" s="3"/>
-      <c r="AE94" s="3"/>
-    </row>
-    <row r="95" spans="1:31">
+      <c r="W94" s="12"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" s="4"/>
-      <c r="B95" s="8"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -4150,30 +4262,31 @@
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="10"/>
       <c r="U95" s="10"/>
       <c r="V95" s="11"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-      <c r="AA95" s="3"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="3"/>
-      <c r="AD95" s="3"/>
-      <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="1:31">
+      <c r="W95" s="12"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" s="4"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -4183,30 +4296,31 @@
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="10"/>
       <c r="U96" s="10"/>
       <c r="V96" s="11"/>
-      <c r="W96" s="13"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="3"/>
-      <c r="AD96" s="3"/>
-      <c r="AE96" s="3"/>
-    </row>
-    <row r="97" spans="1:31">
+      <c r="W96" s="12"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" s="4"/>
-      <c r="B97" s="8"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -4216,30 +4330,31 @@
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="10"/>
       <c r="U97" s="10"/>
       <c r="V97" s="11"/>
-      <c r="W97" s="13"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-      <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="3"/>
-      <c r="AD97" s="3"/>
-      <c r="AE97" s="3"/>
-    </row>
-    <row r="98" spans="1:31">
+      <c r="W97" s="12"/>
+      <c r="X97" s="14"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5"/>
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" s="4"/>
-      <c r="B98" s="8"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -4249,30 +4364,31 @@
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="10"/>
       <c r="U98" s="10"/>
       <c r="V98" s="11"/>
-      <c r="W98" s="13"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="3"/>
-      <c r="AD98" s="3"/>
-      <c r="AE98" s="3"/>
-    </row>
-    <row r="99" spans="1:31">
+      <c r="W98" s="12"/>
+      <c r="X98" s="14"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" s="4"/>
-      <c r="B99" s="8"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -4282,30 +4398,31 @@
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="10"/>
       <c r="U99" s="10"/>
       <c r="V99" s="11"/>
-      <c r="W99" s="13"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
-      <c r="AD99" s="3"/>
-      <c r="AE99" s="3"/>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="W99" s="12"/>
+      <c r="X99" s="14"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" s="4"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -4315,30 +4432,31 @@
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
-      <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="10"/>
       <c r="U100" s="10"/>
       <c r="V100" s="11"/>
-      <c r="W100" s="13"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="3"/>
-      <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
-    </row>
-    <row r="101" spans="1:31">
+      <c r="W100" s="12"/>
+      <c r="X100" s="14"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5"/>
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" s="4"/>
-      <c r="B101" s="8"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -4348,30 +4466,31 @@
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="10"/>
       <c r="U101" s="10"/>
       <c r="V101" s="11"/>
-      <c r="W101" s="13"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="3"/>
-      <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
-    </row>
-    <row r="102" spans="1:31">
+      <c r="W101" s="12"/>
+      <c r="X101" s="14"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" s="4"/>
-      <c r="B102" s="8"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -4381,30 +4500,31 @@
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="10"/>
       <c r="U102" s="10"/>
       <c r="V102" s="11"/>
-      <c r="W102" s="13"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="3"/>
-      <c r="AD102" s="3"/>
-      <c r="AE102" s="3"/>
-    </row>
-    <row r="103" spans="1:31">
+      <c r="W102" s="12"/>
+      <c r="X102" s="14"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+    </row>
+    <row r="103" spans="1:32">
       <c r="A103" s="4"/>
-      <c r="B103" s="8"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -4414,30 +4534,31 @@
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="10"/>
       <c r="U103" s="10"/>
       <c r="V103" s="11"/>
-      <c r="W103" s="13"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-      <c r="AA103" s="3"/>
-      <c r="AB103" s="3"/>
-      <c r="AC103" s="3"/>
-      <c r="AD103" s="3"/>
-      <c r="AE103" s="3"/>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="W103" s="12"/>
+      <c r="X103" s="14"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" s="4"/>
-      <c r="B104" s="8"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -4447,30 +4568,31 @@
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="10"/>
       <c r="U104" s="10"/>
       <c r="V104" s="11"/>
-      <c r="W104" s="13"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-      <c r="AA104" s="3"/>
-      <c r="AB104" s="3"/>
-      <c r="AC104" s="3"/>
-      <c r="AD104" s="3"/>
-      <c r="AE104" s="3"/>
-    </row>
-    <row r="105" spans="1:31">
+      <c r="W104" s="12"/>
+      <c r="X104" s="14"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" s="4"/>
-      <c r="B105" s="8"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -4480,30 +4602,31 @@
       <c r="P105" s="4"/>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="10"/>
       <c r="U105" s="10"/>
       <c r="V105" s="11"/>
-      <c r="W105" s="13"/>
-      <c r="X105" s="3"/>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
-      <c r="AA105" s="3"/>
-      <c r="AB105" s="3"/>
-      <c r="AC105" s="3"/>
-      <c r="AD105" s="3"/>
-      <c r="AE105" s="3"/>
-    </row>
-    <row r="106" spans="1:31">
+      <c r="W105" s="12"/>
+      <c r="X105" s="14"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" s="4"/>
-      <c r="B106" s="8"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -4513,30 +4636,31 @@
       <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="10"/>
       <c r="U106" s="10"/>
       <c r="V106" s="11"/>
-      <c r="W106" s="13"/>
-      <c r="X106" s="3"/>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
-      <c r="AA106" s="3"/>
-      <c r="AB106" s="3"/>
-      <c r="AC106" s="3"/>
-      <c r="AD106" s="3"/>
-      <c r="AE106" s="3"/>
-    </row>
-    <row r="107" spans="1:31">
+      <c r="W106" s="12"/>
+      <c r="X106" s="14"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5"/>
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" s="4"/>
-      <c r="B107" s="8"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -4546,96 +4670,99 @@
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="10"/>
       <c r="U107" s="10"/>
       <c r="V107" s="11"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="3"/>
-      <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
-      <c r="AA107" s="3"/>
-      <c r="AB107" s="3"/>
-      <c r="AC107" s="3"/>
-      <c r="AD107" s="3"/>
-      <c r="AE107" s="3"/>
-    </row>
-    <row r="108" spans="1:31">
+      <c r="W107" s="12"/>
+      <c r="X107" s="14"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" s="4"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="10"/>
       <c r="U108" s="10"/>
       <c r="V108" s="11"/>
-      <c r="W108" s="13"/>
+      <c r="W108" s="12"/>
       <c r="X108" s="14"/>
-      <c r="Y108" s="14"/>
-      <c r="Z108" s="14"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="14"/>
-      <c r="AC108" s="14"/>
-      <c r="AD108" s="14"/>
-      <c r="AE108" s="14"/>
-    </row>
-    <row r="109" spans="1:31">
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="15"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="15"/>
+      <c r="AD108" s="15"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" s="4"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="10"/>
       <c r="U109" s="10"/>
       <c r="V109" s="11"/>
-      <c r="W109" s="13"/>
+      <c r="W109" s="12"/>
       <c r="X109" s="14"/>
-      <c r="Y109" s="14"/>
-      <c r="Z109" s="14"/>
-      <c r="AA109" s="14"/>
-      <c r="AB109" s="14"/>
-      <c r="AC109" s="14"/>
-      <c r="AD109" s="14"/>
-      <c r="AE109" s="14"/>
-    </row>
-    <row r="110" spans="1:31">
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="15"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="15"/>
+      <c r="AD109" s="15"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" s="4"/>
-      <c r="B110" s="8"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -4645,30 +4772,31 @@
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
-      <c r="S110" s="9"/>
-      <c r="T110" s="9"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="10"/>
       <c r="U110" s="10"/>
       <c r="V110" s="11"/>
-      <c r="W110" s="13"/>
-      <c r="X110" s="3"/>
-      <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
-      <c r="AA110" s="3"/>
-      <c r="AB110" s="3"/>
-      <c r="AC110" s="3"/>
-      <c r="AD110" s="3"/>
-      <c r="AE110" s="3"/>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="W110" s="12"/>
+      <c r="X110" s="14"/>
+      <c r="Y110" s="5"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" s="4"/>
-      <c r="B111" s="8"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -4678,30 +4806,31 @@
       <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="10"/>
       <c r="U111" s="10"/>
       <c r="V111" s="11"/>
-      <c r="W111" s="13"/>
-      <c r="X111" s="3"/>
-      <c r="Y111" s="3"/>
-      <c r="Z111" s="3"/>
-      <c r="AA111" s="3"/>
-      <c r="AB111" s="3"/>
-      <c r="AC111" s="3"/>
-      <c r="AD111" s="3"/>
-      <c r="AE111" s="3"/>
-    </row>
-    <row r="112" spans="1:31">
+      <c r="W111" s="12"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5"/>
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" s="4"/>
-      <c r="B112" s="8"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -4711,30 +4840,31 @@
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
-      <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="10"/>
       <c r="U112" s="10"/>
       <c r="V112" s="11"/>
-      <c r="W112" s="13"/>
-      <c r="X112" s="3"/>
-      <c r="Y112" s="3"/>
-      <c r="Z112" s="3"/>
-      <c r="AA112" s="3"/>
-      <c r="AB112" s="3"/>
-      <c r="AC112" s="3"/>
-      <c r="AD112" s="3"/>
-      <c r="AE112" s="3"/>
-    </row>
-    <row r="113" spans="1:31">
+      <c r="W112" s="12"/>
+      <c r="X112" s="14"/>
+      <c r="Y112" s="5"/>
+      <c r="Z112" s="5"/>
+      <c r="AA112" s="5"/>
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
+      <c r="AE112" s="5"/>
+      <c r="AF112" s="5"/>
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" s="4"/>
-      <c r="B113" s="8"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -4744,30 +4874,31 @@
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
-      <c r="S113" s="9"/>
-      <c r="T113" s="9"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="10"/>
       <c r="U113" s="10"/>
       <c r="V113" s="11"/>
-      <c r="W113" s="13"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-      <c r="AA113" s="3"/>
-      <c r="AB113" s="3"/>
-      <c r="AC113" s="3"/>
-      <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
-    </row>
-    <row r="114" spans="1:31">
+      <c r="W113" s="12"/>
+      <c r="X113" s="14"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" s="4"/>
-      <c r="B114" s="8"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -4777,30 +4908,31 @@
       <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="10"/>
       <c r="U114" s="10"/>
       <c r="V114" s="11"/>
-      <c r="W114" s="13"/>
-      <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-      <c r="AA114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AC114" s="3"/>
-      <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
-    </row>
-    <row r="115" spans="1:31">
+      <c r="W114" s="12"/>
+      <c r="X114" s="14"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" s="4"/>
-      <c r="B115" s="8"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -4810,30 +4942,31 @@
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
-      <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="10"/>
       <c r="U115" s="10"/>
       <c r="V115" s="11"/>
-      <c r="W115" s="13"/>
-      <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-      <c r="AA115" s="3"/>
-      <c r="AB115" s="3"/>
-      <c r="AC115" s="3"/>
-      <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
-    </row>
-    <row r="116" spans="1:31">
+      <c r="W115" s="12"/>
+      <c r="X115" s="14"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="5"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="5"/>
+      <c r="AE115" s="5"/>
+      <c r="AF115" s="5"/>
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" s="4"/>
-      <c r="B116" s="12"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -4843,30 +4976,31 @@
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
-      <c r="S116" s="9"/>
-      <c r="T116" s="9"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="10"/>
       <c r="U116" s="10"/>
       <c r="V116" s="11"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="3"/>
-      <c r="Y116" s="3"/>
-      <c r="Z116" s="3"/>
-      <c r="AA116" s="3"/>
-      <c r="AB116" s="3"/>
-      <c r="AC116" s="3"/>
-      <c r="AD116" s="3"/>
-      <c r="AE116" s="3"/>
-    </row>
-    <row r="117" spans="1:31">
+      <c r="W116" s="12"/>
+      <c r="X116" s="14"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+      <c r="AE116" s="5"/>
+      <c r="AF116" s="5"/>
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" s="4"/>
-      <c r="B117" s="8"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -4876,30 +5010,31 @@
       <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="10"/>
       <c r="U117" s="10"/>
       <c r="V117" s="11"/>
-      <c r="W117" s="13"/>
-      <c r="X117" s="3"/>
-      <c r="Y117" s="3"/>
-      <c r="Z117" s="3"/>
-      <c r="AA117" s="3"/>
-      <c r="AB117" s="3"/>
-      <c r="AC117" s="3"/>
-      <c r="AD117" s="3"/>
-      <c r="AE117" s="3"/>
-    </row>
-    <row r="118" spans="1:31">
+      <c r="W117" s="12"/>
+      <c r="X117" s="14"/>
+      <c r="Y117" s="5"/>
+      <c r="Z117" s="5"/>
+      <c r="AA117" s="5"/>
+      <c r="AB117" s="5"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="5"/>
+      <c r="AE117" s="5"/>
+      <c r="AF117" s="5"/>
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" s="4"/>
-      <c r="B118" s="8"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
@@ -4909,30 +5044,31 @@
       <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="10"/>
       <c r="U118" s="10"/>
       <c r="V118" s="11"/>
-      <c r="W118" s="15"/>
-      <c r="X118" s="3"/>
-      <c r="Y118" s="3"/>
-      <c r="Z118" s="3"/>
-      <c r="AA118" s="3"/>
-      <c r="AB118" s="3"/>
-      <c r="AC118" s="3"/>
-      <c r="AD118" s="3"/>
-      <c r="AE118" s="3"/>
-    </row>
-    <row r="119" spans="1:31">
+      <c r="W118" s="12"/>
+      <c r="X118" s="16"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="5"/>
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" s="4"/>
-      <c r="B119" s="8"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
@@ -4942,30 +5078,31 @@
       <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
-      <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="10"/>
       <c r="U119" s="10"/>
       <c r="V119" s="11"/>
-      <c r="W119" s="15"/>
-      <c r="X119" s="3"/>
-      <c r="Y119" s="3"/>
-      <c r="Z119" s="3"/>
-      <c r="AA119" s="3"/>
-      <c r="AB119" s="3"/>
-      <c r="AC119" s="3"/>
-      <c r="AD119" s="3"/>
-      <c r="AE119" s="3"/>
-    </row>
-    <row r="120" spans="1:31">
+      <c r="W119" s="12"/>
+      <c r="X119" s="16"/>
+      <c r="Y119" s="5"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="5"/>
+      <c r="AB119" s="5"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="5"/>
+      <c r="AE119" s="5"/>
+      <c r="AF119" s="5"/>
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" s="4"/>
-      <c r="B120" s="8"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -4975,30 +5112,31 @@
       <c r="P120" s="4"/>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="10"/>
       <c r="U120" s="10"/>
       <c r="V120" s="11"/>
-      <c r="W120" s="15"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-      <c r="AA120" s="3"/>
-      <c r="AB120" s="3"/>
-      <c r="AC120" s="3"/>
-      <c r="AD120" s="3"/>
-      <c r="AE120" s="3"/>
-    </row>
-    <row r="121" spans="1:31">
+      <c r="W120" s="12"/>
+      <c r="X120" s="16"/>
+      <c r="Y120" s="5"/>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="5"/>
+      <c r="AB120" s="5"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="5"/>
+      <c r="AE120" s="5"/>
+      <c r="AF120" s="5"/>
+    </row>
+    <row r="121" spans="1:32">
       <c r="A121" s="4"/>
-      <c r="B121" s="8"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
@@ -5008,30 +5146,31 @@
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="10"/>
       <c r="U121" s="10"/>
       <c r="V121" s="11"/>
-      <c r="W121" s="15"/>
-      <c r="X121" s="3"/>
-      <c r="Y121" s="3"/>
-      <c r="Z121" s="3"/>
-      <c r="AA121" s="3"/>
-      <c r="AB121" s="3"/>
-      <c r="AC121" s="3"/>
-      <c r="AD121" s="3"/>
-      <c r="AE121" s="3"/>
-    </row>
-    <row r="122" spans="1:31">
+      <c r="W121" s="12"/>
+      <c r="X121" s="16"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+    </row>
+    <row r="122" spans="1:32">
       <c r="A122" s="4"/>
-      <c r="B122" s="8"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -5041,30 +5180,31 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="10"/>
       <c r="U122" s="10"/>
       <c r="V122" s="11"/>
-      <c r="W122" s="13"/>
-      <c r="X122" s="3"/>
-      <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
-      <c r="AA122" s="3"/>
-      <c r="AB122" s="3"/>
-      <c r="AC122" s="3"/>
-      <c r="AD122" s="3"/>
-      <c r="AE122" s="3"/>
-    </row>
-    <row r="123" spans="1:31">
+      <c r="W122" s="12"/>
+      <c r="X122" s="14"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="5"/>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="5"/>
+      <c r="AE122" s="5"/>
+      <c r="AF122" s="5"/>
+    </row>
+    <row r="123" spans="1:32">
       <c r="A123" s="4"/>
-      <c r="B123" s="8"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -5074,30 +5214,31 @@
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="10"/>
       <c r="U123" s="10"/>
       <c r="V123" s="11"/>
-      <c r="W123" s="13"/>
-      <c r="X123" s="3"/>
-      <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
-      <c r="AA123" s="3"/>
-      <c r="AB123" s="3"/>
-      <c r="AC123" s="3"/>
-      <c r="AD123" s="3"/>
-      <c r="AE123" s="3"/>
-    </row>
-    <row r="124" spans="1:31">
+      <c r="W123" s="12"/>
+      <c r="X123" s="14"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="5"/>
+      <c r="AE123" s="5"/>
+      <c r="AF123" s="5"/>
+    </row>
+    <row r="124" spans="1:32">
       <c r="A124" s="4"/>
-      <c r="B124" s="8"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -5107,30 +5248,31 @@
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
-      <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="10"/>
       <c r="U124" s="10"/>
       <c r="V124" s="11"/>
-      <c r="W124" s="13"/>
-      <c r="X124" s="3"/>
-      <c r="Y124" s="3"/>
-      <c r="Z124" s="3"/>
-      <c r="AA124" s="3"/>
-      <c r="AB124" s="3"/>
-      <c r="AC124" s="3"/>
-      <c r="AD124" s="3"/>
-      <c r="AE124" s="3"/>
-    </row>
-    <row r="125" spans="1:31">
+      <c r="W124" s="12"/>
+      <c r="X124" s="14"/>
+      <c r="Y124" s="5"/>
+      <c r="Z124" s="5"/>
+      <c r="AA124" s="5"/>
+      <c r="AB124" s="5"/>
+      <c r="AC124" s="5"/>
+      <c r="AD124" s="5"/>
+      <c r="AE124" s="5"/>
+      <c r="AF124" s="5"/>
+    </row>
+    <row r="125" spans="1:32">
       <c r="A125" s="4"/>
-      <c r="B125" s="8"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -5140,30 +5282,31 @@
       <c r="P125" s="4"/>
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="10"/>
       <c r="U125" s="10"/>
       <c r="V125" s="11"/>
-      <c r="W125" s="13"/>
-      <c r="X125" s="3"/>
-      <c r="Y125" s="3"/>
-      <c r="Z125" s="3"/>
-      <c r="AA125" s="3"/>
-      <c r="AB125" s="3"/>
-      <c r="AC125" s="3"/>
-      <c r="AD125" s="3"/>
-      <c r="AE125" s="3"/>
-    </row>
-    <row r="126" spans="1:31">
+      <c r="W125" s="12"/>
+      <c r="X125" s="14"/>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="5"/>
+      <c r="AA125" s="5"/>
+      <c r="AB125" s="5"/>
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="5"/>
+      <c r="AE125" s="5"/>
+      <c r="AF125" s="5"/>
+    </row>
+    <row r="126" spans="1:32">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -5173,30 +5316,31 @@
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="10"/>
       <c r="U126" s="10"/>
       <c r="V126" s="11"/>
-      <c r="W126" s="3"/>
-      <c r="X126" s="3"/>
-      <c r="Y126" s="3"/>
-      <c r="Z126" s="3"/>
-      <c r="AA126" s="3"/>
-      <c r="AB126" s="3"/>
-      <c r="AC126" s="3"/>
-      <c r="AD126" s="3"/>
-      <c r="AE126" s="3"/>
-    </row>
-    <row r="127" spans="1:31">
+      <c r="W126" s="12"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5"/>
+      <c r="AA126" s="5"/>
+      <c r="AB126" s="5"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="5"/>
+      <c r="AE126" s="5"/>
+      <c r="AF126" s="5"/>
+    </row>
+    <row r="127" spans="1:32">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -5206,30 +5350,31 @@
       <c r="P127" s="4"/>
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
-      <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="10"/>
       <c r="U127" s="10"/>
       <c r="V127" s="11"/>
-      <c r="W127" s="3"/>
-      <c r="X127" s="3"/>
-      <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
-      <c r="AA127" s="3"/>
-      <c r="AB127" s="3"/>
-      <c r="AC127" s="3"/>
-      <c r="AD127" s="3"/>
-      <c r="AE127" s="3"/>
-    </row>
-    <row r="128" spans="1:31">
+      <c r="W127" s="12"/>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5"/>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="5"/>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
+      <c r="AE127" s="5"/>
+      <c r="AF127" s="5"/>
+    </row>
+    <row r="128" spans="1:32">
       <c r="A128" s="4"/>
-      <c r="B128" s="8"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -5242,27 +5387,28 @@
       <c r="S128" s="4"/>
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="3"/>
-      <c r="X128" s="3"/>
-      <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
-      <c r="AA128" s="3"/>
-      <c r="AB128" s="3"/>
-      <c r="AC128" s="3"/>
-      <c r="AD128" s="3"/>
-      <c r="AE128" s="3"/>
-    </row>
-    <row r="129" spans="1:31">
+      <c r="V128" s="4"/>
+      <c r="W128" s="17"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
+      <c r="AE128" s="5"/>
+      <c r="AF128" s="5"/>
+    </row>
+    <row r="129" spans="1:32">
       <c r="A129" s="4"/>
-      <c r="B129" s="8"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -5275,27 +5421,28 @@
       <c r="S129" s="4"/>
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
-      <c r="V129" s="16"/>
-      <c r="W129" s="3"/>
-      <c r="X129" s="3"/>
-      <c r="Y129" s="3"/>
-      <c r="Z129" s="3"/>
-      <c r="AA129" s="3"/>
-      <c r="AB129" s="3"/>
-      <c r="AC129" s="3"/>
-      <c r="AD129" s="3"/>
-      <c r="AE129" s="3"/>
-    </row>
-    <row r="130" spans="1:31">
+      <c r="V129" s="4"/>
+      <c r="W129" s="17"/>
+      <c r="X129" s="5"/>
+      <c r="Y129" s="5"/>
+      <c r="Z129" s="5"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="5"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
+      <c r="AE129" s="5"/>
+      <c r="AF129" s="5"/>
+    </row>
+    <row r="130" spans="1:32">
       <c r="A130" s="4"/>
-      <c r="B130" s="8"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -5308,27 +5455,28 @@
       <c r="S130" s="4"/>
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
-      <c r="V130" s="16"/>
-      <c r="W130" s="3"/>
-      <c r="X130" s="3"/>
-      <c r="Y130" s="3"/>
-      <c r="Z130" s="3"/>
-      <c r="AA130" s="3"/>
-      <c r="AB130" s="3"/>
-      <c r="AC130" s="3"/>
-      <c r="AD130" s="3"/>
-      <c r="AE130" s="3"/>
-    </row>
-    <row r="131" spans="1:31">
+      <c r="V130" s="4"/>
+      <c r="W130" s="17"/>
+      <c r="X130" s="5"/>
+      <c r="Y130" s="5"/>
+      <c r="Z130" s="5"/>
+      <c r="AA130" s="5"/>
+      <c r="AB130" s="5"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="5"/>
+      <c r="AE130" s="5"/>
+      <c r="AF130" s="5"/>
+    </row>
+    <row r="131" spans="1:32">
       <c r="A131" s="4"/>
-      <c r="B131" s="8"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="13"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -5341,27 +5489,28 @@
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
-      <c r="V131" s="16"/>
-      <c r="W131" s="3"/>
-      <c r="X131" s="3"/>
-      <c r="Y131" s="3"/>
-      <c r="Z131" s="3"/>
-      <c r="AA131" s="3"/>
-      <c r="AB131" s="3"/>
-      <c r="AC131" s="3"/>
-      <c r="AD131" s="3"/>
-      <c r="AE131" s="3"/>
-    </row>
-    <row r="132" spans="1:31">
+      <c r="V131" s="4"/>
+      <c r="W131" s="17"/>
+      <c r="X131" s="5"/>
+      <c r="Y131" s="5"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="5"/>
+      <c r="AB131" s="5"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
+      <c r="AE131" s="5"/>
+      <c r="AF131" s="5"/>
+    </row>
+    <row r="132" spans="1:32">
       <c r="A132" s="4"/>
-      <c r="B132" s="8"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -5374,27 +5523,28 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
-      <c r="V132" s="16"/>
-      <c r="W132" s="3"/>
-      <c r="X132" s="3"/>
-      <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
-      <c r="AA132" s="3"/>
-      <c r="AB132" s="3"/>
-      <c r="AC132" s="3"/>
-      <c r="AD132" s="3"/>
-      <c r="AE132" s="3"/>
-    </row>
-    <row r="133" spans="1:31">
+      <c r="V132" s="4"/>
+      <c r="W132" s="17"/>
+      <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
+      <c r="AA132" s="5"/>
+      <c r="AB132" s="5"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="5"/>
+      <c r="AE132" s="5"/>
+      <c r="AF132" s="5"/>
+    </row>
+    <row r="133" spans="1:32">
       <c r="A133" s="4"/>
-      <c r="B133" s="8"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -5407,27 +5557,28 @@
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
-      <c r="V133" s="16"/>
-      <c r="W133" s="3"/>
-      <c r="X133" s="3"/>
-      <c r="Y133" s="3"/>
-      <c r="Z133" s="3"/>
-      <c r="AA133" s="3"/>
-      <c r="AB133" s="3"/>
-      <c r="AC133" s="3"/>
-      <c r="AD133" s="3"/>
-      <c r="AE133" s="3"/>
-    </row>
-    <row r="134" spans="1:31">
+      <c r="V133" s="4"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="5"/>
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
+      <c r="AD133" s="5"/>
+      <c r="AE133" s="5"/>
+      <c r="AF133" s="5"/>
+    </row>
+    <row r="134" spans="1:32">
       <c r="A134" s="4"/>
-      <c r="B134" s="8"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -5440,27 +5591,28 @@
       <c r="S134" s="4"/>
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
-      <c r="V134" s="16"/>
-      <c r="W134" s="3"/>
-      <c r="X134" s="3"/>
-      <c r="Y134" s="3"/>
-      <c r="Z134" s="3"/>
-      <c r="AA134" s="3"/>
-      <c r="AB134" s="3"/>
-      <c r="AC134" s="3"/>
-      <c r="AD134" s="3"/>
-      <c r="AE134" s="3"/>
-    </row>
-    <row r="135" spans="1:31">
+      <c r="V134" s="4"/>
+      <c r="W134" s="17"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="5"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="5"/>
+      <c r="AE134" s="5"/>
+      <c r="AF134" s="5"/>
+    </row>
+    <row r="135" spans="1:32">
       <c r="A135" s="4"/>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="13"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
@@ -5473,27 +5625,28 @@
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
-      <c r="V135" s="16"/>
-      <c r="W135" s="3"/>
-      <c r="X135" s="3"/>
-      <c r="Y135" s="3"/>
-      <c r="Z135" s="3"/>
-      <c r="AA135" s="3"/>
-      <c r="AB135" s="3"/>
-      <c r="AC135" s="3"/>
-      <c r="AD135" s="3"/>
-      <c r="AE135" s="3"/>
-    </row>
-    <row r="136" spans="1:31">
+      <c r="V135" s="4"/>
+      <c r="W135" s="17"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+      <c r="AA135" s="5"/>
+      <c r="AB135" s="5"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="5"/>
+      <c r="AE135" s="5"/>
+      <c r="AF135" s="5"/>
+    </row>
+    <row r="136" spans="1:32">
       <c r="A136" s="4"/>
-      <c r="B136" s="8"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="13"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -5506,27 +5659,28 @@
       <c r="S136" s="4"/>
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
-      <c r="V136" s="16"/>
-      <c r="W136" s="3"/>
-      <c r="X136" s="3"/>
-      <c r="Y136" s="3"/>
-      <c r="Z136" s="3"/>
-      <c r="AA136" s="3"/>
-      <c r="AB136" s="3"/>
-      <c r="AC136" s="3"/>
-      <c r="AD136" s="3"/>
-      <c r="AE136" s="3"/>
-    </row>
-    <row r="137" spans="1:31">
+      <c r="V136" s="4"/>
+      <c r="W136" s="17"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5"/>
+      <c r="Z136" s="5"/>
+      <c r="AA136" s="5"/>
+      <c r="AB136" s="5"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="5"/>
+      <c r="AE136" s="5"/>
+      <c r="AF136" s="5"/>
+    </row>
+    <row r="137" spans="1:32">
       <c r="A137" s="4"/>
-      <c r="B137" s="8"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="13"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -5539,27 +5693,28 @@
       <c r="S137" s="4"/>
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
-      <c r="V137" s="16"/>
-      <c r="W137" s="3"/>
-      <c r="X137" s="3"/>
-      <c r="Y137" s="3"/>
-      <c r="Z137" s="3"/>
-      <c r="AA137" s="3"/>
-      <c r="AB137" s="3"/>
-      <c r="AC137" s="3"/>
-      <c r="AD137" s="3"/>
-      <c r="AE137" s="3"/>
-    </row>
-    <row r="138" spans="1:31">
+      <c r="V137" s="4"/>
+      <c r="W137" s="17"/>
+      <c r="X137" s="5"/>
+      <c r="Y137" s="5"/>
+      <c r="Z137" s="5"/>
+      <c r="AA137" s="5"/>
+      <c r="AB137" s="5"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
+      <c r="AE137" s="5"/>
+      <c r="AF137" s="5"/>
+    </row>
+    <row r="138" spans="1:32">
       <c r="A138" s="4"/>
-      <c r="B138" s="8"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -5569,30 +5724,31 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
-      <c r="S138" s="9"/>
-      <c r="T138" s="9"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="10"/>
       <c r="U138" s="10"/>
       <c r="V138" s="11"/>
-      <c r="W138" s="3"/>
-      <c r="X138" s="3"/>
-      <c r="Y138" s="3"/>
-      <c r="Z138" s="3"/>
-      <c r="AA138" s="3"/>
-      <c r="AB138" s="3"/>
-      <c r="AC138" s="3"/>
-      <c r="AD138" s="3"/>
-      <c r="AE138" s="3"/>
-    </row>
-    <row r="139" spans="1:31">
+      <c r="W138" s="12"/>
+      <c r="X138" s="5"/>
+      <c r="Y138" s="5"/>
+      <c r="Z138" s="5"/>
+      <c r="AA138" s="5"/>
+      <c r="AB138" s="5"/>
+      <c r="AC138" s="5"/>
+      <c r="AD138" s="5"/>
+      <c r="AE138" s="5"/>
+      <c r="AF138" s="5"/>
+    </row>
+    <row r="139" spans="1:32">
       <c r="A139" s="4"/>
-      <c r="B139" s="8"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -5602,30 +5758,31 @@
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
-      <c r="S139" s="9"/>
-      <c r="T139" s="9"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="10"/>
       <c r="U139" s="10"/>
       <c r="V139" s="11"/>
-      <c r="W139" s="3"/>
-      <c r="X139" s="3"/>
-      <c r="Y139" s="3"/>
-      <c r="Z139" s="3"/>
-      <c r="AA139" s="3"/>
-      <c r="AB139" s="3"/>
-      <c r="AC139" s="3"/>
-      <c r="AD139" s="3"/>
-      <c r="AE139" s="3"/>
-    </row>
-    <row r="140" spans="1:31">
+      <c r="W139" s="12"/>
+      <c r="X139" s="5"/>
+      <c r="Y139" s="5"/>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5"/>
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="5"/>
+      <c r="AE139" s="5"/>
+      <c r="AF139" s="5"/>
+    </row>
+    <row r="140" spans="1:32">
       <c r="A140" s="4"/>
-      <c r="B140" s="8"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
@@ -5635,30 +5792,31 @@
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
-      <c r="S140" s="9"/>
-      <c r="T140" s="9"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="10"/>
       <c r="U140" s="10"/>
       <c r="V140" s="11"/>
-      <c r="W140" s="3"/>
-      <c r="X140" s="3"/>
-      <c r="Y140" s="3"/>
-      <c r="Z140" s="3"/>
-      <c r="AA140" s="3"/>
-      <c r="AB140" s="3"/>
-      <c r="AC140" s="3"/>
-      <c r="AD140" s="3"/>
-      <c r="AE140" s="3"/>
-    </row>
-    <row r="141" spans="1:31">
+      <c r="W140" s="12"/>
+      <c r="X140" s="5"/>
+      <c r="Y140" s="5"/>
+      <c r="Z140" s="5"/>
+      <c r="AA140" s="5"/>
+      <c r="AB140" s="5"/>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="5"/>
+      <c r="AE140" s="5"/>
+      <c r="AF140" s="5"/>
+    </row>
+    <row r="141" spans="1:32">
       <c r="A141" s="4"/>
-      <c r="B141" s="12"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -5668,846 +5826,872 @@
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
-      <c r="S141" s="9"/>
-      <c r="T141" s="9"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="10"/>
       <c r="U141" s="10"/>
       <c r="V141" s="11"/>
-      <c r="W141" s="3"/>
-      <c r="X141" s="3"/>
-      <c r="Y141" s="3"/>
-      <c r="Z141" s="3"/>
-      <c r="AA141" s="3"/>
-      <c r="AB141" s="3"/>
-      <c r="AC141" s="3"/>
-      <c r="AD141" s="3"/>
-      <c r="AE141" s="3"/>
-    </row>
-    <row r="142" spans="1:31" ht="16.5">
+      <c r="W141" s="12"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+      <c r="AB141" s="5"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="5"/>
+      <c r="AE141" s="5"/>
+      <c r="AF141" s="5"/>
+    </row>
+    <row r="142" spans="1:32" ht="16.5">
       <c r="A142" s="4"/>
-      <c r="B142" s="17"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="18"/>
+      <c r="D142" s="19"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="6"/>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
-      <c r="V142" s="3"/>
-      <c r="W142" s="3"/>
-      <c r="X142" s="3"/>
-      <c r="Y142" s="3"/>
-      <c r="Z142" s="3"/>
-      <c r="AA142" s="3"/>
-      <c r="AB142" s="3"/>
-      <c r="AC142" s="3"/>
-      <c r="AD142" s="3"/>
-      <c r="AE142" s="3"/>
-    </row>
-    <row r="143" spans="1:31" ht="16.5">
+      <c r="V142" s="4"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+    </row>
+    <row r="143" spans="1:32" ht="16.5">
       <c r="A143" s="4"/>
-      <c r="B143" s="17"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="18"/>
+      <c r="D143" s="19"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="17"/>
-      <c r="S143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="18"/>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
-      <c r="V143" s="3"/>
-      <c r="W143" s="3"/>
-      <c r="X143" s="3"/>
-      <c r="Y143" s="3"/>
-      <c r="Z143" s="3"/>
-      <c r="AA143" s="3"/>
-      <c r="AB143" s="3"/>
-      <c r="AC143" s="3"/>
-      <c r="AD143" s="3"/>
-      <c r="AE143" s="3"/>
-    </row>
-    <row r="144" spans="1:31" ht="16.5">
+      <c r="V143" s="4"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+    </row>
+    <row r="144" spans="1:32" ht="16.5">
       <c r="A144" s="4"/>
-      <c r="B144" s="17"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="18"/>
+      <c r="D144" s="19"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="17"/>
-      <c r="S144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="18"/>
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
-      <c r="V144" s="3"/>
-      <c r="W144" s="3"/>
-      <c r="X144" s="3"/>
-      <c r="Y144" s="3"/>
-      <c r="Z144" s="3"/>
-      <c r="AA144" s="3"/>
-      <c r="AB144" s="3"/>
-      <c r="AC144" s="3"/>
-      <c r="AD144" s="3"/>
-      <c r="AE144" s="3"/>
-    </row>
-    <row r="145" spans="1:31" ht="16.5">
+      <c r="V144" s="4"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="5"/>
+    </row>
+    <row r="145" spans="1:32" ht="16.5">
       <c r="A145" s="4"/>
-      <c r="B145" s="17"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="18"/>
+      <c r="D145" s="19"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="17"/>
-      <c r="S145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="18"/>
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
-      <c r="V145" s="3"/>
-      <c r="W145" s="3"/>
-      <c r="X145" s="3"/>
-      <c r="Y145" s="3"/>
-      <c r="Z145" s="3"/>
-      <c r="AA145" s="3"/>
-      <c r="AB145" s="3"/>
-      <c r="AC145" s="3"/>
-      <c r="AD145" s="3"/>
-      <c r="AE145" s="3"/>
-    </row>
-    <row r="146" spans="1:31" ht="16.5">
+      <c r="V145" s="4"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+      <c r="AE145" s="5"/>
+      <c r="AF145" s="5"/>
+    </row>
+    <row r="146" spans="1:32" ht="16.5">
       <c r="A146" s="4"/>
-      <c r="B146" s="17"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="18"/>
+      <c r="D146" s="19"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="17"/>
-      <c r="S146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="18"/>
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
-      <c r="V146" s="3"/>
-      <c r="W146" s="3"/>
-      <c r="X146" s="3"/>
-      <c r="Y146" s="3"/>
-      <c r="Z146" s="3"/>
-      <c r="AA146" s="3"/>
-      <c r="AB146" s="3"/>
-      <c r="AC146" s="3"/>
-      <c r="AD146" s="3"/>
-      <c r="AE146" s="3"/>
-    </row>
-    <row r="147" spans="1:31" ht="16.5">
+      <c r="V146" s="4"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+      <c r="AE146" s="5"/>
+      <c r="AF146" s="5"/>
+    </row>
+    <row r="147" spans="1:32" ht="16.5">
       <c r="A147" s="4"/>
-      <c r="B147" s="17"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="18"/>
+      <c r="D147" s="19"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="17"/>
-      <c r="S147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="18"/>
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
-      <c r="V147" s="3"/>
-      <c r="W147" s="3"/>
-      <c r="X147" s="3"/>
-      <c r="Y147" s="3"/>
-      <c r="Z147" s="3"/>
-      <c r="AA147" s="3"/>
-      <c r="AB147" s="3"/>
-      <c r="AC147" s="3"/>
-      <c r="AD147" s="3"/>
-      <c r="AE147" s="3"/>
-    </row>
-    <row r="148" spans="1:31" ht="16.5">
+      <c r="V147" s="4"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+      <c r="AE147" s="5"/>
+      <c r="AF147" s="5"/>
+    </row>
+    <row r="148" spans="1:32" ht="16.5">
       <c r="A148" s="4"/>
-      <c r="B148" s="17"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="4"/>
-      <c r="D148" s="18"/>
+      <c r="D148" s="19"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="17"/>
-      <c r="S148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="18"/>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
-      <c r="V148" s="3"/>
-      <c r="W148" s="3"/>
-      <c r="X148" s="3"/>
-      <c r="Y148" s="3"/>
-      <c r="Z148" s="3"/>
-      <c r="AA148" s="3"/>
-      <c r="AB148" s="3"/>
-      <c r="AC148" s="3"/>
-      <c r="AD148" s="3"/>
-      <c r="AE148" s="3"/>
-    </row>
-    <row r="149" spans="1:31" ht="16.5">
+      <c r="V148" s="4"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+      <c r="AE148" s="5"/>
+      <c r="AF148" s="5"/>
+    </row>
+    <row r="149" spans="1:32" ht="16.5">
       <c r="A149" s="4"/>
-      <c r="B149" s="17"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="18"/>
+      <c r="D149" s="19"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="17"/>
-      <c r="S149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="18"/>
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
-      <c r="V149" s="3"/>
-      <c r="W149" s="3"/>
-      <c r="X149" s="3"/>
-      <c r="Y149" s="3"/>
-      <c r="Z149" s="3"/>
-      <c r="AA149" s="3"/>
-      <c r="AB149" s="3"/>
-      <c r="AC149" s="3"/>
-      <c r="AD149" s="3"/>
-      <c r="AE149" s="3"/>
-    </row>
-    <row r="150" spans="1:31">
+      <c r="V149" s="4"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+      <c r="AE149" s="5"/>
+      <c r="AF149" s="5"/>
+    </row>
+    <row r="150" spans="1:32">
       <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
+      <c r="B150" s="6"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="9"/>
+      <c r="D150" s="10"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="6"/>
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
-      <c r="V150" s="3"/>
-      <c r="W150" s="3"/>
-      <c r="X150" s="3"/>
-      <c r="Y150" s="3"/>
-      <c r="Z150" s="3"/>
-      <c r="AA150" s="3"/>
-      <c r="AB150" s="3"/>
-      <c r="AC150" s="3"/>
-      <c r="AD150" s="3"/>
-      <c r="AE150" s="3"/>
-    </row>
-    <row r="151" spans="1:31">
+      <c r="V150" s="4"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="5"/>
+      <c r="AF150" s="5"/>
+    </row>
+    <row r="151" spans="1:32">
       <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="9"/>
+      <c r="D151" s="10"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
-      <c r="N151" s="5"/>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="6"/>
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
-      <c r="V151" s="3"/>
-      <c r="W151" s="3"/>
-      <c r="X151" s="3"/>
-      <c r="Y151" s="3"/>
-      <c r="Z151" s="3"/>
-      <c r="AA151" s="3"/>
-      <c r="AB151" s="3"/>
-      <c r="AC151" s="3"/>
-      <c r="AD151" s="3"/>
-      <c r="AE151" s="3"/>
-    </row>
-    <row r="152" spans="1:31" ht="16.5">
+      <c r="V151" s="4"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+      <c r="AE151" s="5"/>
+      <c r="AF151" s="5"/>
+    </row>
+    <row r="152" spans="1:32" ht="16.5">
       <c r="A152" s="4"/>
-      <c r="B152" s="17"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="18"/>
+      <c r="D152" s="19"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="17"/>
-      <c r="S152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="18"/>
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
-      <c r="V152" s="3"/>
-      <c r="W152" s="3"/>
-      <c r="X152" s="3"/>
-      <c r="Y152" s="3"/>
-      <c r="Z152" s="3"/>
-      <c r="AA152" s="3"/>
-      <c r="AB152" s="3"/>
-      <c r="AC152" s="3"/>
-      <c r="AD152" s="3"/>
-      <c r="AE152" s="3"/>
-    </row>
-    <row r="153" spans="1:31" ht="16.5">
+      <c r="V152" s="4"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+      <c r="AE152" s="5"/>
+      <c r="AF152" s="5"/>
+    </row>
+    <row r="153" spans="1:32" ht="16.5">
       <c r="A153" s="4"/>
-      <c r="B153" s="17"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="18"/>
+      <c r="D153" s="19"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="17"/>
-      <c r="S153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="18"/>
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
-      <c r="V153" s="3"/>
-      <c r="W153" s="3"/>
-      <c r="X153" s="3"/>
-      <c r="Y153" s="3"/>
-      <c r="Z153" s="3"/>
-      <c r="AA153" s="3"/>
-      <c r="AB153" s="3"/>
-      <c r="AC153" s="3"/>
-      <c r="AD153" s="3"/>
-      <c r="AE153" s="3"/>
-    </row>
-    <row r="154" spans="1:31" ht="16.5">
+      <c r="V153" s="4"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
+      <c r="AE153" s="5"/>
+      <c r="AF153" s="5"/>
+    </row>
+    <row r="154" spans="1:32" ht="16.5">
       <c r="A154" s="4"/>
-      <c r="B154" s="17"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="18"/>
+      <c r="D154" s="19"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="17"/>
-      <c r="S154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="18"/>
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
-      <c r="V154" s="3"/>
-      <c r="W154" s="3"/>
-      <c r="X154" s="3"/>
-      <c r="Y154" s="3"/>
-      <c r="Z154" s="3"/>
-      <c r="AA154" s="3"/>
-      <c r="AB154" s="3"/>
-      <c r="AC154" s="3"/>
-      <c r="AD154" s="3"/>
-      <c r="AE154" s="3"/>
-    </row>
-    <row r="155" spans="1:31" ht="16.5">
+      <c r="V154" s="4"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="5"/>
+      <c r="AE154" s="5"/>
+      <c r="AF154" s="5"/>
+    </row>
+    <row r="155" spans="1:32" ht="16.5">
       <c r="A155" s="4"/>
-      <c r="B155" s="17"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="18"/>
+      <c r="D155" s="19"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
-      <c r="N155" s="17"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="17"/>
-      <c r="S155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="18"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="18"/>
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
-      <c r="V155" s="3"/>
-      <c r="W155" s="3"/>
-      <c r="X155" s="3"/>
-      <c r="Y155" s="3"/>
-      <c r="Z155" s="3"/>
-      <c r="AA155" s="3"/>
-      <c r="AB155" s="3"/>
-      <c r="AC155" s="3"/>
-      <c r="AD155" s="3"/>
-      <c r="AE155" s="3"/>
-    </row>
-    <row r="156" spans="1:31" ht="16.5">
+      <c r="V155" s="4"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+      <c r="AA155" s="5"/>
+      <c r="AB155" s="5"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="5"/>
+      <c r="AE155" s="5"/>
+      <c r="AF155" s="5"/>
+    </row>
+    <row r="156" spans="1:32" ht="16.5">
       <c r="A156" s="4"/>
-      <c r="B156" s="17"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="4"/>
-      <c r="D156" s="18"/>
+      <c r="D156" s="19"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
-      <c r="N156" s="17"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="17"/>
-      <c r="S156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="18"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="18"/>
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
-      <c r="V156" s="3"/>
-      <c r="W156" s="3"/>
-      <c r="X156" s="3"/>
-      <c r="Y156" s="3"/>
-      <c r="Z156" s="3"/>
-      <c r="AA156" s="3"/>
-      <c r="AB156" s="3"/>
-      <c r="AC156" s="3"/>
-      <c r="AD156" s="3"/>
-      <c r="AE156" s="3"/>
-    </row>
-    <row r="157" spans="1:31" ht="16.5">
+      <c r="V156" s="4"/>
+      <c r="W156" s="5"/>
+      <c r="X156" s="5"/>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5"/>
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="5"/>
+      <c r="AE156" s="5"/>
+      <c r="AF156" s="5"/>
+    </row>
+    <row r="157" spans="1:32" ht="16.5">
       <c r="A157" s="4"/>
-      <c r="B157" s="17"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="4"/>
-      <c r="D157" s="18"/>
+      <c r="D157" s="19"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
-      <c r="N157" s="17"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="17"/>
-      <c r="S157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="18"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="18"/>
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
-      <c r="V157" s="3"/>
-      <c r="W157" s="3"/>
-      <c r="X157" s="3"/>
-      <c r="Y157" s="3"/>
-      <c r="Z157" s="3"/>
-      <c r="AA157" s="3"/>
-      <c r="AB157" s="3"/>
-      <c r="AC157" s="3"/>
-      <c r="AD157" s="3"/>
-      <c r="AE157" s="3"/>
-    </row>
-    <row r="158" spans="1:31" ht="16.5">
+      <c r="V157" s="4"/>
+      <c r="W157" s="5"/>
+      <c r="X157" s="5"/>
+      <c r="Y157" s="5"/>
+      <c r="Z157" s="5"/>
+      <c r="AA157" s="5"/>
+      <c r="AB157" s="5"/>
+      <c r="AC157" s="5"/>
+      <c r="AD157" s="5"/>
+      <c r="AE157" s="5"/>
+      <c r="AF157" s="5"/>
+    </row>
+    <row r="158" spans="1:32" ht="16.5">
       <c r="A158" s="4"/>
-      <c r="B158" s="17"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="18"/>
+      <c r="D158" s="19"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
-      <c r="N158" s="17"/>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="17"/>
-      <c r="S158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="18"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="18"/>
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
-      <c r="V158" s="3"/>
-      <c r="W158" s="3"/>
-      <c r="X158" s="3"/>
-      <c r="Y158" s="3"/>
-      <c r="Z158" s="3"/>
-      <c r="AA158" s="3"/>
-      <c r="AB158" s="3"/>
-      <c r="AC158" s="3"/>
-      <c r="AD158" s="3"/>
-      <c r="AE158" s="3"/>
-    </row>
-    <row r="159" spans="1:31">
+      <c r="V158" s="4"/>
+      <c r="W158" s="5"/>
+      <c r="X158" s="5"/>
+      <c r="Y158" s="5"/>
+      <c r="Z158" s="5"/>
+      <c r="AA158" s="5"/>
+      <c r="AB158" s="5"/>
+      <c r="AC158" s="5"/>
+      <c r="AD158" s="5"/>
+      <c r="AE158" s="5"/>
+      <c r="AF158" s="5"/>
+    </row>
+    <row r="159" spans="1:32">
       <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
+      <c r="B159" s="6"/>
       <c r="C159" s="4"/>
-      <c r="D159" s="9"/>
+      <c r="D159" s="10"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-      <c r="K159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
-      <c r="N159" s="5"/>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
-      <c r="V159" s="3"/>
-      <c r="W159" s="3"/>
-      <c r="X159" s="3"/>
-      <c r="Y159" s="3"/>
-      <c r="Z159" s="3"/>
-      <c r="AA159" s="3"/>
-      <c r="AB159" s="3"/>
-      <c r="AC159" s="3"/>
-      <c r="AD159" s="3"/>
-      <c r="AE159" s="3"/>
-    </row>
-    <row r="160" spans="1:31">
+      <c r="V159" s="4"/>
+      <c r="W159" s="5"/>
+      <c r="X159" s="5"/>
+      <c r="Y159" s="5"/>
+      <c r="Z159" s="5"/>
+      <c r="AA159" s="5"/>
+      <c r="AB159" s="5"/>
+      <c r="AC159" s="5"/>
+      <c r="AD159" s="5"/>
+      <c r="AE159" s="5"/>
+      <c r="AF159" s="5"/>
+    </row>
+    <row r="160" spans="1:32">
       <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="4"/>
-      <c r="D160" s="9"/>
+      <c r="D160" s="10"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
-      <c r="N160" s="5"/>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
-      <c r="V160" s="3"/>
-      <c r="W160" s="3"/>
-      <c r="X160" s="3"/>
-      <c r="Y160" s="3"/>
-      <c r="Z160" s="3"/>
-      <c r="AA160" s="3"/>
-      <c r="AB160" s="3"/>
-      <c r="AC160" s="3"/>
-      <c r="AD160" s="3"/>
-      <c r="AE160" s="3"/>
-    </row>
-    <row r="161" spans="1:31" ht="16.5">
+      <c r="V160" s="4"/>
+      <c r="W160" s="5"/>
+      <c r="X160" s="5"/>
+      <c r="Y160" s="5"/>
+      <c r="Z160" s="5"/>
+      <c r="AA160" s="5"/>
+      <c r="AB160" s="5"/>
+      <c r="AC160" s="5"/>
+      <c r="AD160" s="5"/>
+      <c r="AE160" s="5"/>
+      <c r="AF160" s="5"/>
+    </row>
+    <row r="161" spans="1:32" ht="16.5">
       <c r="A161" s="4"/>
-      <c r="B161" s="17"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="4"/>
-      <c r="D161" s="18"/>
+      <c r="D161" s="19"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
-      <c r="N161" s="17"/>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="17"/>
-      <c r="S161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="18"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="18"/>
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
-      <c r="V161" s="3"/>
-      <c r="W161" s="3"/>
-      <c r="X161" s="3"/>
-      <c r="Y161" s="3"/>
-      <c r="Z161" s="3"/>
-      <c r="AA161" s="3"/>
-      <c r="AB161" s="3"/>
-      <c r="AC161" s="3"/>
-      <c r="AD161" s="3"/>
-      <c r="AE161" s="3"/>
-    </row>
-    <row r="162" spans="1:31" ht="16.5">
+      <c r="V161" s="4"/>
+      <c r="W161" s="5"/>
+      <c r="X161" s="5"/>
+      <c r="Y161" s="5"/>
+      <c r="Z161" s="5"/>
+      <c r="AA161" s="5"/>
+      <c r="AB161" s="5"/>
+      <c r="AC161" s="5"/>
+      <c r="AD161" s="5"/>
+      <c r="AE161" s="5"/>
+      <c r="AF161" s="5"/>
+    </row>
+    <row r="162" spans="1:32" ht="16.5">
       <c r="A162" s="4"/>
-      <c r="B162" s="17"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="18"/>
+      <c r="D162" s="19"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
-      <c r="N162" s="5"/>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="17"/>
-      <c r="S162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="18"/>
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
-      <c r="V162" s="3"/>
-      <c r="W162" s="3"/>
-      <c r="X162" s="3"/>
-      <c r="Y162" s="3"/>
-      <c r="Z162" s="3"/>
-      <c r="AA162" s="3"/>
-      <c r="AB162" s="3"/>
-      <c r="AC162" s="3"/>
-      <c r="AD162" s="3"/>
-      <c r="AE162" s="3"/>
-    </row>
-    <row r="163" spans="1:31" ht="16.5">
+      <c r="V162" s="4"/>
+      <c r="W162" s="5"/>
+      <c r="X162" s="5"/>
+      <c r="Y162" s="5"/>
+      <c r="Z162" s="5"/>
+      <c r="AA162" s="5"/>
+      <c r="AB162" s="5"/>
+      <c r="AC162" s="5"/>
+      <c r="AD162" s="5"/>
+      <c r="AE162" s="5"/>
+      <c r="AF162" s="5"/>
+    </row>
+    <row r="163" spans="1:32" ht="16.5">
       <c r="A163" s="4"/>
-      <c r="B163" s="17"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="18"/>
+      <c r="D163" s="19"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
-      <c r="N163" s="5"/>
-      <c r="O163" s="5"/>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="17"/>
-      <c r="S163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="18"/>
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
-      <c r="V163" s="3"/>
-      <c r="W163" s="3"/>
-      <c r="X163" s="3"/>
-      <c r="Y163" s="3"/>
-      <c r="Z163" s="3"/>
-      <c r="AA163" s="3"/>
-      <c r="AB163" s="3"/>
-      <c r="AC163" s="3"/>
-      <c r="AD163" s="3"/>
-      <c r="AE163" s="3"/>
-    </row>
-    <row r="164" spans="1:31" ht="16.5">
+      <c r="V163" s="4"/>
+      <c r="W163" s="5"/>
+      <c r="X163" s="5"/>
+      <c r="Y163" s="5"/>
+      <c r="Z163" s="5"/>
+      <c r="AA163" s="5"/>
+      <c r="AB163" s="5"/>
+      <c r="AC163" s="5"/>
+      <c r="AD163" s="5"/>
+      <c r="AE163" s="5"/>
+      <c r="AF163" s="5"/>
+    </row>
+    <row r="164" spans="1:32" ht="16.5">
       <c r="A164" s="4"/>
-      <c r="B164" s="17"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="18"/>
+      <c r="D164" s="19"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
-      <c r="N164" s="5"/>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="17"/>
-      <c r="S164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="18"/>
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
-      <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
-      <c r="AA164" s="3"/>
-      <c r="AB164" s="3"/>
-      <c r="AC164" s="3"/>
-      <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
-    </row>
-    <row r="165" spans="1:31" ht="16.5">
+      <c r="V164" s="4"/>
+      <c r="W164" s="5"/>
+      <c r="X164" s="5"/>
+      <c r="Y164" s="5"/>
+      <c r="Z164" s="5"/>
+      <c r="AA164" s="5"/>
+      <c r="AB164" s="5"/>
+      <c r="AC164" s="5"/>
+      <c r="AD164" s="5"/>
+      <c r="AE164" s="5"/>
+      <c r="AF164" s="5"/>
+    </row>
+    <row r="165" spans="1:32" ht="16.5">
       <c r="A165" s="4"/>
-      <c r="B165" s="17"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="18"/>
+      <c r="D165" s="19"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-      <c r="K165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
-      <c r="N165" s="5"/>
-      <c r="O165" s="5"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="17"/>
-      <c r="S165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="18"/>
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
-      <c r="V165" s="3"/>
-      <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
-      <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
-      <c r="AA165" s="3"/>
-      <c r="AB165" s="3"/>
-      <c r="AC165" s="3"/>
-      <c r="AD165" s="3"/>
-      <c r="AE165" s="3"/>
-    </row>
-    <row r="166" spans="1:31" ht="16.5">
+      <c r="V165" s="4"/>
+      <c r="W165" s="5"/>
+      <c r="X165" s="5"/>
+      <c r="Y165" s="5"/>
+      <c r="Z165" s="5"/>
+      <c r="AA165" s="5"/>
+      <c r="AB165" s="5"/>
+      <c r="AC165" s="5"/>
+      <c r="AD165" s="5"/>
+      <c r="AE165" s="5"/>
+      <c r="AF165" s="5"/>
+    </row>
+    <row r="166" spans="1:32" ht="16.5">
       <c r="A166" s="4"/>
-      <c r="B166" s="17"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="18"/>
+      <c r="D166" s="19"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
-      <c r="N166" s="5"/>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="17"/>
-      <c r="S166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="18"/>
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
-      <c r="V166" s="3"/>
-      <c r="W166" s="3"/>
-      <c r="X166" s="3"/>
-      <c r="Y166" s="3"/>
-      <c r="Z166" s="3"/>
-      <c r="AA166" s="3"/>
-      <c r="AB166" s="3"/>
-      <c r="AC166" s="3"/>
-      <c r="AD166" s="3"/>
-      <c r="AE166" s="3"/>
-    </row>
-    <row r="167" spans="1:31">
+      <c r="V166" s="4"/>
+      <c r="W166" s="5"/>
+      <c r="X166" s="5"/>
+      <c r="Y166" s="5"/>
+      <c r="Z166" s="5"/>
+      <c r="AA166" s="5"/>
+      <c r="AB166" s="5"/>
+      <c r="AC166" s="5"/>
+      <c r="AD166" s="5"/>
+      <c r="AE166" s="5"/>
+      <c r="AF166" s="5"/>
+    </row>
+    <row r="167" spans="1:32">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6529,18 +6713,19 @@
       <c r="S167" s="4"/>
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
-      <c r="V167" s="3"/>
-      <c r="W167" s="3"/>
-      <c r="X167" s="3"/>
-      <c r="Y167" s="3"/>
-      <c r="Z167" s="3"/>
-      <c r="AA167" s="3"/>
-      <c r="AB167" s="3"/>
-      <c r="AC167" s="3"/>
-      <c r="AD167" s="3"/>
-      <c r="AE167" s="3"/>
-    </row>
-    <row r="168" spans="1:31">
+      <c r="V167" s="4"/>
+      <c r="W167" s="5"/>
+      <c r="X167" s="5"/>
+      <c r="Y167" s="5"/>
+      <c r="Z167" s="5"/>
+      <c r="AA167" s="5"/>
+      <c r="AB167" s="5"/>
+      <c r="AC167" s="5"/>
+      <c r="AD167" s="5"/>
+      <c r="AE167" s="5"/>
+      <c r="AF167" s="5"/>
+    </row>
+    <row r="168" spans="1:32">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6562,18 +6747,19 @@
       <c r="S168" s="4"/>
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
-      <c r="V168" s="3"/>
-      <c r="W168" s="3"/>
-      <c r="X168" s="3"/>
-      <c r="Y168" s="3"/>
-      <c r="Z168" s="3"/>
-      <c r="AA168" s="3"/>
-      <c r="AB168" s="3"/>
-      <c r="AC168" s="3"/>
-      <c r="AD168" s="3"/>
-      <c r="AE168" s="3"/>
-    </row>
-    <row r="169" spans="1:31">
+      <c r="V168" s="4"/>
+      <c r="W168" s="5"/>
+      <c r="X168" s="5"/>
+      <c r="Y168" s="5"/>
+      <c r="Z168" s="5"/>
+      <c r="AA168" s="5"/>
+      <c r="AB168" s="5"/>
+      <c r="AC168" s="5"/>
+      <c r="AD168" s="5"/>
+      <c r="AE168" s="5"/>
+      <c r="AF168" s="5"/>
+    </row>
+    <row r="169" spans="1:32">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6595,18 +6781,19 @@
       <c r="S169" s="4"/>
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
-      <c r="V169" s="3"/>
-      <c r="W169" s="3"/>
-      <c r="X169" s="3"/>
-      <c r="Y169" s="3"/>
-      <c r="Z169" s="3"/>
-      <c r="AA169" s="3"/>
-      <c r="AB169" s="3"/>
-      <c r="AC169" s="3"/>
-      <c r="AD169" s="3"/>
-      <c r="AE169" s="3"/>
-    </row>
-    <row r="170" spans="1:31">
+      <c r="V169" s="4"/>
+      <c r="W169" s="5"/>
+      <c r="X169" s="5"/>
+      <c r="Y169" s="5"/>
+      <c r="Z169" s="5"/>
+      <c r="AA169" s="5"/>
+      <c r="AB169" s="5"/>
+      <c r="AC169" s="5"/>
+      <c r="AD169" s="5"/>
+      <c r="AE169" s="5"/>
+      <c r="AF169" s="5"/>
+    </row>
+    <row r="170" spans="1:32">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6628,18 +6815,19 @@
       <c r="S170" s="4"/>
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
-      <c r="V170" s="3"/>
-      <c r="W170" s="3"/>
-      <c r="X170" s="3"/>
-      <c r="Y170" s="3"/>
-      <c r="Z170" s="3"/>
-      <c r="AA170" s="3"/>
-      <c r="AB170" s="3"/>
-      <c r="AC170" s="3"/>
-      <c r="AD170" s="3"/>
-      <c r="AE170" s="3"/>
-    </row>
-    <row r="171" spans="1:31">
+      <c r="V170" s="4"/>
+      <c r="W170" s="5"/>
+      <c r="X170" s="5"/>
+      <c r="Y170" s="5"/>
+      <c r="Z170" s="5"/>
+      <c r="AA170" s="5"/>
+      <c r="AB170" s="5"/>
+      <c r="AC170" s="5"/>
+      <c r="AD170" s="5"/>
+      <c r="AE170" s="5"/>
+      <c r="AF170" s="5"/>
+    </row>
+    <row r="171" spans="1:32">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6661,18 +6849,19 @@
       <c r="S171" s="4"/>
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
-      <c r="V171" s="3"/>
-      <c r="W171" s="3"/>
-      <c r="X171" s="3"/>
-      <c r="Y171" s="3"/>
-      <c r="Z171" s="3"/>
-      <c r="AA171" s="3"/>
-      <c r="AB171" s="3"/>
-      <c r="AC171" s="3"/>
-      <c r="AD171" s="3"/>
-      <c r="AE171" s="3"/>
-    </row>
-    <row r="172" spans="1:31">
+      <c r="V171" s="4"/>
+      <c r="W171" s="5"/>
+      <c r="X171" s="5"/>
+      <c r="Y171" s="5"/>
+      <c r="Z171" s="5"/>
+      <c r="AA171" s="5"/>
+      <c r="AB171" s="5"/>
+      <c r="AC171" s="5"/>
+      <c r="AD171" s="5"/>
+      <c r="AE171" s="5"/>
+      <c r="AF171" s="5"/>
+    </row>
+    <row r="172" spans="1:32">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6694,18 +6883,19 @@
       <c r="S172" s="4"/>
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
-      <c r="V172" s="3"/>
-      <c r="W172" s="3"/>
-      <c r="X172" s="3"/>
-      <c r="Y172" s="3"/>
-      <c r="Z172" s="3"/>
-      <c r="AA172" s="3"/>
-      <c r="AB172" s="3"/>
-      <c r="AC172" s="3"/>
-      <c r="AD172" s="3"/>
-      <c r="AE172" s="3"/>
-    </row>
-    <row r="173" spans="1:31">
+      <c r="V172" s="4"/>
+      <c r="W172" s="5"/>
+      <c r="X172" s="5"/>
+      <c r="Y172" s="5"/>
+      <c r="Z172" s="5"/>
+      <c r="AA172" s="5"/>
+      <c r="AB172" s="5"/>
+      <c r="AC172" s="5"/>
+      <c r="AD172" s="5"/>
+      <c r="AE172" s="5"/>
+      <c r="AF172" s="5"/>
+    </row>
+    <row r="173" spans="1:32">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6727,18 +6917,19 @@
       <c r="S173" s="4"/>
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
-      <c r="V173" s="3"/>
-      <c r="W173" s="3"/>
-      <c r="X173" s="3"/>
-      <c r="Y173" s="3"/>
-      <c r="Z173" s="3"/>
-      <c r="AA173" s="3"/>
-      <c r="AB173" s="3"/>
-      <c r="AC173" s="3"/>
-      <c r="AD173" s="3"/>
-      <c r="AE173" s="3"/>
-    </row>
-    <row r="174" spans="1:31">
+      <c r="V173" s="4"/>
+      <c r="W173" s="5"/>
+      <c r="X173" s="5"/>
+      <c r="Y173" s="5"/>
+      <c r="Z173" s="5"/>
+      <c r="AA173" s="5"/>
+      <c r="AB173" s="5"/>
+      <c r="AC173" s="5"/>
+      <c r="AD173" s="5"/>
+      <c r="AE173" s="5"/>
+      <c r="AF173" s="5"/>
+    </row>
+    <row r="174" spans="1:32">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6760,18 +6951,19 @@
       <c r="S174" s="4"/>
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
-      <c r="V174" s="3"/>
-      <c r="W174" s="3"/>
-      <c r="X174" s="3"/>
-      <c r="Y174" s="3"/>
-      <c r="Z174" s="3"/>
-      <c r="AA174" s="3"/>
-      <c r="AB174" s="3"/>
-      <c r="AC174" s="3"/>
-      <c r="AD174" s="3"/>
-      <c r="AE174" s="3"/>
-    </row>
-    <row r="175" spans="1:31">
+      <c r="V174" s="4"/>
+      <c r="W174" s="5"/>
+      <c r="X174" s="5"/>
+      <c r="Y174" s="5"/>
+      <c r="Z174" s="5"/>
+      <c r="AA174" s="5"/>
+      <c r="AB174" s="5"/>
+      <c r="AC174" s="5"/>
+      <c r="AD174" s="5"/>
+      <c r="AE174" s="5"/>
+      <c r="AF174" s="5"/>
+    </row>
+    <row r="175" spans="1:32">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -6793,18 +6985,19 @@
       <c r="S175" s="4"/>
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
-      <c r="V175" s="3"/>
-      <c r="W175" s="3"/>
-      <c r="X175" s="3"/>
-      <c r="Y175" s="3"/>
-      <c r="Z175" s="3"/>
-      <c r="AA175" s="3"/>
-      <c r="AB175" s="3"/>
-      <c r="AC175" s="3"/>
-      <c r="AD175" s="3"/>
-      <c r="AE175" s="3"/>
-    </row>
-    <row r="176" spans="1:31">
+      <c r="V175" s="4"/>
+      <c r="W175" s="5"/>
+      <c r="X175" s="5"/>
+      <c r="Y175" s="5"/>
+      <c r="Z175" s="5"/>
+      <c r="AA175" s="5"/>
+      <c r="AB175" s="5"/>
+      <c r="AC175" s="5"/>
+      <c r="AD175" s="5"/>
+      <c r="AE175" s="5"/>
+      <c r="AF175" s="5"/>
+    </row>
+    <row r="176" spans="1:32">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6826,18 +7019,19 @@
       <c r="S176" s="4"/>
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
-      <c r="V176" s="3"/>
-      <c r="W176" s="3"/>
-      <c r="X176" s="3"/>
-      <c r="Y176" s="3"/>
-      <c r="Z176" s="3"/>
-      <c r="AA176" s="3"/>
-      <c r="AB176" s="3"/>
-      <c r="AC176" s="3"/>
-      <c r="AD176" s="3"/>
-      <c r="AE176" s="3"/>
-    </row>
-    <row r="177" spans="1:31">
+      <c r="V176" s="4"/>
+      <c r="W176" s="5"/>
+      <c r="X176" s="5"/>
+      <c r="Y176" s="5"/>
+      <c r="Z176" s="5"/>
+      <c r="AA176" s="5"/>
+      <c r="AB176" s="5"/>
+      <c r="AC176" s="5"/>
+      <c r="AD176" s="5"/>
+      <c r="AE176" s="5"/>
+      <c r="AF176" s="5"/>
+    </row>
+    <row r="177" spans="1:32">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6859,18 +7053,19 @@
       <c r="S177" s="4"/>
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
-      <c r="V177" s="3"/>
-      <c r="W177" s="3"/>
-      <c r="X177" s="3"/>
-      <c r="Y177" s="3"/>
-      <c r="Z177" s="3"/>
-      <c r="AA177" s="3"/>
-      <c r="AB177" s="3"/>
-      <c r="AC177" s="3"/>
-      <c r="AD177" s="3"/>
-      <c r="AE177" s="3"/>
-    </row>
-    <row r="178" spans="1:31">
+      <c r="V177" s="4"/>
+      <c r="W177" s="5"/>
+      <c r="X177" s="5"/>
+      <c r="Y177" s="5"/>
+      <c r="Z177" s="5"/>
+      <c r="AA177" s="5"/>
+      <c r="AB177" s="5"/>
+      <c r="AC177" s="5"/>
+      <c r="AD177" s="5"/>
+      <c r="AE177" s="5"/>
+      <c r="AF177" s="5"/>
+    </row>
+    <row r="178" spans="1:32">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -6892,18 +7087,19 @@
       <c r="S178" s="4"/>
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
-      <c r="V178" s="3"/>
-      <c r="W178" s="3"/>
-      <c r="X178" s="3"/>
-      <c r="Y178" s="3"/>
-      <c r="Z178" s="3"/>
-      <c r="AA178" s="3"/>
-      <c r="AB178" s="3"/>
-      <c r="AC178" s="3"/>
-      <c r="AD178" s="3"/>
-      <c r="AE178" s="3"/>
-    </row>
-    <row r="179" spans="1:31">
+      <c r="V178" s="4"/>
+      <c r="W178" s="5"/>
+      <c r="X178" s="5"/>
+      <c r="Y178" s="5"/>
+      <c r="Z178" s="5"/>
+      <c r="AA178" s="5"/>
+      <c r="AB178" s="5"/>
+      <c r="AC178" s="5"/>
+      <c r="AD178" s="5"/>
+      <c r="AE178" s="5"/>
+      <c r="AF178" s="5"/>
+    </row>
+    <row r="179" spans="1:32">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -6925,18 +7121,19 @@
       <c r="S179" s="4"/>
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
-      <c r="V179" s="3"/>
-      <c r="W179" s="3"/>
-      <c r="X179" s="3"/>
-      <c r="Y179" s="3"/>
-      <c r="Z179" s="3"/>
-      <c r="AA179" s="3"/>
-      <c r="AB179" s="3"/>
-      <c r="AC179" s="3"/>
-      <c r="AD179" s="3"/>
-      <c r="AE179" s="3"/>
-    </row>
-    <row r="180" spans="1:31">
+      <c r="V179" s="4"/>
+      <c r="W179" s="5"/>
+      <c r="X179" s="5"/>
+      <c r="Y179" s="5"/>
+      <c r="Z179" s="5"/>
+      <c r="AA179" s="5"/>
+      <c r="AB179" s="5"/>
+      <c r="AC179" s="5"/>
+      <c r="AD179" s="5"/>
+      <c r="AE179" s="5"/>
+      <c r="AF179" s="5"/>
+    </row>
+    <row r="180" spans="1:32">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6958,18 +7155,19 @@
       <c r="S180" s="4"/>
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
-      <c r="V180" s="3"/>
-      <c r="W180" s="3"/>
-      <c r="X180" s="3"/>
-      <c r="Y180" s="3"/>
-      <c r="Z180" s="3"/>
-      <c r="AA180" s="3"/>
-      <c r="AB180" s="3"/>
-      <c r="AC180" s="3"/>
-      <c r="AD180" s="3"/>
-      <c r="AE180" s="3"/>
-    </row>
-    <row r="181" spans="1:31">
+      <c r="V180" s="4"/>
+      <c r="W180" s="5"/>
+      <c r="X180" s="5"/>
+      <c r="Y180" s="5"/>
+      <c r="Z180" s="5"/>
+      <c r="AA180" s="5"/>
+      <c r="AB180" s="5"/>
+      <c r="AC180" s="5"/>
+      <c r="AD180" s="5"/>
+      <c r="AE180" s="5"/>
+      <c r="AF180" s="5"/>
+    </row>
+    <row r="181" spans="1:32">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6991,18 +7189,19 @@
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
-      <c r="V181" s="3"/>
-      <c r="W181" s="3"/>
-      <c r="X181" s="3"/>
-      <c r="Y181" s="3"/>
-      <c r="Z181" s="3"/>
-      <c r="AA181" s="3"/>
-      <c r="AB181" s="3"/>
-      <c r="AC181" s="3"/>
-      <c r="AD181" s="3"/>
-      <c r="AE181" s="3"/>
-    </row>
-    <row r="182" spans="1:31">
+      <c r="V181" s="4"/>
+      <c r="W181" s="5"/>
+      <c r="X181" s="5"/>
+      <c r="Y181" s="5"/>
+      <c r="Z181" s="5"/>
+      <c r="AA181" s="5"/>
+      <c r="AB181" s="5"/>
+      <c r="AC181" s="5"/>
+      <c r="AD181" s="5"/>
+      <c r="AE181" s="5"/>
+      <c r="AF181" s="5"/>
+    </row>
+    <row r="182" spans="1:32">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7024,18 +7223,19 @@
       <c r="S182" s="4"/>
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
-      <c r="V182" s="3"/>
-      <c r="W182" s="3"/>
-      <c r="X182" s="3"/>
-      <c r="Y182" s="3"/>
-      <c r="Z182" s="3"/>
-      <c r="AA182" s="3"/>
-      <c r="AB182" s="3"/>
-      <c r="AC182" s="3"/>
-      <c r="AD182" s="3"/>
-      <c r="AE182" s="3"/>
-    </row>
-    <row r="183" spans="1:31">
+      <c r="V182" s="4"/>
+      <c r="W182" s="5"/>
+      <c r="X182" s="5"/>
+      <c r="Y182" s="5"/>
+      <c r="Z182" s="5"/>
+      <c r="AA182" s="5"/>
+      <c r="AB182" s="5"/>
+      <c r="AC182" s="5"/>
+      <c r="AD182" s="5"/>
+      <c r="AE182" s="5"/>
+      <c r="AF182" s="5"/>
+    </row>
+    <row r="183" spans="1:32">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7057,18 +7257,19 @@
       <c r="S183" s="4"/>
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
-      <c r="V183" s="3"/>
-      <c r="W183" s="3"/>
-      <c r="X183" s="3"/>
-      <c r="Y183" s="3"/>
-      <c r="Z183" s="3"/>
-      <c r="AA183" s="3"/>
-      <c r="AB183" s="3"/>
-      <c r="AC183" s="3"/>
-      <c r="AD183" s="3"/>
-      <c r="AE183" s="3"/>
-    </row>
-    <row r="184" spans="1:31">
+      <c r="V183" s="4"/>
+      <c r="W183" s="5"/>
+      <c r="X183" s="5"/>
+      <c r="Y183" s="5"/>
+      <c r="Z183" s="5"/>
+      <c r="AA183" s="5"/>
+      <c r="AB183" s="5"/>
+      <c r="AC183" s="5"/>
+      <c r="AD183" s="5"/>
+      <c r="AE183" s="5"/>
+      <c r="AF183" s="5"/>
+    </row>
+    <row r="184" spans="1:32">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7090,18 +7291,19 @@
       <c r="S184" s="4"/>
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
-      <c r="V184" s="3"/>
-      <c r="W184" s="3"/>
-      <c r="X184" s="3"/>
-      <c r="Y184" s="3"/>
-      <c r="Z184" s="3"/>
-      <c r="AA184" s="3"/>
-      <c r="AB184" s="3"/>
-      <c r="AC184" s="3"/>
-      <c r="AD184" s="3"/>
-      <c r="AE184" s="3"/>
-    </row>
-    <row r="185" spans="1:31">
+      <c r="V184" s="4"/>
+      <c r="W184" s="5"/>
+      <c r="X184" s="5"/>
+      <c r="Y184" s="5"/>
+      <c r="Z184" s="5"/>
+      <c r="AA184" s="5"/>
+      <c r="AB184" s="5"/>
+      <c r="AC184" s="5"/>
+      <c r="AD184" s="5"/>
+      <c r="AE184" s="5"/>
+      <c r="AF184" s="5"/>
+    </row>
+    <row r="185" spans="1:32">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7123,18 +7325,19 @@
       <c r="S185" s="4"/>
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
-      <c r="V185" s="3"/>
-      <c r="W185" s="3"/>
-      <c r="X185" s="3"/>
-      <c r="Y185" s="3"/>
-      <c r="Z185" s="3"/>
-      <c r="AA185" s="3"/>
-      <c r="AB185" s="3"/>
-      <c r="AC185" s="3"/>
-      <c r="AD185" s="3"/>
-      <c r="AE185" s="3"/>
-    </row>
-    <row r="186" spans="1:31">
+      <c r="V185" s="4"/>
+      <c r="W185" s="5"/>
+      <c r="X185" s="5"/>
+      <c r="Y185" s="5"/>
+      <c r="Z185" s="5"/>
+      <c r="AA185" s="5"/>
+      <c r="AB185" s="5"/>
+      <c r="AC185" s="5"/>
+      <c r="AD185" s="5"/>
+      <c r="AE185" s="5"/>
+      <c r="AF185" s="5"/>
+    </row>
+    <row r="186" spans="1:32">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7156,18 +7359,19 @@
       <c r="S186" s="4"/>
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
-      <c r="V186" s="3"/>
-      <c r="W186" s="3"/>
-      <c r="X186" s="3"/>
-      <c r="Y186" s="3"/>
-      <c r="Z186" s="3"/>
-      <c r="AA186" s="3"/>
-      <c r="AB186" s="3"/>
-      <c r="AC186" s="3"/>
-      <c r="AD186" s="3"/>
-      <c r="AE186" s="3"/>
-    </row>
-    <row r="187" spans="1:31">
+      <c r="V186" s="4"/>
+      <c r="W186" s="5"/>
+      <c r="X186" s="5"/>
+      <c r="Y186" s="5"/>
+      <c r="Z186" s="5"/>
+      <c r="AA186" s="5"/>
+      <c r="AB186" s="5"/>
+      <c r="AC186" s="5"/>
+      <c r="AD186" s="5"/>
+      <c r="AE186" s="5"/>
+      <c r="AF186" s="5"/>
+    </row>
+    <row r="187" spans="1:32">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7189,18 +7393,19 @@
       <c r="S187" s="4"/>
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
-      <c r="V187" s="3"/>
-      <c r="W187" s="3"/>
-      <c r="X187" s="3"/>
-      <c r="Y187" s="3"/>
-      <c r="Z187" s="3"/>
-      <c r="AA187" s="3"/>
-      <c r="AB187" s="3"/>
-      <c r="AC187" s="3"/>
-      <c r="AD187" s="3"/>
-      <c r="AE187" s="3"/>
-    </row>
-    <row r="188" spans="1:31">
+      <c r="V187" s="4"/>
+      <c r="W187" s="5"/>
+      <c r="X187" s="5"/>
+      <c r="Y187" s="5"/>
+      <c r="Z187" s="5"/>
+      <c r="AA187" s="5"/>
+      <c r="AB187" s="5"/>
+      <c r="AC187" s="5"/>
+      <c r="AD187" s="5"/>
+      <c r="AE187" s="5"/>
+      <c r="AF187" s="5"/>
+    </row>
+    <row r="188" spans="1:32">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7222,18 +7427,19 @@
       <c r="S188" s="4"/>
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
-      <c r="V188" s="3"/>
-      <c r="W188" s="3"/>
-      <c r="X188" s="3"/>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-      <c r="AA188" s="3"/>
-      <c r="AB188" s="3"/>
-      <c r="AC188" s="3"/>
-      <c r="AD188" s="3"/>
-      <c r="AE188" s="3"/>
-    </row>
-    <row r="189" spans="1:31">
+      <c r="V188" s="4"/>
+      <c r="W188" s="5"/>
+      <c r="X188" s="5"/>
+      <c r="Y188" s="5"/>
+      <c r="Z188" s="5"/>
+      <c r="AA188" s="5"/>
+      <c r="AB188" s="5"/>
+      <c r="AC188" s="5"/>
+      <c r="AD188" s="5"/>
+      <c r="AE188" s="5"/>
+      <c r="AF188" s="5"/>
+    </row>
+    <row r="189" spans="1:32">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7255,18 +7461,19 @@
       <c r="S189" s="4"/>
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
-      <c r="V189" s="3"/>
-      <c r="W189" s="3"/>
-      <c r="X189" s="3"/>
-      <c r="Y189" s="3"/>
-      <c r="Z189" s="3"/>
-      <c r="AA189" s="3"/>
-      <c r="AB189" s="3"/>
-      <c r="AC189" s="3"/>
-      <c r="AD189" s="3"/>
-      <c r="AE189" s="3"/>
-    </row>
-    <row r="190" spans="1:31">
+      <c r="V189" s="4"/>
+      <c r="W189" s="5"/>
+      <c r="X189" s="5"/>
+      <c r="Y189" s="5"/>
+      <c r="Z189" s="5"/>
+      <c r="AA189" s="5"/>
+      <c r="AB189" s="5"/>
+      <c r="AC189" s="5"/>
+      <c r="AD189" s="5"/>
+      <c r="AE189" s="5"/>
+      <c r="AF189" s="5"/>
+    </row>
+    <row r="190" spans="1:32">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7288,18 +7495,19 @@
       <c r="S190" s="4"/>
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
-      <c r="V190" s="3"/>
-      <c r="W190" s="3"/>
-      <c r="X190" s="3"/>
-      <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
-      <c r="AA190" s="3"/>
-      <c r="AB190" s="3"/>
-      <c r="AC190" s="3"/>
-      <c r="AD190" s="3"/>
-      <c r="AE190" s="3"/>
-    </row>
-    <row r="191" spans="1:31">
+      <c r="V190" s="4"/>
+      <c r="W190" s="5"/>
+      <c r="X190" s="5"/>
+      <c r="Y190" s="5"/>
+      <c r="Z190" s="5"/>
+      <c r="AA190" s="5"/>
+      <c r="AB190" s="5"/>
+      <c r="AC190" s="5"/>
+      <c r="AD190" s="5"/>
+      <c r="AE190" s="5"/>
+      <c r="AF190" s="5"/>
+    </row>
+    <row r="191" spans="1:32">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7321,18 +7529,19 @@
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
-      <c r="V191" s="3"/>
-      <c r="W191" s="3"/>
-      <c r="X191" s="3"/>
-      <c r="Y191" s="3"/>
-      <c r="Z191" s="3"/>
-      <c r="AA191" s="3"/>
-      <c r="AB191" s="3"/>
-      <c r="AC191" s="3"/>
-      <c r="AD191" s="3"/>
-      <c r="AE191" s="3"/>
-    </row>
-    <row r="192" spans="1:31">
+      <c r="V191" s="4"/>
+      <c r="W191" s="5"/>
+      <c r="X191" s="5"/>
+      <c r="Y191" s="5"/>
+      <c r="Z191" s="5"/>
+      <c r="AA191" s="5"/>
+      <c r="AB191" s="5"/>
+      <c r="AC191" s="5"/>
+      <c r="AD191" s="5"/>
+      <c r="AE191" s="5"/>
+      <c r="AF191" s="5"/>
+    </row>
+    <row r="192" spans="1:32">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7354,18 +7563,19 @@
       <c r="S192" s="4"/>
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
-      <c r="V192" s="3"/>
-      <c r="W192" s="3"/>
-      <c r="X192" s="3"/>
-      <c r="Y192" s="3"/>
-      <c r="Z192" s="3"/>
-      <c r="AA192" s="3"/>
-      <c r="AB192" s="3"/>
-      <c r="AC192" s="3"/>
-      <c r="AD192" s="3"/>
-      <c r="AE192" s="3"/>
-    </row>
-    <row r="193" spans="1:31">
+      <c r="V192" s="4"/>
+      <c r="W192" s="5"/>
+      <c r="X192" s="5"/>
+      <c r="Y192" s="5"/>
+      <c r="Z192" s="5"/>
+      <c r="AA192" s="5"/>
+      <c r="AB192" s="5"/>
+      <c r="AC192" s="5"/>
+      <c r="AD192" s="5"/>
+      <c r="AE192" s="5"/>
+      <c r="AF192" s="5"/>
+    </row>
+    <row r="193" spans="1:32">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7387,18 +7597,19 @@
       <c r="S193" s="4"/>
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
-      <c r="V193" s="3"/>
-      <c r="W193" s="3"/>
-      <c r="X193" s="3"/>
-      <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
-      <c r="AA193" s="3"/>
-      <c r="AB193" s="3"/>
-      <c r="AC193" s="3"/>
-      <c r="AD193" s="3"/>
-      <c r="AE193" s="3"/>
-    </row>
-    <row r="194" spans="1:31">
+      <c r="V193" s="4"/>
+      <c r="W193" s="5"/>
+      <c r="X193" s="5"/>
+      <c r="Y193" s="5"/>
+      <c r="Z193" s="5"/>
+      <c r="AA193" s="5"/>
+      <c r="AB193" s="5"/>
+      <c r="AC193" s="5"/>
+      <c r="AD193" s="5"/>
+      <c r="AE193" s="5"/>
+      <c r="AF193" s="5"/>
+    </row>
+    <row r="194" spans="1:32">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7420,18 +7631,19 @@
       <c r="S194" s="4"/>
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
-      <c r="V194" s="3"/>
-      <c r="W194" s="3"/>
-      <c r="X194" s="3"/>
-      <c r="Y194" s="3"/>
-      <c r="Z194" s="3"/>
-      <c r="AA194" s="3"/>
-      <c r="AB194" s="3"/>
-      <c r="AC194" s="3"/>
-      <c r="AD194" s="3"/>
-      <c r="AE194" s="3"/>
-    </row>
-    <row r="195" spans="1:31">
+      <c r="V194" s="4"/>
+      <c r="W194" s="5"/>
+      <c r="X194" s="5"/>
+      <c r="Y194" s="5"/>
+      <c r="Z194" s="5"/>
+      <c r="AA194" s="5"/>
+      <c r="AB194" s="5"/>
+      <c r="AC194" s="5"/>
+      <c r="AD194" s="5"/>
+      <c r="AE194" s="5"/>
+      <c r="AF194" s="5"/>
+    </row>
+    <row r="195" spans="1:32">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7453,18 +7665,19 @@
       <c r="S195" s="4"/>
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
-      <c r="V195" s="3"/>
-      <c r="W195" s="3"/>
-      <c r="X195" s="3"/>
-      <c r="Y195" s="3"/>
-      <c r="Z195" s="3"/>
-      <c r="AA195" s="3"/>
-      <c r="AB195" s="3"/>
-      <c r="AC195" s="3"/>
-      <c r="AD195" s="3"/>
-      <c r="AE195" s="3"/>
-    </row>
-    <row r="196" spans="1:31">
+      <c r="V195" s="4"/>
+      <c r="W195" s="5"/>
+      <c r="X195" s="5"/>
+      <c r="Y195" s="5"/>
+      <c r="Z195" s="5"/>
+      <c r="AA195" s="5"/>
+      <c r="AB195" s="5"/>
+      <c r="AC195" s="5"/>
+      <c r="AD195" s="5"/>
+      <c r="AE195" s="5"/>
+      <c r="AF195" s="5"/>
+    </row>
+    <row r="196" spans="1:32">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7486,18 +7699,19 @@
       <c r="S196" s="4"/>
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
-      <c r="V196" s="3"/>
-      <c r="W196" s="3"/>
-      <c r="X196" s="3"/>
-      <c r="Y196" s="3"/>
-      <c r="Z196" s="3"/>
-      <c r="AA196" s="3"/>
-      <c r="AB196" s="3"/>
-      <c r="AC196" s="3"/>
-      <c r="AD196" s="3"/>
-      <c r="AE196" s="3"/>
-    </row>
-    <row r="197" spans="1:31">
+      <c r="V196" s="4"/>
+      <c r="W196" s="5"/>
+      <c r="X196" s="5"/>
+      <c r="Y196" s="5"/>
+      <c r="Z196" s="5"/>
+      <c r="AA196" s="5"/>
+      <c r="AB196" s="5"/>
+      <c r="AC196" s="5"/>
+      <c r="AD196" s="5"/>
+      <c r="AE196" s="5"/>
+      <c r="AF196" s="5"/>
+    </row>
+    <row r="197" spans="1:32">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7519,18 +7733,19 @@
       <c r="S197" s="4"/>
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
-      <c r="V197" s="3"/>
-      <c r="W197" s="3"/>
-      <c r="X197" s="3"/>
-      <c r="Y197" s="3"/>
-      <c r="Z197" s="3"/>
-      <c r="AA197" s="3"/>
-      <c r="AB197" s="3"/>
-      <c r="AC197" s="3"/>
-      <c r="AD197" s="3"/>
-      <c r="AE197" s="3"/>
-    </row>
-    <row r="198" spans="1:31">
+      <c r="V197" s="4"/>
+      <c r="W197" s="5"/>
+      <c r="X197" s="5"/>
+      <c r="Y197" s="5"/>
+      <c r="Z197" s="5"/>
+      <c r="AA197" s="5"/>
+      <c r="AB197" s="5"/>
+      <c r="AC197" s="5"/>
+      <c r="AD197" s="5"/>
+      <c r="AE197" s="5"/>
+      <c r="AF197" s="5"/>
+    </row>
+    <row r="198" spans="1:32">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7552,18 +7767,19 @@
       <c r="S198" s="4"/>
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
-      <c r="V198" s="3"/>
-      <c r="W198" s="3"/>
-      <c r="X198" s="3"/>
-      <c r="Y198" s="3"/>
-      <c r="Z198" s="3"/>
-      <c r="AA198" s="3"/>
-      <c r="AB198" s="3"/>
-      <c r="AC198" s="3"/>
-      <c r="AD198" s="3"/>
-      <c r="AE198" s="3"/>
-    </row>
-    <row r="199" spans="1:31">
+      <c r="V198" s="4"/>
+      <c r="W198" s="5"/>
+      <c r="X198" s="5"/>
+      <c r="Y198" s="5"/>
+      <c r="Z198" s="5"/>
+      <c r="AA198" s="5"/>
+      <c r="AB198" s="5"/>
+      <c r="AC198" s="5"/>
+      <c r="AD198" s="5"/>
+      <c r="AE198" s="5"/>
+      <c r="AF198" s="5"/>
+    </row>
+    <row r="199" spans="1:32">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7585,18 +7801,19 @@
       <c r="S199" s="4"/>
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
-      <c r="V199" s="3"/>
-      <c r="W199" s="3"/>
-      <c r="X199" s="3"/>
-      <c r="Y199" s="3"/>
-      <c r="Z199" s="3"/>
-      <c r="AA199" s="3"/>
-      <c r="AB199" s="3"/>
-      <c r="AC199" s="3"/>
-      <c r="AD199" s="3"/>
-      <c r="AE199" s="3"/>
-    </row>
-    <row r="200" spans="1:31">
+      <c r="V199" s="4"/>
+      <c r="W199" s="5"/>
+      <c r="X199" s="5"/>
+      <c r="Y199" s="5"/>
+      <c r="Z199" s="5"/>
+      <c r="AA199" s="5"/>
+      <c r="AB199" s="5"/>
+      <c r="AC199" s="5"/>
+      <c r="AD199" s="5"/>
+      <c r="AE199" s="5"/>
+      <c r="AF199" s="5"/>
+    </row>
+    <row r="200" spans="1:32">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7618,16 +7835,17 @@
       <c r="S200" s="4"/>
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
-      <c r="V200" s="3"/>
-      <c r="W200" s="3"/>
-      <c r="X200" s="3"/>
-      <c r="Y200" s="3"/>
-      <c r="Z200" s="3"/>
-      <c r="AA200" s="3"/>
-      <c r="AB200" s="3"/>
-      <c r="AC200" s="3"/>
-      <c r="AD200" s="3"/>
-      <c r="AE200" s="3"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="5"/>
+      <c r="X200" s="5"/>
+      <c r="Y200" s="5"/>
+      <c r="Z200" s="5"/>
+      <c r="AA200" s="5"/>
+      <c r="AB200" s="5"/>
+      <c r="AC200" s="5"/>
+      <c r="AD200" s="5"/>
+      <c r="AE200" s="5"/>
+      <c r="AF200" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -7660,53 +7878,53 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="19" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="19" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="19" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="20" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="19" t="s">
-        <v>41</v>
+      <c r="A10" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
+++ b/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B752C4B-123F-4FED-9865-C4993A536BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336281C5-6FBC-401F-BCFF-DB32C8623491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="2595" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="5010" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH59_西赤山駅_UIList" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>操作可能判定に用いる鍵名称</t>
+          <t>てこの種類</t>
         </r>
       </text>
     </comment>
@@ -130,7 +130,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>操作可能判定に用いる鍵名称</t>
         </r>
       </text>
     </comment>
@@ -143,11 +143,50 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>この盤以外で連動する場合に指定する駅名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>この盤以外で連動する場合に指定するユニーク名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -404,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Type</t>
   </si>
@@ -443,7 +482,16 @@
     <t>PointValue</t>
   </si>
   <si>
+    <t>LeverType</t>
+  </si>
+  <si>
     <t>KeyName</t>
+  </si>
+  <si>
+    <t>LinkedStationName</t>
+  </si>
+  <si>
+    <t>LinkedUniqueName</t>
   </si>
   <si>
     <t>X</t>
@@ -925,7 +973,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF200"/>
+  <dimension ref="A1:AI200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -938,14 +986,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="37.5703125" customWidth="1"/>
-    <col min="23" max="23" width="100.140625" customWidth="1"/>
-    <col min="24" max="24" width="62.5703125" customWidth="1"/>
-    <col min="25" max="32" width="14.7109375" customWidth="1"/>
+    <col min="3" max="24" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="37.5703125" customWidth="1"/>
+    <col min="26" max="26" width="100.140625" customWidth="1"/>
+    <col min="27" max="27" width="62.5703125" customWidth="1"/>
+    <col min="28" max="35" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,42 +1060,51 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1058,46 +1115,49 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="5" t="s">
-        <v>26</v>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="5" t="s">
+        <v>29</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="6">
-        <v>1035</v>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6">
+        <v>900</v>
       </c>
-      <c r="I3" s="6">
+      <c r="L3" s="6">
         <v>78</v>
       </c>
-      <c r="J3" s="6">
+      <c r="M3" s="6">
         <v>79</v>
       </c>
-      <c r="K3" s="6">
+      <c r="N3" s="6">
         <v>110</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1106,48 +1166,51 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="8" t="s">
-        <v>29</v>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8" t="s">
+        <v>32</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-    </row>
-    <row r="4" spans="1:32" ht="25.5">
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+    </row>
+    <row r="4" spans="1:35" ht="25.5">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>6</v>
       </c>
-      <c r="I4" s="6">
+      <c r="L4" s="6">
         <v>37</v>
       </c>
-      <c r="J4" s="6">
+      <c r="M4" s="6">
         <v>63</v>
       </c>
-      <c r="K4" s="6">
+      <c r="N4" s="6">
         <v>63</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1155,45 +1218,48 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
-        <v>32</v>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7" t="s">
+        <v>35</v>
       </c>
-      <c r="W4" s="8" t="s">
-        <v>33</v>
+      <c r="Z4" s="8" t="s">
+        <v>36</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="6">
-        <f>H3+11</f>
-        <v>1046</v>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6">
+        <f>K3+11</f>
+        <v>911</v>
       </c>
-      <c r="I5" s="6">
-        <f>I3-68</f>
+      <c r="L5" s="6">
+        <f>L3-68</f>
         <v>10</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1204,20 +1270,23 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="8" t="s">
-        <v>35</v>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8" t="s">
+        <v>38</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="AA5" s="7"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="4"/>
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
@@ -1225,33 +1294,36 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="12"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
@@ -1259,33 +1331,36 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="12"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="4"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4"/>
@@ -1293,33 +1368,36 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="4"/>
       <c r="B9" s="9"/>
       <c r="C9" s="4"/>
@@ -1327,33 +1405,36 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="4"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4"/>
@@ -1361,33 +1442,36 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="12"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
@@ -1395,33 +1479,36 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="12"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
@@ -1429,33 +1516,36 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="12"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
@@ -1463,33 +1553,36 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" s="4"/>
       <c r="B14" s="13"/>
       <c r="C14" s="4"/>
@@ -1497,33 +1590,36 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="12"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="4"/>
       <c r="B15" s="13"/>
       <c r="C15" s="4"/>
@@ -1531,33 +1627,36 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="12"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16" s="4"/>
       <c r="B16" s="9"/>
       <c r="C16" s="4"/>
@@ -1565,33 +1664,36 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="12"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" s="4"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
@@ -1599,33 +1701,36 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="12"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="4"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4"/>
@@ -1633,33 +1738,36 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="12"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="4"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4"/>
@@ -1667,33 +1775,36 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="12"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4"/>
@@ -1701,33 +1812,36 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="12"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="4"/>
@@ -1735,33 +1849,36 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+    </row>
+    <row r="22" spans="1:35">
       <c r="A22" s="4"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
@@ -1769,33 +1886,36 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="12"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" s="4"/>
       <c r="B23" s="13"/>
       <c r="C23" s="4"/>
@@ -1803,33 +1923,36 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="12"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+    </row>
+    <row r="24" spans="1:35">
       <c r="A24" s="4"/>
       <c r="B24" s="13"/>
       <c r="C24" s="4"/>
@@ -1837,33 +1960,36 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+    </row>
+    <row r="25" spans="1:35">
       <c r="A25" s="4"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4"/>
@@ -1871,33 +1997,36 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="12"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+    </row>
+    <row r="26" spans="1:35">
       <c r="A26" s="4"/>
       <c r="B26" s="9"/>
       <c r="C26" s="4"/>
@@ -1905,33 +2034,36 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="12"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="4"/>
       <c r="B27" s="9"/>
       <c r="C27" s="4"/>
@@ -1939,11 +2071,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -1951,21 +2083,24 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="12"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28" s="4"/>
       <c r="B28" s="9"/>
       <c r="C28" s="4"/>
@@ -1973,11 +2108,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1985,21 +2120,24 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="12"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+    </row>
+    <row r="29" spans="1:35">
       <c r="A29" s="4"/>
       <c r="B29" s="9"/>
       <c r="C29" s="4"/>
@@ -2007,33 +2145,36 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="12"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30" s="4"/>
       <c r="B30" s="9"/>
       <c r="C30" s="4"/>
@@ -2041,11 +2182,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2053,21 +2194,24 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+    </row>
+    <row r="31" spans="1:35">
       <c r="A31" s="4"/>
       <c r="B31" s="9"/>
       <c r="C31" s="4"/>
@@ -2075,11 +2219,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2087,21 +2231,24 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="12"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+    </row>
+    <row r="32" spans="1:35">
       <c r="A32" s="4"/>
       <c r="B32" s="9"/>
       <c r="C32" s="4"/>
@@ -2109,33 +2256,36 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="12"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+    </row>
+    <row r="33" spans="1:35">
       <c r="A33" s="4"/>
       <c r="B33" s="9"/>
       <c r="C33" s="4"/>
@@ -2143,11 +2293,11 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2155,21 +2305,24 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="12"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+    </row>
+    <row r="34" spans="1:35">
       <c r="A34" s="4"/>
       <c r="B34" s="9"/>
       <c r="C34" s="4"/>
@@ -2177,11 +2330,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -2189,21 +2342,24 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="12"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" s="4"/>
       <c r="B35" s="9"/>
       <c r="C35" s="4"/>
@@ -2211,33 +2367,36 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="12"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+    </row>
+    <row r="36" spans="1:35">
       <c r="A36" s="4"/>
       <c r="B36" s="9"/>
       <c r="C36" s="4"/>
@@ -2245,11 +2404,11 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -2257,21 +2416,24 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="12"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+    </row>
+    <row r="37" spans="1:35">
       <c r="A37" s="4"/>
       <c r="B37" s="9"/>
       <c r="C37" s="4"/>
@@ -2279,11 +2441,11 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -2291,21 +2453,24 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="12"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+    </row>
+    <row r="38" spans="1:35">
       <c r="A38" s="4"/>
       <c r="B38" s="9"/>
       <c r="C38" s="4"/>
@@ -2313,33 +2478,36 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="12"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+    </row>
+    <row r="39" spans="1:35">
       <c r="A39" s="4"/>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
@@ -2347,11 +2515,11 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2359,21 +2527,24 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="12"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40" s="4"/>
       <c r="B40" s="9"/>
       <c r="C40" s="4"/>
@@ -2381,11 +2552,11 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -2393,21 +2564,24 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+    </row>
+    <row r="41" spans="1:35">
       <c r="A41" s="4"/>
       <c r="B41" s="9"/>
       <c r="C41" s="4"/>
@@ -2415,33 +2589,36 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="12"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+    </row>
+    <row r="42" spans="1:35">
       <c r="A42" s="4"/>
       <c r="B42" s="9"/>
       <c r="C42" s="4"/>
@@ -2449,11 +2626,11 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2461,21 +2638,24 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="12"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+    </row>
+    <row r="43" spans="1:35">
       <c r="A43" s="4"/>
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
@@ -2483,11 +2663,11 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -2495,21 +2675,24 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="12"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+    </row>
+    <row r="44" spans="1:35">
       <c r="A44" s="4"/>
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
@@ -2517,33 +2700,36 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="12"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+    </row>
+    <row r="45" spans="1:35">
       <c r="A45" s="4"/>
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
@@ -2551,11 +2737,11 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -2563,21 +2749,24 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="12"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+    </row>
+    <row r="46" spans="1:35">
       <c r="A46" s="4"/>
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
@@ -2585,33 +2774,36 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="12"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+    </row>
+    <row r="47" spans="1:35">
       <c r="A47" s="4"/>
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
@@ -2619,11 +2811,11 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -2631,21 +2823,24 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="12"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+    </row>
+    <row r="48" spans="1:35">
       <c r="A48" s="4"/>
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
@@ -2653,11 +2848,11 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -2665,21 +2860,24 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="12"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" s="4"/>
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
@@ -2687,11 +2885,11 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="13"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="13"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2699,21 +2897,24 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="12"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50" s="4"/>
       <c r="B50" s="9"/>
       <c r="C50" s="4"/>
@@ -2721,11 +2922,11 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -2733,21 +2934,24 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="12"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+    </row>
+    <row r="51" spans="1:35">
       <c r="A51" s="4"/>
       <c r="B51" s="9"/>
       <c r="C51" s="4"/>
@@ -2755,11 +2959,11 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -2767,21 +2971,24 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="12"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52" s="4"/>
       <c r="B52" s="9"/>
       <c r="C52" s="4"/>
@@ -2789,11 +2996,11 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2801,21 +3008,24 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="12"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" s="4"/>
       <c r="B53" s="9"/>
       <c r="C53" s="4"/>
@@ -2823,11 +3033,11 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="13"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="13"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2835,21 +3045,24 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="12"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+    </row>
+    <row r="54" spans="1:35">
       <c r="A54" s="4"/>
       <c r="B54" s="9"/>
       <c r="C54" s="4"/>
@@ -2857,11 +3070,11 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -2869,21 +3082,24 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="12"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+    </row>
+    <row r="55" spans="1:35">
       <c r="A55" s="4"/>
       <c r="B55" s="9"/>
       <c r="C55" s="4"/>
@@ -2891,11 +3107,11 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2903,21 +3119,24 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="12"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+    </row>
+    <row r="56" spans="1:35">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="4"/>
@@ -2925,11 +3144,11 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -2937,21 +3156,24 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="12"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="4"/>
@@ -2959,11 +3181,11 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -2971,21 +3193,24 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="12"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+    </row>
+    <row r="58" spans="1:35">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="4"/>
@@ -2993,11 +3218,11 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -3005,21 +3230,24 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="12"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+    </row>
+    <row r="59" spans="1:35">
       <c r="A59" s="4"/>
       <c r="B59" s="9"/>
       <c r="C59" s="4"/>
@@ -3027,11 +3255,11 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -3039,21 +3267,24 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="14"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+    </row>
+    <row r="60" spans="1:35">
       <c r="A60" s="4"/>
       <c r="B60" s="9"/>
       <c r="C60" s="4"/>
@@ -3061,11 +3292,11 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -3073,21 +3304,24 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="14"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+    </row>
+    <row r="61" spans="1:35">
       <c r="A61" s="4"/>
       <c r="B61" s="9"/>
       <c r="C61" s="4"/>
@@ -3095,11 +3329,11 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -3107,21 +3341,24 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="14"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+    </row>
+    <row r="62" spans="1:35">
       <c r="A62" s="4"/>
       <c r="B62" s="9"/>
       <c r="C62" s="4"/>
@@ -3129,11 +3366,11 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -3141,21 +3378,24 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="14"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+    </row>
+    <row r="63" spans="1:35">
       <c r="A63" s="4"/>
       <c r="B63" s="9"/>
       <c r="C63" s="4"/>
@@ -3163,11 +3403,11 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -3175,21 +3415,24 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="14"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+    </row>
+    <row r="64" spans="1:35">
       <c r="A64" s="4"/>
       <c r="B64" s="9"/>
       <c r="C64" s="4"/>
@@ -3197,11 +3440,11 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -3209,21 +3452,24 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="14"/>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+    </row>
+    <row r="65" spans="1:35">
       <c r="A65" s="4"/>
       <c r="B65" s="9"/>
       <c r="C65" s="4"/>
@@ -3231,11 +3477,11 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -3243,21 +3489,24 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="14"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="14"/>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+    </row>
+    <row r="66" spans="1:35">
       <c r="A66" s="4"/>
       <c r="B66" s="9"/>
       <c r="C66" s="4"/>
@@ -3265,11 +3514,11 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -3277,21 +3526,24 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="14"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="14"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+    </row>
+    <row r="67" spans="1:35">
       <c r="A67" s="4"/>
       <c r="B67" s="9"/>
       <c r="C67" s="4"/>
@@ -3299,11 +3551,11 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -3311,21 +3563,24 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="14"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+    </row>
+    <row r="68" spans="1:35">
       <c r="A68" s="4"/>
       <c r="B68" s="9"/>
       <c r="C68" s="4"/>
@@ -3333,11 +3588,11 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -3345,21 +3600,24 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="14"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="14"/>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+    </row>
+    <row r="69" spans="1:35">
       <c r="A69" s="4"/>
       <c r="B69" s="9"/>
       <c r="C69" s="4"/>
@@ -3367,11 +3625,11 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -3379,21 +3637,24 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="14"/>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+    </row>
+    <row r="70" spans="1:35">
       <c r="A70" s="4"/>
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
@@ -3401,11 +3662,11 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -3413,21 +3674,24 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="14"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+    </row>
+    <row r="71" spans="1:35">
       <c r="A71" s="4"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
@@ -3435,11 +3699,11 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -3447,21 +3711,24 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="14"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="14"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+    </row>
+    <row r="72" spans="1:35">
       <c r="A72" s="4"/>
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
@@ -3469,11 +3736,11 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -3481,21 +3748,24 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="14"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="14"/>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+    </row>
+    <row r="73" spans="1:35">
       <c r="A73" s="4"/>
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
@@ -3503,11 +3773,11 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -3515,21 +3785,24 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="14"/>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+    </row>
+    <row r="74" spans="1:35">
       <c r="A74" s="4"/>
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
@@ -3537,11 +3810,11 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -3549,21 +3822,24 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="14"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="14"/>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+    </row>
+    <row r="75" spans="1:35">
       <c r="A75" s="4"/>
       <c r="B75" s="9"/>
       <c r="C75" s="4"/>
@@ -3571,11 +3847,11 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -3583,21 +3859,24 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="14"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="14"/>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+    </row>
+    <row r="76" spans="1:35">
       <c r="A76" s="4"/>
       <c r="B76" s="9"/>
       <c r="C76" s="4"/>
@@ -3605,11 +3884,11 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -3617,21 +3896,24 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="14"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="14"/>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+    </row>
+    <row r="77" spans="1:35">
       <c r="A77" s="4"/>
       <c r="B77" s="9"/>
       <c r="C77" s="4"/>
@@ -3639,11 +3921,11 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -3651,21 +3933,24 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="14"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="14"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+    </row>
+    <row r="78" spans="1:35">
       <c r="A78" s="4"/>
       <c r="B78" s="9"/>
       <c r="C78" s="4"/>
@@ -3673,11 +3958,11 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -3685,21 +3970,24 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="14"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="14"/>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+    </row>
+    <row r="79" spans="1:35">
       <c r="A79" s="4"/>
       <c r="B79" s="9"/>
       <c r="C79" s="4"/>
@@ -3707,11 +3995,11 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -3719,21 +4007,24 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="12"/>
-      <c r="X79" s="14"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="14"/>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+    </row>
+    <row r="80" spans="1:35">
       <c r="A80" s="4"/>
       <c r="B80" s="9"/>
       <c r="C80" s="4"/>
@@ -3741,11 +4032,11 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -3753,21 +4044,24 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="12"/>
-      <c r="X80" s="14"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="14"/>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+    </row>
+    <row r="81" spans="1:35">
       <c r="A81" s="4"/>
       <c r="B81" s="9"/>
       <c r="C81" s="4"/>
@@ -3775,11 +4069,11 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -3787,21 +4081,24 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="12"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="14"/>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+    </row>
+    <row r="82" spans="1:35">
       <c r="A82" s="4"/>
       <c r="B82" s="9"/>
       <c r="C82" s="4"/>
@@ -3809,11 +4106,11 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -3821,21 +4118,24 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="11"/>
-      <c r="W82" s="12"/>
-      <c r="X82" s="14"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="14"/>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+    </row>
+    <row r="83" spans="1:35">
       <c r="A83" s="4"/>
       <c r="B83" s="9"/>
       <c r="C83" s="4"/>
@@ -3843,11 +4143,11 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -3855,21 +4155,24 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="12"/>
-      <c r="X83" s="14"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="14"/>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+    </row>
+    <row r="84" spans="1:35">
       <c r="A84" s="4"/>
       <c r="B84" s="9"/>
       <c r="C84" s="4"/>
@@ -3877,11 +4180,11 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -3889,21 +4192,24 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="11"/>
-      <c r="W84" s="12"/>
-      <c r="X84" s="14"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="14"/>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+    </row>
+    <row r="85" spans="1:35">
       <c r="A85" s="4"/>
       <c r="B85" s="9"/>
       <c r="C85" s="4"/>
@@ -3911,11 +4217,11 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -3923,21 +4229,24 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="11"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="14"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="14"/>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="5"/>
+    </row>
+    <row r="86" spans="1:35">
       <c r="A86" s="4"/>
       <c r="B86" s="9"/>
       <c r="C86" s="4"/>
@@ -3945,11 +4254,11 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -3957,21 +4266,24 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="14"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="14"/>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86" s="5"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+    </row>
+    <row r="87" spans="1:35">
       <c r="A87" s="4"/>
       <c r="B87" s="9"/>
       <c r="C87" s="4"/>
@@ -3979,11 +4291,11 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -3991,21 +4303,24 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="12"/>
-      <c r="X87" s="14"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="14"/>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+    </row>
+    <row r="88" spans="1:35">
       <c r="A88" s="4"/>
       <c r="B88" s="9"/>
       <c r="C88" s="4"/>
@@ -4013,11 +4328,11 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -4025,21 +4340,24 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="14"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="14"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+    </row>
+    <row r="89" spans="1:35">
       <c r="A89" s="4"/>
       <c r="B89" s="9"/>
       <c r="C89" s="4"/>
@@ -4047,11 +4365,11 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -4059,21 +4377,24 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="14"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="14"/>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89" s="5"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+    </row>
+    <row r="90" spans="1:35">
       <c r="A90" s="4"/>
       <c r="B90" s="9"/>
       <c r="C90" s="4"/>
@@ -4081,11 +4402,11 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -4093,21 +4414,24 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="14"/>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+    </row>
+    <row r="91" spans="1:35">
       <c r="A91" s="4"/>
       <c r="B91" s="9"/>
       <c r="C91" s="4"/>
@@ -4115,11 +4439,11 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -4127,21 +4451,24 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="12"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="14"/>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91" s="5"/>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="5"/>
+    </row>
+    <row r="92" spans="1:35">
       <c r="A92" s="4"/>
       <c r="B92" s="9"/>
       <c r="C92" s="4"/>
@@ -4149,11 +4476,11 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -4161,21 +4488,24 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="14"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="14"/>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+    </row>
+    <row r="93" spans="1:35">
       <c r="A93" s="4"/>
       <c r="B93" s="9"/>
       <c r="C93" s="4"/>
@@ -4183,11 +4513,11 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -4195,21 +4525,24 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
-      <c r="T93" s="10"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="11"/>
-      <c r="W93" s="12"/>
-      <c r="X93" s="14"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="14"/>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93" s="5"/>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="5"/>
+    </row>
+    <row r="94" spans="1:35">
       <c r="A94" s="4"/>
       <c r="B94" s="9"/>
       <c r="C94" s="4"/>
@@ -4217,11 +4550,11 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -4229,21 +4562,24 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
-      <c r="T94" s="10"/>
-      <c r="U94" s="10"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="14"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="14"/>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+    </row>
+    <row r="95" spans="1:35">
       <c r="A95" s="4"/>
       <c r="B95" s="9"/>
       <c r="C95" s="4"/>
@@ -4251,11 +4587,11 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -4263,21 +4599,24 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
-      <c r="T95" s="10"/>
-      <c r="U95" s="10"/>
-      <c r="V95" s="11"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="14"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="14"/>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+    </row>
+    <row r="96" spans="1:35">
       <c r="A96" s="4"/>
       <c r="B96" s="9"/>
       <c r="C96" s="4"/>
@@ -4285,11 +4624,11 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -4297,21 +4636,24 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
-      <c r="T96" s="10"/>
-      <c r="U96" s="10"/>
-      <c r="V96" s="11"/>
-      <c r="W96" s="12"/>
-      <c r="X96" s="14"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="5"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="14"/>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96" s="5"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+    </row>
+    <row r="97" spans="1:35">
       <c r="A97" s="4"/>
       <c r="B97" s="9"/>
       <c r="C97" s="4"/>
@@ -4319,11 +4661,11 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -4331,21 +4673,24 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
-      <c r="T97" s="10"/>
-      <c r="U97" s="10"/>
-      <c r="V97" s="11"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="14"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-      <c r="AA97" s="5"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="14"/>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97" s="5"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="5"/>
+    </row>
+    <row r="98" spans="1:35">
       <c r="A98" s="4"/>
       <c r="B98" s="9"/>
       <c r="C98" s="4"/>
@@ -4353,11 +4698,11 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -4365,21 +4710,24 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
-      <c r="T98" s="10"/>
-      <c r="U98" s="10"/>
-      <c r="V98" s="11"/>
-      <c r="W98" s="12"/>
-      <c r="X98" s="14"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-      <c r="AA98" s="5"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="14"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+    </row>
+    <row r="99" spans="1:35">
       <c r="A99" s="4"/>
       <c r="B99" s="9"/>
       <c r="C99" s="4"/>
@@ -4387,11 +4735,11 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -4399,21 +4747,24 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
-      <c r="T99" s="10"/>
-      <c r="U99" s="10"/>
-      <c r="V99" s="11"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="14"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-      <c r="AA99" s="5"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="14"/>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+    </row>
+    <row r="100" spans="1:35">
       <c r="A100" s="4"/>
       <c r="B100" s="9"/>
       <c r="C100" s="4"/>
@@ -4421,11 +4772,11 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -4433,21 +4784,24 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="11"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="14"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-      <c r="AA100" s="5"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="11"/>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="14"/>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100" s="5"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+    </row>
+    <row r="101" spans="1:35">
       <c r="A101" s="4"/>
       <c r="B101" s="9"/>
       <c r="C101" s="4"/>
@@ -4455,11 +4809,11 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -4467,21 +4821,24 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="11"/>
-      <c r="W101" s="12"/>
-      <c r="X101" s="14"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="11"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="14"/>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101" s="5"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="5"/>
+    </row>
+    <row r="102" spans="1:35">
       <c r="A102" s="4"/>
       <c r="B102" s="9"/>
       <c r="C102" s="4"/>
@@ -4489,11 +4846,11 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -4501,21 +4858,24 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
-      <c r="T102" s="10"/>
-      <c r="U102" s="10"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="14"/>
-      <c r="Y102" s="5"/>
-      <c r="Z102" s="5"/>
-      <c r="AA102" s="5"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="11"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="14"/>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102" s="5"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+    </row>
+    <row r="103" spans="1:35">
       <c r="A103" s="4"/>
       <c r="B103" s="9"/>
       <c r="C103" s="4"/>
@@ -4523,11 +4883,11 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -4535,21 +4895,24 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
-      <c r="T103" s="10"/>
-      <c r="U103" s="10"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="12"/>
-      <c r="X103" s="14"/>
-      <c r="Y103" s="5"/>
-      <c r="Z103" s="5"/>
-      <c r="AA103" s="5"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="11"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="14"/>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103" s="5"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+    </row>
+    <row r="104" spans="1:35">
       <c r="A104" s="4"/>
       <c r="B104" s="9"/>
       <c r="C104" s="4"/>
@@ -4557,11 +4920,11 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -4569,21 +4932,24 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
-      <c r="T104" s="10"/>
-      <c r="U104" s="10"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="14"/>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
-      <c r="AA104" s="5"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="11"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="14"/>
       <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104" s="5"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+    </row>
+    <row r="105" spans="1:35">
       <c r="A105" s="4"/>
       <c r="B105" s="9"/>
       <c r="C105" s="4"/>
@@ -4591,11 +4957,11 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -4603,21 +4969,24 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
-      <c r="T105" s="10"/>
-      <c r="U105" s="10"/>
-      <c r="V105" s="11"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="14"/>
-      <c r="Y105" s="5"/>
-      <c r="Z105" s="5"/>
-      <c r="AA105" s="5"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="11"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="14"/>
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105" s="5"/>
+      <c r="AH105" s="5"/>
+      <c r="AI105" s="5"/>
+    </row>
+    <row r="106" spans="1:35">
       <c r="A106" s="4"/>
       <c r="B106" s="9"/>
       <c r="C106" s="4"/>
@@ -4625,11 +4994,11 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -4637,21 +5006,24 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="10"/>
-      <c r="V106" s="11"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="14"/>
-      <c r="Y106" s="5"/>
-      <c r="Z106" s="5"/>
-      <c r="AA106" s="5"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="11"/>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="14"/>
       <c r="AB106" s="5"/>
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+    </row>
+    <row r="107" spans="1:35">
       <c r="A107" s="4"/>
       <c r="B107" s="9"/>
       <c r="C107" s="4"/>
@@ -4659,11 +5031,11 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -4671,21 +5043,24 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="10"/>
-      <c r="V107" s="11"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="14"/>
-      <c r="Y107" s="5"/>
-      <c r="Z107" s="5"/>
-      <c r="AA107" s="5"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10"/>
+      <c r="Y107" s="11"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="14"/>
       <c r="AB107" s="5"/>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107" s="5"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="5"/>
+    </row>
+    <row r="108" spans="1:35">
       <c r="A108" s="4"/>
       <c r="B108" s="9"/>
       <c r="C108" s="15"/>
@@ -4693,11 +5068,11 @@
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
@@ -4705,21 +5080,24 @@
       <c r="Q108" s="15"/>
       <c r="R108" s="15"/>
       <c r="S108" s="15"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="10"/>
-      <c r="V108" s="11"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="14"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="15"/>
-      <c r="AA108" s="15"/>
+      <c r="T108" s="15"/>
+      <c r="U108" s="15"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="11"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="14"/>
       <c r="AB108" s="15"/>
       <c r="AC108" s="15"/>
       <c r="AD108" s="15"/>
       <c r="AE108" s="15"/>
       <c r="AF108" s="15"/>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AI108" s="15"/>
+    </row>
+    <row r="109" spans="1:35">
       <c r="A109" s="4"/>
       <c r="B109" s="9"/>
       <c r="C109" s="15"/>
@@ -4727,11 +5105,11 @@
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
       <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
@@ -4739,21 +5117,24 @@
       <c r="Q109" s="15"/>
       <c r="R109" s="15"/>
       <c r="S109" s="15"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="11"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="14"/>
-      <c r="Y109" s="15"/>
-      <c r="Z109" s="15"/>
-      <c r="AA109" s="15"/>
+      <c r="T109" s="15"/>
+      <c r="U109" s="15"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="10"/>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="11"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="14"/>
       <c r="AB109" s="15"/>
       <c r="AC109" s="15"/>
       <c r="AD109" s="15"/>
       <c r="AE109" s="15"/>
       <c r="AF109" s="15"/>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+    </row>
+    <row r="110" spans="1:35">
       <c r="A110" s="4"/>
       <c r="B110" s="9"/>
       <c r="C110" s="4"/>
@@ -4761,11 +5142,11 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -4773,21 +5154,24 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="10"/>
-      <c r="V110" s="11"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="14"/>
-      <c r="Y110" s="5"/>
-      <c r="Z110" s="5"/>
-      <c r="AA110" s="5"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="11"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="14"/>
       <c r="AB110" s="5"/>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110" s="5"/>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="5"/>
+    </row>
+    <row r="111" spans="1:35">
       <c r="A111" s="4"/>
       <c r="B111" s="9"/>
       <c r="C111" s="4"/>
@@ -4795,11 +5179,11 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -4807,21 +5191,24 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
-      <c r="T111" s="10"/>
-      <c r="U111" s="10"/>
-      <c r="V111" s="11"/>
-      <c r="W111" s="12"/>
-      <c r="X111" s="14"/>
-      <c r="Y111" s="5"/>
-      <c r="Z111" s="5"/>
-      <c r="AA111" s="5"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="11"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="14"/>
       <c r="AB111" s="5"/>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111" s="5"/>
+      <c r="AH111" s="5"/>
+      <c r="AI111" s="5"/>
+    </row>
+    <row r="112" spans="1:35">
       <c r="A112" s="4"/>
       <c r="B112" s="9"/>
       <c r="C112" s="4"/>
@@ -4829,11 +5216,11 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -4841,21 +5228,24 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
-      <c r="T112" s="10"/>
-      <c r="U112" s="10"/>
-      <c r="V112" s="11"/>
-      <c r="W112" s="12"/>
-      <c r="X112" s="14"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
-      <c r="AA112" s="5"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="11"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="14"/>
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112" s="5"/>
+      <c r="AH112" s="5"/>
+      <c r="AI112" s="5"/>
+    </row>
+    <row r="113" spans="1:35">
       <c r="A113" s="4"/>
       <c r="B113" s="9"/>
       <c r="C113" s="4"/>
@@ -4863,11 +5253,11 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -4875,21 +5265,24 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
-      <c r="T113" s="10"/>
-      <c r="U113" s="10"/>
-      <c r="V113" s="11"/>
-      <c r="W113" s="12"/>
-      <c r="X113" s="14"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="11"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="14"/>
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113" s="5"/>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="5"/>
+    </row>
+    <row r="114" spans="1:35">
       <c r="A114" s="4"/>
       <c r="B114" s="9"/>
       <c r="C114" s="4"/>
@@ -4897,11 +5290,11 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -4909,21 +5302,24 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
-      <c r="T114" s="10"/>
-      <c r="U114" s="10"/>
-      <c r="V114" s="11"/>
-      <c r="W114" s="12"/>
-      <c r="X114" s="14"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="10"/>
+      <c r="X114" s="10"/>
+      <c r="Y114" s="11"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="14"/>
       <c r="AB114" s="5"/>
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+    </row>
+    <row r="115" spans="1:35">
       <c r="A115" s="4"/>
       <c r="B115" s="9"/>
       <c r="C115" s="4"/>
@@ -4931,11 +5327,11 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -4943,21 +5339,24 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
-      <c r="T115" s="10"/>
-      <c r="U115" s="10"/>
-      <c r="V115" s="11"/>
-      <c r="W115" s="12"/>
-      <c r="X115" s="14"/>
-      <c r="Y115" s="5"/>
-      <c r="Z115" s="5"/>
-      <c r="AA115" s="5"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="11"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="14"/>
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115" s="5"/>
+      <c r="AH115" s="5"/>
+      <c r="AI115" s="5"/>
+    </row>
+    <row r="116" spans="1:35">
       <c r="A116" s="4"/>
       <c r="B116" s="13"/>
       <c r="C116" s="4"/>
@@ -4965,11 +5364,11 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -4977,21 +5376,24 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
-      <c r="T116" s="10"/>
-      <c r="U116" s="10"/>
-      <c r="V116" s="11"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="14"/>
-      <c r="Y116" s="5"/>
-      <c r="Z116" s="5"/>
-      <c r="AA116" s="5"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="10"/>
+      <c r="X116" s="10"/>
+      <c r="Y116" s="11"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="14"/>
       <c r="AB116" s="5"/>
       <c r="AC116" s="5"/>
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116" s="5"/>
+      <c r="AH116" s="5"/>
+      <c r="AI116" s="5"/>
+    </row>
+    <row r="117" spans="1:35">
       <c r="A117" s="4"/>
       <c r="B117" s="9"/>
       <c r="C117" s="4"/>
@@ -4999,11 +5401,11 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -5011,21 +5413,24 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
-      <c r="T117" s="10"/>
-      <c r="U117" s="10"/>
-      <c r="V117" s="11"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="14"/>
-      <c r="Y117" s="5"/>
-      <c r="Z117" s="5"/>
-      <c r="AA117" s="5"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="10"/>
+      <c r="X117" s="10"/>
+      <c r="Y117" s="11"/>
+      <c r="Z117" s="12"/>
+      <c r="AA117" s="14"/>
       <c r="AB117" s="5"/>
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117" s="5"/>
+      <c r="AH117" s="5"/>
+      <c r="AI117" s="5"/>
+    </row>
+    <row r="118" spans="1:35">
       <c r="A118" s="4"/>
       <c r="B118" s="9"/>
       <c r="C118" s="4"/>
@@ -5033,11 +5438,11 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -5045,21 +5450,24 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="T118" s="10"/>
-      <c r="U118" s="10"/>
-      <c r="V118" s="11"/>
-      <c r="W118" s="12"/>
-      <c r="X118" s="16"/>
-      <c r="Y118" s="5"/>
-      <c r="Z118" s="5"/>
-      <c r="AA118" s="5"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="10"/>
+      <c r="X118" s="10"/>
+      <c r="Y118" s="11"/>
+      <c r="Z118" s="12"/>
+      <c r="AA118" s="16"/>
       <c r="AB118" s="5"/>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118" s="5"/>
+      <c r="AH118" s="5"/>
+      <c r="AI118" s="5"/>
+    </row>
+    <row r="119" spans="1:35">
       <c r="A119" s="4"/>
       <c r="B119" s="9"/>
       <c r="C119" s="4"/>
@@ -5067,11 +5475,11 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -5079,21 +5487,24 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
-      <c r="T119" s="10"/>
-      <c r="U119" s="10"/>
-      <c r="V119" s="11"/>
-      <c r="W119" s="12"/>
-      <c r="X119" s="16"/>
-      <c r="Y119" s="5"/>
-      <c r="Z119" s="5"/>
-      <c r="AA119" s="5"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="10"/>
+      <c r="X119" s="10"/>
+      <c r="Y119" s="11"/>
+      <c r="Z119" s="12"/>
+      <c r="AA119" s="16"/>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119" s="5"/>
+      <c r="AH119" s="5"/>
+      <c r="AI119" s="5"/>
+    </row>
+    <row r="120" spans="1:35">
       <c r="A120" s="4"/>
       <c r="B120" s="9"/>
       <c r="C120" s="4"/>
@@ -5101,11 +5512,11 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -5113,21 +5524,24 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
-      <c r="T120" s="10"/>
-      <c r="U120" s="10"/>
-      <c r="V120" s="11"/>
-      <c r="W120" s="12"/>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="5"/>
-      <c r="Z120" s="5"/>
-      <c r="AA120" s="5"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="10"/>
+      <c r="X120" s="10"/>
+      <c r="Y120" s="11"/>
+      <c r="Z120" s="12"/>
+      <c r="AA120" s="16"/>
       <c r="AB120" s="5"/>
       <c r="AC120" s="5"/>
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120" s="5"/>
+      <c r="AH120" s="5"/>
+      <c r="AI120" s="5"/>
+    </row>
+    <row r="121" spans="1:35">
       <c r="A121" s="4"/>
       <c r="B121" s="9"/>
       <c r="C121" s="4"/>
@@ -5135,11 +5549,11 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -5147,21 +5561,24 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
-      <c r="T121" s="10"/>
-      <c r="U121" s="10"/>
-      <c r="V121" s="11"/>
-      <c r="W121" s="12"/>
-      <c r="X121" s="16"/>
-      <c r="Y121" s="5"/>
-      <c r="Z121" s="5"/>
-      <c r="AA121" s="5"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="10"/>
+      <c r="X121" s="10"/>
+      <c r="Y121" s="11"/>
+      <c r="Z121" s="12"/>
+      <c r="AA121" s="16"/>
       <c r="AB121" s="5"/>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="5"/>
+      <c r="AI121" s="5"/>
+    </row>
+    <row r="122" spans="1:35">
       <c r="A122" s="4"/>
       <c r="B122" s="9"/>
       <c r="C122" s="4"/>
@@ -5169,11 +5586,11 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -5181,21 +5598,24 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
-      <c r="T122" s="10"/>
-      <c r="U122" s="10"/>
-      <c r="V122" s="11"/>
-      <c r="W122" s="12"/>
-      <c r="X122" s="14"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="5"/>
-      <c r="AA122" s="5"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="10"/>
+      <c r="X122" s="10"/>
+      <c r="Y122" s="11"/>
+      <c r="Z122" s="12"/>
+      <c r="AA122" s="14"/>
       <c r="AB122" s="5"/>
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AG122" s="5"/>
+      <c r="AH122" s="5"/>
+      <c r="AI122" s="5"/>
+    </row>
+    <row r="123" spans="1:35">
       <c r="A123" s="4"/>
       <c r="B123" s="9"/>
       <c r="C123" s="4"/>
@@ -5203,11 +5623,11 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -5215,21 +5635,24 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
-      <c r="T123" s="10"/>
-      <c r="U123" s="10"/>
-      <c r="V123" s="11"/>
-      <c r="W123" s="12"/>
-      <c r="X123" s="14"/>
-      <c r="Y123" s="5"/>
-      <c r="Z123" s="5"/>
-      <c r="AA123" s="5"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="10"/>
+      <c r="X123" s="10"/>
+      <c r="Y123" s="11"/>
+      <c r="Z123" s="12"/>
+      <c r="AA123" s="14"/>
       <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
       <c r="AD123" s="5"/>
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AG123" s="5"/>
+      <c r="AH123" s="5"/>
+      <c r="AI123" s="5"/>
+    </row>
+    <row r="124" spans="1:35">
       <c r="A124" s="4"/>
       <c r="B124" s="9"/>
       <c r="C124" s="4"/>
@@ -5237,11 +5660,11 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -5249,21 +5672,24 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
-      <c r="T124" s="10"/>
-      <c r="U124" s="10"/>
-      <c r="V124" s="11"/>
-      <c r="W124" s="12"/>
-      <c r="X124" s="14"/>
-      <c r="Y124" s="5"/>
-      <c r="Z124" s="5"/>
-      <c r="AA124" s="5"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="10"/>
+      <c r="X124" s="10"/>
+      <c r="Y124" s="11"/>
+      <c r="Z124" s="12"/>
+      <c r="AA124" s="14"/>
       <c r="AB124" s="5"/>
       <c r="AC124" s="5"/>
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AG124" s="5"/>
+      <c r="AH124" s="5"/>
+      <c r="AI124" s="5"/>
+    </row>
+    <row r="125" spans="1:35">
       <c r="A125" s="4"/>
       <c r="B125" s="9"/>
       <c r="C125" s="4"/>
@@ -5271,11 +5697,11 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -5283,21 +5709,24 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
-      <c r="T125" s="10"/>
-      <c r="U125" s="10"/>
-      <c r="V125" s="11"/>
-      <c r="W125" s="12"/>
-      <c r="X125" s="14"/>
-      <c r="Y125" s="5"/>
-      <c r="Z125" s="5"/>
-      <c r="AA125" s="5"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="10"/>
+      <c r="X125" s="10"/>
+      <c r="Y125" s="11"/>
+      <c r="Z125" s="12"/>
+      <c r="AA125" s="14"/>
       <c r="AB125" s="5"/>
       <c r="AC125" s="5"/>
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AG125" s="5"/>
+      <c r="AH125" s="5"/>
+      <c r="AI125" s="5"/>
+    </row>
+    <row r="126" spans="1:35">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -5305,11 +5734,11 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -5317,21 +5746,24 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
-      <c r="T126" s="10"/>
-      <c r="U126" s="10"/>
-      <c r="V126" s="11"/>
-      <c r="W126" s="12"/>
-      <c r="X126" s="5"/>
-      <c r="Y126" s="5"/>
-      <c r="Z126" s="5"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="10"/>
+      <c r="X126" s="10"/>
+      <c r="Y126" s="11"/>
+      <c r="Z126" s="12"/>
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AG126" s="5"/>
+      <c r="AH126" s="5"/>
+      <c r="AI126" s="5"/>
+    </row>
+    <row r="127" spans="1:35">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -5339,11 +5771,11 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -5351,21 +5783,24 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
-      <c r="T127" s="10"/>
-      <c r="U127" s="10"/>
-      <c r="V127" s="11"/>
-      <c r="W127" s="12"/>
-      <c r="X127" s="5"/>
-      <c r="Y127" s="5"/>
-      <c r="Z127" s="5"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="10"/>
+      <c r="X127" s="10"/>
+      <c r="Y127" s="11"/>
+      <c r="Z127" s="12"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
       <c r="AC127" s="5"/>
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
       <c r="AF127" s="5"/>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AG127" s="5"/>
+      <c r="AH127" s="5"/>
+      <c r="AI127" s="5"/>
+    </row>
+    <row r="128" spans="1:35">
       <c r="A128" s="4"/>
       <c r="B128" s="9"/>
       <c r="C128" s="4"/>
@@ -5373,11 +5808,11 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
@@ -5388,18 +5823,21 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
-      <c r="W128" s="17"/>
-      <c r="X128" s="5"/>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="5"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="17"/>
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
       <c r="AF128" s="5"/>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AG128" s="5"/>
+      <c r="AH128" s="5"/>
+      <c r="AI128" s="5"/>
+    </row>
+    <row r="129" spans="1:35">
       <c r="A129" s="4"/>
       <c r="B129" s="9"/>
       <c r="C129" s="4"/>
@@ -5407,11 +5845,11 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -5422,18 +5860,21 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
-      <c r="W129" s="17"/>
-      <c r="X129" s="5"/>
-      <c r="Y129" s="5"/>
-      <c r="Z129" s="5"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="17"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
       <c r="AC129" s="5"/>
       <c r="AD129" s="5"/>
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AG129" s="5"/>
+      <c r="AH129" s="5"/>
+      <c r="AI129" s="5"/>
+    </row>
+    <row r="130" spans="1:35">
       <c r="A130" s="4"/>
       <c r="B130" s="9"/>
       <c r="C130" s="4"/>
@@ -5441,11 +5882,11 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -5456,18 +5897,21 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
-      <c r="W130" s="17"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="17"/>
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
       <c r="AC130" s="5"/>
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AG130" s="5"/>
+      <c r="AH130" s="5"/>
+      <c r="AI130" s="5"/>
+    </row>
+    <row r="131" spans="1:35">
       <c r="A131" s="4"/>
       <c r="B131" s="9"/>
       <c r="C131" s="4"/>
@@ -5475,11 +5919,11 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="13"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="13"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -5490,18 +5934,21 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
-      <c r="W131" s="17"/>
-      <c r="X131" s="5"/>
-      <c r="Y131" s="5"/>
-      <c r="Z131" s="5"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="17"/>
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
       <c r="AC131" s="5"/>
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AG131" s="5"/>
+      <c r="AH131" s="5"/>
+      <c r="AI131" s="5"/>
+    </row>
+    <row r="132" spans="1:35">
       <c r="A132" s="4"/>
       <c r="B132" s="9"/>
       <c r="C132" s="4"/>
@@ -5509,11 +5956,11 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -5524,18 +5971,21 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
-      <c r="W132" s="17"/>
-      <c r="X132" s="5"/>
-      <c r="Y132" s="5"/>
-      <c r="Z132" s="5"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="17"/>
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
-    </row>
-    <row r="133" spans="1:32">
+      <c r="AG132" s="5"/>
+      <c r="AH132" s="5"/>
+      <c r="AI132" s="5"/>
+    </row>
+    <row r="133" spans="1:35">
       <c r="A133" s="4"/>
       <c r="B133" s="9"/>
       <c r="C133" s="4"/>
@@ -5543,11 +5993,11 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -5558,18 +6008,21 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
-      <c r="W133" s="17"/>
-      <c r="X133" s="5"/>
-      <c r="Y133" s="5"/>
-      <c r="Z133" s="5"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="17"/>
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
       <c r="AC133" s="5"/>
       <c r="AD133" s="5"/>
       <c r="AE133" s="5"/>
       <c r="AF133" s="5"/>
-    </row>
-    <row r="134" spans="1:32">
+      <c r="AG133" s="5"/>
+      <c r="AH133" s="5"/>
+      <c r="AI133" s="5"/>
+    </row>
+    <row r="134" spans="1:35">
       <c r="A134" s="4"/>
       <c r="B134" s="9"/>
       <c r="C134" s="4"/>
@@ -5577,11 +6030,11 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -5592,18 +6045,21 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
-      <c r="W134" s="17"/>
-      <c r="X134" s="5"/>
-      <c r="Y134" s="5"/>
-      <c r="Z134" s="5"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="17"/>
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
       <c r="AC134" s="5"/>
       <c r="AD134" s="5"/>
       <c r="AE134" s="5"/>
       <c r="AF134" s="5"/>
-    </row>
-    <row r="135" spans="1:32">
+      <c r="AG134" s="5"/>
+      <c r="AH134" s="5"/>
+      <c r="AI134" s="5"/>
+    </row>
+    <row r="135" spans="1:35">
       <c r="A135" s="4"/>
       <c r="B135" s="9"/>
       <c r="C135" s="4"/>
@@ -5611,11 +6067,11 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="13"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="13"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -5626,18 +6082,21 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
-      <c r="W135" s="17"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="17"/>
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
       <c r="AC135" s="5"/>
       <c r="AD135" s="5"/>
       <c r="AE135" s="5"/>
       <c r="AF135" s="5"/>
-    </row>
-    <row r="136" spans="1:32">
+      <c r="AG135" s="5"/>
+      <c r="AH135" s="5"/>
+      <c r="AI135" s="5"/>
+    </row>
+    <row r="136" spans="1:35">
       <c r="A136" s="4"/>
       <c r="B136" s="9"/>
       <c r="C136" s="4"/>
@@ -5645,11 +6104,11 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="13"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="13"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -5660,18 +6119,21 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
-      <c r="W136" s="17"/>
-      <c r="X136" s="5"/>
-      <c r="Y136" s="5"/>
-      <c r="Z136" s="5"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="17"/>
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
       <c r="AC136" s="5"/>
       <c r="AD136" s="5"/>
       <c r="AE136" s="5"/>
       <c r="AF136" s="5"/>
-    </row>
-    <row r="137" spans="1:32">
+      <c r="AG136" s="5"/>
+      <c r="AH136" s="5"/>
+      <c r="AI136" s="5"/>
+    </row>
+    <row r="137" spans="1:35">
       <c r="A137" s="4"/>
       <c r="B137" s="9"/>
       <c r="C137" s="4"/>
@@ -5679,11 +6141,11 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="13"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="13"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
@@ -5694,18 +6156,21 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
-      <c r="W137" s="17"/>
-      <c r="X137" s="5"/>
-      <c r="Y137" s="5"/>
-      <c r="Z137" s="5"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="17"/>
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
       <c r="AC137" s="5"/>
       <c r="AD137" s="5"/>
       <c r="AE137" s="5"/>
       <c r="AF137" s="5"/>
-    </row>
-    <row r="138" spans="1:32">
+      <c r="AG137" s="5"/>
+      <c r="AH137" s="5"/>
+      <c r="AI137" s="5"/>
+    </row>
+    <row r="138" spans="1:35">
       <c r="A138" s="4"/>
       <c r="B138" s="9"/>
       <c r="C138" s="4"/>
@@ -5713,11 +6178,11 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
@@ -5725,21 +6190,24 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
-      <c r="T138" s="10"/>
-      <c r="U138" s="10"/>
-      <c r="V138" s="11"/>
-      <c r="W138" s="12"/>
-      <c r="X138" s="5"/>
-      <c r="Y138" s="5"/>
-      <c r="Z138" s="5"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="10"/>
+      <c r="X138" s="10"/>
+      <c r="Y138" s="11"/>
+      <c r="Z138" s="12"/>
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
       <c r="AD138" s="5"/>
       <c r="AE138" s="5"/>
       <c r="AF138" s="5"/>
-    </row>
-    <row r="139" spans="1:32">
+      <c r="AG138" s="5"/>
+      <c r="AH138" s="5"/>
+      <c r="AI138" s="5"/>
+    </row>
+    <row r="139" spans="1:35">
       <c r="A139" s="4"/>
       <c r="B139" s="9"/>
       <c r="C139" s="4"/>
@@ -5747,11 +6215,11 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -5759,21 +6227,24 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
-      <c r="T139" s="10"/>
-      <c r="U139" s="10"/>
-      <c r="V139" s="11"/>
-      <c r="W139" s="12"/>
-      <c r="X139" s="5"/>
-      <c r="Y139" s="5"/>
-      <c r="Z139" s="5"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="10"/>
+      <c r="X139" s="10"/>
+      <c r="Y139" s="11"/>
+      <c r="Z139" s="12"/>
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
       <c r="AE139" s="5"/>
       <c r="AF139" s="5"/>
-    </row>
-    <row r="140" spans="1:32">
+      <c r="AG139" s="5"/>
+      <c r="AH139" s="5"/>
+      <c r="AI139" s="5"/>
+    </row>
+    <row r="140" spans="1:35">
       <c r="A140" s="4"/>
       <c r="B140" s="9"/>
       <c r="C140" s="4"/>
@@ -5781,11 +6252,11 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
@@ -5793,21 +6264,24 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
-      <c r="T140" s="10"/>
-      <c r="U140" s="10"/>
-      <c r="V140" s="11"/>
-      <c r="W140" s="12"/>
-      <c r="X140" s="5"/>
-      <c r="Y140" s="5"/>
-      <c r="Z140" s="5"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="10"/>
+      <c r="X140" s="10"/>
+      <c r="Y140" s="11"/>
+      <c r="Z140" s="12"/>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
       <c r="AE140" s="5"/>
       <c r="AF140" s="5"/>
-    </row>
-    <row r="141" spans="1:32">
+      <c r="AG140" s="5"/>
+      <c r="AH140" s="5"/>
+      <c r="AI140" s="5"/>
+    </row>
+    <row r="141" spans="1:35">
       <c r="A141" s="4"/>
       <c r="B141" s="13"/>
       <c r="C141" s="4"/>
@@ -5815,11 +6289,11 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -5827,21 +6301,24 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
-      <c r="T141" s="10"/>
-      <c r="U141" s="10"/>
-      <c r="V141" s="11"/>
-      <c r="W141" s="12"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="10"/>
+      <c r="X141" s="10"/>
+      <c r="Y141" s="11"/>
+      <c r="Z141" s="12"/>
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
       <c r="AD141" s="5"/>
       <c r="AE141" s="5"/>
       <c r="AF141" s="5"/>
-    </row>
-    <row r="142" spans="1:32" ht="16.5">
+      <c r="AG141" s="5"/>
+      <c r="AH141" s="5"/>
+      <c r="AI141" s="5"/>
+    </row>
+    <row r="142" spans="1:35" ht="16.5">
       <c r="A142" s="4"/>
       <c r="B142" s="18"/>
       <c r="C142" s="4"/>
@@ -5849,24 +6326,24 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
       <c r="K142" s="6"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
       <c r="R142" s="6"/>
       <c r="S142" s="6"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
+      <c r="T142" s="6"/>
+      <c r="U142" s="6"/>
+      <c r="V142" s="6"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
@@ -5874,8 +6351,11 @@
       <c r="AD142" s="5"/>
       <c r="AE142" s="5"/>
       <c r="AF142" s="5"/>
-    </row>
-    <row r="143" spans="1:32" ht="16.5">
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+    </row>
+    <row r="143" spans="1:35" ht="16.5">
       <c r="A143" s="4"/>
       <c r="B143" s="18"/>
       <c r="C143" s="4"/>
@@ -5883,24 +6363,24 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
       <c r="K143" s="6"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
       <c r="R143" s="6"/>
-      <c r="S143" s="18"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="5"/>
-      <c r="X143" s="5"/>
-      <c r="Y143" s="5"/>
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+      <c r="U143" s="6"/>
+      <c r="V143" s="18"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
@@ -5908,8 +6388,11 @@
       <c r="AD143" s="5"/>
       <c r="AE143" s="5"/>
       <c r="AF143" s="5"/>
-    </row>
-    <row r="144" spans="1:32" ht="16.5">
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+    </row>
+    <row r="144" spans="1:35" ht="16.5">
       <c r="A144" s="4"/>
       <c r="B144" s="18"/>
       <c r="C144" s="4"/>
@@ -5917,24 +6400,24 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
       <c r="K144" s="6"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
       <c r="R144" s="6"/>
-      <c r="S144" s="18"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="5"/>
-      <c r="X144" s="5"/>
-      <c r="Y144" s="5"/>
+      <c r="S144" s="6"/>
+      <c r="T144" s="6"/>
+      <c r="U144" s="6"/>
+      <c r="V144" s="18"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
@@ -5942,8 +6425,11 @@
       <c r="AD144" s="5"/>
       <c r="AE144" s="5"/>
       <c r="AF144" s="5"/>
-    </row>
-    <row r="145" spans="1:32" ht="16.5">
+      <c r="AG144" s="5"/>
+      <c r="AH144" s="5"/>
+      <c r="AI144" s="5"/>
+    </row>
+    <row r="145" spans="1:35" ht="16.5">
       <c r="A145" s="4"/>
       <c r="B145" s="18"/>
       <c r="C145" s="4"/>
@@ -5951,24 +6437,24 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
       <c r="K145" s="6"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
       <c r="R145" s="6"/>
-      <c r="S145" s="18"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="W145" s="5"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
+      <c r="S145" s="6"/>
+      <c r="T145" s="6"/>
+      <c r="U145" s="6"/>
+      <c r="V145" s="18"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
@@ -5976,8 +6462,11 @@
       <c r="AD145" s="5"/>
       <c r="AE145" s="5"/>
       <c r="AF145" s="5"/>
-    </row>
-    <row r="146" spans="1:32" ht="16.5">
+      <c r="AG145" s="5"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="5"/>
+    </row>
+    <row r="146" spans="1:35" ht="16.5">
       <c r="A146" s="4"/>
       <c r="B146" s="18"/>
       <c r="C146" s="4"/>
@@ -5985,24 +6474,24 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
       <c r="K146" s="6"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
       <c r="R146" s="6"/>
-      <c r="S146" s="18"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="5"/>
-      <c r="X146" s="5"/>
-      <c r="Y146" s="5"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="6"/>
+      <c r="V146" s="18"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
@@ -6010,8 +6499,11 @@
       <c r="AD146" s="5"/>
       <c r="AE146" s="5"/>
       <c r="AF146" s="5"/>
-    </row>
-    <row r="147" spans="1:32" ht="16.5">
+      <c r="AG146" s="5"/>
+      <c r="AH146" s="5"/>
+      <c r="AI146" s="5"/>
+    </row>
+    <row r="147" spans="1:35" ht="16.5">
       <c r="A147" s="4"/>
       <c r="B147" s="18"/>
       <c r="C147" s="4"/>
@@ -6019,24 +6511,24 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
       <c r="K147" s="6"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="6"/>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
       <c r="R147" s="6"/>
-      <c r="S147" s="18"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="5"/>
-      <c r="X147" s="5"/>
-      <c r="Y147" s="5"/>
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+      <c r="U147" s="6"/>
+      <c r="V147" s="18"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
@@ -6044,8 +6536,11 @@
       <c r="AD147" s="5"/>
       <c r="AE147" s="5"/>
       <c r="AF147" s="5"/>
-    </row>
-    <row r="148" spans="1:32" ht="16.5">
+      <c r="AG147" s="5"/>
+      <c r="AH147" s="5"/>
+      <c r="AI147" s="5"/>
+    </row>
+    <row r="148" spans="1:35" ht="16.5">
       <c r="A148" s="4"/>
       <c r="B148" s="18"/>
       <c r="C148" s="4"/>
@@ -6053,24 +6548,24 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
       <c r="K148" s="6"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
       <c r="R148" s="6"/>
-      <c r="S148" s="18"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="W148" s="5"/>
-      <c r="X148" s="5"/>
-      <c r="Y148" s="5"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="6"/>
+      <c r="V148" s="18"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
@@ -6078,8 +6573,11 @@
       <c r="AD148" s="5"/>
       <c r="AE148" s="5"/>
       <c r="AF148" s="5"/>
-    </row>
-    <row r="149" spans="1:32" ht="16.5">
+      <c r="AG148" s="5"/>
+      <c r="AH148" s="5"/>
+      <c r="AI148" s="5"/>
+    </row>
+    <row r="149" spans="1:35" ht="16.5">
       <c r="A149" s="4"/>
       <c r="B149" s="18"/>
       <c r="C149" s="4"/>
@@ -6087,24 +6585,24 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
       <c r="K149" s="6"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="6"/>
-      <c r="P149" s="6"/>
-      <c r="Q149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
       <c r="R149" s="6"/>
-      <c r="S149" s="18"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
-      <c r="W149" s="5"/>
-      <c r="X149" s="5"/>
-      <c r="Y149" s="5"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+      <c r="U149" s="6"/>
+      <c r="V149" s="18"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
@@ -6112,8 +6610,11 @@
       <c r="AD149" s="5"/>
       <c r="AE149" s="5"/>
       <c r="AF149" s="5"/>
-    </row>
-    <row r="150" spans="1:32">
+      <c r="AG149" s="5"/>
+      <c r="AH149" s="5"/>
+      <c r="AI149" s="5"/>
+    </row>
+    <row r="150" spans="1:35">
       <c r="A150" s="4"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4"/>
@@ -6121,24 +6622,24 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
       <c r="K150" s="6"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="5"/>
-      <c r="X150" s="5"/>
-      <c r="Y150" s="5"/>
+      <c r="T150" s="6"/>
+      <c r="U150" s="6"/>
+      <c r="V150" s="6"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
@@ -6146,8 +6647,11 @@
       <c r="AD150" s="5"/>
       <c r="AE150" s="5"/>
       <c r="AF150" s="5"/>
-    </row>
-    <row r="151" spans="1:32">
+      <c r="AG150" s="5"/>
+      <c r="AH150" s="5"/>
+      <c r="AI150" s="5"/>
+    </row>
+    <row r="151" spans="1:35">
       <c r="A151" s="4"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4"/>
@@ -6155,24 +6659,24 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
       <c r="K151" s="6"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
       <c r="R151" s="6"/>
       <c r="S151" s="6"/>
-      <c r="T151" s="4"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
-      <c r="W151" s="5"/>
-      <c r="X151" s="5"/>
-      <c r="Y151" s="5"/>
+      <c r="T151" s="6"/>
+      <c r="U151" s="6"/>
+      <c r="V151" s="6"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
@@ -6180,8 +6684,11 @@
       <c r="AD151" s="5"/>
       <c r="AE151" s="5"/>
       <c r="AF151" s="5"/>
-    </row>
-    <row r="152" spans="1:32" ht="16.5">
+      <c r="AG151" s="5"/>
+      <c r="AH151" s="5"/>
+      <c r="AI151" s="5"/>
+    </row>
+    <row r="152" spans="1:35" ht="16.5">
       <c r="A152" s="4"/>
       <c r="B152" s="18"/>
       <c r="C152" s="4"/>
@@ -6189,24 +6696,24 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
       <c r="K152" s="6"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="6"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
       <c r="R152" s="6"/>
-      <c r="S152" s="18"/>
-      <c r="T152" s="4"/>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
-      <c r="W152" s="5"/>
-      <c r="X152" s="5"/>
-      <c r="Y152" s="5"/>
+      <c r="S152" s="6"/>
+      <c r="T152" s="6"/>
+      <c r="U152" s="6"/>
+      <c r="V152" s="18"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
@@ -6214,8 +6721,11 @@
       <c r="AD152" s="5"/>
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
-    </row>
-    <row r="153" spans="1:32" ht="16.5">
+      <c r="AG152" s="5"/>
+      <c r="AH152" s="5"/>
+      <c r="AI152" s="5"/>
+    </row>
+    <row r="153" spans="1:35" ht="16.5">
       <c r="A153" s="4"/>
       <c r="B153" s="18"/>
       <c r="C153" s="4"/>
@@ -6223,24 +6733,24 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
       <c r="K153" s="6"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="6"/>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
       <c r="R153" s="6"/>
-      <c r="S153" s="18"/>
-      <c r="T153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="W153" s="5"/>
-      <c r="X153" s="5"/>
-      <c r="Y153" s="5"/>
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+      <c r="U153" s="6"/>
+      <c r="V153" s="18"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
@@ -6248,8 +6758,11 @@
       <c r="AD153" s="5"/>
       <c r="AE153" s="5"/>
       <c r="AF153" s="5"/>
-    </row>
-    <row r="154" spans="1:32" ht="16.5">
+      <c r="AG153" s="5"/>
+      <c r="AH153" s="5"/>
+      <c r="AI153" s="5"/>
+    </row>
+    <row r="154" spans="1:35" ht="16.5">
       <c r="A154" s="4"/>
       <c r="B154" s="18"/>
       <c r="C154" s="4"/>
@@ -6257,24 +6770,24 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
       <c r="K154" s="6"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
       <c r="R154" s="6"/>
-      <c r="S154" s="18"/>
-      <c r="T154" s="4"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
-      <c r="W154" s="5"/>
-      <c r="X154" s="5"/>
-      <c r="Y154" s="5"/>
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+      <c r="U154" s="6"/>
+      <c r="V154" s="18"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
@@ -6282,8 +6795,11 @@
       <c r="AD154" s="5"/>
       <c r="AE154" s="5"/>
       <c r="AF154" s="5"/>
-    </row>
-    <row r="155" spans="1:32" ht="16.5">
+      <c r="AG154" s="5"/>
+      <c r="AH154" s="5"/>
+      <c r="AI154" s="5"/>
+    </row>
+    <row r="155" spans="1:35" ht="16.5">
       <c r="A155" s="4"/>
       <c r="B155" s="18"/>
       <c r="C155" s="4"/>
@@ -6291,24 +6807,24 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
       <c r="K155" s="6"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="18"/>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="5"/>
-      <c r="X155" s="5"/>
-      <c r="Y155" s="5"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="18"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+      <c r="U155" s="6"/>
+      <c r="V155" s="18"/>
+      <c r="W155" s="4"/>
+      <c r="X155" s="4"/>
+      <c r="Y155" s="4"/>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
@@ -6316,8 +6832,11 @@
       <c r="AD155" s="5"/>
       <c r="AE155" s="5"/>
       <c r="AF155" s="5"/>
-    </row>
-    <row r="156" spans="1:32" ht="16.5">
+      <c r="AG155" s="5"/>
+      <c r="AH155" s="5"/>
+      <c r="AI155" s="5"/>
+    </row>
+    <row r="156" spans="1:35" ht="16.5">
       <c r="A156" s="4"/>
       <c r="B156" s="18"/>
       <c r="C156" s="4"/>
@@ -6325,24 +6844,24 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
       <c r="K156" s="6"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="18"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="18"/>
-      <c r="T156" s="4"/>
-      <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
-      <c r="W156" s="5"/>
-      <c r="X156" s="5"/>
-      <c r="Y156" s="5"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="18"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6"/>
+      <c r="V156" s="18"/>
+      <c r="W156" s="4"/>
+      <c r="X156" s="4"/>
+      <c r="Y156" s="4"/>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
@@ -6350,8 +6869,11 @@
       <c r="AD156" s="5"/>
       <c r="AE156" s="5"/>
       <c r="AF156" s="5"/>
-    </row>
-    <row r="157" spans="1:32" ht="16.5">
+      <c r="AG156" s="5"/>
+      <c r="AH156" s="5"/>
+      <c r="AI156" s="5"/>
+    </row>
+    <row r="157" spans="1:35" ht="16.5">
       <c r="A157" s="4"/>
       <c r="B157" s="18"/>
       <c r="C157" s="4"/>
@@ -6359,24 +6881,24 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
       <c r="K157" s="6"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="18"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="18"/>
-      <c r="T157" s="4"/>
-      <c r="U157" s="4"/>
-      <c r="V157" s="4"/>
-      <c r="W157" s="5"/>
-      <c r="X157" s="5"/>
-      <c r="Y157" s="5"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="18"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+      <c r="V157" s="18"/>
+      <c r="W157" s="4"/>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="4"/>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
@@ -6384,8 +6906,11 @@
       <c r="AD157" s="5"/>
       <c r="AE157" s="5"/>
       <c r="AF157" s="5"/>
-    </row>
-    <row r="158" spans="1:32" ht="16.5">
+      <c r="AG157" s="5"/>
+      <c r="AH157" s="5"/>
+      <c r="AI157" s="5"/>
+    </row>
+    <row r="158" spans="1:35" ht="16.5">
       <c r="A158" s="4"/>
       <c r="B158" s="18"/>
       <c r="C158" s="4"/>
@@ -6393,24 +6918,24 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
       <c r="K158" s="6"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="18"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="18"/>
-      <c r="T158" s="4"/>
-      <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
-      <c r="W158" s="5"/>
-      <c r="X158" s="5"/>
-      <c r="Y158" s="5"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="18"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="V158" s="18"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="4"/>
+      <c r="Y158" s="4"/>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
@@ -6418,8 +6943,11 @@
       <c r="AD158" s="5"/>
       <c r="AE158" s="5"/>
       <c r="AF158" s="5"/>
-    </row>
-    <row r="159" spans="1:32">
+      <c r="AG158" s="5"/>
+      <c r="AH158" s="5"/>
+      <c r="AI158" s="5"/>
+    </row>
+    <row r="159" spans="1:35">
       <c r="A159" s="4"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4"/>
@@ -6427,24 +6955,24 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
       <c r="K159" s="6"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
       <c r="R159" s="6"/>
       <c r="S159" s="6"/>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="W159" s="5"/>
-      <c r="X159" s="5"/>
-      <c r="Y159" s="5"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6"/>
+      <c r="V159" s="6"/>
+      <c r="W159" s="4"/>
+      <c r="X159" s="4"/>
+      <c r="Y159" s="4"/>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
@@ -6452,8 +6980,11 @@
       <c r="AD159" s="5"/>
       <c r="AE159" s="5"/>
       <c r="AF159" s="5"/>
-    </row>
-    <row r="160" spans="1:32">
+      <c r="AG159" s="5"/>
+      <c r="AH159" s="5"/>
+      <c r="AI159" s="5"/>
+    </row>
+    <row r="160" spans="1:35">
       <c r="A160" s="4"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
@@ -6461,24 +6992,24 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
       <c r="K160" s="6"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="4"/>
-      <c r="N160" s="4"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
       <c r="R160" s="6"/>
       <c r="S160" s="6"/>
-      <c r="T160" s="4"/>
-      <c r="U160" s="4"/>
-      <c r="V160" s="4"/>
-      <c r="W160" s="5"/>
-      <c r="X160" s="5"/>
-      <c r="Y160" s="5"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
+      <c r="W160" s="4"/>
+      <c r="X160" s="4"/>
+      <c r="Y160" s="4"/>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
@@ -6486,8 +7017,11 @@
       <c r="AD160" s="5"/>
       <c r="AE160" s="5"/>
       <c r="AF160" s="5"/>
-    </row>
-    <row r="161" spans="1:32" ht="16.5">
+      <c r="AG160" s="5"/>
+      <c r="AH160" s="5"/>
+      <c r="AI160" s="5"/>
+    </row>
+    <row r="161" spans="1:35" ht="16.5">
       <c r="A161" s="4"/>
       <c r="B161" s="18"/>
       <c r="C161" s="4"/>
@@ -6495,24 +7029,24 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
       <c r="K161" s="6"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="18"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="18"/>
-      <c r="T161" s="4"/>
-      <c r="U161" s="4"/>
-      <c r="V161" s="4"/>
-      <c r="W161" s="5"/>
-      <c r="X161" s="5"/>
-      <c r="Y161" s="5"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="18"/>
+      <c r="S161" s="6"/>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="18"/>
+      <c r="W161" s="4"/>
+      <c r="X161" s="4"/>
+      <c r="Y161" s="4"/>
       <c r="Z161" s="5"/>
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
@@ -6520,8 +7054,11 @@
       <c r="AD161" s="5"/>
       <c r="AE161" s="5"/>
       <c r="AF161" s="5"/>
-    </row>
-    <row r="162" spans="1:32" ht="16.5">
+      <c r="AG161" s="5"/>
+      <c r="AH161" s="5"/>
+      <c r="AI161" s="5"/>
+    </row>
+    <row r="162" spans="1:35" ht="16.5">
       <c r="A162" s="4"/>
       <c r="B162" s="18"/>
       <c r="C162" s="4"/>
@@ -6529,24 +7066,24 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
       <c r="K162" s="6"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
       <c r="R162" s="6"/>
-      <c r="S162" s="18"/>
-      <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="W162" s="5"/>
-      <c r="X162" s="5"/>
-      <c r="Y162" s="5"/>
+      <c r="S162" s="6"/>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="18"/>
+      <c r="W162" s="4"/>
+      <c r="X162" s="4"/>
+      <c r="Y162" s="4"/>
       <c r="Z162" s="5"/>
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
@@ -6554,8 +7091,11 @@
       <c r="AD162" s="5"/>
       <c r="AE162" s="5"/>
       <c r="AF162" s="5"/>
-    </row>
-    <row r="163" spans="1:32" ht="16.5">
+      <c r="AG162" s="5"/>
+      <c r="AH162" s="5"/>
+      <c r="AI162" s="5"/>
+    </row>
+    <row r="163" spans="1:35" ht="16.5">
       <c r="A163" s="4"/>
       <c r="B163" s="18"/>
       <c r="C163" s="4"/>
@@ -6563,24 +7103,24 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
       <c r="K163" s="6"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
       <c r="R163" s="6"/>
-      <c r="S163" s="18"/>
-      <c r="T163" s="4"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
-      <c r="W163" s="5"/>
-      <c r="X163" s="5"/>
-      <c r="Y163" s="5"/>
+      <c r="S163" s="6"/>
+      <c r="T163" s="6"/>
+      <c r="U163" s="6"/>
+      <c r="V163" s="18"/>
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
+      <c r="Y163" s="4"/>
       <c r="Z163" s="5"/>
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
@@ -6588,8 +7128,11 @@
       <c r="AD163" s="5"/>
       <c r="AE163" s="5"/>
       <c r="AF163" s="5"/>
-    </row>
-    <row r="164" spans="1:32" ht="16.5">
+      <c r="AG163" s="5"/>
+      <c r="AH163" s="5"/>
+      <c r="AI163" s="5"/>
+    </row>
+    <row r="164" spans="1:35" ht="16.5">
       <c r="A164" s="4"/>
       <c r="B164" s="18"/>
       <c r="C164" s="4"/>
@@ -6597,24 +7140,24 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
       <c r="K164" s="6"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
       <c r="R164" s="6"/>
-      <c r="S164" s="18"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="5"/>
-      <c r="X164" s="5"/>
-      <c r="Y164" s="5"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
+      <c r="V164" s="18"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
       <c r="Z164" s="5"/>
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
@@ -6622,8 +7165,11 @@
       <c r="AD164" s="5"/>
       <c r="AE164" s="5"/>
       <c r="AF164" s="5"/>
-    </row>
-    <row r="165" spans="1:32" ht="16.5">
+      <c r="AG164" s="5"/>
+      <c r="AH164" s="5"/>
+      <c r="AI164" s="5"/>
+    </row>
+    <row r="165" spans="1:35" ht="16.5">
       <c r="A165" s="4"/>
       <c r="B165" s="18"/>
       <c r="C165" s="4"/>
@@ -6631,24 +7177,24 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
       <c r="K165" s="6"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
       <c r="R165" s="6"/>
-      <c r="S165" s="18"/>
-      <c r="T165" s="4"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
-      <c r="W165" s="5"/>
-      <c r="X165" s="5"/>
-      <c r="Y165" s="5"/>
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+      <c r="V165" s="18"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
       <c r="Z165" s="5"/>
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
@@ -6656,8 +7202,11 @@
       <c r="AD165" s="5"/>
       <c r="AE165" s="5"/>
       <c r="AF165" s="5"/>
-    </row>
-    <row r="166" spans="1:32" ht="16.5">
+      <c r="AG165" s="5"/>
+      <c r="AH165" s="5"/>
+      <c r="AI165" s="5"/>
+    </row>
+    <row r="166" spans="1:35" ht="16.5">
       <c r="A166" s="4"/>
       <c r="B166" s="18"/>
       <c r="C166" s="4"/>
@@ -6665,24 +7214,24 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
       <c r="K166" s="6"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="6"/>
-      <c r="P166" s="6"/>
-      <c r="Q166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
       <c r="R166" s="6"/>
-      <c r="S166" s="18"/>
-      <c r="T166" s="4"/>
-      <c r="U166" s="4"/>
-      <c r="V166" s="4"/>
-      <c r="W166" s="5"/>
-      <c r="X166" s="5"/>
-      <c r="Y166" s="5"/>
+      <c r="S166" s="6"/>
+      <c r="T166" s="6"/>
+      <c r="U166" s="6"/>
+      <c r="V166" s="18"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
       <c r="Z166" s="5"/>
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
@@ -6690,8 +7239,11 @@
       <c r="AD166" s="5"/>
       <c r="AE166" s="5"/>
       <c r="AF166" s="5"/>
-    </row>
-    <row r="167" spans="1:32">
+      <c r="AG166" s="5"/>
+      <c r="AH166" s="5"/>
+      <c r="AI166" s="5"/>
+    </row>
+    <row r="167" spans="1:35">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6714,9 +7266,9 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
-      <c r="W167" s="5"/>
-      <c r="X167" s="5"/>
-      <c r="Y167" s="5"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
@@ -6724,8 +7276,11 @@
       <c r="AD167" s="5"/>
       <c r="AE167" s="5"/>
       <c r="AF167" s="5"/>
-    </row>
-    <row r="168" spans="1:32">
+      <c r="AG167" s="5"/>
+      <c r="AH167" s="5"/>
+      <c r="AI167" s="5"/>
+    </row>
+    <row r="168" spans="1:35">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6748,9 +7303,9 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
-      <c r="W168" s="5"/>
-      <c r="X168" s="5"/>
-      <c r="Y168" s="5"/>
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="4"/>
       <c r="Z168" s="5"/>
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
@@ -6758,8 +7313,11 @@
       <c r="AD168" s="5"/>
       <c r="AE168" s="5"/>
       <c r="AF168" s="5"/>
-    </row>
-    <row r="169" spans="1:32">
+      <c r="AG168" s="5"/>
+      <c r="AH168" s="5"/>
+      <c r="AI168" s="5"/>
+    </row>
+    <row r="169" spans="1:35">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6782,9 +7340,9 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
-      <c r="W169" s="5"/>
-      <c r="X169" s="5"/>
-      <c r="Y169" s="5"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="4"/>
       <c r="Z169" s="5"/>
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
@@ -6792,8 +7350,11 @@
       <c r="AD169" s="5"/>
       <c r="AE169" s="5"/>
       <c r="AF169" s="5"/>
-    </row>
-    <row r="170" spans="1:32">
+      <c r="AG169" s="5"/>
+      <c r="AH169" s="5"/>
+      <c r="AI169" s="5"/>
+    </row>
+    <row r="170" spans="1:35">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6816,9 +7377,9 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
-      <c r="W170" s="5"/>
-      <c r="X170" s="5"/>
-      <c r="Y170" s="5"/>
+      <c r="W170" s="4"/>
+      <c r="X170" s="4"/>
+      <c r="Y170" s="4"/>
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
@@ -6826,8 +7387,11 @@
       <c r="AD170" s="5"/>
       <c r="AE170" s="5"/>
       <c r="AF170" s="5"/>
-    </row>
-    <row r="171" spans="1:32">
+      <c r="AG170" s="5"/>
+      <c r="AH170" s="5"/>
+      <c r="AI170" s="5"/>
+    </row>
+    <row r="171" spans="1:35">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6850,9 +7414,9 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
-      <c r="W171" s="5"/>
-      <c r="X171" s="5"/>
-      <c r="Y171" s="5"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="4"/>
       <c r="Z171" s="5"/>
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
@@ -6860,8 +7424,11 @@
       <c r="AD171" s="5"/>
       <c r="AE171" s="5"/>
       <c r="AF171" s="5"/>
-    </row>
-    <row r="172" spans="1:32">
+      <c r="AG171" s="5"/>
+      <c r="AH171" s="5"/>
+      <c r="AI171" s="5"/>
+    </row>
+    <row r="172" spans="1:35">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6884,9 +7451,9 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
-      <c r="W172" s="5"/>
-      <c r="X172" s="5"/>
-      <c r="Y172" s="5"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+      <c r="Y172" s="4"/>
       <c r="Z172" s="5"/>
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
@@ -6894,8 +7461,11 @@
       <c r="AD172" s="5"/>
       <c r="AE172" s="5"/>
       <c r="AF172" s="5"/>
-    </row>
-    <row r="173" spans="1:32">
+      <c r="AG172" s="5"/>
+      <c r="AH172" s="5"/>
+      <c r="AI172" s="5"/>
+    </row>
+    <row r="173" spans="1:35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6918,9 +7488,9 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
-      <c r="W173" s="5"/>
-      <c r="X173" s="5"/>
-      <c r="Y173" s="5"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
       <c r="Z173" s="5"/>
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
@@ -6928,8 +7498,11 @@
       <c r="AD173" s="5"/>
       <c r="AE173" s="5"/>
       <c r="AF173" s="5"/>
-    </row>
-    <row r="174" spans="1:32">
+      <c r="AG173" s="5"/>
+      <c r="AH173" s="5"/>
+      <c r="AI173" s="5"/>
+    </row>
+    <row r="174" spans="1:35">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6952,9 +7525,9 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
-      <c r="W174" s="5"/>
-      <c r="X174" s="5"/>
-      <c r="Y174" s="5"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+      <c r="Y174" s="4"/>
       <c r="Z174" s="5"/>
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
@@ -6962,8 +7535,11 @@
       <c r="AD174" s="5"/>
       <c r="AE174" s="5"/>
       <c r="AF174" s="5"/>
-    </row>
-    <row r="175" spans="1:32">
+      <c r="AG174" s="5"/>
+      <c r="AH174" s="5"/>
+      <c r="AI174" s="5"/>
+    </row>
+    <row r="175" spans="1:35">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -6986,9 +7562,9 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
-      <c r="W175" s="5"/>
-      <c r="X175" s="5"/>
-      <c r="Y175" s="5"/>
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+      <c r="Y175" s="4"/>
       <c r="Z175" s="5"/>
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
@@ -6996,8 +7572,11 @@
       <c r="AD175" s="5"/>
       <c r="AE175" s="5"/>
       <c r="AF175" s="5"/>
-    </row>
-    <row r="176" spans="1:32">
+      <c r="AG175" s="5"/>
+      <c r="AH175" s="5"/>
+      <c r="AI175" s="5"/>
+    </row>
+    <row r="176" spans="1:35">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7020,9 +7599,9 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
-      <c r="W176" s="5"/>
-      <c r="X176" s="5"/>
-      <c r="Y176" s="5"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="4"/>
       <c r="Z176" s="5"/>
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
@@ -7030,8 +7609,11 @@
       <c r="AD176" s="5"/>
       <c r="AE176" s="5"/>
       <c r="AF176" s="5"/>
-    </row>
-    <row r="177" spans="1:32">
+      <c r="AG176" s="5"/>
+      <c r="AH176" s="5"/>
+      <c r="AI176" s="5"/>
+    </row>
+    <row r="177" spans="1:35">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7054,9 +7636,9 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
-      <c r="W177" s="5"/>
-      <c r="X177" s="5"/>
-      <c r="Y177" s="5"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+      <c r="Y177" s="4"/>
       <c r="Z177" s="5"/>
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
@@ -7064,8 +7646,11 @@
       <c r="AD177" s="5"/>
       <c r="AE177" s="5"/>
       <c r="AF177" s="5"/>
-    </row>
-    <row r="178" spans="1:32">
+      <c r="AG177" s="5"/>
+      <c r="AH177" s="5"/>
+      <c r="AI177" s="5"/>
+    </row>
+    <row r="178" spans="1:35">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7088,9 +7673,9 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
-      <c r="W178" s="5"/>
-      <c r="X178" s="5"/>
-      <c r="Y178" s="5"/>
+      <c r="W178" s="4"/>
+      <c r="X178" s="4"/>
+      <c r="Y178" s="4"/>
       <c r="Z178" s="5"/>
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
@@ -7098,8 +7683,11 @@
       <c r="AD178" s="5"/>
       <c r="AE178" s="5"/>
       <c r="AF178" s="5"/>
-    </row>
-    <row r="179" spans="1:32">
+      <c r="AG178" s="5"/>
+      <c r="AH178" s="5"/>
+      <c r="AI178" s="5"/>
+    </row>
+    <row r="179" spans="1:35">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7122,9 +7710,9 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
-      <c r="W179" s="5"/>
-      <c r="X179" s="5"/>
-      <c r="Y179" s="5"/>
+      <c r="W179" s="4"/>
+      <c r="X179" s="4"/>
+      <c r="Y179" s="4"/>
       <c r="Z179" s="5"/>
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
@@ -7132,8 +7720,11 @@
       <c r="AD179" s="5"/>
       <c r="AE179" s="5"/>
       <c r="AF179" s="5"/>
-    </row>
-    <row r="180" spans="1:32">
+      <c r="AG179" s="5"/>
+      <c r="AH179" s="5"/>
+      <c r="AI179" s="5"/>
+    </row>
+    <row r="180" spans="1:35">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7156,9 +7747,9 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
-      <c r="W180" s="5"/>
-      <c r="X180" s="5"/>
-      <c r="Y180" s="5"/>
+      <c r="W180" s="4"/>
+      <c r="X180" s="4"/>
+      <c r="Y180" s="4"/>
       <c r="Z180" s="5"/>
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
@@ -7166,8 +7757,11 @@
       <c r="AD180" s="5"/>
       <c r="AE180" s="5"/>
       <c r="AF180" s="5"/>
-    </row>
-    <row r="181" spans="1:32">
+      <c r="AG180" s="5"/>
+      <c r="AH180" s="5"/>
+      <c r="AI180" s="5"/>
+    </row>
+    <row r="181" spans="1:35">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7190,9 +7784,9 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
-      <c r="W181" s="5"/>
-      <c r="X181" s="5"/>
-      <c r="Y181" s="5"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
       <c r="Z181" s="5"/>
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
@@ -7200,8 +7794,11 @@
       <c r="AD181" s="5"/>
       <c r="AE181" s="5"/>
       <c r="AF181" s="5"/>
-    </row>
-    <row r="182" spans="1:32">
+      <c r="AG181" s="5"/>
+      <c r="AH181" s="5"/>
+      <c r="AI181" s="5"/>
+    </row>
+    <row r="182" spans="1:35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7224,9 +7821,9 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
-      <c r="W182" s="5"/>
-      <c r="X182" s="5"/>
-      <c r="Y182" s="5"/>
+      <c r="W182" s="4"/>
+      <c r="X182" s="4"/>
+      <c r="Y182" s="4"/>
       <c r="Z182" s="5"/>
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
@@ -7234,8 +7831,11 @@
       <c r="AD182" s="5"/>
       <c r="AE182" s="5"/>
       <c r="AF182" s="5"/>
-    </row>
-    <row r="183" spans="1:32">
+      <c r="AG182" s="5"/>
+      <c r="AH182" s="5"/>
+      <c r="AI182" s="5"/>
+    </row>
+    <row r="183" spans="1:35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7258,9 +7858,9 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
-      <c r="W183" s="5"/>
-      <c r="X183" s="5"/>
-      <c r="Y183" s="5"/>
+      <c r="W183" s="4"/>
+      <c r="X183" s="4"/>
+      <c r="Y183" s="4"/>
       <c r="Z183" s="5"/>
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
@@ -7268,8 +7868,11 @@
       <c r="AD183" s="5"/>
       <c r="AE183" s="5"/>
       <c r="AF183" s="5"/>
-    </row>
-    <row r="184" spans="1:32">
+      <c r="AG183" s="5"/>
+      <c r="AH183" s="5"/>
+      <c r="AI183" s="5"/>
+    </row>
+    <row r="184" spans="1:35">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7292,9 +7895,9 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
-      <c r="W184" s="5"/>
-      <c r="X184" s="5"/>
-      <c r="Y184" s="5"/>
+      <c r="W184" s="4"/>
+      <c r="X184" s="4"/>
+      <c r="Y184" s="4"/>
       <c r="Z184" s="5"/>
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
@@ -7302,8 +7905,11 @@
       <c r="AD184" s="5"/>
       <c r="AE184" s="5"/>
       <c r="AF184" s="5"/>
-    </row>
-    <row r="185" spans="1:32">
+      <c r="AG184" s="5"/>
+      <c r="AH184" s="5"/>
+      <c r="AI184" s="5"/>
+    </row>
+    <row r="185" spans="1:35">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7326,9 +7932,9 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
-      <c r="W185" s="5"/>
-      <c r="X185" s="5"/>
-      <c r="Y185" s="5"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="4"/>
       <c r="Z185" s="5"/>
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
@@ -7336,8 +7942,11 @@
       <c r="AD185" s="5"/>
       <c r="AE185" s="5"/>
       <c r="AF185" s="5"/>
-    </row>
-    <row r="186" spans="1:32">
+      <c r="AG185" s="5"/>
+      <c r="AH185" s="5"/>
+      <c r="AI185" s="5"/>
+    </row>
+    <row r="186" spans="1:35">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7360,9 +7969,9 @@
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
-      <c r="W186" s="5"/>
-      <c r="X186" s="5"/>
-      <c r="Y186" s="5"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="4"/>
+      <c r="Y186" s="4"/>
       <c r="Z186" s="5"/>
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
@@ -7370,8 +7979,11 @@
       <c r="AD186" s="5"/>
       <c r="AE186" s="5"/>
       <c r="AF186" s="5"/>
-    </row>
-    <row r="187" spans="1:32">
+      <c r="AG186" s="5"/>
+      <c r="AH186" s="5"/>
+      <c r="AI186" s="5"/>
+    </row>
+    <row r="187" spans="1:35">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7394,9 +8006,9 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
-      <c r="W187" s="5"/>
-      <c r="X187" s="5"/>
-      <c r="Y187" s="5"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="4"/>
       <c r="Z187" s="5"/>
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
@@ -7404,8 +8016,11 @@
       <c r="AD187" s="5"/>
       <c r="AE187" s="5"/>
       <c r="AF187" s="5"/>
-    </row>
-    <row r="188" spans="1:32">
+      <c r="AG187" s="5"/>
+      <c r="AH187" s="5"/>
+      <c r="AI187" s="5"/>
+    </row>
+    <row r="188" spans="1:35">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7428,9 +8043,9 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
-      <c r="W188" s="5"/>
-      <c r="X188" s="5"/>
-      <c r="Y188" s="5"/>
+      <c r="W188" s="4"/>
+      <c r="X188" s="4"/>
+      <c r="Y188" s="4"/>
       <c r="Z188" s="5"/>
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
@@ -7438,8 +8053,11 @@
       <c r="AD188" s="5"/>
       <c r="AE188" s="5"/>
       <c r="AF188" s="5"/>
-    </row>
-    <row r="189" spans="1:32">
+      <c r="AG188" s="5"/>
+      <c r="AH188" s="5"/>
+      <c r="AI188" s="5"/>
+    </row>
+    <row r="189" spans="1:35">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7462,9 +8080,9 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
-      <c r="W189" s="5"/>
-      <c r="X189" s="5"/>
-      <c r="Y189" s="5"/>
+      <c r="W189" s="4"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="4"/>
       <c r="Z189" s="5"/>
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
@@ -7472,8 +8090,11 @@
       <c r="AD189" s="5"/>
       <c r="AE189" s="5"/>
       <c r="AF189" s="5"/>
-    </row>
-    <row r="190" spans="1:32">
+      <c r="AG189" s="5"/>
+      <c r="AH189" s="5"/>
+      <c r="AI189" s="5"/>
+    </row>
+    <row r="190" spans="1:35">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7496,9 +8117,9 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
-      <c r="W190" s="5"/>
-      <c r="X190" s="5"/>
-      <c r="Y190" s="5"/>
+      <c r="W190" s="4"/>
+      <c r="X190" s="4"/>
+      <c r="Y190" s="4"/>
       <c r="Z190" s="5"/>
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
@@ -7506,8 +8127,11 @@
       <c r="AD190" s="5"/>
       <c r="AE190" s="5"/>
       <c r="AF190" s="5"/>
-    </row>
-    <row r="191" spans="1:32">
+      <c r="AG190" s="5"/>
+      <c r="AH190" s="5"/>
+      <c r="AI190" s="5"/>
+    </row>
+    <row r="191" spans="1:35">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7530,9 +8154,9 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
-      <c r="W191" s="5"/>
-      <c r="X191" s="5"/>
-      <c r="Y191" s="5"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="4"/>
+      <c r="Y191" s="4"/>
       <c r="Z191" s="5"/>
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
@@ -7540,8 +8164,11 @@
       <c r="AD191" s="5"/>
       <c r="AE191" s="5"/>
       <c r="AF191" s="5"/>
-    </row>
-    <row r="192" spans="1:32">
+      <c r="AG191" s="5"/>
+      <c r="AH191" s="5"/>
+      <c r="AI191" s="5"/>
+    </row>
+    <row r="192" spans="1:35">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7564,9 +8191,9 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
-      <c r="W192" s="5"/>
-      <c r="X192" s="5"/>
-      <c r="Y192" s="5"/>
+      <c r="W192" s="4"/>
+      <c r="X192" s="4"/>
+      <c r="Y192" s="4"/>
       <c r="Z192" s="5"/>
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
@@ -7574,8 +8201,11 @@
       <c r="AD192" s="5"/>
       <c r="AE192" s="5"/>
       <c r="AF192" s="5"/>
-    </row>
-    <row r="193" spans="1:32">
+      <c r="AG192" s="5"/>
+      <c r="AH192" s="5"/>
+      <c r="AI192" s="5"/>
+    </row>
+    <row r="193" spans="1:35">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7598,9 +8228,9 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
-      <c r="W193" s="5"/>
-      <c r="X193" s="5"/>
-      <c r="Y193" s="5"/>
+      <c r="W193" s="4"/>
+      <c r="X193" s="4"/>
+      <c r="Y193" s="4"/>
       <c r="Z193" s="5"/>
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
@@ -7608,8 +8238,11 @@
       <c r="AD193" s="5"/>
       <c r="AE193" s="5"/>
       <c r="AF193" s="5"/>
-    </row>
-    <row r="194" spans="1:32">
+      <c r="AG193" s="5"/>
+      <c r="AH193" s="5"/>
+      <c r="AI193" s="5"/>
+    </row>
+    <row r="194" spans="1:35">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7632,9 +8265,9 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
-      <c r="W194" s="5"/>
-      <c r="X194" s="5"/>
-      <c r="Y194" s="5"/>
+      <c r="W194" s="4"/>
+      <c r="X194" s="4"/>
+      <c r="Y194" s="4"/>
       <c r="Z194" s="5"/>
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
@@ -7642,8 +8275,11 @@
       <c r="AD194" s="5"/>
       <c r="AE194" s="5"/>
       <c r="AF194" s="5"/>
-    </row>
-    <row r="195" spans="1:32">
+      <c r="AG194" s="5"/>
+      <c r="AH194" s="5"/>
+      <c r="AI194" s="5"/>
+    </row>
+    <row r="195" spans="1:35">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7666,9 +8302,9 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
-      <c r="W195" s="5"/>
-      <c r="X195" s="5"/>
-      <c r="Y195" s="5"/>
+      <c r="W195" s="4"/>
+      <c r="X195" s="4"/>
+      <c r="Y195" s="4"/>
       <c r="Z195" s="5"/>
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
@@ -7676,8 +8312,11 @@
       <c r="AD195" s="5"/>
       <c r="AE195" s="5"/>
       <c r="AF195" s="5"/>
-    </row>
-    <row r="196" spans="1:32">
+      <c r="AG195" s="5"/>
+      <c r="AH195" s="5"/>
+      <c r="AI195" s="5"/>
+    </row>
+    <row r="196" spans="1:35">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7700,9 +8339,9 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
-      <c r="W196" s="5"/>
-      <c r="X196" s="5"/>
-      <c r="Y196" s="5"/>
+      <c r="W196" s="4"/>
+      <c r="X196" s="4"/>
+      <c r="Y196" s="4"/>
       <c r="Z196" s="5"/>
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
@@ -7710,8 +8349,11 @@
       <c r="AD196" s="5"/>
       <c r="AE196" s="5"/>
       <c r="AF196" s="5"/>
-    </row>
-    <row r="197" spans="1:32">
+      <c r="AG196" s="5"/>
+      <c r="AH196" s="5"/>
+      <c r="AI196" s="5"/>
+    </row>
+    <row r="197" spans="1:35">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7734,9 +8376,9 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
       <c r="V197" s="4"/>
-      <c r="W197" s="5"/>
-      <c r="X197" s="5"/>
-      <c r="Y197" s="5"/>
+      <c r="W197" s="4"/>
+      <c r="X197" s="4"/>
+      <c r="Y197" s="4"/>
       <c r="Z197" s="5"/>
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
@@ -7744,8 +8386,11 @@
       <c r="AD197" s="5"/>
       <c r="AE197" s="5"/>
       <c r="AF197" s="5"/>
-    </row>
-    <row r="198" spans="1:32">
+      <c r="AG197" s="5"/>
+      <c r="AH197" s="5"/>
+      <c r="AI197" s="5"/>
+    </row>
+    <row r="198" spans="1:35">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7768,9 +8413,9 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
-      <c r="W198" s="5"/>
-      <c r="X198" s="5"/>
-      <c r="Y198" s="5"/>
+      <c r="W198" s="4"/>
+      <c r="X198" s="4"/>
+      <c r="Y198" s="4"/>
       <c r="Z198" s="5"/>
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
@@ -7778,8 +8423,11 @@
       <c r="AD198" s="5"/>
       <c r="AE198" s="5"/>
       <c r="AF198" s="5"/>
-    </row>
-    <row r="199" spans="1:32">
+      <c r="AG198" s="5"/>
+      <c r="AH198" s="5"/>
+      <c r="AI198" s="5"/>
+    </row>
+    <row r="199" spans="1:35">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7802,9 +8450,9 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
-      <c r="W199" s="5"/>
-      <c r="X199" s="5"/>
-      <c r="Y199" s="5"/>
+      <c r="W199" s="4"/>
+      <c r="X199" s="4"/>
+      <c r="Y199" s="4"/>
       <c r="Z199" s="5"/>
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
@@ -7812,8 +8460,11 @@
       <c r="AD199" s="5"/>
       <c r="AE199" s="5"/>
       <c r="AF199" s="5"/>
-    </row>
-    <row r="200" spans="1:32">
+      <c r="AG199" s="5"/>
+      <c r="AH199" s="5"/>
+      <c r="AI199" s="5"/>
+    </row>
+    <row r="200" spans="1:35">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7836,9 +8487,9 @@
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
-      <c r="W200" s="5"/>
-      <c r="X200" s="5"/>
-      <c r="Y200" s="5"/>
+      <c r="W200" s="4"/>
+      <c r="X200" s="4"/>
+      <c r="Y200" s="4"/>
       <c r="Z200" s="5"/>
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
@@ -7846,6 +8497,9 @@
       <c r="AD200" s="5"/>
       <c r="AE200" s="5"/>
       <c r="AF200" s="5"/>
+      <c r="AG200" s="5"/>
+      <c r="AH200" s="5"/>
+      <c r="AI200" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -7879,52 +8533,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="6" spans="1:1">
       <c r="A6" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
+++ b/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C15DC2E-9865-473E-A73C-E483EDF44887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCAF21E-1822-4050-AC23-155FBEF4DB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="3915" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="4110" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH59_西赤山駅_UIList" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,9 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>サーバー側名称（未記入で良い）</t>
+          <t>親となる画像がある場合に指定
+X座標, Y座標
+　　→親画像の左上座標が0, 0起点となる</t>
         </r>
       </text>
     </comment>
@@ -74,13 +76,24 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>親となる画像がある場合に指定
-X座標, Y座標
-　　→親画像の左上座標が0, 0起点となる</t>
+          <t>サーバー側名称</t>
         </r>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>サーバー側分類</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -462,7 +475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="202">
   <si>
     <t>Type</t>
   </si>
@@ -470,10 +483,13 @@
     <t>UniqueName</t>
   </si>
   <si>
+    <t>ParentName</t>
+  </si>
+  <si>
     <t>ServerName</t>
   </si>
   <si>
-    <t>ParentName</t>
+    <t>ServerType</t>
   </si>
   <si>
     <t>PointName</t>
@@ -605,6 +621,9 @@
     <t>11R_G</t>
   </si>
   <si>
+    <t>信号機</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -725,6 +744,9 @@
     <t>P21_PG</t>
   </si>
   <si>
+    <t>分岐器</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
@@ -752,6 +774,9 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>駅扱切換_PG</t>
   </si>
   <si>
@@ -773,6 +798,9 @@
     <t>TH61_5RT_1</t>
   </si>
   <si>
+    <t>軌道回路</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -831,6 +859,9 @@
   </si>
   <si>
     <t>21EM_R</t>
+  </si>
+  <si>
+    <t>ランプ</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>
@@ -1133,14 +1164,12 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,6 +1192,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1171,7 +1203,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1402,7 +1433,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI110"/>
+  <dimension ref="A1:AJ110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1415,14 +1446,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="24" width="15.140625" customWidth="1"/>
-    <col min="25" max="25" width="37.5703125" customWidth="1"/>
-    <col min="26" max="26" width="100.140625" customWidth="1"/>
-    <col min="27" max="27" width="62.5703125" customWidth="1"/>
-    <col min="28" max="35" width="14.7109375" customWidth="1"/>
+    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="37.5703125" customWidth="1"/>
+    <col min="27" max="27" width="100.140625" customWidth="1"/>
+    <col min="28" max="28" width="62.5703125" customWidth="1"/>
+    <col min="29" max="36" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,13 +1529,15 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3"/>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
@@ -1512,13 +1545,14 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1528,13 +1562,13 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1547,10 +1581,10 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="5"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -1559,35 +1593,36 @@
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2" s="5"/>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="6">
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>900</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>78</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>79</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>110</v>
       </c>
-      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1598,10 +1633,10 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="5"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
@@ -1610,37 +1645,38 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
-    </row>
-    <row r="4" spans="1:35" ht="25.5">
+      <c r="AJ3" s="5"/>
+    </row>
+    <row r="4" spans="1:36" ht="25.5">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>6</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>37</v>
-      </c>
-      <c r="M4" s="6">
-        <v>63</v>
       </c>
       <c r="N4" s="6">
         <v>63</v>
       </c>
-      <c r="O4" s="7"/>
+      <c r="O4" s="6">
+        <v>63</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1650,13 +1686,13 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="5"/>
+      <c r="AA4" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -1665,13 +1701,14 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4" s="5"/>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1681,15 +1718,15 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="6">
-        <f>K3+11</f>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6">
+        <f>L3+11</f>
         <v>911</v>
       </c>
-      <c r="L5" s="6">
-        <f>L3-68</f>
+      <c r="M5" s="6">
+        <f>M3-68</f>
         <v>10</v>
       </c>
-      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1702,11 +1739,11 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="5"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="7"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
@@ -1714,31 +1751,32 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5" s="5"/>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="9">
+      <c r="K6" s="4"/>
+      <c r="L6" s="9">
         <v>466</v>
       </c>
-      <c r="L6" s="9">
+      <c r="M6" s="9">
         <v>538</v>
       </c>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1747,25 +1785,25 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3" t="s">
+      <c r="V6" s="4"/>
+      <c r="W6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="10" t="s">
         <v>43</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0</v>
       </c>
       <c r="Z6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="5"/>
+      <c r="AB6" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
@@ -1773,31 +1811,34 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AJ6" s="5"/>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="9">
+      <c r="K7" s="4"/>
+      <c r="L7" s="9">
         <v>360</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
         <v>181</v>
       </c>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1806,21 +1847,21 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="5"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -1828,62 +1869,63 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7" s="5"/>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="10" t="s">
-        <v>40</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="10">
+      <c r="K8" s="4"/>
+      <c r="L8" s="10">
         <v>14</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>20</v>
-      </c>
-      <c r="M8" s="10">
-        <v>11</v>
       </c>
       <c r="N8" s="10">
         <v>11</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="10">
+        <v>11</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="10">
+      <c r="R8" s="4"/>
+      <c r="S8" s="10">
         <v>11</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>10</v>
       </c>
-      <c r="T8" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="U8" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W8" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="X8" s="10"/>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="10"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="5"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="16"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
@@ -1891,31 +1933,32 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8" s="5"/>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="9">
+      <c r="K9" s="4"/>
+      <c r="L9" s="9">
         <v>534</v>
       </c>
-      <c r="L9" s="9">
+      <c r="M9" s="9">
         <v>538</v>
       </c>
-      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1924,22 +1967,22 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3" t="s">
+      <c r="V9" s="4"/>
+      <c r="W9" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="X9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
       <c r="Z9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA9" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -1948,31 +1991,34 @@
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9" s="5"/>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="9">
+      <c r="K10" s="4"/>
+      <c r="L10" s="9">
         <v>346</v>
       </c>
-      <c r="L10" s="9">
+      <c r="M10" s="9">
         <v>271</v>
       </c>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1981,18 +2027,18 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA10" s="5"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
@@ -2001,62 +2047,63 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10" s="5"/>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="10" t="s">
-        <v>54</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="10">
+      <c r="K11" s="4"/>
+      <c r="L11" s="10">
         <v>14</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>20</v>
-      </c>
-      <c r="M11" s="10">
-        <v>11</v>
       </c>
       <c r="N11" s="10">
         <v>11</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="O11" s="10">
+        <v>11</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="10">
+      <c r="R11" s="4"/>
+      <c r="S11" s="10">
         <v>12</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>10</v>
       </c>
-      <c r="T11" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="U11" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="X11" s="10"/>
-      <c r="Y11" s="3"/>
+      <c r="Y11" s="10"/>
       <c r="Z11" s="11"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="5"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="16"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
@@ -2064,31 +2111,32 @@
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
-    </row>
-    <row r="12" spans="1:35">
+      <c r="AJ11" s="5"/>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="9">
+      <c r="K12" s="4"/>
+      <c r="L12" s="9">
         <v>866</v>
       </c>
-      <c r="L12" s="9">
+      <c r="M12" s="9">
         <v>538</v>
       </c>
-      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2097,22 +2145,22 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="X12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3" t="s">
+      <c r="V12" s="4"/>
+      <c r="W12" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="X12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>0</v>
+      </c>
       <c r="Z12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA12" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
@@ -2121,31 +2169,34 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
-    </row>
-    <row r="13" spans="1:35">
+      <c r="AJ12" s="5"/>
+    </row>
+    <row r="13" spans="1:36">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="9">
+      <c r="K13" s="4"/>
+      <c r="L13" s="9">
         <v>739</v>
       </c>
-      <c r="L13" s="9">
+      <c r="M13" s="9">
         <v>173</v>
       </c>
-      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2154,18 +2205,18 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA13" s="5"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
@@ -2174,31 +2225,34 @@
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
-    </row>
-    <row r="14" spans="1:35">
+      <c r="AJ13" s="5"/>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="9">
+      <c r="K14" s="4"/>
+      <c r="L14" s="9">
         <v>828</v>
       </c>
-      <c r="L14" s="9">
+      <c r="M14" s="9">
         <v>233</v>
       </c>
-      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -2207,18 +2261,18 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA14" s="5"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
@@ -2227,62 +2281,63 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-    </row>
-    <row r="15" spans="1:35">
+      <c r="AJ14" s="5"/>
+    </row>
+    <row r="15" spans="1:36">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="10" t="s">
-        <v>60</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="10">
+      <c r="K15" s="4"/>
+      <c r="L15" s="10">
         <v>14</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="10">
         <v>20</v>
-      </c>
-      <c r="M15" s="10">
-        <v>11</v>
       </c>
       <c r="N15" s="10">
         <v>11</v>
       </c>
-      <c r="O15" s="4"/>
+      <c r="O15" s="10">
+        <v>11</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="10">
+      <c r="R15" s="4"/>
+      <c r="S15" s="10">
         <v>13</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10">
         <v>10</v>
       </c>
-      <c r="T15" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="U15" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W15" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="X15" s="10"/>
-      <c r="Y15" s="3"/>
+      <c r="Y15" s="10"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="5"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="16"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
@@ -2290,37 +2345,38 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-    </row>
-    <row r="16" spans="1:35">
+      <c r="AJ15" s="5"/>
+    </row>
+    <row r="16" spans="1:36">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="I16" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="J16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="9">
+        <v>72</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="9">
         <v>934</v>
       </c>
-      <c r="L16" s="9">
+      <c r="M16" s="9">
         <v>538</v>
       </c>
-      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2329,25 +2385,25 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="X16" s="10">
+      <c r="V16" s="4"/>
+      <c r="W16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y16" s="10">
         <v>-1</v>
       </c>
-      <c r="Y16" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="Z16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" s="5"/>
+      <c r="AA16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
@@ -2355,62 +2411,63 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AJ16" s="5"/>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="10" t="s">
-        <v>67</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="10">
+      <c r="K17" s="4"/>
+      <c r="L17" s="10">
         <v>14</v>
       </c>
-      <c r="L17" s="10">
+      <c r="M17" s="10">
         <v>20</v>
-      </c>
-      <c r="M17" s="10">
-        <v>11</v>
       </c>
       <c r="N17" s="10">
         <v>11</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="O17" s="10">
+        <v>11</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="10">
+      <c r="R17" s="4"/>
+      <c r="S17" s="10">
         <v>14</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <v>10</v>
       </c>
-      <c r="T17" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="U17" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="W17" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="X17" s="10"/>
-      <c r="Y17" s="3"/>
+      <c r="Y17" s="10"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="5"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="16"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
@@ -2418,31 +2475,32 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AJ17" s="5"/>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="9">
+      <c r="K18" s="4"/>
+      <c r="L18" s="9">
         <v>304</v>
       </c>
-      <c r="L18" s="9">
+      <c r="M18" s="9">
         <v>551</v>
       </c>
-      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2451,22 +2509,22 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>79</v>
+      <c r="V18" s="4"/>
+      <c r="W18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>0</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA18" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
@@ -2475,31 +2533,32 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AJ18" s="5"/>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="9">
+      <c r="K19" s="4"/>
+      <c r="L19" s="9">
         <v>1111</v>
       </c>
-      <c r="L19" s="9">
+      <c r="M19" s="9">
         <v>551</v>
       </c>
-      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2508,22 +2567,22 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="9" t="s">
+      <c r="V19" s="4"/>
+      <c r="W19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="W19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA19" s="5"/>
+      <c r="AA19" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -2532,31 +2591,32 @@
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="AJ19" s="5"/>
+    </row>
+    <row r="20" spans="1:36">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="9">
+      <c r="K20" s="4"/>
+      <c r="L20" s="9">
         <v>824</v>
       </c>
-      <c r="L20" s="9">
+      <c r="M20" s="9">
         <v>64</v>
       </c>
-      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2565,25 +2625,25 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="X20" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>83</v>
+      <c r="V20" s="4"/>
+      <c r="W20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>0</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AB20" s="5"/>
+      <c r="AA20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
@@ -2591,31 +2651,34 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AJ20" s="5"/>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="9">
+      <c r="K21" s="4"/>
+      <c r="L21" s="9">
         <v>822</v>
       </c>
-      <c r="L21" s="9">
+      <c r="M21" s="9">
         <v>45</v>
       </c>
-      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2624,18 +2687,18 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA21" s="5"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
@@ -2644,31 +2707,34 @@
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AJ21" s="5"/>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="9">
+      <c r="K22" s="4"/>
+      <c r="L22" s="9">
         <v>856</v>
       </c>
-      <c r="L22" s="9">
+      <c r="M22" s="9">
         <v>45</v>
       </c>
-      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2677,18 +2743,18 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA22" s="5"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
@@ -2697,62 +2763,63 @@
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AJ22" s="5"/>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="10">
+      <c r="K23" s="4"/>
+      <c r="L23" s="10">
         <v>14</v>
       </c>
-      <c r="L23" s="10">
+      <c r="M23" s="10">
         <v>20</v>
-      </c>
-      <c r="M23" s="10">
-        <v>11</v>
       </c>
       <c r="N23" s="10">
         <v>11</v>
       </c>
-      <c r="O23" s="4"/>
+      <c r="O23" s="10">
+        <v>11</v>
+      </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="10">
+      <c r="R23" s="4"/>
+      <c r="S23" s="10">
         <v>21</v>
       </c>
-      <c r="S23" s="10">
+      <c r="T23" s="10">
         <v>10</v>
       </c>
-      <c r="T23" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="U23" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="W23" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="X23" s="10"/>
-      <c r="Y23" s="3"/>
+      <c r="Y23" s="10"/>
       <c r="Z23" s="11"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="5"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="16"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
@@ -2760,33 +2827,34 @@
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-    </row>
-    <row r="24" spans="1:35" ht="25.5">
+      <c r="AJ23" s="5"/>
+    </row>
+    <row r="24" spans="1:36" ht="25.5">
       <c r="A24" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="9">
+      <c r="K24" s="4"/>
+      <c r="L24" s="9">
         <v>1249</v>
       </c>
-      <c r="L24" s="9">
+      <c r="M24" s="9">
         <v>64</v>
       </c>
-      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2795,25 +2863,25 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="X24" s="10">
+      <c r="V24" s="4"/>
+      <c r="W24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y24" s="10">
         <v>1</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="Z24" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB24" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="AA24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
@@ -2821,31 +2889,34 @@
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-    </row>
-    <row r="25" spans="1:35">
+      <c r="AJ24" s="5"/>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="9">
+      <c r="K25" s="4"/>
+      <c r="L25" s="9">
         <v>1247</v>
       </c>
-      <c r="L25" s="9">
+      <c r="M25" s="9">
         <v>45</v>
       </c>
-      <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2854,18 +2925,18 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X25" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA25" s="5"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -2874,31 +2945,34 @@
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AJ25" s="5"/>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="9">
+      <c r="K26" s="4"/>
+      <c r="L26" s="9">
         <v>1281</v>
       </c>
-      <c r="L26" s="9">
+      <c r="M26" s="9">
         <v>45</v>
       </c>
-      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2907,18 +2981,18 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X26" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA26" s="5"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
@@ -2927,33 +3001,34 @@
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-    </row>
-    <row r="27" spans="1:35" ht="25.5">
+      <c r="AJ26" s="5"/>
+    </row>
+    <row r="27" spans="1:36" ht="25.5">
       <c r="A27" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="9">
+      <c r="K27" s="4"/>
+      <c r="L27" s="9">
         <v>1347</v>
       </c>
-      <c r="L27" s="9">
+      <c r="M27" s="9">
         <v>64</v>
       </c>
-      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -2962,25 +3037,25 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="X27" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>43</v>
+      <c r="V27" s="4"/>
+      <c r="W27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>0</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB27" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="AA27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
@@ -2988,29 +3063,32 @@
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AJ27" s="5"/>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="9">
+      <c r="K28" s="4"/>
+      <c r="L28" s="9">
         <v>1362</v>
       </c>
-      <c r="L28" s="9">
-        <v>31</v>
-      </c>
-      <c r="M28" s="4"/>
+      <c r="M28" s="9">
+        <v>31</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -3019,18 +3097,18 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X28" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA28" s="5"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
@@ -3039,29 +3117,32 @@
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-    </row>
-    <row r="29" spans="1:35">
+      <c r="AJ28" s="5"/>
+    </row>
+    <row r="29" spans="1:36">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="9">
+      <c r="K29" s="4"/>
+      <c r="L29" s="9">
         <v>52</v>
       </c>
-      <c r="L29" s="9">
+      <c r="M29" s="9">
         <v>198</v>
       </c>
-      <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3070,21 +3151,21 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X29" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA29" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB29" s="5"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
@@ -3092,29 +3173,32 @@
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-    </row>
-    <row r="30" spans="1:35">
+      <c r="AJ29" s="5"/>
+    </row>
+    <row r="30" spans="1:36">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="9">
+      <c r="K30" s="4"/>
+      <c r="L30" s="9">
         <v>82</v>
       </c>
-      <c r="L30" s="9">
+      <c r="M30" s="9">
         <v>198</v>
       </c>
-      <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -3123,18 +3207,18 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X30" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA30" s="5"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -3143,29 +3227,32 @@
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
-    </row>
-    <row r="31" spans="1:35">
+      <c r="AJ30" s="5"/>
+    </row>
+    <row r="31" spans="1:36">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="12">
+      <c r="K31" s="4"/>
+      <c r="L31" s="13">
         <v>112</v>
       </c>
-      <c r="L31" s="9">
+      <c r="M31" s="9">
         <v>198</v>
       </c>
-      <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -3174,18 +3261,18 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X31" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA31" s="5"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
@@ -3194,29 +3281,32 @@
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-    </row>
-    <row r="32" spans="1:35">
+      <c r="AJ31" s="5"/>
+    </row>
+    <row r="32" spans="1:36">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="12">
+      <c r="K32" s="4"/>
+      <c r="L32" s="13">
         <v>142</v>
       </c>
-      <c r="L32" s="9">
+      <c r="M32" s="9">
         <v>198</v>
       </c>
-      <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -3225,18 +3315,18 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X32" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA32" s="5"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -3245,29 +3335,32 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-    </row>
-    <row r="33" spans="1:35">
+      <c r="AJ32" s="5"/>
+    </row>
+    <row r="33" spans="1:36">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="12">
+      <c r="K33" s="4"/>
+      <c r="L33" s="13">
         <v>172</v>
       </c>
-      <c r="L33" s="9">
+      <c r="M33" s="9">
         <v>198</v>
       </c>
-      <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -3276,18 +3369,18 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X33" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA33" s="5"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
@@ -3296,29 +3389,32 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
-    </row>
-    <row r="34" spans="1:35">
+      <c r="AJ33" s="5"/>
+    </row>
+    <row r="34" spans="1:36">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="12">
+      <c r="K34" s="4"/>
+      <c r="L34" s="13">
         <v>202</v>
       </c>
-      <c r="L34" s="9">
+      <c r="M34" s="9">
         <v>198</v>
       </c>
-      <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -3327,18 +3423,18 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X34" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA34" s="5"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -3347,29 +3443,32 @@
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-    </row>
-    <row r="35" spans="1:35">
+      <c r="AJ34" s="5"/>
+    </row>
+    <row r="35" spans="1:36">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="12">
+      <c r="K35" s="4"/>
+      <c r="L35" s="13">
         <v>232</v>
       </c>
-      <c r="L35" s="9">
+      <c r="M35" s="9">
         <v>198</v>
       </c>
-      <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -3378,18 +3477,18 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X35" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA35" s="5"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -3398,29 +3497,32 @@
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-    </row>
-    <row r="36" spans="1:35">
+      <c r="AJ35" s="5"/>
+    </row>
+    <row r="36" spans="1:36">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="12">
+      <c r="K36" s="4"/>
+      <c r="L36" s="13">
         <v>262</v>
       </c>
-      <c r="L36" s="9">
+      <c r="M36" s="9">
         <v>198</v>
       </c>
-      <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -3430,17 +3532,17 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X36" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA36" s="5"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y36" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
@@ -3449,29 +3551,32 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-    </row>
-    <row r="37" spans="1:35">
+      <c r="AJ36" s="5"/>
+    </row>
+    <row r="37" spans="1:36">
       <c r="A37" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="12">
+      <c r="K37" s="4"/>
+      <c r="L37" s="13">
         <v>292</v>
       </c>
-      <c r="L37" s="9">
+      <c r="M37" s="9">
         <v>198</v>
       </c>
-      <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -3481,17 +3586,17 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X37" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA37" s="5"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y37" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
@@ -3500,29 +3605,32 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
-    </row>
-    <row r="38" spans="1:35">
+      <c r="AJ37" s="5"/>
+    </row>
+    <row r="38" spans="1:36">
       <c r="A38" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="12">
+      <c r="K38" s="4"/>
+      <c r="L38" s="13">
         <v>322</v>
       </c>
-      <c r="L38" s="9">
+      <c r="M38" s="9">
         <v>198</v>
       </c>
-      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -3531,18 +3639,18 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X38" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA38" s="5"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
@@ -3551,29 +3659,32 @@
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
-    </row>
-    <row r="39" spans="1:35">
+      <c r="AJ38" s="5"/>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="9">
+      <c r="K39" s="4"/>
+      <c r="L39" s="9">
         <v>322</v>
       </c>
-      <c r="L39" s="9">
+      <c r="M39" s="9">
         <v>258</v>
       </c>
-      <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -3583,17 +3694,17 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X39" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA39" s="5"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
@@ -3602,29 +3713,32 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
-    </row>
-    <row r="40" spans="1:35">
+      <c r="AJ39" s="5"/>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="9">
+      <c r="K40" s="4"/>
+      <c r="L40" s="9">
         <v>352</v>
       </c>
-      <c r="L40" s="9">
+      <c r="M40" s="9">
         <v>258</v>
       </c>
-      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -3634,17 +3748,17 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X40" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA40" s="5"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
@@ -3653,29 +3767,32 @@
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
-    </row>
-    <row r="41" spans="1:35">
+      <c r="AJ40" s="5"/>
+    </row>
+    <row r="41" spans="1:36">
       <c r="A41" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="9">
+      <c r="K41" s="4"/>
+      <c r="L41" s="9">
         <v>419</v>
       </c>
-      <c r="L41" s="9">
+      <c r="M41" s="9">
         <v>198</v>
       </c>
-      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3684,18 +3801,18 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X41" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA41" s="5"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y41" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
@@ -3704,29 +3821,32 @@
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
-    </row>
-    <row r="42" spans="1:35">
+      <c r="AJ41" s="5"/>
+    </row>
+    <row r="42" spans="1:36">
       <c r="A42" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="9">
+      <c r="K42" s="4"/>
+      <c r="L42" s="9">
         <v>663</v>
       </c>
-      <c r="L42" s="9">
+      <c r="M42" s="9">
         <v>198</v>
       </c>
-      <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3736,17 +3856,17 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X42" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA42" s="5"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y42" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
@@ -3755,29 +3875,32 @@
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
-    </row>
-    <row r="43" spans="1:35">
+      <c r="AJ42" s="5"/>
+    </row>
+    <row r="43" spans="1:36">
       <c r="A43" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="9">
+      <c r="K43" s="4"/>
+      <c r="L43" s="9">
         <v>419</v>
       </c>
-      <c r="L43" s="9">
+      <c r="M43" s="9">
         <v>258</v>
       </c>
-      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -3787,17 +3910,17 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X43" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA43" s="5"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
@@ -3806,29 +3929,32 @@
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
-    </row>
-    <row r="44" spans="1:35">
+      <c r="AJ43" s="5"/>
+    </row>
+    <row r="44" spans="1:36">
       <c r="A44" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="9">
+      <c r="K44" s="4"/>
+      <c r="L44" s="9">
         <v>663</v>
       </c>
-      <c r="L44" s="9">
+      <c r="M44" s="9">
         <v>258</v>
       </c>
-      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -3837,18 +3963,18 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X44" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA44" s="5"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y44" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
@@ -3857,29 +3983,32 @@
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
-    </row>
-    <row r="45" spans="1:35">
+      <c r="AJ44" s="5"/>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="9">
+      <c r="K45" s="4"/>
+      <c r="L45" s="9">
         <v>730</v>
       </c>
-      <c r="L45" s="9">
+      <c r="M45" s="9">
         <v>198</v>
       </c>
-      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -3889,17 +4018,17 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X45" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA45" s="5"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y45" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
@@ -3908,29 +4037,32 @@
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
-    </row>
-    <row r="46" spans="1:35">
+      <c r="AJ45" s="5"/>
+    </row>
+    <row r="46" spans="1:36">
       <c r="A46" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="9">
+      <c r="K46" s="4"/>
+      <c r="L46" s="9">
         <v>800</v>
       </c>
-      <c r="L46" s="9">
+      <c r="M46" s="9">
         <v>196</v>
       </c>
-      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -3940,17 +4072,17 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X46" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA46" s="5"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y46" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
@@ -3959,29 +4091,32 @@
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
-    </row>
-    <row r="47" spans="1:35">
+      <c r="AJ46" s="5"/>
+    </row>
+    <row r="47" spans="1:36">
       <c r="A47" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="9">
+      <c r="K47" s="4"/>
+      <c r="L47" s="9">
         <v>730</v>
       </c>
-      <c r="L47" s="9">
+      <c r="M47" s="9">
         <v>198</v>
       </c>
-      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -3991,17 +4126,17 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X47" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA47" s="5"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y47" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
@@ -4010,29 +4145,32 @@
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
-    </row>
-    <row r="48" spans="1:35">
+      <c r="AJ47" s="5"/>
+    </row>
+    <row r="48" spans="1:36">
       <c r="A48" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="9">
+      <c r="K48" s="4"/>
+      <c r="L48" s="9">
         <v>754</v>
       </c>
-      <c r="L48" s="9">
+      <c r="M48" s="9">
         <v>216</v>
       </c>
-      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4041,21 +4179,21 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="12"/>
-      <c r="W48" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X48" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA48" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB48" s="5"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y48" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB48" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
@@ -4063,29 +4201,32 @@
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
-    </row>
-    <row r="49" spans="1:35">
+      <c r="AJ48" s="5"/>
+    </row>
+    <row r="49" spans="1:36">
       <c r="A49" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="9">
+      <c r="K49" s="4"/>
+      <c r="L49" s="9">
         <v>730</v>
       </c>
-      <c r="L49" s="9">
+      <c r="M49" s="9">
         <v>258</v>
       </c>
-      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -4094,18 +4235,18 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X49" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA49" s="5"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y49" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
@@ -4114,29 +4255,32 @@
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
-    </row>
-    <row r="50" spans="1:35">
+      <c r="AJ49" s="5"/>
+    </row>
+    <row r="50" spans="1:36">
       <c r="A50" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="9">
+      <c r="K50" s="4"/>
+      <c r="L50" s="9">
         <v>835</v>
       </c>
-      <c r="L50" s="9">
+      <c r="M50" s="9">
         <v>258</v>
       </c>
-      <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4145,18 +4289,18 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X50" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA50" s="5"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
@@ -4165,29 +4309,32 @@
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
-    </row>
-    <row r="51" spans="1:35">
+      <c r="AJ50" s="5"/>
+    </row>
+    <row r="51" spans="1:36">
       <c r="A51" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="9">
+      <c r="K51" s="4"/>
+      <c r="L51" s="9">
         <v>774</v>
       </c>
-      <c r="L51" s="9">
+      <c r="M51" s="9">
         <v>236</v>
       </c>
-      <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4197,20 +4344,20 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
-      <c r="W51" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X51" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA51" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB51" s="5"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y51" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB51" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
@@ -4218,29 +4365,32 @@
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
-    </row>
-    <row r="52" spans="1:35">
+      <c r="AJ51" s="5"/>
+    </row>
+    <row r="52" spans="1:36">
       <c r="A52" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="9">
+      <c r="K52" s="4"/>
+      <c r="L52" s="9">
         <v>835</v>
       </c>
-      <c r="L52" s="9">
+      <c r="M52" s="9">
         <v>258</v>
       </c>
-      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4250,17 +4400,17 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
-      <c r="W52" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X52" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="14"/>
-      <c r="Z52" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA52" s="5"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -4269,29 +4419,32 @@
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
-    </row>
-    <row r="53" spans="1:35">
+      <c r="AJ52" s="5"/>
+    </row>
+    <row r="53" spans="1:36">
       <c r="A53" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="9">
+      <c r="K53" s="4"/>
+      <c r="L53" s="9">
         <v>869</v>
       </c>
-      <c r="L53" s="9">
+      <c r="M53" s="9">
         <v>258</v>
       </c>
-      <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
@@ -4301,17 +4454,17 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
-      <c r="W53" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA53" s="5"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -4320,29 +4473,32 @@
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
-    </row>
-    <row r="54" spans="1:35">
+      <c r="AJ53" s="5"/>
+    </row>
+    <row r="54" spans="1:36">
       <c r="A54" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="9">
+      <c r="K54" s="4"/>
+      <c r="L54" s="9">
         <v>909</v>
       </c>
-      <c r="L54" s="9">
+      <c r="M54" s="9">
         <v>258</v>
       </c>
-      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -4351,18 +4507,18 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X54" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA54" s="5"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y54" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
@@ -4371,29 +4527,32 @@
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
-    </row>
-    <row r="55" spans="1:35">
+      <c r="AJ54" s="5"/>
+    </row>
+    <row r="55" spans="1:36">
       <c r="A55" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="9">
+      <c r="K55" s="4"/>
+      <c r="L55" s="9">
         <v>885</v>
       </c>
-      <c r="L55" s="9">
+      <c r="M55" s="9">
         <v>274</v>
       </c>
-      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -4403,20 +4562,20 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
-      <c r="W55" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X55" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA55" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB55" s="5"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB55" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
@@ -4424,29 +4583,32 @@
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
-    </row>
-    <row r="56" spans="1:35">
+      <c r="AJ55" s="5"/>
+    </row>
+    <row r="56" spans="1:36">
       <c r="A56" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="9">
+      <c r="K56" s="4"/>
+      <c r="L56" s="9">
         <v>885</v>
       </c>
-      <c r="L56" s="9">
+      <c r="M56" s="9">
         <v>238</v>
       </c>
-      <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
@@ -4456,20 +4618,20 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
-      <c r="W56" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X56" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="14"/>
-      <c r="Z56" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA56" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB56" s="5"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB56" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
@@ -4477,29 +4639,32 @@
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
-    </row>
-    <row r="57" spans="1:35">
+      <c r="AJ56" s="5"/>
+    </row>
+    <row r="57" spans="1:36">
       <c r="A57" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="9">
+      <c r="K57" s="4"/>
+      <c r="L57" s="9">
         <v>949</v>
       </c>
-      <c r="L57" s="9">
+      <c r="M57" s="9">
         <v>258</v>
       </c>
-      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -4508,18 +4673,18 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA57" s="5"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
@@ -4528,29 +4693,32 @@
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
-    </row>
-    <row r="58" spans="1:35">
+      <c r="AJ57" s="5"/>
+    </row>
+    <row r="58" spans="1:36">
       <c r="A58" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="9">
+      <c r="K58" s="4"/>
+      <c r="L58" s="9">
         <v>989</v>
       </c>
-      <c r="L58" s="9">
+      <c r="M58" s="9">
         <v>258</v>
       </c>
-      <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
@@ -4560,17 +4728,17 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
-      <c r="W58" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X58" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="14"/>
-      <c r="Z58" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA58" s="5"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
@@ -4579,29 +4747,32 @@
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
-    </row>
-    <row r="59" spans="1:35">
+      <c r="AJ58" s="5"/>
+    </row>
+    <row r="59" spans="1:36">
       <c r="A59" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="9">
+      <c r="K59" s="4"/>
+      <c r="L59" s="9">
         <v>1024</v>
       </c>
-      <c r="L59" s="9">
+      <c r="M59" s="9">
         <v>258</v>
       </c>
-      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -4610,18 +4781,18 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X59" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA59" s="5"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
@@ -4630,29 +4801,32 @@
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
-    </row>
-    <row r="60" spans="1:35">
+      <c r="AJ59" s="5"/>
+    </row>
+    <row r="60" spans="1:36">
       <c r="A60" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="9">
+      <c r="K60" s="4"/>
+      <c r="L60" s="9">
         <v>1049</v>
       </c>
-      <c r="L60" s="9">
+      <c r="M60" s="9">
         <v>258</v>
       </c>
-      <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -4662,17 +4836,17 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
-      <c r="W60" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X60" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="14"/>
-      <c r="Z60" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA60" s="5"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y60" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
@@ -4681,29 +4855,32 @@
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
-    </row>
-    <row r="61" spans="1:35">
+      <c r="AJ60" s="5"/>
+    </row>
+    <row r="61" spans="1:36">
       <c r="A61" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="9">
+      <c r="K61" s="4"/>
+      <c r="L61" s="9">
         <v>1079</v>
       </c>
-      <c r="L61" s="9">
+      <c r="M61" s="9">
         <v>258</v>
       </c>
-      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -4713,17 +4890,17 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
-      <c r="W61" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X61" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA61" s="5"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y61" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
@@ -4732,29 +4909,32 @@
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
       <c r="AI61" s="5"/>
-    </row>
-    <row r="62" spans="1:35">
+      <c r="AJ61" s="5"/>
+    </row>
+    <row r="62" spans="1:36">
       <c r="A62" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="9">
+      <c r="K62" s="4"/>
+      <c r="L62" s="9">
         <v>1049</v>
       </c>
-      <c r="L62" s="9">
+      <c r="M62" s="9">
         <v>258</v>
       </c>
-      <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -4764,17 +4944,17 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
-      <c r="W62" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X62" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="14"/>
-      <c r="Z62" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA62" s="5"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y62" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
@@ -4783,29 +4963,32 @@
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
-    </row>
-    <row r="63" spans="1:35">
+      <c r="AJ62" s="5"/>
+    </row>
+    <row r="63" spans="1:36">
       <c r="A63" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="9">
+      <c r="K63" s="4"/>
+      <c r="L63" s="9">
         <v>1071</v>
       </c>
-      <c r="L63" s="9">
+      <c r="M63" s="9">
         <v>213</v>
       </c>
-      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -4815,20 +4998,20 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
-      <c r="W63" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X63" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA63" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB63" s="5"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y63" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB63" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
@@ -4836,29 +5019,32 @@
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AI63" s="5"/>
-    </row>
-    <row r="64" spans="1:35">
+      <c r="AJ63" s="5"/>
+    </row>
+    <row r="64" spans="1:36">
       <c r="A64" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="9">
+      <c r="K64" s="4"/>
+      <c r="L64" s="9">
         <v>1117</v>
       </c>
-      <c r="L64" s="9">
+      <c r="M64" s="9">
         <v>198</v>
       </c>
-      <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -4868,17 +5054,17 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
-      <c r="W64" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X64" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA64" s="5"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y64" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
@@ -4887,29 +5073,32 @@
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
       <c r="AI64" s="5"/>
-    </row>
-    <row r="65" spans="1:35">
+      <c r="AJ64" s="5"/>
+    </row>
+    <row r="65" spans="1:36">
       <c r="A65" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="9">
+      <c r="K65" s="4"/>
+      <c r="L65" s="9">
         <v>1099</v>
       </c>
-      <c r="L65" s="9">
+      <c r="M65" s="9">
         <v>258</v>
       </c>
-      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -4919,17 +5108,17 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
-      <c r="W65" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X65" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="14"/>
-      <c r="Z65" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA65" s="5"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y65" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
@@ -4938,29 +5127,32 @@
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
       <c r="AI65" s="5"/>
-    </row>
-    <row r="66" spans="1:35">
+      <c r="AJ65" s="5"/>
+    </row>
+    <row r="66" spans="1:36">
       <c r="A66" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="9">
+      <c r="K66" s="4"/>
+      <c r="L66" s="9">
         <v>1142</v>
       </c>
-      <c r="L66" s="9">
+      <c r="M66" s="9">
         <v>258</v>
       </c>
-      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -4970,17 +5162,17 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X66" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="14"/>
-      <c r="Z66" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA66" s="5"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y66" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
@@ -4989,29 +5181,32 @@
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
       <c r="AI66" s="5"/>
-    </row>
-    <row r="67" spans="1:35">
+      <c r="AJ66" s="5"/>
+    </row>
+    <row r="67" spans="1:36">
       <c r="A67" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="9">
+      <c r="K67" s="4"/>
+      <c r="L67" s="9">
         <v>1099</v>
       </c>
-      <c r="L67" s="9">
+      <c r="M67" s="9">
         <v>258</v>
       </c>
-      <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -5021,17 +5216,17 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
-      <c r="W67" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X67" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="14"/>
-      <c r="Z67" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA67" s="5"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y67" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
@@ -5040,29 +5235,32 @@
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
       <c r="AI67" s="5"/>
-    </row>
-    <row r="68" spans="1:35">
+      <c r="AJ67" s="5"/>
+    </row>
+    <row r="68" spans="1:36">
       <c r="A68" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="9">
+      <c r="K68" s="4"/>
+      <c r="L68" s="9">
         <v>1111</v>
       </c>
-      <c r="L68" s="9">
+      <c r="M68" s="9">
         <v>273</v>
       </c>
-      <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
@@ -5072,20 +5270,20 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
-      <c r="W68" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X68" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="14"/>
-      <c r="Z68" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA68" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB68" s="5"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB68" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
@@ -5093,29 +5291,32 @@
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
       <c r="AI68" s="5"/>
-    </row>
-    <row r="69" spans="1:35">
+      <c r="AJ68" s="5"/>
+    </row>
+    <row r="69" spans="1:36">
       <c r="A69" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="9">
+      <c r="K69" s="4"/>
+      <c r="L69" s="9">
         <v>1167</v>
       </c>
-      <c r="L69" s="9">
+      <c r="M69" s="9">
         <v>318</v>
       </c>
-      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
@@ -5125,17 +5326,17 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
-      <c r="W69" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X69" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="14"/>
-      <c r="Z69" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA69" s="5"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y69" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
@@ -5144,29 +5345,32 @@
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
       <c r="AI69" s="5"/>
-    </row>
-    <row r="70" spans="1:35">
+      <c r="AJ69" s="5"/>
+    </row>
+    <row r="70" spans="1:36">
       <c r="A70" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="9">
+      <c r="K70" s="4"/>
+      <c r="L70" s="9">
         <v>1121</v>
       </c>
-      <c r="L70" s="9">
+      <c r="M70" s="9">
         <v>298</v>
       </c>
-      <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -5176,20 +5380,20 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
-      <c r="W70" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X70" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA70" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB70" s="5"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y70" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB70" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
@@ -5197,29 +5401,32 @@
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
-    </row>
-    <row r="71" spans="1:35">
+      <c r="AJ70" s="5"/>
+    </row>
+    <row r="71" spans="1:36">
       <c r="A71" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="9">
+      <c r="K71" s="4"/>
+      <c r="L71" s="9">
         <v>1167</v>
       </c>
-      <c r="L71" s="9">
+      <c r="M71" s="9">
         <v>318</v>
       </c>
-      <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -5229,17 +5436,17 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
-      <c r="W71" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X71" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA71" s="5"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
@@ -5248,29 +5455,32 @@
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
       <c r="AI71" s="5"/>
-    </row>
-    <row r="72" spans="1:35">
+      <c r="AJ71" s="5"/>
+    </row>
+    <row r="72" spans="1:36">
       <c r="A72" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="9">
+      <c r="K72" s="4"/>
+      <c r="L72" s="9">
         <v>1141</v>
       </c>
-      <c r="L72" s="9">
+      <c r="M72" s="9">
         <v>198</v>
       </c>
-      <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
@@ -5280,17 +5490,17 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
-      <c r="W72" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X72" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="14"/>
-      <c r="Z72" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA72" s="5"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y72" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
@@ -5299,29 +5509,32 @@
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
-    </row>
-    <row r="73" spans="1:35">
+      <c r="AJ72" s="5"/>
+    </row>
+    <row r="73" spans="1:36">
       <c r="A73" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="9">
+      <c r="K73" s="4"/>
+      <c r="L73" s="9">
         <v>1223</v>
       </c>
-      <c r="L73" s="9">
+      <c r="M73" s="9">
         <v>198</v>
       </c>
-      <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -5331,17 +5544,17 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
-      <c r="W73" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X73" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="14"/>
-      <c r="Z73" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA73" s="5"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y73" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
@@ -5350,29 +5563,32 @@
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
-    </row>
-    <row r="74" spans="1:35">
+      <c r="AJ73" s="5"/>
+    </row>
+    <row r="74" spans="1:36">
       <c r="A74" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="9">
+      <c r="K74" s="4"/>
+      <c r="L74" s="9">
         <v>1166</v>
       </c>
-      <c r="L74" s="9">
+      <c r="M74" s="9">
         <v>258</v>
       </c>
-      <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -5382,17 +5598,17 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
-      <c r="W74" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X74" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="14"/>
-      <c r="Z74" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA74" s="5"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y74" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
@@ -5401,29 +5617,32 @@
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
-    </row>
-    <row r="75" spans="1:35">
+      <c r="AJ74" s="5"/>
+    </row>
+    <row r="75" spans="1:36">
       <c r="A75" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="9">
+      <c r="K75" s="4"/>
+      <c r="L75" s="9">
         <v>1248</v>
       </c>
-      <c r="L75" s="9">
+      <c r="M75" s="9">
         <v>258</v>
       </c>
-      <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -5433,17 +5652,17 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
-      <c r="W75" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X75" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="14"/>
-      <c r="Z75" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA75" s="5"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y75" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
@@ -5452,29 +5671,32 @@
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
       <c r="AI75" s="5"/>
-    </row>
-    <row r="76" spans="1:35">
+      <c r="AJ75" s="5"/>
+    </row>
+    <row r="76" spans="1:36">
       <c r="A76" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="9">
+      <c r="K76" s="4"/>
+      <c r="L76" s="9">
         <v>1191</v>
       </c>
-      <c r="L76" s="9">
+      <c r="M76" s="9">
         <v>318</v>
       </c>
-      <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
@@ -5484,17 +5706,17 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
-      <c r="W76" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X76" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="14"/>
-      <c r="Z76" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA76" s="5"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y76" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
@@ -5503,29 +5725,32 @@
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
-    </row>
-    <row r="77" spans="1:35">
+      <c r="AJ76" s="5"/>
+    </row>
+    <row r="77" spans="1:36">
       <c r="A77" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="9">
+      <c r="K77" s="4"/>
+      <c r="L77" s="9">
         <v>1273</v>
       </c>
-      <c r="L77" s="9">
+      <c r="M77" s="9">
         <v>318</v>
       </c>
-      <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
@@ -5535,17 +5760,17 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
-      <c r="W77" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X77" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="14"/>
-      <c r="Z77" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA77" s="5"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y77" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
@@ -5554,29 +5779,32 @@
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
       <c r="AI77" s="5"/>
-    </row>
-    <row r="78" spans="1:35">
+      <c r="AJ77" s="5"/>
+    </row>
+    <row r="78" spans="1:36">
       <c r="A78" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="9">
+      <c r="K78" s="4"/>
+      <c r="L78" s="9">
         <v>1247</v>
       </c>
-      <c r="L78" s="9">
+      <c r="M78" s="9">
         <v>198</v>
       </c>
-      <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
@@ -5586,17 +5814,17 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
-      <c r="W78" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X78" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="14"/>
-      <c r="Z78" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA78" s="5"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y78" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
@@ -5605,29 +5833,32 @@
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
       <c r="AI78" s="5"/>
-    </row>
-    <row r="79" spans="1:35">
+      <c r="AJ78" s="5"/>
+    </row>
+    <row r="79" spans="1:36">
       <c r="A79" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="9">
+      <c r="K79" s="4"/>
+      <c r="L79" s="9">
         <v>1302</v>
       </c>
-      <c r="L79" s="9">
+      <c r="M79" s="9">
         <v>198</v>
       </c>
-      <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
@@ -5637,17 +5868,17 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
-      <c r="W79" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X79" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="14"/>
-      <c r="Z79" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA79" s="5"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y79" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
@@ -5656,29 +5887,32 @@
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
       <c r="AI79" s="5"/>
-    </row>
-    <row r="80" spans="1:35">
+      <c r="AJ79" s="5"/>
+    </row>
+    <row r="80" spans="1:36">
       <c r="A80" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="9">
+      <c r="K80" s="4"/>
+      <c r="L80" s="9">
         <v>1247</v>
       </c>
-      <c r="L80" s="9">
+      <c r="M80" s="9">
         <v>198</v>
       </c>
-      <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
@@ -5688,17 +5922,17 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
-      <c r="W80" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X80" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="14"/>
-      <c r="Z80" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA80" s="5"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y80" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
@@ -5707,29 +5941,32 @@
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
       <c r="AI80" s="5"/>
-    </row>
-    <row r="81" spans="1:35">
+      <c r="AJ80" s="5"/>
+    </row>
+    <row r="81" spans="1:36">
       <c r="A81" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="9">
+      <c r="K81" s="4"/>
+      <c r="L81" s="9">
         <v>1284</v>
       </c>
-      <c r="L81" s="9">
+      <c r="M81" s="9">
         <v>213</v>
       </c>
-      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -5739,20 +5976,20 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
-      <c r="W81" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X81" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="14"/>
-      <c r="Z81" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA81" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB81" s="5"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y81" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB81" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
@@ -5760,29 +5997,32 @@
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
       <c r="AI81" s="5"/>
-    </row>
-    <row r="82" spans="1:35">
+      <c r="AJ81" s="5"/>
+    </row>
+    <row r="82" spans="1:36">
       <c r="A82" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="9">
+      <c r="K82" s="4"/>
+      <c r="L82" s="9">
         <v>1272</v>
       </c>
-      <c r="L82" s="9">
+      <c r="M82" s="9">
         <v>258</v>
       </c>
-      <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
@@ -5792,17 +6032,17 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
-      <c r="W82" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X82" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="14"/>
-      <c r="Z82" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA82" s="5"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y82" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
@@ -5811,29 +6051,32 @@
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
       <c r="AI82" s="5"/>
-    </row>
-    <row r="83" spans="1:35">
+      <c r="AJ82" s="5"/>
+    </row>
+    <row r="83" spans="1:36">
       <c r="A83" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="9">
+      <c r="K83" s="4"/>
+      <c r="L83" s="9">
         <v>1302</v>
       </c>
-      <c r="L83" s="9">
+      <c r="M83" s="9">
         <v>258</v>
       </c>
-      <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
@@ -5843,17 +6086,17 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
-      <c r="W83" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X83" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="14"/>
-      <c r="Z83" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA83" s="5"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y83" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
@@ -5862,29 +6105,32 @@
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
       <c r="AI83" s="5"/>
-    </row>
-    <row r="84" spans="1:35">
+      <c r="AJ83" s="5"/>
+    </row>
+    <row r="84" spans="1:36">
       <c r="A84" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="9">
+      <c r="K84" s="4"/>
+      <c r="L84" s="9">
         <v>1294</v>
       </c>
-      <c r="L84" s="9">
+      <c r="M84" s="9">
         <v>238</v>
       </c>
-      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -5894,20 +6140,20 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
-      <c r="W84" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X84" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="14"/>
-      <c r="Z84" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA84" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB84" s="5"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y84" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB84" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
@@ -5915,29 +6161,32 @@
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
       <c r="AI84" s="5"/>
-    </row>
-    <row r="85" spans="1:35">
+      <c r="AJ84" s="5"/>
+    </row>
+    <row r="85" spans="1:36">
       <c r="A85" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="9">
+      <c r="K85" s="4"/>
+      <c r="L85" s="9">
         <v>1302</v>
       </c>
-      <c r="L85" s="9">
+      <c r="M85" s="9">
         <v>258</v>
       </c>
-      <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
@@ -5947,17 +6196,17 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
-      <c r="W85" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X85" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="14"/>
-      <c r="Z85" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA85" s="5"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y85" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
@@ -5966,29 +6215,32 @@
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
       <c r="AI85" s="5"/>
-    </row>
-    <row r="86" spans="1:35">
+      <c r="AJ85" s="5"/>
+    </row>
+    <row r="86" spans="1:36">
       <c r="A86" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="9">
+      <c r="K86" s="4"/>
+      <c r="L86" s="9">
         <v>1322</v>
       </c>
-      <c r="L86" s="9">
+      <c r="M86" s="9">
         <v>258</v>
       </c>
-      <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -5998,17 +6250,17 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
-      <c r="W86" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X86" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="14"/>
-      <c r="Z86" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA86" s="5"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y86" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
@@ -6017,29 +6269,32 @@
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
       <c r="AI86" s="5"/>
-    </row>
-    <row r="87" spans="1:35">
+      <c r="AJ86" s="5"/>
+    </row>
+    <row r="87" spans="1:36">
       <c r="A87" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="9">
+      <c r="K87" s="4"/>
+      <c r="L87" s="9">
         <v>1352</v>
       </c>
-      <c r="L87" s="9">
+      <c r="M87" s="9">
         <v>258</v>
       </c>
-      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -6049,17 +6304,17 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
-      <c r="W87" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X87" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="14"/>
-      <c r="Z87" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA87" s="5"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y87" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
@@ -6068,29 +6323,32 @@
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
       <c r="AI87" s="5"/>
-    </row>
-    <row r="88" spans="1:35">
+      <c r="AJ87" s="5"/>
+    </row>
+    <row r="88" spans="1:36">
       <c r="A88" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="9">
+      <c r="K88" s="4"/>
+      <c r="L88" s="9">
         <v>1297</v>
       </c>
-      <c r="L88" s="9">
+      <c r="M88" s="9">
         <v>318</v>
       </c>
-      <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
@@ -6100,18 +6358,18 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
-      <c r="W88" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X88" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="14"/>
-      <c r="Z88" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA88" s="16"/>
-      <c r="AB88" s="5"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y88" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB88" s="16"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
@@ -6119,29 +6377,32 @@
       <c r="AG88" s="5"/>
       <c r="AH88" s="5"/>
       <c r="AI88" s="5"/>
-    </row>
-    <row r="89" spans="1:35">
+      <c r="AJ88" s="5"/>
+    </row>
+    <row r="89" spans="1:36">
       <c r="A89" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="9">
+      <c r="K89" s="4"/>
+      <c r="L89" s="9">
         <v>1334</v>
       </c>
-      <c r="L89" s="9">
+      <c r="M89" s="9">
         <v>298</v>
       </c>
-      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
@@ -6151,20 +6412,20 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
-      <c r="W89" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X89" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="14"/>
-      <c r="Z89" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA89" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB89" s="5"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y89" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB89" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
@@ -6172,29 +6433,32 @@
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
       <c r="AI89" s="5"/>
-    </row>
-    <row r="90" spans="1:35">
+      <c r="AJ89" s="5"/>
+    </row>
+    <row r="90" spans="1:36">
       <c r="A90" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="9">
+      <c r="K90" s="4"/>
+      <c r="L90" s="9">
         <v>1352</v>
       </c>
-      <c r="L90" s="9">
+      <c r="M90" s="9">
         <v>258</v>
       </c>
-      <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -6204,18 +6468,18 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
-      <c r="W90" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X90" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="14"/>
-      <c r="Z90" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA90" s="16"/>
-      <c r="AB90" s="5"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y90" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB90" s="16"/>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
@@ -6223,29 +6487,32 @@
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
       <c r="AI90" s="5"/>
-    </row>
-    <row r="91" spans="1:35">
+      <c r="AJ90" s="5"/>
+    </row>
+    <row r="91" spans="1:36">
       <c r="A91" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="9">
+      <c r="K91" s="4"/>
+      <c r="L91" s="9">
         <v>1377</v>
       </c>
-      <c r="L91" s="9">
+      <c r="M91" s="9">
         <v>258</v>
       </c>
-      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -6255,18 +6522,18 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
-      <c r="W91" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X91" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="14"/>
-      <c r="Z91" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA91" s="16"/>
-      <c r="AB91" s="5"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y91" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB91" s="16"/>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
@@ -6274,29 +6541,32 @@
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
       <c r="AI91" s="5"/>
-    </row>
-    <row r="92" spans="1:35">
+      <c r="AJ91" s="5"/>
+    </row>
+    <row r="92" spans="1:36">
       <c r="A92" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="9">
+      <c r="K92" s="4"/>
+      <c r="L92" s="9">
         <v>54</v>
       </c>
-      <c r="L92" s="9">
+      <c r="M92" s="9">
         <v>45</v>
       </c>
-      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
@@ -6306,18 +6576,18 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
-      <c r="W92" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X92" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y92" s="14"/>
-      <c r="Z92" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA92" s="16"/>
-      <c r="AB92" s="5"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y92" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB92" s="16"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
@@ -6325,29 +6595,32 @@
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
       <c r="AI92" s="5"/>
-    </row>
-    <row r="93" spans="1:35">
+      <c r="AJ92" s="5"/>
+    </row>
+    <row r="93" spans="1:36">
       <c r="A93" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="9">
+      <c r="K93" s="4"/>
+      <c r="L93" s="9">
         <v>102</v>
       </c>
-      <c r="L93" s="9">
+      <c r="M93" s="9">
         <v>45</v>
       </c>
-      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
@@ -6357,18 +6630,18 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
-      <c r="W93" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X93" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="14"/>
-      <c r="Z93" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA93" s="16"/>
-      <c r="AB93" s="5"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y93" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB93" s="16"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
@@ -6376,29 +6649,32 @@
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
       <c r="AI93" s="5"/>
-    </row>
-    <row r="94" spans="1:35">
+      <c r="AJ93" s="5"/>
+    </row>
+    <row r="94" spans="1:36">
       <c r="A94" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="9">
+      <c r="K94" s="4"/>
+      <c r="L94" s="9">
         <v>696</v>
       </c>
-      <c r="L94" s="9">
+      <c r="M94" s="9">
         <v>567</v>
       </c>
-      <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
@@ -6408,18 +6684,18 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
-      <c r="W94" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X94" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="14"/>
-      <c r="Z94" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA94" s="16"/>
-      <c r="AB94" s="5"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y94" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB94" s="16"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
@@ -6427,29 +6703,32 @@
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
       <c r="AI94" s="5"/>
-    </row>
-    <row r="95" spans="1:35">
+      <c r="AJ94" s="5"/>
+    </row>
+    <row r="95" spans="1:36">
       <c r="A95" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="E95" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="9">
+      <c r="K95" s="4"/>
+      <c r="L95" s="9">
         <v>734</v>
       </c>
-      <c r="L95" s="9">
+      <c r="M95" s="9">
         <v>567</v>
       </c>
-      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
@@ -6459,18 +6738,18 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
-      <c r="W95" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X95" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y95" s="14"/>
-      <c r="Z95" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA95" s="16"/>
-      <c r="AB95" s="5"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y95" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB95" s="16"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
@@ -6478,13 +6757,14 @@
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
       <c r="AI95" s="5"/>
-    </row>
-    <row r="96" spans="1:35">
+      <c r="AJ95" s="5"/>
+    </row>
+    <row r="96" spans="1:36">
       <c r="A96" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -6494,13 +6774,13 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="9">
+      <c r="K96" s="4"/>
+      <c r="L96" s="9">
         <v>24</v>
       </c>
-      <c r="L96" s="9">
+      <c r="M96" s="9">
         <v>120</v>
       </c>
-      <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
@@ -6509,17 +6789,17 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-      <c r="V96" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="W96" s="10"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="X96" s="10"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA96" s="16"/>
-      <c r="AB96" s="5"/>
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="11"/>
+      <c r="AA96" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB96" s="16"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
@@ -6527,13 +6807,14 @@
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
       <c r="AI96" s="5"/>
-    </row>
-    <row r="97" spans="1:35">
+      <c r="AJ96" s="5"/>
+    </row>
+    <row r="97" spans="1:36">
       <c r="A97" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -6543,13 +6824,13 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="9">
+      <c r="K97" s="4"/>
+      <c r="L97" s="9">
         <v>174</v>
       </c>
-      <c r="L97" s="9">
+      <c r="M97" s="9">
         <v>120</v>
       </c>
-      <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -6558,17 +6839,17 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="W97" s="10"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="X97" s="10"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA97" s="16"/>
-      <c r="AB97" s="5"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="11"/>
+      <c r="AA97" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB97" s="16"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
@@ -6576,13 +6857,14 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
       <c r="AI97" s="5"/>
-    </row>
-    <row r="98" spans="1:35">
+      <c r="AJ97" s="5"/>
+    </row>
+    <row r="98" spans="1:36">
       <c r="A98" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -6592,13 +6874,13 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="9">
+      <c r="K98" s="4"/>
+      <c r="L98" s="9">
         <v>481</v>
       </c>
-      <c r="L98" s="9">
+      <c r="M98" s="9">
         <v>187</v>
       </c>
-      <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -6607,17 +6889,17 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-      <c r="V98" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="W98" s="10"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="X98" s="10"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA98" s="16"/>
-      <c r="AB98" s="5"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="11"/>
+      <c r="AA98" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB98" s="16"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
@@ -6625,13 +6907,14 @@
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
       <c r="AI98" s="5"/>
-    </row>
-    <row r="99" spans="1:35">
+      <c r="AJ98" s="5"/>
+    </row>
+    <row r="99" spans="1:36">
       <c r="A99" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -6641,13 +6924,13 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="9">
+      <c r="K99" s="4"/>
+      <c r="L99" s="9">
         <v>481</v>
       </c>
-      <c r="L99" s="9">
+      <c r="M99" s="9">
         <v>247</v>
       </c>
-      <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
@@ -6656,17 +6939,17 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
-      <c r="V99" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="W99" s="10"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="X99" s="10"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA99" s="16"/>
-      <c r="AB99" s="5"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="11"/>
+      <c r="AA99" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB99" s="16"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
@@ -6674,13 +6957,14 @@
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
       <c r="AI99" s="5"/>
-    </row>
-    <row r="100" spans="1:35">
+      <c r="AJ99" s="5"/>
+    </row>
+    <row r="100" spans="1:36">
       <c r="A100" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -6690,13 +6974,13 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="9">
+      <c r="K100" s="4"/>
+      <c r="L100" s="9">
         <v>847</v>
       </c>
-      <c r="L100" s="9">
+      <c r="M100" s="9">
         <v>440</v>
       </c>
-      <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
@@ -6705,17 +6989,17 @@
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
-      <c r="V100" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="W100" s="10"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="X100" s="10"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA100" s="16"/>
-      <c r="AB100" s="5"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="11"/>
+      <c r="AA100" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB100" s="16"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
@@ -6723,13 +7007,14 @@
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
       <c r="AI100" s="5"/>
-    </row>
-    <row r="101" spans="1:35">
+      <c r="AJ100" s="5"/>
+    </row>
+    <row r="101" spans="1:36">
       <c r="A101" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -6739,13 +7024,13 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="9">
+      <c r="K101" s="4"/>
+      <c r="L101" s="9">
         <v>997</v>
       </c>
-      <c r="L101" s="9">
+      <c r="M101" s="9">
         <v>440</v>
       </c>
-      <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
@@ -6754,17 +7039,17 @@
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
-      <c r="V101" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="W101" s="10"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="X101" s="10"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA101" s="16"/>
-      <c r="AB101" s="5"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="11"/>
+      <c r="AA101" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB101" s="16"/>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
@@ -6772,13 +7057,14 @@
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
       <c r="AI101" s="5"/>
-    </row>
-    <row r="102" spans="1:35">
+      <c r="AJ101" s="5"/>
+    </row>
+    <row r="102" spans="1:36">
       <c r="A102" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -6788,13 +7074,13 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="9">
+      <c r="K102" s="4"/>
+      <c r="L102" s="9">
         <v>1147</v>
       </c>
-      <c r="L102" s="9">
+      <c r="M102" s="9">
         <v>394</v>
       </c>
-      <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
@@ -6803,17 +7089,17 @@
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
-      <c r="V102" s="10" t="s">
+      <c r="V102" s="4"/>
+      <c r="W102" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="10"/>
+      <c r="Z102" s="11"/>
+      <c r="AA102" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="W102" s="10"/>
-      <c r="X102" s="10"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA102" s="16"/>
-      <c r="AB102" s="5"/>
+      <c r="AB102" s="16"/>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
@@ -6821,13 +7107,14 @@
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
       <c r="AI102" s="5"/>
-    </row>
-    <row r="103" spans="1:35">
+      <c r="AJ102" s="5"/>
+    </row>
+    <row r="103" spans="1:36">
       <c r="A103" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -6837,13 +7124,13 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="9">
+      <c r="K103" s="4"/>
+      <c r="L103" s="9">
         <v>1147</v>
       </c>
-      <c r="L103" s="9">
+      <c r="M103" s="9">
         <v>440</v>
       </c>
-      <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
@@ -6852,17 +7139,17 @@
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
-      <c r="V103" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="W103" s="10"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="X103" s="10"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA103" s="16"/>
-      <c r="AB103" s="5"/>
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="11"/>
+      <c r="AA103" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB103" s="16"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
@@ -6870,13 +7157,14 @@
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
       <c r="AI103" s="5"/>
-    </row>
-    <row r="104" spans="1:35">
+      <c r="AJ103" s="5"/>
+    </row>
+    <row r="104" spans="1:36">
       <c r="A104" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -6886,13 +7174,13 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="9">
+      <c r="K104" s="4"/>
+      <c r="L104" s="9">
         <v>1147</v>
       </c>
-      <c r="L104" s="9">
+      <c r="M104" s="9">
         <v>486</v>
       </c>
-      <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
@@ -6901,17 +7189,17 @@
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
-      <c r="V104" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="W104" s="10"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="X104" s="10"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA104" s="16"/>
-      <c r="AB104" s="5"/>
+      <c r="Y104" s="10"/>
+      <c r="Z104" s="11"/>
+      <c r="AA104" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB104" s="16"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
@@ -6919,10 +7207,11 @@
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
       <c r="AI104" s="5"/>
-    </row>
-    <row r="105" spans="1:35">
+      <c r="AJ104" s="5"/>
+    </row>
+    <row r="105" spans="1:36">
       <c r="A105" s="4"/>
-      <c r="B105" s="12"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6931,9 +7220,9 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -6943,12 +7232,12 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
-      <c r="W105" s="10"/>
+      <c r="W105" s="4"/>
       <c r="X105" s="10"/>
-      <c r="Y105" s="3"/>
+      <c r="Y105" s="10"/>
       <c r="Z105" s="11"/>
-      <c r="AA105" s="16"/>
-      <c r="AB105" s="5"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="16"/>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
@@ -6956,10 +7245,11 @@
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
       <c r="AI105" s="5"/>
-    </row>
-    <row r="106" spans="1:35">
+      <c r="AJ105" s="5"/>
+    </row>
+    <row r="106" spans="1:36">
       <c r="A106" s="4"/>
-      <c r="B106" s="12"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -6968,9 +7258,9 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
@@ -6980,12 +7270,12 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
-      <c r="W106" s="10"/>
+      <c r="W106" s="4"/>
       <c r="X106" s="10"/>
-      <c r="Y106" s="3"/>
+      <c r="Y106" s="10"/>
       <c r="Z106" s="11"/>
-      <c r="AA106" s="16"/>
-      <c r="AB106" s="5"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="16"/>
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
@@ -6993,10 +7283,11 @@
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
       <c r="AI106" s="5"/>
-    </row>
-    <row r="107" spans="1:35">
+      <c r="AJ106" s="5"/>
+    </row>
+    <row r="107" spans="1:36">
       <c r="A107" s="4"/>
-      <c r="B107" s="12"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -7005,9 +7296,9 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
@@ -7017,12 +7308,12 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
-      <c r="W107" s="10"/>
+      <c r="W107" s="4"/>
       <c r="X107" s="10"/>
-      <c r="Y107" s="3"/>
+      <c r="Y107" s="10"/>
       <c r="Z107" s="11"/>
-      <c r="AA107" s="16"/>
-      <c r="AB107" s="5"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="16"/>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
@@ -7030,10 +7321,11 @@
       <c r="AG107" s="5"/>
       <c r="AH107" s="5"/>
       <c r="AI107" s="5"/>
-    </row>
-    <row r="108" spans="1:35">
+      <c r="AJ107" s="5"/>
+    </row>
+    <row r="108" spans="1:36">
       <c r="A108" s="4"/>
-      <c r="B108" s="12"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -7042,9 +7334,9 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
@@ -7054,12 +7346,12 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
-      <c r="W108" s="10"/>
+      <c r="W108" s="4"/>
       <c r="X108" s="10"/>
-      <c r="Y108" s="3"/>
+      <c r="Y108" s="10"/>
       <c r="Z108" s="11"/>
-      <c r="AA108" s="16"/>
-      <c r="AB108" s="5"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="16"/>
       <c r="AC108" s="5"/>
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
@@ -7067,10 +7359,11 @@
       <c r="AG108" s="5"/>
       <c r="AH108" s="5"/>
       <c r="AI108" s="5"/>
-    </row>
-    <row r="109" spans="1:35">
+      <c r="AJ108" s="5"/>
+    </row>
+    <row r="109" spans="1:36">
       <c r="A109" s="4"/>
-      <c r="B109" s="12"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -7079,9 +7372,9 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
@@ -7091,12 +7384,12 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
-      <c r="W109" s="10"/>
+      <c r="W109" s="4"/>
       <c r="X109" s="10"/>
-      <c r="Y109" s="3"/>
+      <c r="Y109" s="10"/>
       <c r="Z109" s="11"/>
-      <c r="AA109" s="16"/>
-      <c r="AB109" s="5"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="16"/>
       <c r="AC109" s="5"/>
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
@@ -7104,10 +7397,11 @@
       <c r="AG109" s="5"/>
       <c r="AH109" s="5"/>
       <c r="AI109" s="5"/>
-    </row>
-    <row r="110" spans="1:35">
+      <c r="AJ109" s="5"/>
+    </row>
+    <row r="110" spans="1:36">
       <c r="A110" s="4"/>
-      <c r="B110" s="12"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -7116,9 +7410,9 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
@@ -7128,12 +7422,12 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
-      <c r="W110" s="10"/>
+      <c r="W110" s="4"/>
       <c r="X110" s="10"/>
-      <c r="Y110" s="3"/>
+      <c r="Y110" s="10"/>
       <c r="Z110" s="11"/>
-      <c r="AA110" s="16"/>
-      <c r="AB110" s="5"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="16"/>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
@@ -7141,6 +7435,7 @@
       <c r="AG110" s="5"/>
       <c r="AH110" s="5"/>
       <c r="AI110" s="5"/>
+      <c r="AJ110" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -7173,53 +7468,53 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
-        <v>194</v>
+      <c r="A1" s="14" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
-        <v>195</v>
+      <c r="A2" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
-        <v>50</v>
+      <c r="A3" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
-        <v>30</v>
+      <c r="A4" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
-        <v>27</v>
+      <c r="A5" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
-        <v>33</v>
+      <c r="A6" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="13" t="s">
-        <v>39</v>
+      <c r="A7" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
-        <v>91</v>
+      <c r="A8" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="13" t="s">
-        <v>77</v>
+      <c r="A9" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="13" t="s">
-        <v>183</v>
+      <c r="A10" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
+++ b/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCAF21E-1822-4050-AC23-155FBEF4DB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C254FB1-74D9-4453-A461-4A81D76EDC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="4110" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="4800" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH59_西赤山駅_UIList" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>サーバー側名称</t>
+          <t>サーバー側分類</t>
         </r>
       </text>
     </comment>
@@ -89,7 +89,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>サーバー側分類</t>
+          <t>サーバー側名称</t>
         </r>
       </text>
     </comment>
@@ -116,8 +116,8 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>制御条件に含む転てつ器の定位・反位（省略可）
-定位=True, 反位=False</t>
+          <t>制御条件に含む転てつ器状態
+（定位=N, 反位=R）（省略可）</t>
         </r>
       </text>
     </comment>
@@ -130,7 +130,8 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>てこの種類</t>
+          <t xml:space="preserve">制御条件に含む転てつ器名称（省略可）
+</t>
         </r>
       </text>
     </comment>
@@ -143,7 +144,8 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>操作可能判定に用いる鍵名称</t>
+          <t>制御条件に含む転てつ器状態
+（定位=N, 反位=R）（省略可）</t>
         </r>
       </text>
     </comment>
@@ -156,7 +158,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>この盤以外で連動する場合に指定する駅名</t>
+          <t>てこの種類</t>
         </r>
       </text>
     </comment>
@@ -169,7 +171,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>この盤以外で連動する場合に指定するユニーク名</t>
+          <t>操作可能判定に用いる鍵名称</t>
         </r>
       </text>
     </comment>
@@ -182,7 +184,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>この盤以外で連動する場合に指定する駅名</t>
         </r>
       </text>
     </comment>
@@ -195,11 +197,37 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>この盤以外で連動する場合に指定するユニーク名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -350,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -424,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -456,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="209">
   <si>
     <t>Type</t>
   </si>
@@ -486,16 +514,22 @@
     <t>ParentName</t>
   </si>
   <si>
+    <t>ServerType</t>
+  </si>
+  <si>
     <t>ServerName</t>
   </si>
   <si>
-    <t>ServerType</t>
-  </si>
-  <si>
-    <t>PointName</t>
-  </si>
-  <si>
-    <t>PointValue</t>
+    <t>PointNameA</t>
+  </si>
+  <si>
+    <t>PointValueA</t>
+  </si>
+  <si>
+    <t>PointNameB</t>
+  </si>
+  <si>
+    <t>PointValueB</t>
   </si>
   <si>
     <t>LeverType</t>
@@ -678,9 +712,15 @@
     <t>13R_G</t>
   </si>
   <si>
+    <t>13R</t>
+  </si>
+  <si>
     <t>13L_G</t>
   </si>
   <si>
+    <t>13L</t>
+  </si>
+  <si>
     <t>13LR_Label</t>
   </si>
   <si>
@@ -744,7 +784,7 @@
     <t>P21_PG</t>
   </si>
   <si>
-    <t>分岐器</t>
+    <t>転てつ器</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
@@ -1050,6 +1090,9 @@
     <t>列番西赤山上り第2接近</t>
   </si>
   <si>
+    <t>列車番号</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
@@ -1080,7 +1123,13 @@
     <t>Button</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1211,6 +1260,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1433,7 +1485,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ110"/>
+  <dimension ref="A1:AL110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1446,14 +1498,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
-    <col min="26" max="26" width="37.5703125" customWidth="1"/>
-    <col min="27" max="27" width="100.140625" customWidth="1"/>
-    <col min="28" max="28" width="62.5703125" customWidth="1"/>
-    <col min="29" max="36" width="14.7109375" customWidth="1"/>
+    <col min="3" max="27" width="15.140625" customWidth="1"/>
+    <col min="28" max="28" width="37.5703125" customWidth="1"/>
+    <col min="29" max="29" width="100.140625" customWidth="1"/>
+    <col min="30" max="30" width="62.5703125" customWidth="1"/>
+    <col min="31" max="38" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,27 +1584,33 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1563,14 +1621,14 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1582,11 +1640,11 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -1594,37 +1652,39 @@
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="6">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6">
         <v>900</v>
       </c>
-      <c r="M3" s="6">
+      <c r="O3" s="6">
         <v>78</v>
       </c>
-      <c r="N3" s="6">
+      <c r="P3" s="6">
         <v>79</v>
       </c>
-      <c r="O3" s="6">
+      <c r="Q3" s="6">
         <v>110</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -1634,11 +1694,11 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
-      <c r="AA3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
@@ -1646,16 +1706,18 @@
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
-    </row>
-    <row r="4" spans="1:36" ht="25.5">
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" ht="25.5">
       <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1665,20 +1727,20 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
         <v>6</v>
       </c>
-      <c r="M4" s="6">
+      <c r="O4" s="6">
         <v>37</v>
       </c>
-      <c r="N4" s="6">
+      <c r="P4" s="6">
         <v>63</v>
       </c>
-      <c r="O4" s="6">
+      <c r="Q4" s="6">
         <v>63</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -1687,14 +1749,14 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
@@ -1702,13 +1764,15 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1719,16 +1783,16 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="6">
-        <f>L3+11</f>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6">
+        <f>N3+11</f>
         <v>911</v>
       </c>
-      <c r="M5" s="6">
-        <f>M3-68</f>
+      <c r="O5" s="6">
+        <f>O3-68</f>
         <v>10</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1740,25 +1804,27 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
+      <c r="AC5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" s="7"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1766,19 +1832,19 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="9">
+      <c r="K6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="9">
         <v>466</v>
       </c>
-      <c r="M6" s="9">
+      <c r="O6" s="9">
         <v>538</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1786,61 +1852,65 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="10" t="s">
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="12" t="s">
+      <c r="Z6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AA6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
+      <c r="AC6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="9">
+      <c r="K7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="9">
         <v>360</v>
       </c>
-      <c r="M7" s="9">
+      <c r="O7" s="9">
         <v>181</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1848,99 +1918,103 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="10">
+      <c r="K8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="10">
         <v>14</v>
       </c>
-      <c r="M8" s="10">
+      <c r="O8" s="10">
         <v>20</v>
       </c>
-      <c r="N8" s="10">
+      <c r="P8" s="10">
         <v>11</v>
       </c>
-      <c r="O8" s="10">
+      <c r="Q8" s="10">
         <v>11</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="10">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="10">
         <v>11</v>
       </c>
-      <c r="T8" s="10">
+      <c r="V8" s="10">
         <v>10</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="W8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="16"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1948,19 +2022,19 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="9">
+      <c r="K9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="9">
         <v>534</v>
       </c>
-      <c r="M9" s="9">
+      <c r="O9" s="9">
         <v>538</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1968,23 +2042,23 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11" t="s">
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="Z9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="AA9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
@@ -1992,35 +2066,39 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
+      <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="9">
+      <c r="K10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="9">
         <v>346</v>
       </c>
-      <c r="M10" s="9">
+      <c r="O10" s="9">
         <v>271</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -2028,19 +2106,19 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
@@ -2048,77 +2126,81 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="10">
+      <c r="K11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="10">
         <v>14</v>
       </c>
-      <c r="M11" s="10">
+      <c r="O11" s="10">
         <v>20</v>
       </c>
-      <c r="N11" s="10">
+      <c r="P11" s="10">
         <v>11</v>
       </c>
-      <c r="O11" s="10">
+      <c r="Q11" s="10">
         <v>11</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="10">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="10">
         <v>12</v>
       </c>
-      <c r="T11" s="10">
+      <c r="V11" s="10">
         <v>10</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="W11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
+      <c r="X11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="16"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2126,19 +2208,19 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="9">
+      <c r="K12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="9">
         <v>866</v>
       </c>
-      <c r="M12" s="9">
+      <c r="O12" s="9">
         <v>538</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2146,23 +2228,23 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="11" t="s">
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="Z12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AA12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC12" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -2170,35 +2252,39 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
-    </row>
-    <row r="13" spans="1:36">
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="9">
+      <c r="K13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="9">
         <v>739</v>
       </c>
-      <c r="M13" s="9">
+      <c r="O13" s="9">
         <v>173</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -2206,19 +2292,19 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -2226,35 +2312,39 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>48</v>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="9">
+      <c r="K14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="9">
         <v>828</v>
       </c>
-      <c r="M14" s="9">
+      <c r="O14" s="9">
         <v>233</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -2262,19 +2352,19 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
@@ -2282,103 +2372,107 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
-    </row>
-    <row r="15" spans="1:36">
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="10">
+      <c r="K15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="10">
         <v>14</v>
       </c>
-      <c r="M15" s="10">
+      <c r="O15" s="10">
         <v>20</v>
       </c>
-      <c r="N15" s="10">
+      <c r="P15" s="10">
         <v>11</v>
       </c>
-      <c r="O15" s="10">
+      <c r="Q15" s="10">
         <v>11</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="10">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="10">
         <v>13</v>
       </c>
-      <c r="T15" s="10">
+      <c r="V15" s="10">
         <v>10</v>
       </c>
-      <c r="U15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="W15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="16"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="9">
+        <v>74</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="9">
         <v>934</v>
       </c>
-      <c r="M16" s="9">
+      <c r="O16" s="9">
         <v>538</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -2386,103 +2480,107 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="X16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y16" s="10">
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA16" s="10">
         <v>-1</v>
       </c>
-      <c r="Z16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
+      <c r="AB16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
-    </row>
-    <row r="17" spans="1:36">
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="1:38">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="10">
+      <c r="K17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="10">
         <v>14</v>
       </c>
-      <c r="M17" s="10">
+      <c r="O17" s="10">
         <v>20</v>
       </c>
-      <c r="N17" s="10">
+      <c r="P17" s="10">
         <v>11</v>
       </c>
-      <c r="O17" s="10">
+      <c r="Q17" s="10">
         <v>11</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="10">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="10">
         <v>14</v>
       </c>
-      <c r="T17" s="10">
+      <c r="V17" s="10">
         <v>10</v>
       </c>
-      <c r="U17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="W17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="16"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
-    </row>
-    <row r="18" spans="1:36">
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2490,19 +2588,19 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="9">
+      <c r="K18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="9">
         <v>304</v>
       </c>
-      <c r="M18" s="9">
+      <c r="O18" s="9">
         <v>551</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2510,23 +2608,23 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC18" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
@@ -2534,13 +2632,15 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
-    </row>
-    <row r="19" spans="1:36">
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2548,19 +2648,19 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="9">
+      <c r="K19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="9">
         <v>1111</v>
       </c>
-      <c r="M19" s="9">
+      <c r="O19" s="9">
         <v>551</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2568,23 +2668,23 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC19" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
@@ -2592,13 +2692,15 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
-    </row>
-    <row r="20" spans="1:36">
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2606,19 +2708,19 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="9">
+      <c r="K20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="9">
         <v>824</v>
       </c>
-      <c r="M20" s="9">
+      <c r="O20" s="9">
         <v>64</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2626,61 +2728,63 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y20" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
-    </row>
-    <row r="21" spans="1:36">
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38">
       <c r="A21" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="9">
+      <c r="K21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="9">
         <v>822</v>
       </c>
-      <c r="M21" s="9">
+      <c r="O21" s="9">
         <v>45</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -2688,19 +2792,19 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
@@ -2708,35 +2812,37 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="9">
+      <c r="K22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="9">
         <v>856</v>
       </c>
-      <c r="M22" s="9">
+      <c r="O22" s="9">
         <v>45</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -2744,19 +2850,19 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
@@ -2764,99 +2870,103 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
-    </row>
-    <row r="23" spans="1:36">
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="1:38">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="10">
+      <c r="K23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="10">
         <v>14</v>
       </c>
-      <c r="M23" s="10">
+      <c r="O23" s="10">
         <v>20</v>
       </c>
-      <c r="N23" s="10">
+      <c r="P23" s="10">
         <v>11</v>
       </c>
-      <c r="O23" s="10">
+      <c r="Q23" s="10">
         <v>11</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="10">
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="10">
         <v>21</v>
       </c>
-      <c r="T23" s="10">
+      <c r="V23" s="10">
         <v>10</v>
       </c>
-      <c r="U23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V23" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="W23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="16"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
-    </row>
-    <row r="24" spans="1:36" ht="25.5">
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38" ht="25.5">
       <c r="A24" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="9">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="9">
         <v>1249</v>
       </c>
-      <c r="M24" s="9">
+      <c r="O24" s="9">
         <v>64</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -2864,61 +2974,63 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="X24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y24" s="10">
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA24" s="10">
         <v>1</v>
       </c>
-      <c r="Z24" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA24" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
+      <c r="AB24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC24" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD24" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
-    </row>
-    <row r="25" spans="1:36">
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="D25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="9">
+      <c r="K25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="9">
         <v>1247</v>
       </c>
-      <c r="M25" s="9">
+      <c r="O25" s="9">
         <v>45</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -2926,19 +3038,19 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y25" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
@@ -2946,35 +3058,37 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
-    </row>
-    <row r="26" spans="1:36">
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="1:38">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="D26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="9">
+      <c r="K26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="9">
         <v>1281</v>
       </c>
-      <c r="M26" s="9">
+      <c r="O26" s="9">
         <v>45</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -2982,19 +3096,19 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y26" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
@@ -3002,35 +3116,37 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
-    </row>
-    <row r="27" spans="1:36" ht="25.5">
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="1:38" ht="25.5">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="9">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="9">
         <v>1347</v>
       </c>
-      <c r="M27" s="9">
+      <c r="O27" s="9">
         <v>64</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -3038,59 +3154,61 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="X27" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y27" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA27" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC27" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD27" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
-    </row>
-    <row r="28" spans="1:36">
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="D28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="9">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="9">
         <v>1362</v>
       </c>
-      <c r="M28" s="9">
+      <c r="O28" s="9">
         <v>31</v>
       </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -3098,19 +3216,19 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y28" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
@@ -3118,33 +3236,35 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
-    </row>
-    <row r="29" spans="1:36">
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="1:38">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="9">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="9">
         <v>52</v>
       </c>
-      <c r="M29" s="9">
+      <c r="O29" s="9">
         <v>198</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -3152,55 +3272,57 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y29" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB29" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD29" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
-    </row>
-    <row r="30" spans="1:36">
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="1:38">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="9">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="9">
         <v>82</v>
       </c>
-      <c r="M30" s="9">
+      <c r="O30" s="9">
         <v>198</v>
       </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -3208,19 +3330,19 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y30" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -3228,33 +3350,35 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
-    </row>
-    <row r="31" spans="1:36">
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="1:38">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="13">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="13">
         <v>112</v>
       </c>
-      <c r="M31" s="9">
+      <c r="O31" s="9">
         <v>198</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -3262,19 +3386,19 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y31" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
@@ -3282,33 +3406,35 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
-    </row>
-    <row r="32" spans="1:36">
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="13">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="13">
         <v>142</v>
       </c>
-      <c r="M32" s="9">
+      <c r="O32" s="9">
         <v>198</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -3316,19 +3442,19 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y32" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
@@ -3336,33 +3462,35 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
-    </row>
-    <row r="33" spans="1:36">
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="1:38">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="13">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="13">
         <v>172</v>
       </c>
-      <c r="M33" s="9">
+      <c r="O33" s="9">
         <v>198</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -3370,19 +3498,19 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y33" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
@@ -3390,33 +3518,35 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="1:38">
       <c r="A34" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="13">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="13">
         <v>202</v>
       </c>
-      <c r="M34" s="9">
+      <c r="O34" s="9">
         <v>198</v>
       </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -3424,19 +3554,19 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y34" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
@@ -3444,33 +3574,35 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="1:38">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="13">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="13">
         <v>232</v>
       </c>
-      <c r="M35" s="9">
+      <c r="O35" s="9">
         <v>198</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -3478,19 +3610,19 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y35" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
@@ -3498,33 +3630,35 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="1:38">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="13">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="13">
         <v>262</v>
       </c>
-      <c r="M36" s="9">
+      <c r="O36" s="9">
         <v>198</v>
       </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -3533,18 +3667,18 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="X36" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y36" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
@@ -3552,33 +3686,35 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
-    </row>
-    <row r="37" spans="1:36">
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="1:38">
       <c r="A37" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="13">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="13">
         <v>292</v>
       </c>
-      <c r="M37" s="9">
+      <c r="O37" s="9">
         <v>198</v>
       </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -3587,18 +3723,18 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y37" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
@@ -3606,33 +3742,35 @@
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
-    </row>
-    <row r="38" spans="1:36">
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="1:38">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="13">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="13">
         <v>322</v>
       </c>
-      <c r="M38" s="9">
+      <c r="O38" s="9">
         <v>198</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -3640,19 +3778,19 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y38" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
@@ -3660,33 +3798,35 @@
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
-    </row>
-    <row r="39" spans="1:36">
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="1:38">
       <c r="A39" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="9">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="9">
         <v>322</v>
       </c>
-      <c r="M39" s="9">
+      <c r="O39" s="9">
         <v>258</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -3695,18 +3835,18 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y39" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
@@ -3714,33 +3854,35 @@
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
-    </row>
-    <row r="40" spans="1:36">
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+    </row>
+    <row r="40" spans="1:38">
       <c r="A40" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="9">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="9">
         <v>352</v>
       </c>
-      <c r="M40" s="9">
+      <c r="O40" s="9">
         <v>258</v>
       </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -3749,18 +3891,18 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="X40" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y40" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
@@ -3768,33 +3910,35 @@
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
-    </row>
-    <row r="41" spans="1:36">
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+    </row>
+    <row r="41" spans="1:38">
       <c r="A41" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="9">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="9">
         <v>419</v>
       </c>
-      <c r="M41" s="9">
+      <c r="O41" s="9">
         <v>198</v>
       </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
@@ -3802,19 +3946,19 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y41" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
@@ -3822,33 +3966,35 @@
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
-    </row>
-    <row r="42" spans="1:36">
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+    </row>
+    <row r="42" spans="1:38">
       <c r="A42" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="9">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="9">
         <v>663</v>
       </c>
-      <c r="M42" s="9">
+      <c r="O42" s="9">
         <v>198</v>
       </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
@@ -3857,18 +4003,18 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-      <c r="X42" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y42" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -3876,33 +4022,35 @@
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="43" spans="1:38">
       <c r="A43" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="9">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="9">
         <v>419</v>
       </c>
-      <c r="M43" s="9">
+      <c r="O43" s="9">
         <v>258</v>
       </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -3911,18 +4059,18 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-      <c r="X43" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y43" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
@@ -3930,33 +4078,35 @@
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
-    </row>
-    <row r="44" spans="1:36">
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+    </row>
+    <row r="44" spans="1:38">
       <c r="A44" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="9">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="9">
         <v>663</v>
       </c>
-      <c r="M44" s="9">
+      <c r="O44" s="9">
         <v>258</v>
       </c>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -3964,19 +4114,19 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y44" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
@@ -3984,33 +4134,35 @@
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
-    </row>
-    <row r="45" spans="1:36">
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+    </row>
+    <row r="45" spans="1:38">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="9">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="9">
         <v>730</v>
       </c>
-      <c r="M45" s="9">
+      <c r="O45" s="9">
         <v>198</v>
       </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
@@ -4019,18 +4171,18 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="X45" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y45" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
@@ -4038,33 +4190,35 @@
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
-    </row>
-    <row r="46" spans="1:36">
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+    </row>
+    <row r="46" spans="1:38">
       <c r="A46" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="D46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="9">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="9">
         <v>800</v>
       </c>
-      <c r="M46" s="9">
+      <c r="O46" s="9">
         <v>196</v>
       </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
@@ -4073,18 +4227,18 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
-      <c r="X46" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y46" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
@@ -4092,33 +4246,35 @@
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
-    </row>
-    <row r="47" spans="1:36">
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+    </row>
+    <row r="47" spans="1:38">
       <c r="A47" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="9">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="9">
         <v>730</v>
       </c>
-      <c r="M47" s="9">
+      <c r="O47" s="9">
         <v>198</v>
       </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
@@ -4127,18 +4283,18 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-      <c r="X47" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y47" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
@@ -4146,33 +4302,35 @@
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
-    </row>
-    <row r="48" spans="1:36">
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+    </row>
+    <row r="48" spans="1:38">
       <c r="A48" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="9">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="9">
         <v>754</v>
       </c>
-      <c r="M48" s="9">
+      <c r="O48" s="9">
         <v>216</v>
       </c>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
@@ -4180,55 +4338,57 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y48" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB48" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD48" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
-    </row>
-    <row r="49" spans="1:36">
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+    </row>
+    <row r="49" spans="1:38">
       <c r="A49" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="9">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="9">
         <v>730</v>
       </c>
-      <c r="M49" s="9">
+      <c r="O49" s="9">
         <v>258</v>
       </c>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
@@ -4236,19 +4396,19 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y49" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
@@ -4256,33 +4416,35 @@
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
-    </row>
-    <row r="50" spans="1:36">
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+    </row>
+    <row r="50" spans="1:38">
       <c r="A50" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="9">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="9">
         <v>835</v>
       </c>
-      <c r="M50" s="9">
+      <c r="O50" s="9">
         <v>258</v>
       </c>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
@@ -4290,19 +4452,19 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y50" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
@@ -4310,33 +4472,35 @@
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
-    </row>
-    <row r="51" spans="1:36">
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+    </row>
+    <row r="51" spans="1:38">
       <c r="A51" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="9">
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="9">
         <v>774</v>
       </c>
-      <c r="M51" s="9">
+      <c r="O51" s="9">
         <v>236</v>
       </c>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
@@ -4345,54 +4509,56 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
-      <c r="X51" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y51" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB51" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD51" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
-    </row>
-    <row r="52" spans="1:36">
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+    </row>
+    <row r="52" spans="1:38">
       <c r="A52" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="9">
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="9">
         <v>835</v>
       </c>
-      <c r="M52" s="9">
+      <c r="O52" s="9">
         <v>258</v>
       </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
@@ -4401,18 +4567,18 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
-      <c r="X52" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y52" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
@@ -4420,33 +4586,35 @@
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
-    </row>
-    <row r="53" spans="1:36">
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+    </row>
+    <row r="53" spans="1:38">
       <c r="A53" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="9">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="9">
         <v>869</v>
       </c>
-      <c r="M53" s="9">
+      <c r="O53" s="9">
         <v>258</v>
       </c>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
@@ -4455,18 +4623,18 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
-      <c r="X53" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y53" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
@@ -4474,33 +4642,35 @@
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
-    </row>
-    <row r="54" spans="1:36">
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+    </row>
+    <row r="54" spans="1:38">
       <c r="A54" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="9">
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="9">
         <v>909</v>
       </c>
-      <c r="M54" s="9">
+      <c r="O54" s="9">
         <v>258</v>
       </c>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
@@ -4508,19 +4678,19 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y54" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
@@ -4528,33 +4698,35 @@
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
-    </row>
-    <row r="55" spans="1:36">
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+    </row>
+    <row r="55" spans="1:38">
       <c r="A55" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="9">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="9">
         <v>885</v>
       </c>
-      <c r="M55" s="9">
+      <c r="O55" s="9">
         <v>274</v>
       </c>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
@@ -4563,54 +4735,56 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
-      <c r="X55" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y55" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB55" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD55" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
-    </row>
-    <row r="56" spans="1:36">
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+    </row>
+    <row r="56" spans="1:38">
       <c r="A56" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="9">
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="9">
         <v>885</v>
       </c>
-      <c r="M56" s="9">
+      <c r="O56" s="9">
         <v>238</v>
       </c>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
@@ -4619,54 +4793,56 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
-      <c r="X56" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y56" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB56" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD56" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
       <c r="AJ56" s="5"/>
-    </row>
-    <row r="57" spans="1:36">
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+    </row>
+    <row r="57" spans="1:38">
       <c r="A57" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="9">
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="9">
         <v>949</v>
       </c>
-      <c r="M57" s="9">
+      <c r="O57" s="9">
         <v>258</v>
       </c>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
@@ -4674,19 +4850,19 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y57" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
@@ -4694,33 +4870,35 @@
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
       <c r="AJ57" s="5"/>
-    </row>
-    <row r="58" spans="1:36">
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+    </row>
+    <row r="58" spans="1:38">
       <c r="A58" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D58" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="9">
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="9">
         <v>989</v>
       </c>
-      <c r="M58" s="9">
+      <c r="O58" s="9">
         <v>258</v>
       </c>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
@@ -4729,18 +4907,18 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
-      <c r="X58" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y58" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
@@ -4748,33 +4926,35 @@
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
       <c r="AJ58" s="5"/>
-    </row>
-    <row r="59" spans="1:36">
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+    </row>
+    <row r="59" spans="1:38">
       <c r="A59" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D59" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="9">
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="9">
         <v>1024</v>
       </c>
-      <c r="M59" s="9">
+      <c r="O59" s="9">
         <v>258</v>
       </c>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -4782,19 +4962,19 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y59" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
@@ -4802,33 +4982,35 @@
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
       <c r="AJ59" s="5"/>
-    </row>
-    <row r="60" spans="1:36">
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+    </row>
+    <row r="60" spans="1:38">
       <c r="A60" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="9">
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="9">
         <v>1049</v>
       </c>
-      <c r="M60" s="9">
+      <c r="O60" s="9">
         <v>258</v>
       </c>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
@@ -4837,18 +5019,18 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
-      <c r="X60" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y60" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
@@ -4856,33 +5038,35 @@
       <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
       <c r="AJ60" s="5"/>
-    </row>
-    <row r="61" spans="1:36">
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+    </row>
+    <row r="61" spans="1:38">
       <c r="A61" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="9">
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="9">
         <v>1079</v>
       </c>
-      <c r="M61" s="9">
+      <c r="O61" s="9">
         <v>258</v>
       </c>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
@@ -4891,18 +5075,18 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
-      <c r="X61" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y61" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
@@ -4910,33 +5094,35 @@
       <c r="AH61" s="5"/>
       <c r="AI61" s="5"/>
       <c r="AJ61" s="5"/>
-    </row>
-    <row r="62" spans="1:36">
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+    </row>
+    <row r="62" spans="1:38">
       <c r="A62" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="9">
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="9">
         <v>1049</v>
       </c>
-      <c r="M62" s="9">
+      <c r="O62" s="9">
         <v>258</v>
       </c>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
@@ -4945,18 +5131,18 @@
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
-      <c r="X62" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y62" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
@@ -4964,33 +5150,35 @@
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
       <c r="AJ62" s="5"/>
-    </row>
-    <row r="63" spans="1:36">
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+    </row>
+    <row r="63" spans="1:38">
       <c r="A63" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D63" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="9">
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="9">
         <v>1071</v>
       </c>
-      <c r="M63" s="9">
+      <c r="O63" s="9">
         <v>213</v>
       </c>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
@@ -4999,54 +5187,56 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
-      <c r="X63" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y63" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB63" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD63" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AI63" s="5"/>
       <c r="AJ63" s="5"/>
-    </row>
-    <row r="64" spans="1:36">
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+    </row>
+    <row r="64" spans="1:38">
       <c r="A64" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="9">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="9">
         <v>1117</v>
       </c>
-      <c r="M64" s="9">
+      <c r="O64" s="9">
         <v>198</v>
       </c>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
@@ -5055,18 +5245,18 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
-      <c r="X64" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y64" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
@@ -5074,33 +5264,35 @@
       <c r="AH64" s="5"/>
       <c r="AI64" s="5"/>
       <c r="AJ64" s="5"/>
-    </row>
-    <row r="65" spans="1:36">
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+    </row>
+    <row r="65" spans="1:38">
       <c r="A65" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="9">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="9">
         <v>1099</v>
       </c>
-      <c r="M65" s="9">
+      <c r="O65" s="9">
         <v>258</v>
       </c>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
@@ -5109,18 +5301,18 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
-      <c r="X65" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y65" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB65" s="5"/>
-      <c r="AC65" s="5"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
@@ -5128,33 +5320,35 @@
       <c r="AH65" s="5"/>
       <c r="AI65" s="5"/>
       <c r="AJ65" s="5"/>
-    </row>
-    <row r="66" spans="1:36">
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+    </row>
+    <row r="66" spans="1:38">
       <c r="A66" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D66" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="9">
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="9">
         <v>1142</v>
       </c>
-      <c r="M66" s="9">
+      <c r="O66" s="9">
         <v>258</v>
       </c>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
@@ -5163,18 +5357,18 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
-      <c r="X66" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y66" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
@@ -5182,33 +5376,35 @@
       <c r="AH66" s="5"/>
       <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
-    </row>
-    <row r="67" spans="1:36">
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+    </row>
+    <row r="67" spans="1:38">
       <c r="A67" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D67" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="9">
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="9">
         <v>1099</v>
       </c>
-      <c r="M67" s="9">
+      <c r="O67" s="9">
         <v>258</v>
       </c>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
@@ -5217,18 +5413,18 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
-      <c r="X67" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y67" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA67" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
@@ -5236,33 +5432,35 @@
       <c r="AH67" s="5"/>
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
-    </row>
-    <row r="68" spans="1:36">
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+    </row>
+    <row r="68" spans="1:38">
       <c r="A68" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D68" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="9">
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="9">
         <v>1111</v>
       </c>
-      <c r="M68" s="9">
+      <c r="O68" s="9">
         <v>273</v>
       </c>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
@@ -5271,54 +5469,56 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
-      <c r="X68" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y68" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB68" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD68" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
-    </row>
-    <row r="69" spans="1:36">
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+    </row>
+    <row r="69" spans="1:38">
       <c r="A69" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D69" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="9">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="9">
         <v>1167</v>
       </c>
-      <c r="M69" s="9">
+      <c r="O69" s="9">
         <v>318</v>
       </c>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -5327,18 +5527,18 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="X69" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y69" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB69" s="5"/>
-      <c r="AC69" s="5"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
@@ -5346,33 +5546,35 @@
       <c r="AH69" s="5"/>
       <c r="AI69" s="5"/>
       <c r="AJ69" s="5"/>
-    </row>
-    <row r="70" spans="1:36">
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+    </row>
+    <row r="70" spans="1:38">
       <c r="A70" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D70" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="9">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="9">
         <v>1121</v>
       </c>
-      <c r="M70" s="9">
+      <c r="O70" s="9">
         <v>298</v>
       </c>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
@@ -5381,54 +5583,56 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
-      <c r="X70" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y70" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB70" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD70" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
-    </row>
-    <row r="71" spans="1:36">
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+    </row>
+    <row r="71" spans="1:38">
       <c r="A71" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D71" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="9">
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="9">
         <v>1167</v>
       </c>
-      <c r="M71" s="9">
+      <c r="O71" s="9">
         <v>318</v>
       </c>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
@@ -5437,18 +5641,18 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
-      <c r="X71" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y71" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
@@ -5456,33 +5660,35 @@
       <c r="AH71" s="5"/>
       <c r="AI71" s="5"/>
       <c r="AJ71" s="5"/>
-    </row>
-    <row r="72" spans="1:36">
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+    </row>
+    <row r="72" spans="1:38">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D72" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="9">
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="9">
         <v>1141</v>
       </c>
-      <c r="M72" s="9">
+      <c r="O72" s="9">
         <v>198</v>
       </c>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
@@ -5491,18 +5697,18 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
-      <c r="X72" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y72" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
@@ -5510,33 +5716,35 @@
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
       <c r="AJ72" s="5"/>
-    </row>
-    <row r="73" spans="1:36">
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+    </row>
+    <row r="73" spans="1:38">
       <c r="A73" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D73" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="9">
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="9">
         <v>1223</v>
       </c>
-      <c r="M73" s="9">
+      <c r="O73" s="9">
         <v>198</v>
       </c>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
@@ -5545,18 +5753,18 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
-      <c r="X73" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y73" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
@@ -5564,33 +5772,35 @@
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
       <c r="AJ73" s="5"/>
-    </row>
-    <row r="74" spans="1:36">
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+    </row>
+    <row r="74" spans="1:38">
       <c r="A74" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D74" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="9">
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="9">
         <v>1166</v>
       </c>
-      <c r="M74" s="9">
+      <c r="O74" s="9">
         <v>258</v>
       </c>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
@@ -5599,18 +5809,18 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
-      <c r="X74" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y74" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB74" s="5"/>
-      <c r="AC74" s="5"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
@@ -5618,33 +5828,35 @@
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
       <c r="AJ74" s="5"/>
-    </row>
-    <row r="75" spans="1:36">
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+    </row>
+    <row r="75" spans="1:38">
       <c r="A75" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D75" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="9">
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="9">
         <v>1248</v>
       </c>
-      <c r="M75" s="9">
+      <c r="O75" s="9">
         <v>258</v>
       </c>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
@@ -5653,18 +5865,18 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
-      <c r="X75" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y75" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
@@ -5672,33 +5884,35 @@
       <c r="AH75" s="5"/>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5"/>
-    </row>
-    <row r="76" spans="1:36">
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+    </row>
+    <row r="76" spans="1:38">
       <c r="A76" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D76" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="9">
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="9">
         <v>1191</v>
       </c>
-      <c r="M76" s="9">
+      <c r="O76" s="9">
         <v>318</v>
       </c>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
@@ -5707,18 +5921,18 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
-      <c r="X76" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y76" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
@@ -5726,33 +5940,35 @@
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
-    </row>
-    <row r="77" spans="1:36">
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+    </row>
+    <row r="77" spans="1:38">
       <c r="A77" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D77" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="9">
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="9">
         <v>1273</v>
       </c>
-      <c r="M77" s="9">
+      <c r="O77" s="9">
         <v>318</v>
       </c>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
@@ -5761,18 +5977,18 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-      <c r="X77" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y77" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
@@ -5780,33 +5996,35 @@
       <c r="AH77" s="5"/>
       <c r="AI77" s="5"/>
       <c r="AJ77" s="5"/>
-    </row>
-    <row r="78" spans="1:36">
+      <c r="AK77" s="5"/>
+      <c r="AL77" s="5"/>
+    </row>
+    <row r="78" spans="1:38">
       <c r="A78" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="9">
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="9">
         <v>1247</v>
       </c>
-      <c r="M78" s="9">
+      <c r="O78" s="9">
         <v>198</v>
       </c>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
@@ -5815,18 +6033,18 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
-      <c r="X78" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y78" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
@@ -5834,33 +6052,35 @@
       <c r="AH78" s="5"/>
       <c r="AI78" s="5"/>
       <c r="AJ78" s="5"/>
-    </row>
-    <row r="79" spans="1:36">
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+    </row>
+    <row r="79" spans="1:38">
       <c r="A79" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D79" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="9">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="9">
         <v>1302</v>
       </c>
-      <c r="M79" s="9">
+      <c r="O79" s="9">
         <v>198</v>
       </c>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
@@ -5869,18 +6089,18 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
-      <c r="X79" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y79" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
@@ -5888,33 +6108,35 @@
       <c r="AH79" s="5"/>
       <c r="AI79" s="5"/>
       <c r="AJ79" s="5"/>
-    </row>
-    <row r="80" spans="1:36">
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+    </row>
+    <row r="80" spans="1:38">
       <c r="A80" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D80" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="9">
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="9">
         <v>1247</v>
       </c>
-      <c r="M80" s="9">
+      <c r="O80" s="9">
         <v>198</v>
       </c>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
@@ -5923,18 +6145,18 @@
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
-      <c r="X80" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y80" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
@@ -5942,33 +6164,35 @@
       <c r="AH80" s="5"/>
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
-    </row>
-    <row r="81" spans="1:36">
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+    </row>
+    <row r="81" spans="1:38">
       <c r="A81" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D81" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="9">
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="9">
         <v>1284</v>
       </c>
-      <c r="M81" s="9">
+      <c r="O81" s="9">
         <v>213</v>
       </c>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
@@ -5977,54 +6201,56 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
-      <c r="X81" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y81" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB81" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD81" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
       <c r="AI81" s="5"/>
       <c r="AJ81" s="5"/>
-    </row>
-    <row r="82" spans="1:36">
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+    </row>
+    <row r="82" spans="1:38">
       <c r="A82" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D82" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="9">
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="9">
         <v>1272</v>
       </c>
-      <c r="M82" s="9">
+      <c r="O82" s="9">
         <v>258</v>
       </c>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
@@ -6033,18 +6259,18 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
-      <c r="X82" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y82" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
@@ -6052,33 +6278,35 @@
       <c r="AH82" s="5"/>
       <c r="AI82" s="5"/>
       <c r="AJ82" s="5"/>
-    </row>
-    <row r="83" spans="1:36">
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+    </row>
+    <row r="83" spans="1:38">
       <c r="A83" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D83" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="9">
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="9">
         <v>1302</v>
       </c>
-      <c r="M83" s="9">
+      <c r="O83" s="9">
         <v>258</v>
       </c>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
@@ -6087,18 +6315,18 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
-      <c r="X83" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y83" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
@@ -6106,33 +6334,35 @@
       <c r="AH83" s="5"/>
       <c r="AI83" s="5"/>
       <c r="AJ83" s="5"/>
-    </row>
-    <row r="84" spans="1:36">
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+    </row>
+    <row r="84" spans="1:38">
       <c r="A84" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D84" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="9">
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="9">
         <v>1294</v>
       </c>
-      <c r="M84" s="9">
+      <c r="O84" s="9">
         <v>238</v>
       </c>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
@@ -6141,54 +6371,56 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
-      <c r="X84" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y84" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="3"/>
-      <c r="AA84" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB84" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD84" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
       <c r="AI84" s="5"/>
       <c r="AJ84" s="5"/>
-    </row>
-    <row r="85" spans="1:36">
+      <c r="AK84" s="5"/>
+      <c r="AL84" s="5"/>
+    </row>
+    <row r="85" spans="1:38">
       <c r="A85" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D85" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="9">
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="9">
         <v>1302</v>
       </c>
-      <c r="M85" s="9">
+      <c r="O85" s="9">
         <v>258</v>
       </c>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
@@ -6197,18 +6429,18 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
-      <c r="X85" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y85" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="3"/>
-      <c r="AA85" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
@@ -6216,33 +6448,35 @@
       <c r="AH85" s="5"/>
       <c r="AI85" s="5"/>
       <c r="AJ85" s="5"/>
-    </row>
-    <row r="86" spans="1:36">
+      <c r="AK85" s="5"/>
+      <c r="AL85" s="5"/>
+    </row>
+    <row r="86" spans="1:38">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D86" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="9">
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="9">
         <v>1322</v>
       </c>
-      <c r="M86" s="9">
+      <c r="O86" s="9">
         <v>258</v>
       </c>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
@@ -6251,18 +6485,18 @@
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
-      <c r="X86" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y86" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="3"/>
-      <c r="AA86" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
@@ -6270,33 +6504,35 @@
       <c r="AH86" s="5"/>
       <c r="AI86" s="5"/>
       <c r="AJ86" s="5"/>
-    </row>
-    <row r="87" spans="1:36">
+      <c r="AK86" s="5"/>
+      <c r="AL86" s="5"/>
+    </row>
+    <row r="87" spans="1:38">
       <c r="A87" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D87" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="9">
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="9">
         <v>1352</v>
       </c>
-      <c r="M87" s="9">
+      <c r="O87" s="9">
         <v>258</v>
       </c>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
@@ -6305,18 +6541,18 @@
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
-      <c r="X87" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y87" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA87" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
@@ -6324,33 +6560,35 @@
       <c r="AH87" s="5"/>
       <c r="AI87" s="5"/>
       <c r="AJ87" s="5"/>
-    </row>
-    <row r="88" spans="1:36">
+      <c r="AK87" s="5"/>
+      <c r="AL87" s="5"/>
+    </row>
+    <row r="88" spans="1:38">
       <c r="A88" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D88" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="9">
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="9">
         <v>1297</v>
       </c>
-      <c r="M88" s="9">
+      <c r="O88" s="9">
         <v>318</v>
       </c>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
@@ -6359,52 +6597,54 @@
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
-      <c r="X88" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y88" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB88" s="16"/>
-      <c r="AC88" s="5"/>
-      <c r="AD88" s="5"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA88" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD88" s="16"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
       <c r="AG88" s="5"/>
       <c r="AH88" s="5"/>
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
-    </row>
-    <row r="89" spans="1:36">
+      <c r="AK88" s="5"/>
+      <c r="AL88" s="5"/>
+    </row>
+    <row r="89" spans="1:38">
       <c r="A89" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D89" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="9">
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="9">
         <v>1334</v>
       </c>
-      <c r="M89" s="9">
+      <c r="O89" s="9">
         <v>298</v>
       </c>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
@@ -6413,54 +6653,56 @@
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
-      <c r="X89" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y89" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3"/>
-      <c r="AA89" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB89" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC89" s="5"/>
-      <c r="AD89" s="5"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD89" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
       <c r="AI89" s="5"/>
       <c r="AJ89" s="5"/>
-    </row>
-    <row r="90" spans="1:36">
+      <c r="AK89" s="5"/>
+      <c r="AL89" s="5"/>
+    </row>
+    <row r="90" spans="1:38">
       <c r="A90" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D90" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="9">
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="9">
         <v>1352</v>
       </c>
-      <c r="M90" s="9">
+      <c r="O90" s="9">
         <v>258</v>
       </c>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
@@ -6469,52 +6711,54 @@
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
-      <c r="X90" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y90" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z90" s="3"/>
-      <c r="AA90" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB90" s="16"/>
-      <c r="AC90" s="5"/>
-      <c r="AD90" s="5"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA90" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD90" s="16"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
       <c r="AI90" s="5"/>
       <c r="AJ90" s="5"/>
-    </row>
-    <row r="91" spans="1:36">
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+    </row>
+    <row r="91" spans="1:38">
       <c r="A91" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D91" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="9">
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="9">
         <v>1377</v>
       </c>
-      <c r="M91" s="9">
+      <c r="O91" s="9">
         <v>258</v>
       </c>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
@@ -6523,52 +6767,54 @@
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
-      <c r="X91" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y91" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3"/>
-      <c r="AA91" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB91" s="16"/>
-      <c r="AC91" s="5"/>
-      <c r="AD91" s="5"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA91" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD91" s="16"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
       <c r="AI91" s="5"/>
       <c r="AJ91" s="5"/>
-    </row>
-    <row r="92" spans="1:36">
+      <c r="AK91" s="5"/>
+      <c r="AL91" s="5"/>
+    </row>
+    <row r="92" spans="1:38">
       <c r="A92" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="D92" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="9">
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="9">
         <v>54</v>
       </c>
-      <c r="M92" s="9">
+      <c r="O92" s="9">
         <v>45</v>
       </c>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
@@ -6577,52 +6823,54 @@
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
-      <c r="X92" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y92" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z92" s="3"/>
-      <c r="AA92" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB92" s="16"/>
-      <c r="AC92" s="5"/>
-      <c r="AD92" s="5"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA92" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD92" s="16"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
       <c r="AI92" s="5"/>
       <c r="AJ92" s="5"/>
-    </row>
-    <row r="93" spans="1:36">
+      <c r="AK92" s="5"/>
+      <c r="AL92" s="5"/>
+    </row>
+    <row r="93" spans="1:38">
       <c r="A93" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="D93" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="9">
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="9">
         <v>102</v>
       </c>
-      <c r="M93" s="9">
+      <c r="O93" s="9">
         <v>45</v>
       </c>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
@@ -6631,52 +6879,54 @@
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
-      <c r="X93" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y93" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z93" s="3"/>
-      <c r="AA93" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB93" s="16"/>
-      <c r="AC93" s="5"/>
-      <c r="AD93" s="5"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD93" s="16"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
       <c r="AI93" s="5"/>
       <c r="AJ93" s="5"/>
-    </row>
-    <row r="94" spans="1:36">
+      <c r="AK93" s="5"/>
+      <c r="AL93" s="5"/>
+    </row>
+    <row r="94" spans="1:38">
       <c r="A94" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="D94" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="9">
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="9">
         <v>696</v>
       </c>
-      <c r="M94" s="9">
+      <c r="O94" s="9">
         <v>567</v>
       </c>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
@@ -6685,52 +6935,54 @@
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
-      <c r="X94" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y94" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3"/>
-      <c r="AA94" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB94" s="16"/>
-      <c r="AC94" s="5"/>
-      <c r="AD94" s="5"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA94" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD94" s="16"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
       <c r="AI94" s="5"/>
       <c r="AJ94" s="5"/>
-    </row>
-    <row r="95" spans="1:36">
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+    </row>
+    <row r="95" spans="1:38">
       <c r="A95" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="D95" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="9">
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="9">
         <v>734</v>
       </c>
-      <c r="M95" s="9">
+      <c r="O95" s="9">
         <v>567</v>
       </c>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
@@ -6739,35 +6991,39 @@
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
-      <c r="X95" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y95" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z95" s="3"/>
-      <c r="AA95" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB95" s="16"/>
-      <c r="AC95" s="5"/>
-      <c r="AD95" s="5"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA95" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD95" s="16"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
       <c r="AI95" s="5"/>
       <c r="AJ95" s="5"/>
-    </row>
-    <row r="96" spans="1:36">
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+    </row>
+    <row r="96" spans="1:38">
       <c r="A96" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -6775,14 +7031,14 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="9">
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="9">
         <v>24</v>
       </c>
-      <c r="M96" s="9">
+      <c r="O96" s="9">
         <v>120</v>
       </c>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -6790,34 +7046,36 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
-      <c r="W96" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="X96" s="10"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
       <c r="Y96" s="10"/>
-      <c r="Z96" s="11"/>
-      <c r="AA96" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB96" s="16"/>
-      <c r="AC96" s="5"/>
-      <c r="AD96" s="5"/>
+      <c r="Z96" s="10"/>
+      <c r="AA96" s="10"/>
+      <c r="AB96" s="11"/>
+      <c r="AC96" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD96" s="16"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
       <c r="AI96" s="5"/>
       <c r="AJ96" s="5"/>
-    </row>
-    <row r="97" spans="1:36">
+      <c r="AK96" s="5"/>
+      <c r="AL96" s="5"/>
+    </row>
+    <row r="97" spans="1:38">
       <c r="A97" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -6825,14 +7083,14 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="9">
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="9">
         <v>174</v>
       </c>
-      <c r="M97" s="9">
+      <c r="O97" s="9">
         <v>120</v>
       </c>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
@@ -6840,34 +7098,36 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
-      <c r="W97" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="X97" s="10"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
       <c r="Y97" s="10"/>
-      <c r="Z97" s="11"/>
-      <c r="AA97" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB97" s="16"/>
-      <c r="AC97" s="5"/>
-      <c r="AD97" s="5"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="10"/>
+      <c r="AB97" s="11"/>
+      <c r="AC97" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD97" s="16"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
       <c r="AI97" s="5"/>
       <c r="AJ97" s="5"/>
-    </row>
-    <row r="98" spans="1:36">
+      <c r="AK97" s="5"/>
+      <c r="AL97" s="5"/>
+    </row>
+    <row r="98" spans="1:38">
       <c r="A98" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -6875,14 +7135,14 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="9">
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="9">
         <v>481</v>
       </c>
-      <c r="M98" s="9">
+      <c r="O98" s="9">
         <v>187</v>
       </c>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
@@ -6890,34 +7150,36 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
-      <c r="W98" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="X98" s="10"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
       <c r="Y98" s="10"/>
-      <c r="Z98" s="11"/>
-      <c r="AA98" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB98" s="16"/>
-      <c r="AC98" s="5"/>
-      <c r="AD98" s="5"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="11"/>
+      <c r="AC98" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD98" s="16"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
       <c r="AI98" s="5"/>
       <c r="AJ98" s="5"/>
-    </row>
-    <row r="99" spans="1:36">
+      <c r="AK98" s="5"/>
+      <c r="AL98" s="5"/>
+    </row>
+    <row r="99" spans="1:38">
       <c r="A99" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -6925,14 +7187,14 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="9">
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="9">
         <v>481</v>
       </c>
-      <c r="M99" s="9">
+      <c r="O99" s="9">
         <v>247</v>
       </c>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
@@ -6940,34 +7202,36 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
-      <c r="W99" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="X99" s="10"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
       <c r="Y99" s="10"/>
-      <c r="Z99" s="11"/>
-      <c r="AA99" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB99" s="16"/>
-      <c r="AC99" s="5"/>
-      <c r="AD99" s="5"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="10"/>
+      <c r="AB99" s="11"/>
+      <c r="AC99" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD99" s="16"/>
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
       <c r="AI99" s="5"/>
       <c r="AJ99" s="5"/>
-    </row>
-    <row r="100" spans="1:36">
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+    </row>
+    <row r="100" spans="1:38">
       <c r="A100" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B100" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -6975,14 +7239,14 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="9">
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="9">
         <v>847</v>
       </c>
-      <c r="M100" s="9">
+      <c r="O100" s="9">
         <v>440</v>
       </c>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
@@ -6990,34 +7254,36 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="X100" s="10"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
       <c r="Y100" s="10"/>
-      <c r="Z100" s="11"/>
-      <c r="AA100" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB100" s="16"/>
-      <c r="AC100" s="5"/>
-      <c r="AD100" s="5"/>
+      <c r="Z100" s="10"/>
+      <c r="AA100" s="10"/>
+      <c r="AB100" s="11"/>
+      <c r="AC100" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD100" s="16"/>
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
       <c r="AI100" s="5"/>
       <c r="AJ100" s="5"/>
-    </row>
-    <row r="101" spans="1:36">
+      <c r="AK100" s="5"/>
+      <c r="AL100" s="5"/>
+    </row>
+    <row r="101" spans="1:38">
       <c r="A101" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -7025,14 +7291,14 @@
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="9">
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="9">
         <v>997</v>
       </c>
-      <c r="M101" s="9">
+      <c r="O101" s="9">
         <v>440</v>
       </c>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
@@ -7040,34 +7306,36 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
-      <c r="W101" s="10" t="s">
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="10"/>
+      <c r="AA101" s="10"/>
+      <c r="AB101" s="11"/>
+      <c r="AC101" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
-      <c r="Z101" s="11"/>
-      <c r="AA101" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB101" s="16"/>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
+      <c r="AD101" s="16"/>
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
       <c r="AI101" s="5"/>
       <c r="AJ101" s="5"/>
-    </row>
-    <row r="102" spans="1:36">
+      <c r="AK101" s="5"/>
+      <c r="AL101" s="5"/>
+    </row>
+    <row r="102" spans="1:38">
       <c r="A102" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -7075,14 +7343,14 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="9">
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="9">
         <v>1147</v>
       </c>
-      <c r="M102" s="9">
+      <c r="O102" s="9">
         <v>394</v>
       </c>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
@@ -7090,34 +7358,36 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
-      <c r="W102" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="X102" s="10"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
       <c r="Y102" s="10"/>
-      <c r="Z102" s="11"/>
-      <c r="AA102" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB102" s="16"/>
-      <c r="AC102" s="5"/>
-      <c r="AD102" s="5"/>
+      <c r="Z102" s="10"/>
+      <c r="AA102" s="10"/>
+      <c r="AB102" s="11"/>
+      <c r="AC102" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD102" s="16"/>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
       <c r="AI102" s="5"/>
       <c r="AJ102" s="5"/>
-    </row>
-    <row r="103" spans="1:36">
+      <c r="AK102" s="5"/>
+      <c r="AL102" s="5"/>
+    </row>
+    <row r="103" spans="1:38">
       <c r="A103" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="D103" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -7125,14 +7395,14 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="9">
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="9">
         <v>1147</v>
       </c>
-      <c r="M103" s="9">
+      <c r="O103" s="9">
         <v>440</v>
       </c>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
@@ -7140,34 +7410,36 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
-      <c r="W103" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="X103" s="10"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
       <c r="Y103" s="10"/>
-      <c r="Z103" s="11"/>
-      <c r="AA103" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB103" s="16"/>
-      <c r="AC103" s="5"/>
-      <c r="AD103" s="5"/>
+      <c r="Z103" s="10"/>
+      <c r="AA103" s="10"/>
+      <c r="AB103" s="11"/>
+      <c r="AC103" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD103" s="16"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
       <c r="AI103" s="5"/>
       <c r="AJ103" s="5"/>
-    </row>
-    <row r="104" spans="1:36">
+      <c r="AK103" s="5"/>
+      <c r="AL103" s="5"/>
+    </row>
+    <row r="104" spans="1:38">
       <c r="A104" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -7175,14 +7447,14 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="9">
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="9">
         <v>1147</v>
       </c>
-      <c r="M104" s="9">
+      <c r="O104" s="9">
         <v>486</v>
       </c>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
@@ -7190,26 +7462,26 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
-      <c r="W104" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="X104" s="10"/>
-      <c r="Y104" s="10"/>
-      <c r="Z104" s="11"/>
-      <c r="AA104" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB104" s="16"/>
-      <c r="AC104" s="5"/>
-      <c r="AD104" s="5"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="10"/>
+      <c r="AA104" s="10"/>
+      <c r="AB104" s="11"/>
+      <c r="AC104" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD104" s="16"/>
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
       <c r="AI104" s="5"/>
       <c r="AJ104" s="5"/>
-    </row>
-    <row r="105" spans="1:36">
+      <c r="AK104" s="5"/>
+      <c r="AL104" s="5"/>
+    </row>
+    <row r="105" spans="1:38">
       <c r="A105" s="4"/>
       <c r="B105" s="13"/>
       <c r="C105" s="4"/>
@@ -7221,10 +7493,10 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
       <c r="P105" s="4"/>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
@@ -7233,21 +7505,23 @@
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
-      <c r="X105" s="10"/>
-      <c r="Y105" s="10"/>
-      <c r="Z105" s="11"/>
-      <c r="AA105" s="12"/>
-      <c r="AB105" s="16"/>
-      <c r="AC105" s="5"/>
-      <c r="AD105" s="5"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="10"/>
+      <c r="AA105" s="10"/>
+      <c r="AB105" s="11"/>
+      <c r="AC105" s="12"/>
+      <c r="AD105" s="16"/>
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
       <c r="AI105" s="5"/>
       <c r="AJ105" s="5"/>
-    </row>
-    <row r="106" spans="1:36">
+      <c r="AK105" s="5"/>
+      <c r="AL105" s="5"/>
+    </row>
+    <row r="106" spans="1:38">
       <c r="A106" s="4"/>
       <c r="B106" s="13"/>
       <c r="C106" s="4"/>
@@ -7259,10 +7533,10 @@
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
       <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
@@ -7271,21 +7545,23 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
-      <c r="X106" s="10"/>
-      <c r="Y106" s="10"/>
-      <c r="Z106" s="11"/>
-      <c r="AA106" s="12"/>
-      <c r="AB106" s="16"/>
-      <c r="AC106" s="5"/>
-      <c r="AD106" s="5"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="10"/>
+      <c r="AA106" s="10"/>
+      <c r="AB106" s="11"/>
+      <c r="AC106" s="12"/>
+      <c r="AD106" s="16"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
       <c r="AI106" s="5"/>
       <c r="AJ106" s="5"/>
-    </row>
-    <row r="107" spans="1:36">
+      <c r="AK106" s="5"/>
+      <c r="AL106" s="5"/>
+    </row>
+    <row r="107" spans="1:38">
       <c r="A107" s="4"/>
       <c r="B107" s="13"/>
       <c r="C107" s="4"/>
@@ -7297,10 +7573,10 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
@@ -7309,21 +7585,23 @@
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
-      <c r="X107" s="10"/>
-      <c r="Y107" s="10"/>
-      <c r="Z107" s="11"/>
-      <c r="AA107" s="12"/>
-      <c r="AB107" s="16"/>
-      <c r="AC107" s="5"/>
-      <c r="AD107" s="5"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="10"/>
+      <c r="AA107" s="10"/>
+      <c r="AB107" s="11"/>
+      <c r="AC107" s="12"/>
+      <c r="AD107" s="16"/>
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
       <c r="AG107" s="5"/>
       <c r="AH107" s="5"/>
       <c r="AI107" s="5"/>
       <c r="AJ107" s="5"/>
-    </row>
-    <row r="108" spans="1:36">
+      <c r="AK107" s="5"/>
+      <c r="AL107" s="5"/>
+    </row>
+    <row r="108" spans="1:38">
       <c r="A108" s="4"/>
       <c r="B108" s="13"/>
       <c r="C108" s="4"/>
@@ -7335,10 +7613,10 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
       <c r="P108" s="4"/>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
@@ -7347,21 +7625,23 @@
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
-      <c r="X108" s="10"/>
-      <c r="Y108" s="10"/>
-      <c r="Z108" s="11"/>
-      <c r="AA108" s="12"/>
-      <c r="AB108" s="16"/>
-      <c r="AC108" s="5"/>
-      <c r="AD108" s="5"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="10"/>
+      <c r="AA108" s="10"/>
+      <c r="AB108" s="11"/>
+      <c r="AC108" s="12"/>
+      <c r="AD108" s="16"/>
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
       <c r="AG108" s="5"/>
       <c r="AH108" s="5"/>
       <c r="AI108" s="5"/>
       <c r="AJ108" s="5"/>
-    </row>
-    <row r="109" spans="1:36">
+      <c r="AK108" s="5"/>
+      <c r="AL108" s="5"/>
+    </row>
+    <row r="109" spans="1:38">
       <c r="A109" s="4"/>
       <c r="B109" s="13"/>
       <c r="C109" s="4"/>
@@ -7373,10 +7653,10 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="13"/>
+      <c r="O109" s="13"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
@@ -7385,21 +7665,23 @@
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
-      <c r="X109" s="10"/>
-      <c r="Y109" s="10"/>
-      <c r="Z109" s="11"/>
-      <c r="AA109" s="12"/>
-      <c r="AB109" s="16"/>
-      <c r="AC109" s="5"/>
-      <c r="AD109" s="5"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="10"/>
+      <c r="AA109" s="10"/>
+      <c r="AB109" s="11"/>
+      <c r="AC109" s="12"/>
+      <c r="AD109" s="16"/>
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
       <c r="AG109" s="5"/>
       <c r="AH109" s="5"/>
       <c r="AI109" s="5"/>
       <c r="AJ109" s="5"/>
-    </row>
-    <row r="110" spans="1:36">
+      <c r="AK109" s="5"/>
+      <c r="AL109" s="5"/>
+    </row>
+    <row r="110" spans="1:38">
       <c r="A110" s="4"/>
       <c r="B110" s="13"/>
       <c r="C110" s="4"/>
@@ -7411,10 +7693,10 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
@@ -7423,19 +7705,21 @@
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
-      <c r="X110" s="10"/>
-      <c r="Y110" s="10"/>
-      <c r="Z110" s="11"/>
-      <c r="AA110" s="12"/>
-      <c r="AB110" s="16"/>
-      <c r="AC110" s="5"/>
-      <c r="AD110" s="5"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="10"/>
+      <c r="AA110" s="10"/>
+      <c r="AB110" s="11"/>
+      <c r="AC110" s="12"/>
+      <c r="AD110" s="16"/>
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
       <c r="AG110" s="5"/>
       <c r="AH110" s="5"/>
       <c r="AI110" s="5"/>
       <c r="AJ110" s="5"/>
+      <c r="AK110" s="5"/>
+      <c r="AL110" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -7443,8 +7727,14 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>入力規則!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G110 I2:I110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
@@ -7461,60 +7751,68 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>205</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>207</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
+++ b/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1122978B-0C77-48A1-9255-5D89BFF50783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2668A0-28D5-4654-9405-1229C2CD5C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="4830" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="4155" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH59_西赤山駅_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="202">
   <si>
     <t>Type</t>
   </si>
@@ -573,6 +573,9 @@
     <t>11R</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -735,7 +738,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>駅扱切換てこ</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -754,6 +757,9 @@
   </si>
   <si>
     <t>解放99_PY</t>
+  </si>
+  <si>
+    <t>解放てこ</t>
   </si>
   <si>
     <t>TH61_5RT_1</t>
@@ -1179,11 +1185,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1720,7 +1726,9 @@
         <v>39</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1745,19 +1753,19 @@
         <v>39</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W6" s="10">
         <v>0</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
@@ -1773,11 +1781,11 @@
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>39</v>
@@ -1803,17 +1811,17 @@
       <c r="T7" s="4"/>
       <c r="U7" s="13"/>
       <c r="V7" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W7" s="14">
         <v>0</v>
       </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
@@ -1826,10 +1834,10 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>39</v>
@@ -1862,10 +1870,10 @@
         <v>10</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U8" s="10" t="s">
         <v>39</v>
@@ -1889,10 +1897,12 @@
         <v>38</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1914,19 +1924,19 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W9" s="10">
         <v>0</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
@@ -1943,14 +1953,14 @@
         <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1973,14 +1983,14 @@
       <c r="T10" s="4"/>
       <c r="U10" s="13"/>
       <c r="V10" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W10" s="14">
         <v>0</v>
       </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
@@ -1994,13 +2004,13 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2030,13 +2040,13 @@
         <v>10</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
@@ -2057,10 +2067,12 @@
         <v>38</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2082,19 +2094,19 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W12" s="10">
         <v>0</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -2111,14 +2123,14 @@
         <v>29</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2141,14 +2153,14 @@
       <c r="T13" s="4"/>
       <c r="U13" s="13"/>
       <c r="V13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W13" s="14">
         <v>0</v>
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
@@ -2165,14 +2177,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2195,14 +2207,14 @@
       <c r="T14" s="4"/>
       <c r="U14" s="13"/>
       <c r="V14" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W14" s="14">
         <v>0</v>
       </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -2216,13 +2228,13 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2252,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
@@ -2279,10 +2291,12 @@
         <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2304,22 +2318,22 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W16" s="10">
         <v>-1</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
@@ -2332,13 +2346,13 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2368,13 +2382,13 @@
         <v>10</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
@@ -2392,10 +2406,10 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2420,19 +2434,19 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W18" s="10">
         <v>0</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -2446,10 +2460,10 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2474,19 +2488,19 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" s="10">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y19" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="V19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W19" s="10">
-        <v>0</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y19" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
@@ -2503,10 +2517,12 @@
         <v>38</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2528,22 +2544,22 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W20" s="10">
         <v>0</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
@@ -2559,11 +2575,11 @@
         <v>29</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
@@ -2587,14 +2603,14 @@
       <c r="T21" s="4"/>
       <c r="U21" s="13"/>
       <c r="V21" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W21" s="10">
         <v>0</v>
       </c>
       <c r="X21" s="11"/>
       <c r="Y21" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -2611,11 +2627,11 @@
         <v>29</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
@@ -2639,14 +2655,14 @@
       <c r="T22" s="4"/>
       <c r="U22" s="9"/>
       <c r="V22" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W22" s="10">
         <v>0</v>
       </c>
       <c r="X22" s="11"/>
       <c r="Y22" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -2660,13 +2676,13 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2696,13 +2712,13 @@
         <v>10</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
@@ -2720,13 +2736,15 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2748,22 +2766,22 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W24" s="10">
         <v>1</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
@@ -2779,11 +2797,11 @@
         <v>29</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>94</v>
+      <c r="D25" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2807,14 +2825,14 @@
       <c r="T25" s="4"/>
       <c r="U25" s="13"/>
       <c r="V25" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W25" s="10">
         <v>0</v>
       </c>
       <c r="X25" s="11"/>
       <c r="Y25" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
@@ -2831,11 +2849,11 @@
         <v>29</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2859,14 +2877,14 @@
       <c r="T26" s="4"/>
       <c r="U26" s="13"/>
       <c r="V26" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W26" s="10">
         <v>0</v>
       </c>
       <c r="X26" s="11"/>
       <c r="Y26" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
@@ -2880,13 +2898,15 @@
     </row>
     <row r="27" spans="1:34">
       <c r="A27" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2908,22 +2928,22 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W27" s="10">
         <v>0</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
@@ -2939,11 +2959,11 @@
         <v>29</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2967,14 +2987,14 @@
       <c r="T28" s="4"/>
       <c r="U28" s="13"/>
       <c r="V28" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W28" s="10">
         <v>0</v>
       </c>
       <c r="X28" s="11"/>
       <c r="Y28" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
@@ -2991,11 +3011,11 @@
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3019,17 +3039,17 @@
       <c r="T29" s="4"/>
       <c r="U29" s="13"/>
       <c r="V29" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W29" s="14">
         <v>0</v>
       </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
@@ -3045,11 +3065,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3073,14 +3093,14 @@
       <c r="T30" s="4"/>
       <c r="U30" s="13"/>
       <c r="V30" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W30" s="14">
         <v>0</v>
       </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
@@ -3097,11 +3117,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3125,14 +3145,14 @@
       <c r="T31" s="4"/>
       <c r="U31" s="13"/>
       <c r="V31" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W31" s="14">
         <v>0</v>
       </c>
       <c r="X31" s="3"/>
       <c r="Y31" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
@@ -3149,11 +3169,11 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -3177,14 +3197,14 @@
       <c r="T32" s="4"/>
       <c r="U32" s="9"/>
       <c r="V32" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W32" s="14">
         <v>0</v>
       </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
@@ -3201,11 +3221,11 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -3229,14 +3249,14 @@
       <c r="T33" s="4"/>
       <c r="U33" s="9"/>
       <c r="V33" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W33" s="14">
         <v>0</v>
       </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
@@ -3253,11 +3273,11 @@
         <v>29</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -3281,14 +3301,14 @@
       <c r="T34" s="4"/>
       <c r="U34" s="13"/>
       <c r="V34" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W34" s="14">
         <v>0</v>
       </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
@@ -3305,11 +3325,11 @@
         <v>29</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3333,14 +3353,14 @@
       <c r="T35" s="4"/>
       <c r="U35" s="13"/>
       <c r="V35" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W35" s="14">
         <v>0</v>
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
@@ -3357,11 +3377,11 @@
         <v>29</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3385,14 +3405,14 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W36" s="14">
         <v>0</v>
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
@@ -3409,11 +3429,11 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3437,14 +3457,14 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W37" s="14">
         <v>0</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
@@ -3461,11 +3481,11 @@
         <v>29</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3489,14 +3509,14 @@
       <c r="T38" s="4"/>
       <c r="U38" s="13"/>
       <c r="V38" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W38" s="14">
         <v>0</v>
       </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
@@ -3513,11 +3533,11 @@
         <v>29</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3541,14 +3561,14 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W39" s="14">
         <v>0</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
@@ -3565,11 +3585,11 @@
         <v>29</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3593,14 +3613,14 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W40" s="14">
         <v>0</v>
       </c>
       <c r="X40" s="3"/>
       <c r="Y40" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
@@ -3617,11 +3637,11 @@
         <v>29</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -3645,14 +3665,14 @@
       <c r="T41" s="4"/>
       <c r="U41" s="13"/>
       <c r="V41" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W41" s="14">
         <v>0</v>
       </c>
       <c r="X41" s="3"/>
       <c r="Y41" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
@@ -3669,11 +3689,11 @@
         <v>29</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3697,14 +3717,14 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W42" s="14">
         <v>0</v>
       </c>
       <c r="X42" s="3"/>
       <c r="Y42" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
@@ -3721,11 +3741,11 @@
         <v>29</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -3749,14 +3769,14 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W43" s="14">
         <v>0</v>
       </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
@@ -3773,11 +3793,11 @@
         <v>29</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3801,14 +3821,14 @@
       <c r="T44" s="4"/>
       <c r="U44" s="13"/>
       <c r="V44" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W44" s="14">
         <v>0</v>
       </c>
       <c r="X44" s="3"/>
       <c r="Y44" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
@@ -3825,11 +3845,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3853,14 +3873,14 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W45" s="14">
         <v>0</v>
       </c>
       <c r="X45" s="3"/>
       <c r="Y45" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
@@ -3877,11 +3897,11 @@
         <v>29</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3905,14 +3925,14 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W46" s="14">
         <v>0</v>
       </c>
       <c r="X46" s="3"/>
       <c r="Y46" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
@@ -3929,11 +3949,11 @@
         <v>29</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3957,14 +3977,14 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W47" s="14">
         <v>0</v>
       </c>
       <c r="X47" s="3"/>
       <c r="Y47" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
@@ -3981,11 +4001,11 @@
         <v>29</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -4009,17 +4029,17 @@
       <c r="T48" s="4"/>
       <c r="U48" s="13"/>
       <c r="V48" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W48" s="14">
         <v>0</v>
       </c>
       <c r="X48" s="3"/>
       <c r="Y48" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z48" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
@@ -4035,11 +4055,11 @@
         <v>29</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -4063,14 +4083,14 @@
       <c r="T49" s="4"/>
       <c r="U49" s="13"/>
       <c r="V49" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W49" s="14">
         <v>0</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
@@ -4087,11 +4107,11 @@
         <v>29</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -4115,14 +4135,14 @@
       <c r="T50" s="4"/>
       <c r="U50" s="13"/>
       <c r="V50" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W50" s="14">
         <v>0</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -4139,11 +4159,11 @@
         <v>29</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -4167,17 +4187,17 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W51" s="14">
         <v>0</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z51" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
@@ -4193,11 +4213,11 @@
         <v>29</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -4221,14 +4241,14 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W52" s="14">
         <v>0</v>
       </c>
       <c r="X52" s="3"/>
       <c r="Y52" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
@@ -4245,11 +4265,11 @@
         <v>29</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -4273,14 +4293,14 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W53" s="14">
         <v>0</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
@@ -4297,11 +4317,11 @@
         <v>29</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -4325,14 +4345,14 @@
       <c r="T54" s="4"/>
       <c r="U54" s="13"/>
       <c r="V54" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W54" s="14">
         <v>0</v>
       </c>
       <c r="X54" s="3"/>
       <c r="Y54" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
@@ -4349,11 +4369,11 @@
         <v>29</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -4377,17 +4397,17 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W55" s="14">
         <v>0</v>
       </c>
       <c r="X55" s="3"/>
       <c r="Y55" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Z55" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
@@ -4403,11 +4423,11 @@
         <v>29</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -4431,17 +4451,17 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W56" s="14">
         <v>0</v>
       </c>
       <c r="X56" s="3"/>
       <c r="Y56" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Z56" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
@@ -4457,11 +4477,11 @@
         <v>29</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -4485,14 +4505,14 @@
       <c r="T57" s="4"/>
       <c r="U57" s="13"/>
       <c r="V57" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W57" s="14">
         <v>0</v>
       </c>
       <c r="X57" s="3"/>
       <c r="Y57" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
@@ -4509,11 +4529,11 @@
         <v>29</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -4537,14 +4557,14 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W58" s="14">
         <v>0</v>
       </c>
       <c r="X58" s="3"/>
       <c r="Y58" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
@@ -4561,11 +4581,11 @@
         <v>29</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -4589,14 +4609,14 @@
       <c r="T59" s="4"/>
       <c r="U59" s="13"/>
       <c r="V59" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W59" s="14">
         <v>0</v>
       </c>
       <c r="X59" s="3"/>
       <c r="Y59" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
@@ -4613,11 +4633,11 @@
         <v>29</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4641,14 +4661,14 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W60" s="14">
         <v>0</v>
       </c>
       <c r="X60" s="3"/>
       <c r="Y60" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
@@ -4665,11 +4685,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -4693,14 +4713,14 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W61" s="14">
         <v>0</v>
       </c>
       <c r="X61" s="3"/>
       <c r="Y61" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
@@ -4717,11 +4737,11 @@
         <v>29</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -4745,14 +4765,14 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W62" s="14">
         <v>0</v>
       </c>
       <c r="X62" s="3"/>
       <c r="Y62" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
@@ -4769,11 +4789,11 @@
         <v>29</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -4797,17 +4817,17 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W63" s="14">
         <v>0</v>
       </c>
       <c r="X63" s="3"/>
       <c r="Y63" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Z63" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
@@ -4823,11 +4843,11 @@
         <v>29</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -4851,14 +4871,14 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W64" s="14">
         <v>0</v>
       </c>
       <c r="X64" s="3"/>
       <c r="Y64" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
@@ -4875,11 +4895,11 @@
         <v>29</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -4903,14 +4923,14 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W65" s="14">
         <v>0</v>
       </c>
       <c r="X65" s="3"/>
       <c r="Y65" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
@@ -4927,11 +4947,11 @@
         <v>29</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -4955,14 +4975,14 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W66" s="14">
         <v>0</v>
       </c>
       <c r="X66" s="3"/>
       <c r="Y66" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
@@ -4979,11 +4999,11 @@
         <v>29</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -5007,14 +5027,14 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W67" s="14">
         <v>0</v>
       </c>
       <c r="X67" s="3"/>
       <c r="Y67" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
@@ -5031,11 +5051,11 @@
         <v>29</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -5059,17 +5079,17 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W68" s="14">
         <v>0</v>
       </c>
       <c r="X68" s="3"/>
       <c r="Y68" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
@@ -5085,11 +5105,11 @@
         <v>29</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -5113,14 +5133,14 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W69" s="14">
         <v>0</v>
       </c>
       <c r="X69" s="3"/>
       <c r="Y69" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
@@ -5137,11 +5157,11 @@
         <v>29</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -5165,17 +5185,17 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W70" s="14">
         <v>0</v>
       </c>
       <c r="X70" s="3"/>
       <c r="Y70" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z70" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
@@ -5191,11 +5211,11 @@
         <v>29</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -5219,14 +5239,14 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W71" s="14">
         <v>0</v>
       </c>
       <c r="X71" s="3"/>
       <c r="Y71" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
@@ -5243,11 +5263,11 @@
         <v>29</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -5271,14 +5291,14 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W72" s="14">
         <v>0</v>
       </c>
       <c r="X72" s="3"/>
       <c r="Y72" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
@@ -5295,11 +5315,11 @@
         <v>29</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -5323,14 +5343,14 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W73" s="14">
         <v>0</v>
       </c>
       <c r="X73" s="3"/>
       <c r="Y73" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
@@ -5347,11 +5367,11 @@
         <v>29</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -5375,14 +5395,14 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W74" s="14">
         <v>0</v>
       </c>
       <c r="X74" s="3"/>
       <c r="Y74" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
@@ -5399,11 +5419,11 @@
         <v>29</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -5427,14 +5447,14 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W75" s="14">
         <v>0</v>
       </c>
       <c r="X75" s="3"/>
       <c r="Y75" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
@@ -5451,11 +5471,11 @@
         <v>29</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -5479,14 +5499,14 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W76" s="14">
         <v>0</v>
       </c>
       <c r="X76" s="3"/>
       <c r="Y76" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
@@ -5503,11 +5523,11 @@
         <v>29</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -5531,14 +5551,14 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W77" s="14">
         <v>0</v>
       </c>
       <c r="X77" s="3"/>
       <c r="Y77" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
@@ -5555,11 +5575,11 @@
         <v>29</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -5583,14 +5603,14 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W78" s="14">
         <v>0</v>
       </c>
       <c r="X78" s="3"/>
       <c r="Y78" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
@@ -5607,11 +5627,11 @@
         <v>29</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -5635,14 +5655,14 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W79" s="14">
         <v>0</v>
       </c>
       <c r="X79" s="3"/>
       <c r="Y79" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
@@ -5659,11 +5679,11 @@
         <v>29</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -5687,14 +5707,14 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W80" s="14">
         <v>0</v>
       </c>
       <c r="X80" s="3"/>
       <c r="Y80" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
@@ -5711,11 +5731,11 @@
         <v>29</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -5739,17 +5759,17 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W81" s="14">
         <v>0</v>
       </c>
       <c r="X81" s="3"/>
       <c r="Y81" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z81" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
@@ -5765,11 +5785,11 @@
         <v>29</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -5793,14 +5813,14 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W82" s="14">
         <v>0</v>
       </c>
       <c r="X82" s="3"/>
       <c r="Y82" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
@@ -5817,11 +5837,11 @@
         <v>29</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -5845,14 +5865,14 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W83" s="14">
         <v>0</v>
       </c>
       <c r="X83" s="3"/>
       <c r="Y83" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
@@ -5869,11 +5889,11 @@
         <v>29</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -5897,17 +5917,17 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W84" s="14">
         <v>0</v>
       </c>
       <c r="X84" s="3"/>
       <c r="Y84" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z84" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
@@ -5923,11 +5943,11 @@
         <v>29</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -5951,14 +5971,14 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W85" s="14">
         <v>0</v>
       </c>
       <c r="X85" s="3"/>
       <c r="Y85" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
@@ -5975,11 +5995,11 @@
         <v>29</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -6003,14 +6023,14 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W86" s="14">
         <v>0</v>
       </c>
       <c r="X86" s="3"/>
       <c r="Y86" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
@@ -6027,11 +6047,11 @@
         <v>29</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -6055,14 +6075,14 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W87" s="14">
         <v>0</v>
       </c>
       <c r="X87" s="3"/>
       <c r="Y87" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
@@ -6079,11 +6099,11 @@
         <v>29</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -6107,14 +6127,14 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W88" s="14">
         <v>0</v>
       </c>
       <c r="X88" s="3"/>
       <c r="Y88" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z88" s="16"/>
       <c r="AA88" s="5"/>
@@ -6131,11 +6151,11 @@
         <v>29</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -6159,17 +6179,17 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W89" s="14">
         <v>0</v>
       </c>
       <c r="X89" s="3"/>
       <c r="Y89" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z89" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Z89" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
@@ -6185,11 +6205,11 @@
         <v>29</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -6213,14 +6233,14 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W90" s="14">
         <v>0</v>
       </c>
       <c r="X90" s="3"/>
       <c r="Y90" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z90" s="16"/>
       <c r="AA90" s="5"/>
@@ -6237,11 +6257,11 @@
         <v>29</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -6265,14 +6285,14 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W91" s="14">
         <v>0</v>
       </c>
       <c r="X91" s="3"/>
       <c r="Y91" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z91" s="16"/>
       <c r="AA91" s="5"/>
@@ -6289,11 +6309,11 @@
         <v>29</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -6317,14 +6337,14 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W92" s="14">
         <v>0</v>
       </c>
       <c r="X92" s="3"/>
       <c r="Y92" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Z92" s="16"/>
       <c r="AA92" s="5"/>
@@ -6341,11 +6361,11 @@
         <v>29</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -6369,14 +6389,14 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W93" s="14">
         <v>0</v>
       </c>
       <c r="X93" s="3"/>
       <c r="Y93" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Z93" s="16"/>
       <c r="AA93" s="5"/>
@@ -6393,11 +6413,11 @@
         <v>29</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -6421,14 +6441,14 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W94" s="14">
         <v>0</v>
       </c>
       <c r="X94" s="3"/>
       <c r="Y94" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Z94" s="16"/>
       <c r="AA94" s="5"/>
@@ -6445,11 +6465,11 @@
         <v>29</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -6473,14 +6493,14 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W95" s="14">
         <v>0</v>
       </c>
       <c r="X95" s="3"/>
       <c r="Y95" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Z95" s="16"/>
       <c r="AA95" s="5"/>
@@ -6494,14 +6514,14 @@
     </row>
     <row r="96" spans="1:34">
       <c r="A96" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" s="18" t="s">
-        <v>186</v>
+      <c r="D96" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -6528,7 +6548,7 @@
       <c r="W96" s="10"/>
       <c r="X96" s="11"/>
       <c r="Y96" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z96" s="16"/>
       <c r="AA96" s="5"/>
@@ -6542,14 +6562,14 @@
     </row>
     <row r="97" spans="1:34">
       <c r="A97" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B97" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -6576,7 +6596,7 @@
       <c r="W97" s="10"/>
       <c r="X97" s="11"/>
       <c r="Y97" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z97" s="16"/>
       <c r="AA97" s="5"/>
@@ -6590,14 +6610,14 @@
     </row>
     <row r="98" spans="1:34">
       <c r="A98" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="18" t="s">
-        <v>186</v>
+      <c r="D98" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -6624,7 +6644,7 @@
       <c r="W98" s="10"/>
       <c r="X98" s="11"/>
       <c r="Y98" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z98" s="16"/>
       <c r="AA98" s="5"/>
@@ -6638,14 +6658,14 @@
     </row>
     <row r="99" spans="1:34">
       <c r="A99" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="18" t="s">
-        <v>186</v>
+      <c r="D99" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -6672,7 +6692,7 @@
       <c r="W99" s="10"/>
       <c r="X99" s="11"/>
       <c r="Y99" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z99" s="16"/>
       <c r="AA99" s="5"/>
@@ -6686,14 +6706,14 @@
     </row>
     <row r="100" spans="1:34">
       <c r="A100" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" s="18" t="s">
-        <v>186</v>
+      <c r="D100" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -6720,7 +6740,7 @@
       <c r="W100" s="10"/>
       <c r="X100" s="11"/>
       <c r="Y100" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z100" s="16"/>
       <c r="AA100" s="5"/>
@@ -6734,14 +6754,14 @@
     </row>
     <row r="101" spans="1:34">
       <c r="A101" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C101" s="4"/>
-      <c r="D101" s="18" t="s">
-        <v>186</v>
+      <c r="D101" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -6768,7 +6788,7 @@
       <c r="W101" s="10"/>
       <c r="X101" s="11"/>
       <c r="Y101" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z101" s="16"/>
       <c r="AA101" s="5"/>
@@ -6782,14 +6802,14 @@
     </row>
     <row r="102" spans="1:34">
       <c r="A102" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C102" s="4"/>
-      <c r="D102" s="18" t="s">
-        <v>186</v>
+      <c r="D102" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -6816,7 +6836,7 @@
       <c r="W102" s="10"/>
       <c r="X102" s="11"/>
       <c r="Y102" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z102" s="16"/>
       <c r="AA102" s="5"/>
@@ -6830,14 +6850,14 @@
     </row>
     <row r="103" spans="1:34">
       <c r="A103" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" s="18" t="s">
-        <v>186</v>
+      <c r="D103" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -6864,7 +6884,7 @@
       <c r="W103" s="10"/>
       <c r="X103" s="11"/>
       <c r="Y103" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z103" s="16"/>
       <c r="AA103" s="5"/>
@@ -6878,14 +6898,14 @@
     </row>
     <row r="104" spans="1:34">
       <c r="A104" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C104" s="4"/>
-      <c r="D104" s="18" t="s">
-        <v>186</v>
+      <c r="D104" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -6912,7 +6932,7 @@
       <c r="W104" s="10"/>
       <c r="X104" s="11"/>
       <c r="Y104" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z104" s="16"/>
       <c r="AA104" s="5"/>
@@ -7178,23 +7198,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -7221,17 +7241,17 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
+++ b/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1873C83-8BCA-4644-B9D8-5338A6B53DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677A9657-DC67-45DB-B3D2-8DBA22387A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="4065" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="3645" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH59_西赤山駅_UIList" sheetId="1" r:id="rId1"/>

--- a/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
+++ b/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677A9657-DC67-45DB-B3D2-8DBA22387A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11A3AC9-8D37-4AF3-8F46-FB525D27A538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="3645" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="4035" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH59_西赤山駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="244">
   <si>
     <t>Type</t>
   </si>
@@ -609,6 +609,9 @@
     <t>物理てこ</t>
   </si>
   <si>
+    <t>TH59_11</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -627,6 +630,9 @@
     <t>信号機表示灯</t>
   </si>
   <si>
+    <t>西赤山上り場内11R</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
   </si>
   <si>
@@ -648,6 +654,9 @@
     <t>12L</t>
   </si>
   <si>
+    <t>TH59_12</t>
+  </si>
+  <si>
     <t>-1,0</t>
   </si>
   <si>
@@ -660,12 +669,18 @@
     <t>12L_G</t>
   </si>
   <si>
+    <t>西赤山下り出発12L</t>
+  </si>
+  <si>
     <t>12L_Label</t>
   </si>
   <si>
     <t>13LR</t>
   </si>
   <si>
+    <t>TH59_13</t>
+  </si>
+  <si>
     <t>-1,0,1</t>
   </si>
   <si>
@@ -678,13 +693,13 @@
     <t>13R_G</t>
   </si>
   <si>
-    <t>13R</t>
+    <t>西赤山上り出発13R</t>
   </si>
   <si>
     <t>13L_G</t>
   </si>
   <si>
-    <t>13L</t>
+    <t>西赤山下り場内13L</t>
   </si>
   <si>
     <t>13LR_Label</t>
@@ -693,6 +708,9 @@
     <t>14L</t>
   </si>
   <si>
+    <t>TH59_14</t>
+  </si>
+  <si>
     <t>-1,1</t>
   </si>
   <si>
@@ -723,6 +741,12 @@
     <t>警報下り接近</t>
   </si>
   <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>TH59_21</t>
+  </si>
+  <si>
     <t>P21</t>
   </si>
   <si>
@@ -735,22 +759,31 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P21_PG</t>
+    <t>W21_PG</t>
   </si>
   <si>
     <t>転てつ器表示灯</t>
   </si>
   <si>
+    <t>TH59_W21</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
-    <t>P21_PY</t>
+    <t>W21_PY</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
-    <t>P21_Label</t>
+    <t>W21_Label</t>
   </si>
   <si>
     <t>KeyImage</t>
@@ -804,6 +837,9 @@
     <t>軌道回路表示灯</t>
   </si>
   <si>
+    <t>TH61_5RT</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -819,46 +855,70 @@
     <t>238T_1</t>
   </si>
   <si>
+    <t>上り238T</t>
+  </si>
+  <si>
     <t>238T_2</t>
   </si>
   <si>
     <t>242T_1</t>
   </si>
   <si>
+    <t>上り242T</t>
+  </si>
+  <si>
     <t>242T_2</t>
   </si>
   <si>
     <t>246T_1</t>
   </si>
   <si>
+    <t>上り246T</t>
+  </si>
+  <si>
     <t>246T_2</t>
   </si>
   <si>
     <t>250T_1</t>
   </si>
   <si>
+    <t>上り250T</t>
+  </si>
+  <si>
     <t>250T_2</t>
   </si>
   <si>
     <t>TH59_12LT_1</t>
   </si>
   <si>
+    <t>TH59_12LT</t>
+  </si>
+  <si>
     <t>TH59_12LT_2</t>
   </si>
   <si>
     <t>TH59_11RT_1</t>
   </si>
   <si>
+    <t>TH59_11RT</t>
+  </si>
+  <si>
     <t>TH59_11RT_2</t>
   </si>
   <si>
     <t>TH59_13LT_1</t>
   </si>
   <si>
+    <t>TH59_13LT</t>
+  </si>
+  <si>
     <t>TH59_13LT_2</t>
   </si>
   <si>
-    <t>TH59_21イT_P21イN_1</t>
+    <t>TH59_21イT_W21イN_1</t>
+  </si>
+  <si>
+    <t>TH59_21イT</t>
   </si>
   <si>
     <t>21EM_R</t>
@@ -870,10 +930,10 @@
     <t>Image/Light/N.png,Image/Light/R.png</t>
   </si>
   <si>
-    <t>TH59_21イT_P21イR_1</t>
-  </si>
-  <si>
-    <t>TH59_21イT_P21イR_2</t>
+    <t>TH59_21イT_W21イR_1</t>
+  </si>
+  <si>
+    <t>TH59_21イT_W21イR_2</t>
   </si>
   <si>
     <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
@@ -882,21 +942,27 @@
     <t>135度</t>
   </si>
   <si>
-    <t>TH59_21ロT_P21ロN_1</t>
-  </si>
-  <si>
-    <t>TH59_21ロT_P21ロN_2</t>
-  </si>
-  <si>
-    <t>TH59_21ロT_P21ロR_1</t>
-  </si>
-  <si>
-    <t>TH59_21ロT_P21ロR_2</t>
+    <t>TH59_21ロT_W21ロN_1</t>
+  </si>
+  <si>
+    <t>TH59_21ロT</t>
+  </si>
+  <si>
+    <t>TH59_21ロT_W21ロN_2</t>
+  </si>
+  <si>
+    <t>TH59_21ロT_W21ロR_1</t>
+  </si>
+  <si>
+    <t>TH59_21ロT_W21ロR_2</t>
   </si>
   <si>
     <t>NA1T_1</t>
   </si>
   <si>
+    <t>NA1T</t>
+  </si>
+  <si>
     <t>NA1T_2</t>
   </si>
   <si>
@@ -924,22 +990,34 @@
     <t>NA2T_1</t>
   </si>
   <si>
+    <t>NA2T</t>
+  </si>
+  <si>
     <t>NA2T_2</t>
   </si>
   <si>
     <t>TH58_2RT_1</t>
   </si>
   <si>
-    <t>TH58_21T_P21N_1</t>
-  </si>
-  <si>
-    <t>TH58_21T_P21N_2</t>
-  </si>
-  <si>
-    <t>TH58_21T_P21R_1</t>
-  </si>
-  <si>
-    <t>TH58_21T_P21R_2</t>
+    <t>TH58_2RT</t>
+  </si>
+  <si>
+    <t>TH58_21T_W21N_1</t>
+  </si>
+  <si>
+    <t>TH58_21T</t>
+  </si>
+  <si>
+    <t>TH58_W21</t>
+  </si>
+  <si>
+    <t>TH58_21T_W21N_2</t>
+  </si>
+  <si>
+    <t>TH58_21T_W21R_1</t>
+  </si>
+  <si>
+    <t>TH58_21T_W21R_2</t>
   </si>
   <si>
     <t>Image/Light/68N.png,Image/Light/68Y.png,Image/Light/68R.png</t>
@@ -948,19 +1026,25 @@
     <t>68度</t>
   </si>
   <si>
-    <t>TH58_21T_P21R_3</t>
-  </si>
-  <si>
-    <t>TH58_22イT_P22イN_1</t>
-  </si>
-  <si>
-    <t>TH58_22イT_P22イN_2</t>
-  </si>
-  <si>
-    <t>TH58_22イT_P22イR_1</t>
-  </si>
-  <si>
-    <t>TH58_22イT_P22イR_2</t>
+    <t>TH58_21T_W21R_3</t>
+  </si>
+  <si>
+    <t>TH58_22イT_W22イN_1</t>
+  </si>
+  <si>
+    <t>TH58_22イT</t>
+  </si>
+  <si>
+    <t>TH58_W22</t>
+  </si>
+  <si>
+    <t>TH58_22イT_W22イN_2</t>
+  </si>
+  <si>
+    <t>TH58_22イT_W22イR_1</t>
+  </si>
+  <si>
+    <t>TH58_22イT_W22イR_2</t>
   </si>
   <si>
     <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
@@ -969,75 +1053,105 @@
     <t>112度</t>
   </si>
   <si>
-    <t>TH58_22ロT_P22ロN_1</t>
-  </si>
-  <si>
-    <t>TH58_22ロT_P22ロR_1</t>
-  </si>
-  <si>
-    <t>TH58_22ロT_P22ロR_2</t>
+    <t>TH58_22ロT_W22ロN_1</t>
+  </si>
+  <si>
+    <t>TH58_22ロT</t>
+  </si>
+  <si>
+    <t>TH58_22ロT_W22ロR_1</t>
+  </si>
+  <si>
+    <t>TH58_22ロT_W22ロR_2</t>
   </si>
   <si>
     <t>TH58_2RAT_1</t>
   </si>
   <si>
+    <t>TH58_2RAT</t>
+  </si>
+  <si>
     <t>TH58_2RAT_2</t>
   </si>
   <si>
     <t>TH58_2RBT_1</t>
   </si>
   <si>
+    <t>TH58_2RBT</t>
+  </si>
+  <si>
     <t>TH58_2RBT_2</t>
   </si>
   <si>
     <t>TH58_9LCT_1</t>
   </si>
   <si>
+    <t>TH58_9LCT</t>
+  </si>
+  <si>
     <t>TH58_9LCT_2</t>
   </si>
   <si>
-    <t>TH58_23イT_P23イN_1</t>
-  </si>
-  <si>
-    <t>TH58_23イT_P23イN_2</t>
-  </si>
-  <si>
-    <t>TH58_23イT_P23イR_1</t>
-  </si>
-  <si>
-    <t>TH58_23イT_P23イR_2</t>
-  </si>
-  <si>
-    <t>TH58_23ロT_P23ロN_1</t>
-  </si>
-  <si>
-    <t>TH58_23ロT_P23ロN_2</t>
-  </si>
-  <si>
-    <t>TH58_23ロT_P23ロR_1</t>
-  </si>
-  <si>
-    <t>TH58_23ロT_P23ロR_2</t>
-  </si>
-  <si>
-    <t>TH58_25T_P25N_1</t>
-  </si>
-  <si>
-    <t>TH58_25T_P25N_2</t>
-  </si>
-  <si>
-    <t>TH58_25T_P25R_1</t>
-  </si>
-  <si>
-    <t>TH58_25T_P25R_2</t>
-  </si>
-  <si>
-    <t>TH58_25T_P25R_3</t>
+    <t>TH58_23イT_W23イN_1</t>
+  </si>
+  <si>
+    <t>TH58_23イT</t>
+  </si>
+  <si>
+    <t>TH58_W23</t>
+  </si>
+  <si>
+    <t>TH58_23イT_W23イN_2</t>
+  </si>
+  <si>
+    <t>TH58_23イT_W23イR_1</t>
+  </si>
+  <si>
+    <t>TH58_23イT_W23イR_2</t>
+  </si>
+  <si>
+    <t>TH58_23ロT_W23ロN_1</t>
+  </si>
+  <si>
+    <t>TH58_23ロT</t>
+  </si>
+  <si>
+    <t>TH58_23ロT_W23ロN_2</t>
+  </si>
+  <si>
+    <t>TH58_23ロT_W23ロR_1</t>
+  </si>
+  <si>
+    <t>TH58_23ロT_W23ロR_2</t>
+  </si>
+  <si>
+    <t>TH58_25T_W25N_1</t>
+  </si>
+  <si>
+    <t>TH58_25T</t>
+  </si>
+  <si>
+    <t>TH58_W25</t>
+  </si>
+  <si>
+    <t>TH58_25T_W25N_2</t>
+  </si>
+  <si>
+    <t>TH58_25T_W25R_1</t>
+  </si>
+  <si>
+    <t>TH58_25T_W25R_2</t>
+  </si>
+  <si>
+    <t>TH58_25T_W25R_3</t>
   </si>
   <si>
     <t>TH58_9LT_1</t>
   </si>
   <si>
+    <t>TH58_9LT</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
@@ -1089,16 +1203,10 @@
     <t>Button</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>C</t>
@@ -1470,7 +1578,9 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="25" width="15.140625" customWidth="1"/>
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
     <col min="27" max="27" width="100.140625" customWidth="1"/>
     <col min="28" max="28" width="62.5703125" customWidth="1"/>
@@ -1788,7 +1898,9 @@
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1814,19 +1926,19 @@
         <v>41</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="10">
         <v>0</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
@@ -1842,14 +1954,14 @@
         <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1874,17 +1986,17 @@
       <c r="V7" s="4"/>
       <c r="W7" s="13"/>
       <c r="X7" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="14">
         <v>0</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
@@ -1897,10 +2009,10 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>41</v>
@@ -1935,10 +2047,10 @@
         <v>10</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W8" s="10" t="s">
         <v>41</v>
@@ -1962,13 +2074,15 @@
         <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1991,19 +2105,19 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y9" s="10">
         <v>0</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
@@ -2020,14 +2134,14 @@
         <v>31</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2052,14 +2166,14 @@
       <c r="V10" s="4"/>
       <c r="W10" s="13"/>
       <c r="X10" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y10" s="14">
         <v>0</v>
       </c>
       <c r="Z10" s="3"/>
       <c r="AA10" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -2073,13 +2187,13 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2111,13 +2225,13 @@
         <v>10</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
@@ -2138,13 +2252,15 @@
         <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2167,19 +2283,19 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Y12" s="10">
         <v>0</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -2196,14 +2312,14 @@
         <v>31</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2228,14 +2344,14 @@
       <c r="V13" s="4"/>
       <c r="W13" s="13"/>
       <c r="X13" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y13" s="14">
         <v>0</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -2252,14 +2368,14 @@
         <v>31</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2284,14 +2400,14 @@
       <c r="V14" s="4"/>
       <c r="W14" s="13"/>
       <c r="X14" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y14" s="14">
         <v>0</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2305,13 +2421,13 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2343,13 +2459,13 @@
         <v>10</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
@@ -2370,13 +2486,15 @@
         <v>40</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2399,22 +2517,22 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Y16" s="10">
         <v>-1</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
@@ -2427,13 +2545,13 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2465,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
@@ -2489,10 +2607,10 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2519,19 +2637,19 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y18" s="10">
         <v>0</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -2545,10 +2663,10 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2575,19 +2693,19 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y19" s="10">
         <v>0</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
@@ -2604,13 +2722,15 @@
         <v>40</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2633,22 +2753,22 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Y20" s="10">
         <v>0</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA20" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
@@ -2664,15 +2784,19 @@
         <v>31</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="9"/>
@@ -2694,14 +2818,14 @@
       <c r="V21" s="4"/>
       <c r="W21" s="13"/>
       <c r="X21" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y21" s="10">
         <v>0</v>
       </c>
       <c r="Z21" s="11"/>
       <c r="AA21" s="12" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
@@ -2718,15 +2842,19 @@
         <v>31</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="9"/>
@@ -2748,14 +2876,14 @@
       <c r="V22" s="4"/>
       <c r="W22" s="9"/>
       <c r="X22" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y22" s="10">
         <v>0</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="12" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
@@ -2769,13 +2897,13 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2807,13 +2935,13 @@
         <v>10</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
@@ -2831,14 +2959,14 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2863,22 +2991,22 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="9" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="Y24" s="10">
         <v>1</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
@@ -2894,11 +3022,11 @@
         <v>31</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="17" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2924,14 +3052,14 @@
       <c r="V25" s="4"/>
       <c r="W25" s="13"/>
       <c r="X25" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y25" s="10">
         <v>0</v>
       </c>
       <c r="Z25" s="11"/>
       <c r="AA25" s="12" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
@@ -2948,11 +3076,11 @@
         <v>31</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="17" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2978,14 +3106,14 @@
       <c r="V26" s="4"/>
       <c r="W26" s="13"/>
       <c r="X26" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y26" s="10">
         <v>0</v>
       </c>
       <c r="Z26" s="11"/>
       <c r="AA26" s="12" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -2999,14 +3127,14 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3031,22 +3159,22 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="9" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Y27" s="10">
         <v>0</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA27" s="12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
@@ -3062,11 +3190,11 @@
         <v>31</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3092,14 +3220,14 @@
       <c r="V28" s="4"/>
       <c r="W28" s="13"/>
       <c r="X28" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y28" s="10">
         <v>0</v>
       </c>
       <c r="Z28" s="11"/>
       <c r="AA28" s="12" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
@@ -3116,13 +3244,15 @@
         <v>31</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3146,17 +3276,17 @@
       <c r="V29" s="4"/>
       <c r="W29" s="13"/>
       <c r="X29" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y29" s="14">
         <v>0</v>
       </c>
       <c r="Z29" s="3"/>
       <c r="AA29" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
@@ -3172,13 +3302,15 @@
         <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3202,14 +3334,14 @@
       <c r="V30" s="4"/>
       <c r="W30" s="13"/>
       <c r="X30" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y30" s="14">
         <v>0</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AA30" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
@@ -3226,13 +3358,15 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -3256,14 +3390,14 @@
       <c r="V31" s="4"/>
       <c r="W31" s="13"/>
       <c r="X31" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y31" s="14">
         <v>0</v>
       </c>
       <c r="Z31" s="3"/>
       <c r="AA31" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
@@ -3280,13 +3414,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -3310,14 +3446,14 @@
       <c r="V32" s="4"/>
       <c r="W32" s="9"/>
       <c r="X32" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y32" s="14">
         <v>0</v>
       </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
@@ -3334,13 +3470,15 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3364,14 +3502,14 @@
       <c r="V33" s="4"/>
       <c r="W33" s="9"/>
       <c r="X33" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y33" s="14">
         <v>0</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AA33" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
@@ -3388,13 +3526,15 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3418,14 +3558,14 @@
       <c r="V34" s="4"/>
       <c r="W34" s="13"/>
       <c r="X34" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y34" s="14">
         <v>0</v>
       </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
@@ -3442,13 +3582,15 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3472,14 +3614,14 @@
       <c r="V35" s="4"/>
       <c r="W35" s="13"/>
       <c r="X35" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y35" s="14">
         <v>0</v>
       </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
@@ -3496,13 +3638,15 @@
         <v>31</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3526,14 +3670,14 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y36" s="14">
         <v>0</v>
       </c>
       <c r="Z36" s="3"/>
       <c r="AA36" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
@@ -3550,13 +3694,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3580,14 +3726,14 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y37" s="14">
         <v>0</v>
       </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
@@ -3604,13 +3750,15 @@
         <v>31</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3634,14 +3782,14 @@
       <c r="V38" s="4"/>
       <c r="W38" s="13"/>
       <c r="X38" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y38" s="14">
         <v>0</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
@@ -3658,13 +3806,15 @@
         <v>31</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3688,14 +3838,14 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y39" s="14">
         <v>0</v>
       </c>
       <c r="Z39" s="3"/>
       <c r="AA39" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
@@ -3712,13 +3862,15 @@
         <v>31</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3742,14 +3894,14 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y40" s="14">
         <v>0</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AA40" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -3766,13 +3918,15 @@
         <v>31</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -3796,14 +3950,14 @@
       <c r="V41" s="4"/>
       <c r="W41" s="13"/>
       <c r="X41" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y41" s="14">
         <v>0</v>
       </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
@@ -3820,13 +3974,15 @@
         <v>31</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3850,14 +4006,14 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y42" s="14">
         <v>0</v>
       </c>
       <c r="Z42" s="3"/>
       <c r="AA42" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
@@ -3874,13 +4030,15 @@
         <v>31</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3904,14 +4062,14 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y43" s="14">
         <v>0</v>
       </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
@@ -3928,13 +4086,15 @@
         <v>31</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3958,14 +4118,14 @@
       <c r="V44" s="4"/>
       <c r="W44" s="13"/>
       <c r="X44" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y44" s="14">
         <v>0</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -3982,15 +4142,21 @@
         <v>31</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="9"/>
@@ -4012,14 +4178,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y45" s="14">
         <v>0</v>
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -4036,11 +4202,11 @@
         <v>31</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -4066,14 +4232,14 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y46" s="14">
         <v>0</v>
       </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="15" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -4090,15 +4256,21 @@
         <v>31</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="9"/>
@@ -4120,14 +4292,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y47" s="14">
         <v>0</v>
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -4144,15 +4316,21 @@
         <v>31</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="9"/>
@@ -4174,17 +4352,17 @@
       <c r="V48" s="4"/>
       <c r="W48" s="13"/>
       <c r="X48" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y48" s="14">
         <v>0</v>
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="15" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="AB48" s="5" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
@@ -4200,15 +4378,21 @@
         <v>31</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="9"/>
@@ -4230,14 +4414,14 @@
       <c r="V49" s="4"/>
       <c r="W49" s="13"/>
       <c r="X49" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y49" s="14">
         <v>0</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AA49" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
@@ -4254,15 +4438,21 @@
         <v>31</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="9"/>
@@ -4284,14 +4474,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="13"/>
       <c r="X50" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y50" s="14">
         <v>0</v>
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -4308,15 +4498,21 @@
         <v>31</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="9"/>
@@ -4338,17 +4534,17 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y51" s="14">
         <v>0</v>
       </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="15" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -4364,15 +4560,21 @@
         <v>31</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="9"/>
@@ -4394,14 +4596,14 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y52" s="14">
         <v>0</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -4418,13 +4620,15 @@
         <v>31</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4448,14 +4652,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y53" s="14">
         <v>0</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AA53" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -4472,13 +4676,15 @@
         <v>31</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4502,14 +4708,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="13"/>
       <c r="X54" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y54" s="14">
         <v>0</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -4526,13 +4732,15 @@
         <v>31</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -4556,17 +4764,17 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y55" s="14">
         <v>0</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="15" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
@@ -4582,13 +4790,15 @@
         <v>31</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4612,17 +4822,17 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y56" s="14">
         <v>0</v>
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="15" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -4638,13 +4848,15 @@
         <v>31</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4668,14 +4880,14 @@
       <c r="V57" s="4"/>
       <c r="W57" s="13"/>
       <c r="X57" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y57" s="14">
         <v>0</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AA57" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -4692,13 +4904,15 @@
         <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4722,14 +4936,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y58" s="14">
         <v>0</v>
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
@@ -4746,13 +4960,15 @@
         <v>31</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4776,14 +4992,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="13"/>
       <c r="X59" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y59" s="14">
         <v>0</v>
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -4800,15 +5016,21 @@
         <v>31</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="9"/>
@@ -4830,14 +5052,14 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y60" s="14">
         <v>0</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
@@ -4854,15 +5076,21 @@
         <v>31</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="9"/>
@@ -4884,14 +5112,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y61" s="14">
         <v>0</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -4908,15 +5136,21 @@
         <v>31</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="9"/>
@@ -4938,14 +5172,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y62" s="14">
         <v>0</v>
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -4962,15 +5196,21 @@
         <v>31</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="9"/>
@@ -4992,17 +5232,17 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y63" s="14">
         <v>0</v>
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="15" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="AB63" s="5" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -5018,15 +5258,21 @@
         <v>31</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="9"/>
@@ -5048,14 +5294,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y64" s="14">
         <v>0</v>
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -5072,15 +5318,21 @@
         <v>31</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="9"/>
@@ -5102,14 +5354,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y65" s="14">
         <v>0</v>
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -5126,15 +5378,21 @@
         <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="9"/>
@@ -5156,14 +5414,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y66" s="14">
         <v>0</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
@@ -5180,15 +5438,21 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="9"/>
@@ -5210,14 +5474,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y67" s="14">
         <v>0</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -5234,15 +5498,21 @@
         <v>31</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="9"/>
@@ -5264,17 +5534,17 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y68" s="14">
         <v>0</v>
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="15" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="AB68" s="5" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5290,15 +5560,21 @@
         <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="9"/>
@@ -5320,14 +5596,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y69" s="14">
         <v>0</v>
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
@@ -5344,15 +5620,21 @@
         <v>31</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="9"/>
@@ -5374,17 +5656,17 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y70" s="14">
         <v>0</v>
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="15" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -5400,15 +5682,21 @@
         <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="9"/>
@@ -5430,14 +5718,14 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y71" s="14">
         <v>0</v>
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -5454,13 +5742,15 @@
         <v>31</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -5484,14 +5774,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y72" s="14">
         <v>0</v>
       </c>
       <c r="Z72" s="3"/>
       <c r="AA72" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
@@ -5508,13 +5798,15 @@
         <v>31</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -5538,14 +5830,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y73" s="14">
         <v>0</v>
       </c>
       <c r="Z73" s="3"/>
       <c r="AA73" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
@@ -5562,13 +5854,15 @@
         <v>31</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -5592,14 +5886,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y74" s="14">
         <v>0</v>
       </c>
       <c r="Z74" s="3"/>
       <c r="AA74" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
@@ -5616,13 +5910,15 @@
         <v>31</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -5646,14 +5942,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y75" s="14">
         <v>0</v>
       </c>
       <c r="Z75" s="3"/>
       <c r="AA75" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
@@ -5670,13 +5966,15 @@
         <v>31</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -5700,14 +5998,14 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y76" s="14">
         <v>0</v>
       </c>
       <c r="Z76" s="3"/>
       <c r="AA76" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
@@ -5724,13 +6022,15 @@
         <v>31</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -5754,14 +6054,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y77" s="14">
         <v>0</v>
       </c>
       <c r="Z77" s="3"/>
       <c r="AA77" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
@@ -5778,15 +6078,21 @@
         <v>31</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="9"/>
@@ -5808,14 +6114,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y78" s="14">
         <v>0</v>
       </c>
       <c r="Z78" s="3"/>
       <c r="AA78" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
@@ -5832,15 +6138,21 @@
         <v>31</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="9"/>
@@ -5862,14 +6174,14 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y79" s="14">
         <v>0</v>
       </c>
       <c r="Z79" s="3"/>
       <c r="AA79" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
@@ -5886,15 +6198,21 @@
         <v>31</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="9"/>
@@ -5916,14 +6234,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y80" s="14">
         <v>0</v>
       </c>
       <c r="Z80" s="3"/>
       <c r="AA80" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
@@ -5940,15 +6258,21 @@
         <v>31</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="9"/>
@@ -5970,17 +6294,17 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y81" s="14">
         <v>0</v>
       </c>
       <c r="Z81" s="3"/>
       <c r="AA81" s="15" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="AB81" s="5" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
@@ -5996,15 +6320,21 @@
         <v>31</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="9"/>
@@ -6026,14 +6356,14 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y82" s="14">
         <v>0</v>
       </c>
       <c r="Z82" s="3"/>
       <c r="AA82" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
@@ -6050,15 +6380,21 @@
         <v>31</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="9"/>
@@ -6080,14 +6416,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y83" s="14">
         <v>0</v>
       </c>
       <c r="Z83" s="3"/>
       <c r="AA83" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
@@ -6104,15 +6440,21 @@
         <v>31</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="9"/>
@@ -6134,17 +6476,17 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y84" s="14">
         <v>0</v>
       </c>
       <c r="Z84" s="3"/>
       <c r="AA84" s="15" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
@@ -6160,15 +6502,21 @@
         <v>31</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="9"/>
@@ -6190,14 +6538,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y85" s="14">
         <v>0</v>
       </c>
       <c r="Z85" s="3"/>
       <c r="AA85" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
@@ -6214,15 +6562,21 @@
         <v>31</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="9"/>
@@ -6244,14 +6598,14 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y86" s="14">
         <v>0</v>
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
@@ -6268,15 +6622,21 @@
         <v>31</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="9"/>
@@ -6298,14 +6658,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y87" s="14">
         <v>0</v>
       </c>
       <c r="Z87" s="3"/>
       <c r="AA87" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
@@ -6322,15 +6682,21 @@
         <v>31</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="9"/>
@@ -6352,14 +6718,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y88" s="14">
         <v>0</v>
       </c>
       <c r="Z88" s="3"/>
       <c r="AA88" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB88" s="16"/>
       <c r="AC88" s="5"/>
@@ -6376,15 +6742,21 @@
         <v>31</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="9"/>
@@ -6406,17 +6778,17 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y89" s="14">
         <v>0</v>
       </c>
       <c r="Z89" s="3"/>
       <c r="AA89" s="15" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="AB89" s="18" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
@@ -6432,15 +6804,21 @@
         <v>31</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="9"/>
@@ -6462,14 +6840,14 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y90" s="14">
         <v>0</v>
       </c>
       <c r="Z90" s="3"/>
       <c r="AA90" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB90" s="16"/>
       <c r="AC90" s="5"/>
@@ -6486,13 +6864,15 @@
         <v>31</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E91" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -6516,14 +6896,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y91" s="14">
         <v>0</v>
       </c>
       <c r="Z91" s="3"/>
       <c r="AA91" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AB91" s="16"/>
       <c r="AC91" s="5"/>
@@ -6540,11 +6920,11 @@
         <v>31</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -6570,14 +6950,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y92" s="14">
         <v>0</v>
       </c>
       <c r="Z92" s="3"/>
       <c r="AA92" s="15" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AB92" s="16"/>
       <c r="AC92" s="5"/>
@@ -6594,11 +6974,11 @@
         <v>31</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -6624,14 +7004,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y93" s="14">
         <v>0</v>
       </c>
       <c r="Z93" s="3"/>
       <c r="AA93" s="15" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AB93" s="16"/>
       <c r="AC93" s="5"/>
@@ -6648,11 +7028,11 @@
         <v>31</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -6678,14 +7058,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y94" s="14">
         <v>0</v>
       </c>
       <c r="Z94" s="3"/>
       <c r="AA94" s="15" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AB94" s="16"/>
       <c r="AC94" s="5"/>
@@ -6702,11 +7082,11 @@
         <v>31</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -6732,14 +7112,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y95" s="14">
         <v>0</v>
       </c>
       <c r="Z95" s="3"/>
       <c r="AA95" s="15" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AB95" s="16"/>
       <c r="AC95" s="5"/>
@@ -6753,14 +7133,14 @@
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="4" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="17" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -6789,7 +7169,7 @@
       <c r="Y96" s="10"/>
       <c r="Z96" s="11"/>
       <c r="AA96" s="19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AB96" s="16"/>
       <c r="AC96" s="5"/>
@@ -6803,14 +7183,14 @@
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="4" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="17" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -6839,7 +7219,7 @@
       <c r="Y97" s="10"/>
       <c r="Z97" s="11"/>
       <c r="AA97" s="19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AB97" s="16"/>
       <c r="AC97" s="5"/>
@@ -6853,14 +7233,14 @@
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="4" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="17" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -6889,7 +7269,7 @@
       <c r="Y98" s="10"/>
       <c r="Z98" s="11"/>
       <c r="AA98" s="19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AB98" s="16"/>
       <c r="AC98" s="5"/>
@@ -6903,14 +7283,14 @@
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="4" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="17" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -6939,7 +7319,7 @@
       <c r="Y99" s="10"/>
       <c r="Z99" s="11"/>
       <c r="AA99" s="19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AB99" s="16"/>
       <c r="AC99" s="5"/>
@@ -6953,14 +7333,14 @@
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="4" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="17" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -6989,7 +7369,7 @@
       <c r="Y100" s="10"/>
       <c r="Z100" s="11"/>
       <c r="AA100" s="19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AB100" s="16"/>
       <c r="AC100" s="5"/>
@@ -7003,14 +7383,14 @@
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="4" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="17" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -7039,7 +7419,7 @@
       <c r="Y101" s="10"/>
       <c r="Z101" s="11"/>
       <c r="AA101" s="19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AB101" s="16"/>
       <c r="AC101" s="5"/>
@@ -7053,14 +7433,14 @@
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="4" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="17" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -7089,7 +7469,7 @@
       <c r="Y102" s="10"/>
       <c r="Z102" s="11"/>
       <c r="AA102" s="19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AB102" s="16"/>
       <c r="AC102" s="5"/>
@@ -7103,14 +7483,14 @@
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="4" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="17" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -7139,7 +7519,7 @@
       <c r="Y103" s="10"/>
       <c r="Z103" s="11"/>
       <c r="AA103" s="19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AB103" s="16"/>
       <c r="AC103" s="5"/>
@@ -7153,14 +7533,14 @@
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="4" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="17" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -7189,7 +7569,7 @@
       <c r="Y104" s="10"/>
       <c r="Z104" s="11"/>
       <c r="AA104" s="19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AB104" s="16"/>
       <c r="AC104" s="5"/>
@@ -7473,35 +7853,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7534,21 +7914,21 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
+++ b/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11A3AC9-8D37-4AF3-8F46-FB525D27A538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6922CE-C87C-47CA-89E6-DDE5EDC70218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="4035" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="4740" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH59_西赤山駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="259">
   <si>
     <t>Type</t>
   </si>
@@ -795,6 +795,9 @@
     <t>物理鍵てこ</t>
   </si>
   <si>
+    <t>TH59_81</t>
+  </si>
+  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -816,6 +819,9 @@
     <t>解放99</t>
   </si>
   <si>
+    <t>TH59_99</t>
+  </si>
+  <si>
     <t>0,1,10,11</t>
   </si>
   <si>
@@ -1155,15 +1161,27 @@
     <t>停電_R</t>
   </si>
   <si>
+    <t>TH59_PWR-FAILURE</t>
+  </si>
+  <si>
     <t>CTC故障_R</t>
   </si>
   <si>
+    <t>TH59_CTC-FAILURE</t>
+  </si>
+  <si>
     <t>鎖錠60秒_R</t>
   </si>
   <si>
+    <t>TH59_60TEK</t>
+  </si>
+  <si>
     <t>鎖錠30秒_R</t>
   </si>
   <si>
+    <t>TH59_30TEK</t>
+  </si>
+  <si>
     <t>Retsuban</t>
   </si>
   <si>
@@ -1173,31 +1191,58 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH59_TTC_Up2</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番西赤山上り第1接近</t>
   </si>
   <si>
+    <t>TH59_TTC_Up1</t>
+  </si>
+  <si>
     <t>列番西赤山1番線</t>
   </si>
   <si>
+    <t>TH59_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番西赤山2番線</t>
   </si>
   <si>
+    <t>TH59_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番西赤山下り第1接近</t>
   </si>
   <si>
+    <t>TH59_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番西赤山下り第2接近</t>
   </si>
   <si>
+    <t>TH59_TTC_Down2</t>
+  </si>
+  <si>
     <t>列番赤山町1番線</t>
   </si>
   <si>
+    <t>TH58_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番赤山町2番線</t>
   </si>
   <si>
+    <t>TH58_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番赤山町3番線</t>
+  </si>
+  <si>
+    <t>TH58_TTC_Track3</t>
   </si>
   <si>
     <t>Button</t>
@@ -2968,7 +3013,9 @@
       <c r="D24" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="9"/>
@@ -2994,7 +3041,7 @@
         <v>103</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y24" s="10">
         <v>1</v>
@@ -3003,10 +3050,10 @@
         <v>78</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
@@ -3022,13 +3069,15 @@
         <v>31</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3076,13 +3125,15 @@
         <v>31</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3130,13 +3181,15 @@
         <v>102</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="9"/>
@@ -3159,10 +3212,10 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y27" s="10">
         <v>0</v>
@@ -3171,10 +3224,10 @@
         <v>45</v>
       </c>
       <c r="AA27" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
@@ -3190,13 +3243,15 @@
         <v>31</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3244,14 +3299,14 @@
         <v>31</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -3276,17 +3331,17 @@
       <c r="V29" s="4"/>
       <c r="W29" s="13"/>
       <c r="X29" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y29" s="14">
         <v>0</v>
       </c>
       <c r="Z29" s="3"/>
       <c r="AA29" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
@@ -3302,14 +3357,14 @@
         <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3334,14 +3389,14 @@
       <c r="V30" s="4"/>
       <c r="W30" s="13"/>
       <c r="X30" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y30" s="14">
         <v>0</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AA30" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
@@ -3358,14 +3413,14 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -3390,14 +3445,14 @@
       <c r="V31" s="4"/>
       <c r="W31" s="13"/>
       <c r="X31" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y31" s="14">
         <v>0</v>
       </c>
       <c r="Z31" s="3"/>
       <c r="AA31" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
@@ -3414,14 +3469,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -3446,14 +3501,14 @@
       <c r="V32" s="4"/>
       <c r="W32" s="9"/>
       <c r="X32" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y32" s="14">
         <v>0</v>
       </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
@@ -3470,14 +3525,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -3502,14 +3557,14 @@
       <c r="V33" s="4"/>
       <c r="W33" s="9"/>
       <c r="X33" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y33" s="14">
         <v>0</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AA33" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
@@ -3526,14 +3581,14 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -3558,14 +3613,14 @@
       <c r="V34" s="4"/>
       <c r="W34" s="13"/>
       <c r="X34" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y34" s="14">
         <v>0</v>
       </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
@@ -3582,14 +3637,14 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -3614,14 +3669,14 @@
       <c r="V35" s="4"/>
       <c r="W35" s="13"/>
       <c r="X35" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y35" s="14">
         <v>0</v>
       </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
@@ -3638,14 +3693,14 @@
         <v>31</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -3670,14 +3725,14 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y36" s="14">
         <v>0</v>
       </c>
       <c r="Z36" s="3"/>
       <c r="AA36" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
@@ -3694,14 +3749,14 @@
         <v>31</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -3726,14 +3781,14 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y37" s="14">
         <v>0</v>
       </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
@@ -3750,14 +3805,14 @@
         <v>31</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -3782,14 +3837,14 @@
       <c r="V38" s="4"/>
       <c r="W38" s="13"/>
       <c r="X38" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y38" s="14">
         <v>0</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
@@ -3806,14 +3861,14 @@
         <v>31</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -3838,14 +3893,14 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y39" s="14">
         <v>0</v>
       </c>
       <c r="Z39" s="3"/>
       <c r="AA39" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
@@ -3862,14 +3917,14 @@
         <v>31</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3894,14 +3949,14 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y40" s="14">
         <v>0</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AA40" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -3918,14 +3973,14 @@
         <v>31</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3950,14 +4005,14 @@
       <c r="V41" s="4"/>
       <c r="W41" s="13"/>
       <c r="X41" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y41" s="14">
         <v>0</v>
       </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
@@ -3974,14 +4029,14 @@
         <v>31</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -4006,14 +4061,14 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y42" s="14">
         <v>0</v>
       </c>
       <c r="Z42" s="3"/>
       <c r="AA42" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
@@ -4030,14 +4085,14 @@
         <v>31</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -4062,14 +4117,14 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y43" s="14">
         <v>0</v>
       </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
@@ -4086,14 +4141,14 @@
         <v>31</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -4118,14 +4173,14 @@
       <c r="V44" s="4"/>
       <c r="W44" s="13"/>
       <c r="X44" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y44" s="14">
         <v>0</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -4142,14 +4197,14 @@
         <v>31</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>95</v>
@@ -4178,14 +4233,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y45" s="14">
         <v>0</v>
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -4202,11 +4257,11 @@
         <v>31</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -4239,7 +4294,7 @@
       </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -4256,14 +4311,14 @@
         <v>31</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>95</v>
@@ -4292,14 +4347,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y47" s="14">
         <v>0</v>
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -4316,14 +4371,14 @@
         <v>31</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>95</v>
@@ -4352,17 +4407,17 @@
       <c r="V48" s="4"/>
       <c r="W48" s="13"/>
       <c r="X48" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y48" s="14">
         <v>0</v>
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AB48" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
@@ -4378,14 +4433,14 @@
         <v>31</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>95</v>
@@ -4414,14 +4469,14 @@
       <c r="V49" s="4"/>
       <c r="W49" s="13"/>
       <c r="X49" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y49" s="14">
         <v>0</v>
       </c>
       <c r="Z49" s="3"/>
       <c r="AA49" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
@@ -4438,14 +4493,14 @@
         <v>31</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>95</v>
@@ -4474,14 +4529,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="13"/>
       <c r="X50" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y50" s="14">
         <v>0</v>
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -4498,14 +4553,14 @@
         <v>31</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>95</v>
@@ -4534,17 +4589,17 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y51" s="14">
         <v>0</v>
       </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -4560,14 +4615,14 @@
         <v>31</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>95</v>
@@ -4596,14 +4651,14 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y52" s="14">
         <v>0</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -4620,14 +4675,14 @@
         <v>31</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -4652,14 +4707,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y53" s="14">
         <v>0</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AA53" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -4676,14 +4731,14 @@
         <v>31</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -4708,14 +4763,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="13"/>
       <c r="X54" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y54" s="14">
         <v>0</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -4732,14 +4787,14 @@
         <v>31</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -4764,17 +4819,17 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y55" s="14">
         <v>0</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
@@ -4790,14 +4845,14 @@
         <v>31</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -4822,17 +4877,17 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y56" s="14">
         <v>0</v>
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -4848,14 +4903,14 @@
         <v>31</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -4880,14 +4935,14 @@
       <c r="V57" s="4"/>
       <c r="W57" s="13"/>
       <c r="X57" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y57" s="14">
         <v>0</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AA57" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -4904,14 +4959,14 @@
         <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -4936,14 +4991,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y58" s="14">
         <v>0</v>
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
@@ -4960,14 +5015,14 @@
         <v>31</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -4992,14 +5047,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="13"/>
       <c r="X59" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y59" s="14">
         <v>0</v>
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -5016,17 +5071,17 @@
         <v>31</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>96</v>
@@ -5052,14 +5107,14 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y60" s="14">
         <v>0</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
@@ -5076,17 +5131,17 @@
         <v>31</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>96</v>
@@ -5112,14 +5167,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y61" s="14">
         <v>0</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -5136,17 +5191,17 @@
         <v>31</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>99</v>
@@ -5172,14 +5227,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y62" s="14">
         <v>0</v>
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -5196,17 +5251,17 @@
         <v>31</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>99</v>
@@ -5232,17 +5287,17 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y63" s="14">
         <v>0</v>
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB63" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -5258,17 +5313,17 @@
         <v>31</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>99</v>
@@ -5294,14 +5349,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y64" s="14">
         <v>0</v>
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -5318,17 +5373,17 @@
         <v>31</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>96</v>
@@ -5354,14 +5409,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y65" s="14">
         <v>0</v>
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -5378,17 +5433,17 @@
         <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>96</v>
@@ -5414,14 +5469,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y66" s="14">
         <v>0</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
@@ -5438,17 +5493,17 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>99</v>
@@ -5474,14 +5529,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y67" s="14">
         <v>0</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -5498,17 +5553,17 @@
         <v>31</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>99</v>
@@ -5534,17 +5589,17 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y68" s="14">
         <v>0</v>
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB68" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5560,17 +5615,17 @@
         <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>96</v>
@@ -5596,14 +5651,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y69" s="14">
         <v>0</v>
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
@@ -5620,17 +5675,17 @@
         <v>31</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>99</v>
@@ -5656,17 +5711,17 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y70" s="14">
         <v>0</v>
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -5682,17 +5737,17 @@
         <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>99</v>
@@ -5718,14 +5773,14 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y71" s="14">
         <v>0</v>
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -5742,14 +5797,14 @@
         <v>31</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -5774,14 +5829,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y72" s="14">
         <v>0</v>
       </c>
       <c r="Z72" s="3"/>
       <c r="AA72" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
@@ -5798,14 +5853,14 @@
         <v>31</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -5830,14 +5885,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y73" s="14">
         <v>0</v>
       </c>
       <c r="Z73" s="3"/>
       <c r="AA73" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
@@ -5854,14 +5909,14 @@
         <v>31</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -5886,14 +5941,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y74" s="14">
         <v>0</v>
       </c>
       <c r="Z74" s="3"/>
       <c r="AA74" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
@@ -5910,14 +5965,14 @@
         <v>31</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -5942,14 +5997,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y75" s="14">
         <v>0</v>
       </c>
       <c r="Z75" s="3"/>
       <c r="AA75" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
@@ -5966,14 +6021,14 @@
         <v>31</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -5998,14 +6053,14 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y76" s="14">
         <v>0</v>
       </c>
       <c r="Z76" s="3"/>
       <c r="AA76" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
@@ -6022,14 +6077,14 @@
         <v>31</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6054,14 +6109,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y77" s="14">
         <v>0</v>
       </c>
       <c r="Z77" s="3"/>
       <c r="AA77" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
@@ -6078,17 +6133,17 @@
         <v>31</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>96</v>
@@ -6114,14 +6169,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y78" s="14">
         <v>0</v>
       </c>
       <c r="Z78" s="3"/>
       <c r="AA78" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
@@ -6138,17 +6193,17 @@
         <v>31</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>96</v>
@@ -6174,14 +6229,14 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y79" s="14">
         <v>0</v>
       </c>
       <c r="Z79" s="3"/>
       <c r="AA79" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
@@ -6198,17 +6253,17 @@
         <v>31</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>99</v>
@@ -6234,14 +6289,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y80" s="14">
         <v>0</v>
       </c>
       <c r="Z80" s="3"/>
       <c r="AA80" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
@@ -6258,17 +6313,17 @@
         <v>31</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>99</v>
@@ -6294,17 +6349,17 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y81" s="14">
         <v>0</v>
       </c>
       <c r="Z81" s="3"/>
       <c r="AA81" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB81" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
@@ -6320,17 +6375,17 @@
         <v>31</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>96</v>
@@ -6356,14 +6411,14 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y82" s="14">
         <v>0</v>
       </c>
       <c r="Z82" s="3"/>
       <c r="AA82" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
@@ -6380,17 +6435,17 @@
         <v>31</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>96</v>
@@ -6416,14 +6471,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y83" s="14">
         <v>0</v>
       </c>
       <c r="Z83" s="3"/>
       <c r="AA83" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
@@ -6440,17 +6495,17 @@
         <v>31</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>99</v>
@@ -6476,17 +6531,17 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y84" s="14">
         <v>0</v>
       </c>
       <c r="Z84" s="3"/>
       <c r="AA84" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
@@ -6502,17 +6557,17 @@
         <v>31</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>99</v>
@@ -6538,14 +6593,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y85" s="14">
         <v>0</v>
       </c>
       <c r="Z85" s="3"/>
       <c r="AA85" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
@@ -6562,17 +6617,17 @@
         <v>31</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>96</v>
@@ -6598,14 +6653,14 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y86" s="14">
         <v>0</v>
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
@@ -6622,17 +6677,17 @@
         <v>31</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>96</v>
@@ -6658,14 +6713,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y87" s="14">
         <v>0</v>
       </c>
       <c r="Z87" s="3"/>
       <c r="AA87" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
@@ -6682,17 +6737,17 @@
         <v>31</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>99</v>
@@ -6718,14 +6773,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y88" s="14">
         <v>0</v>
       </c>
       <c r="Z88" s="3"/>
       <c r="AA88" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB88" s="16"/>
       <c r="AC88" s="5"/>
@@ -6742,17 +6797,17 @@
         <v>31</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>99</v>
@@ -6778,17 +6833,17 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y89" s="14">
         <v>0</v>
       </c>
       <c r="Z89" s="3"/>
       <c r="AA89" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB89" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
@@ -6804,17 +6859,17 @@
         <v>31</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>99</v>
@@ -6840,14 +6895,14 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y90" s="14">
         <v>0</v>
       </c>
       <c r="Z90" s="3"/>
       <c r="AA90" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB90" s="16"/>
       <c r="AC90" s="5"/>
@@ -6864,14 +6919,14 @@
         <v>31</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -6896,14 +6951,14 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y91" s="14">
         <v>0</v>
       </c>
       <c r="Z91" s="3"/>
       <c r="AA91" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB91" s="16"/>
       <c r="AC91" s="5"/>
@@ -6920,13 +6975,15 @@
         <v>31</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>227</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -6957,7 +7014,7 @@
       </c>
       <c r="Z92" s="3"/>
       <c r="AA92" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB92" s="16"/>
       <c r="AC92" s="5"/>
@@ -6974,13 +7031,15 @@
         <v>31</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>229</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -7011,7 +7070,7 @@
       </c>
       <c r="Z93" s="3"/>
       <c r="AA93" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB93" s="16"/>
       <c r="AC93" s="5"/>
@@ -7028,13 +7087,15 @@
         <v>31</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E94" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>231</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -7065,7 +7126,7 @@
       </c>
       <c r="Z94" s="3"/>
       <c r="AA94" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB94" s="16"/>
       <c r="AC94" s="5"/>
@@ -7082,13 +7143,15 @@
         <v>31</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E95" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>233</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -7119,7 +7182,7 @@
       </c>
       <c r="Z95" s="3"/>
       <c r="AA95" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB95" s="16"/>
       <c r="AC95" s="5"/>
@@ -7133,16 +7196,18 @@
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E96" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>237</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -7169,7 +7234,7 @@
       <c r="Y96" s="10"/>
       <c r="Z96" s="11"/>
       <c r="AA96" s="19" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB96" s="16"/>
       <c r="AC96" s="5"/>
@@ -7183,16 +7248,18 @@
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E97" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -7219,7 +7286,7 @@
       <c r="Y97" s="10"/>
       <c r="Z97" s="11"/>
       <c r="AA97" s="19" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB97" s="16"/>
       <c r="AC97" s="5"/>
@@ -7233,16 +7300,18 @@
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E98" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -7269,7 +7338,7 @@
       <c r="Y98" s="10"/>
       <c r="Z98" s="11"/>
       <c r="AA98" s="19" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB98" s="16"/>
       <c r="AC98" s="5"/>
@@ -7283,16 +7352,18 @@
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E99" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>244</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -7319,7 +7390,7 @@
       <c r="Y99" s="10"/>
       <c r="Z99" s="11"/>
       <c r="AA99" s="19" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB99" s="16"/>
       <c r="AC99" s="5"/>
@@ -7333,16 +7404,18 @@
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E100" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -7369,7 +7442,7 @@
       <c r="Y100" s="10"/>
       <c r="Z100" s="11"/>
       <c r="AA100" s="19" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB100" s="16"/>
       <c r="AC100" s="5"/>
@@ -7383,16 +7456,18 @@
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E101" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>248</v>
+      </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -7419,7 +7494,7 @@
       <c r="Y101" s="10"/>
       <c r="Z101" s="11"/>
       <c r="AA101" s="19" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB101" s="16"/>
       <c r="AC101" s="5"/>
@@ -7433,16 +7508,18 @@
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E102" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -7469,7 +7546,7 @@
       <c r="Y102" s="10"/>
       <c r="Z102" s="11"/>
       <c r="AA102" s="19" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB102" s="16"/>
       <c r="AC102" s="5"/>
@@ -7483,16 +7560,18 @@
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E103" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>252</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -7519,7 +7598,7 @@
       <c r="Y103" s="10"/>
       <c r="Z103" s="11"/>
       <c r="AA103" s="19" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB103" s="16"/>
       <c r="AC103" s="5"/>
@@ -7533,16 +7612,18 @@
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E104" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -7569,7 +7650,7 @@
       <c r="Y104" s="10"/>
       <c r="Z104" s="11"/>
       <c r="AA104" s="19" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB104" s="16"/>
       <c r="AC104" s="5"/>
@@ -7853,18 +7934,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>99</v>
@@ -7878,7 +7959,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>99</v>
@@ -7928,7 +8009,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
+++ b/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6922CE-C87C-47CA-89E6-DDE5EDC70218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1357BD95-0C6D-4782-B48D-7E48DDEE42E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="4740" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="3090" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH59_西赤山駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="260">
   <si>
     <t>Type</t>
   </si>
@@ -978,6 +978,12 @@
     <t>方向てこ表示灯</t>
   </si>
   <si>
+    <t>TH59_14F</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Image/Light/AlN.png,Image/Light/AlY.png,Image/Light/AlR.png</t>
   </si>
   <si>
@@ -1246,9 +1252,6 @@
   </si>
   <si>
     <t>Button</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>Label</t>
@@ -4800,8 +4803,12 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="J55" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="L55" s="9">
         <v>885</v>
       </c>
@@ -4826,10 +4833,10 @@
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
@@ -4845,7 +4852,7 @@
         <v>31</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
@@ -4858,8 +4865,12 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="J56" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="L56" s="9">
         <v>885</v>
       </c>
@@ -4884,10 +4895,10 @@
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -4903,14 +4914,14 @@
         <v>31</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -4959,14 +4970,14 @@
         <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -5015,14 +5026,14 @@
         <v>31</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -5071,17 +5082,17 @@
         <v>31</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>96</v>
@@ -5131,17 +5142,17 @@
         <v>31</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>96</v>
@@ -5191,17 +5202,17 @@
         <v>31</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>99</v>
@@ -5251,17 +5262,17 @@
         <v>31</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>99</v>
@@ -5294,10 +5305,10 @@
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AB63" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -5313,17 +5324,17 @@
         <v>31</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>99</v>
@@ -5373,17 +5384,17 @@
         <v>31</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>96</v>
@@ -5433,17 +5444,17 @@
         <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>96</v>
@@ -5493,17 +5504,17 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>99</v>
@@ -5553,17 +5564,17 @@
         <v>31</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>99</v>
@@ -5596,10 +5607,10 @@
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AB68" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5615,17 +5626,17 @@
         <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>96</v>
@@ -5675,17 +5686,17 @@
         <v>31</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>99</v>
@@ -5718,10 +5729,10 @@
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -5737,17 +5748,17 @@
         <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>99</v>
@@ -5797,14 +5808,14 @@
         <v>31</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -5853,14 +5864,14 @@
         <v>31</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -5909,14 +5920,14 @@
         <v>31</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -5965,14 +5976,14 @@
         <v>31</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6021,14 +6032,14 @@
         <v>31</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6077,14 +6088,14 @@
         <v>31</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6133,17 +6144,17 @@
         <v>31</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>96</v>
@@ -6193,17 +6204,17 @@
         <v>31</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>96</v>
@@ -6253,17 +6264,17 @@
         <v>31</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>99</v>
@@ -6313,17 +6324,17 @@
         <v>31</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>99</v>
@@ -6356,10 +6367,10 @@
       </c>
       <c r="Z81" s="3"/>
       <c r="AA81" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AB81" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
@@ -6375,17 +6386,17 @@
         <v>31</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>96</v>
@@ -6435,17 +6446,17 @@
         <v>31</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>96</v>
@@ -6495,17 +6506,17 @@
         <v>31</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>99</v>
@@ -6538,10 +6549,10 @@
       </c>
       <c r="Z84" s="3"/>
       <c r="AA84" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
@@ -6557,17 +6568,17 @@
         <v>31</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>99</v>
@@ -6617,17 +6628,17 @@
         <v>31</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>96</v>
@@ -6677,17 +6688,17 @@
         <v>31</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>96</v>
@@ -6737,17 +6748,17 @@
         <v>31</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>99</v>
@@ -6797,17 +6808,17 @@
         <v>31</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>99</v>
@@ -6840,10 +6851,10 @@
       </c>
       <c r="Z89" s="3"/>
       <c r="AA89" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AB89" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
@@ -6859,17 +6870,17 @@
         <v>31</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>99</v>
@@ -6919,14 +6930,14 @@
         <v>31</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -6975,14 +6986,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -7031,14 +7042,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7087,14 +7098,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7143,14 +7154,14 @@
         <v>31</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7196,17 +7207,17 @@
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7234,7 +7245,7 @@
       <c r="Y96" s="10"/>
       <c r="Z96" s="11"/>
       <c r="AA96" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB96" s="16"/>
       <c r="AC96" s="5"/>
@@ -7248,17 +7259,17 @@
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -7286,7 +7297,7 @@
       <c r="Y97" s="10"/>
       <c r="Z97" s="11"/>
       <c r="AA97" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB97" s="16"/>
       <c r="AC97" s="5"/>
@@ -7300,17 +7311,17 @@
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -7338,7 +7349,7 @@
       <c r="Y98" s="10"/>
       <c r="Z98" s="11"/>
       <c r="AA98" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB98" s="16"/>
       <c r="AC98" s="5"/>
@@ -7352,17 +7363,17 @@
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -7390,7 +7401,7 @@
       <c r="Y99" s="10"/>
       <c r="Z99" s="11"/>
       <c r="AA99" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB99" s="16"/>
       <c r="AC99" s="5"/>
@@ -7404,17 +7415,17 @@
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -7442,7 +7453,7 @@
       <c r="Y100" s="10"/>
       <c r="Z100" s="11"/>
       <c r="AA100" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB100" s="16"/>
       <c r="AC100" s="5"/>
@@ -7456,17 +7467,17 @@
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -7494,7 +7505,7 @@
       <c r="Y101" s="10"/>
       <c r="Z101" s="11"/>
       <c r="AA101" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB101" s="16"/>
       <c r="AC101" s="5"/>
@@ -7508,17 +7519,17 @@
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -7546,7 +7557,7 @@
       <c r="Y102" s="10"/>
       <c r="Z102" s="11"/>
       <c r="AA102" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB102" s="16"/>
       <c r="AC102" s="5"/>
@@ -7560,17 +7571,17 @@
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -7598,7 +7609,7 @@
       <c r="Y103" s="10"/>
       <c r="Z103" s="11"/>
       <c r="AA103" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB103" s="16"/>
       <c r="AC103" s="5"/>
@@ -7612,17 +7623,17 @@
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -7650,7 +7661,7 @@
       <c r="Y104" s="10"/>
       <c r="Z104" s="11"/>
       <c r="AA104" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB104" s="16"/>
       <c r="AC104" s="5"/>
@@ -7934,18 +7945,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>99</v>
@@ -7959,7 +7970,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>99</v>
@@ -8009,7 +8020,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
+++ b/exe/TSV/Excel/TH59_Nishi-Akayama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1357BD95-0C6D-4782-B48D-7E48DDEE42E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D580868-2397-412F-B44B-44B2C0C00893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="3090" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="4740" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH59_西赤山駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="262">
   <si>
     <t>Type</t>
   </si>
@@ -1162,6 +1162,12 @@
   </si>
   <si>
     <t>TH58_9LT</t>
+  </si>
+  <si>
+    <t>転てつ不良_R</t>
+  </si>
+  <si>
+    <t>TH59_W-FAILURE</t>
   </si>
   <si>
     <t>停電_R</t>
@@ -1613,7 +1619,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ110"/>
+  <dimension ref="A1:AJ111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -7002,7 +7008,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M92" s="9">
         <v>45</v>
@@ -7058,7 +7064,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="M93" s="9">
         <v>45</v>
@@ -7114,10 +7120,10 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9">
-        <v>696</v>
+        <v>180</v>
       </c>
       <c r="M94" s="9">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -7170,7 +7176,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="M95" s="9">
         <v>567</v>
@@ -7207,17 +7213,17 @@
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="C96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E96" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7226,10 +7232,10 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9">
-        <v>24</v>
+        <v>734</v>
       </c>
       <c r="M96" s="9">
-        <v>120</v>
+        <v>567</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -7240,12 +7246,16 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
-      <c r="W96" s="10"/>
-      <c r="X96" s="10"/>
-      <c r="Y96" s="10"/>
-      <c r="Z96" s="11"/>
-      <c r="AA96" s="19" t="s">
-        <v>240</v>
+      <c r="W96" s="4"/>
+      <c r="X96" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y96" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="AB96" s="16"/>
       <c r="AC96" s="5"/>
@@ -7259,17 +7269,17 @@
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -7278,7 +7288,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="M97" s="9">
         <v>120</v>
@@ -7297,7 +7307,7 @@
       <c r="Y97" s="10"/>
       <c r="Z97" s="11"/>
       <c r="AA97" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AB97" s="16"/>
       <c r="AC97" s="5"/>
@@ -7311,14 +7321,14 @@
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>244</v>
@@ -7330,10 +7340,10 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9">
-        <v>481</v>
+        <v>174</v>
       </c>
       <c r="M98" s="9">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -7349,7 +7359,7 @@
       <c r="Y98" s="10"/>
       <c r="Z98" s="11"/>
       <c r="AA98" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AB98" s="16"/>
       <c r="AC98" s="5"/>
@@ -7363,14 +7373,14 @@
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>246</v>
@@ -7385,7 +7395,7 @@
         <v>481</v>
       </c>
       <c r="M99" s="9">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -7401,7 +7411,7 @@
       <c r="Y99" s="10"/>
       <c r="Z99" s="11"/>
       <c r="AA99" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AB99" s="16"/>
       <c r="AC99" s="5"/>
@@ -7415,14 +7425,14 @@
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>247</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E100" s="14" t="s">
         <v>248</v>
@@ -7434,10 +7444,10 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9">
-        <v>847</v>
+        <v>481</v>
       </c>
       <c r="M100" s="9">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -7453,7 +7463,7 @@
       <c r="Y100" s="10"/>
       <c r="Z100" s="11"/>
       <c r="AA100" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AB100" s="16"/>
       <c r="AC100" s="5"/>
@@ -7467,14 +7477,14 @@
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>249</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E101" s="14" t="s">
         <v>250</v>
@@ -7486,7 +7496,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9">
-        <v>997</v>
+        <v>847</v>
       </c>
       <c r="M101" s="9">
         <v>440</v>
@@ -7505,7 +7515,7 @@
       <c r="Y101" s="10"/>
       <c r="Z101" s="11"/>
       <c r="AA101" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AB101" s="16"/>
       <c r="AC101" s="5"/>
@@ -7519,14 +7529,14 @@
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>251</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E102" s="14" t="s">
         <v>252</v>
@@ -7538,10 +7548,10 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9">
-        <v>1147</v>
+        <v>997</v>
       </c>
       <c r="M102" s="9">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -7557,7 +7567,7 @@
       <c r="Y102" s="10"/>
       <c r="Z102" s="11"/>
       <c r="AA102" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AB102" s="16"/>
       <c r="AC102" s="5"/>
@@ -7571,14 +7581,14 @@
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>253</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>254</v>
@@ -7593,7 +7603,7 @@
         <v>1147</v>
       </c>
       <c r="M103" s="9">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -7609,7 +7619,7 @@
       <c r="Y103" s="10"/>
       <c r="Z103" s="11"/>
       <c r="AA103" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AB103" s="16"/>
       <c r="AC103" s="5"/>
@@ -7623,14 +7633,14 @@
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B104" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>255</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E104" s="14" t="s">
         <v>256</v>
@@ -7645,7 +7655,7 @@
         <v>1147</v>
       </c>
       <c r="M104" s="9">
-        <v>486</v>
+        <v>440</v>
       </c>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -7656,12 +7666,12 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
-      <c r="W104" s="9"/>
+      <c r="W104" s="10"/>
       <c r="X104" s="10"/>
       <c r="Y104" s="10"/>
       <c r="Z104" s="11"/>
       <c r="AA104" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AB104" s="16"/>
       <c r="AC104" s="5"/>
@@ -7674,19 +7684,31 @@
       <c r="AJ104" s="5"/>
     </row>
     <row r="105" spans="1:36">
-      <c r="A105" s="4"/>
-      <c r="B105" s="13"/>
+      <c r="A105" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="D105" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>258</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9">
+        <v>1147</v>
+      </c>
+      <c r="M105" s="9">
+        <v>486</v>
+      </c>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -7696,11 +7718,13 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
+      <c r="W105" s="9"/>
       <c r="X105" s="10"/>
       <c r="Y105" s="10"/>
       <c r="Z105" s="11"/>
-      <c r="AA105" s="12"/>
+      <c r="AA105" s="19" t="s">
+        <v>242</v>
+      </c>
       <c r="AB105" s="16"/>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
@@ -7901,6 +7925,44 @@
       <c r="AI110" s="5"/>
       <c r="AJ110" s="5"/>
     </row>
+    <row r="111" spans="1:36">
+      <c r="A111" s="4"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="10"/>
+      <c r="Z111" s="11"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="16"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5"/>
+      <c r="AG111" s="5"/>
+      <c r="AH111" s="5"/>
+      <c r="AI111" s="5"/>
+      <c r="AJ111" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7912,19 +7974,19 @@
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G110 I2:I110</xm:sqref>
+          <xm:sqref>G2:G111 I2:I111</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K110</xm:sqref>
+          <xm:sqref>K2:K111</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A110</xm:sqref>
+          <xm:sqref>A2:A111</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7945,7 +8007,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>96</v>
@@ -7956,7 +8018,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>99</v>
@@ -7970,7 +8032,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>99</v>
@@ -8020,7 +8082,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
